--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,90 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Austria Bundesliga</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>LASK Linz</t>
+  </si>
+  <si>
+    <t>Wolfsberger AC</t>
+  </si>
+  <si>
+    <t>Hartberg</t>
+  </si>
+  <si>
+    <t>Wattens</t>
+  </si>
+  <si>
+    <t>Rheindorf Altach</t>
+  </si>
+  <si>
+    <t>Austria Wien</t>
+  </si>
+  <si>
+    <t>Rapid Wien</t>
+  </si>
+  <si>
+    <t>Blau-Weiß Linz</t>
+  </si>
+  <si>
+    <t>Austria Lustenau</t>
+  </si>
+  <si>
+    <t>Austria Klagenfurt</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
+  </si>
+  <si>
+    <t>Sturm Graz</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['3', '50']</t>
+  </si>
+  <si>
+    <t>['21', '48']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['54', '70']</t>
+  </si>
+  <si>
+    <t>['10', '53', '90+7']</t>
+  </si>
+  <si>
+    <t>['34', '48']</t>
+  </si>
+  <si>
+    <t>['9', '38', '60']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +339,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +836,1152 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7002935</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45135.64583333334</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>9</v>
+      </c>
+      <c r="S2">
+        <v>14</v>
+      </c>
+      <c r="T2">
+        <v>2.5</v>
+      </c>
+      <c r="U2">
+        <v>2.3</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <v>1.3</v>
+      </c>
+      <c r="X2">
+        <v>3.4</v>
+      </c>
+      <c r="Y2">
+        <v>2.5</v>
+      </c>
+      <c r="Z2">
+        <v>1.5</v>
+      </c>
+      <c r="AA2">
+        <v>6</v>
+      </c>
+      <c r="AB2">
+        <v>1.13</v>
+      </c>
+      <c r="AC2">
+        <v>2.01</v>
+      </c>
+      <c r="AD2">
+        <v>3.75</v>
+      </c>
+      <c r="AE2">
+        <v>3.15</v>
+      </c>
+      <c r="AF2">
+        <v>1.02</v>
+      </c>
+      <c r="AG2">
+        <v>15</v>
+      </c>
+      <c r="AH2">
+        <v>1.2</v>
+      </c>
+      <c r="AI2">
+        <v>4.5</v>
+      </c>
+      <c r="AJ2">
+        <v>1.73</v>
+      </c>
+      <c r="AK2">
+        <v>2.06</v>
+      </c>
+      <c r="AL2">
+        <v>1.57</v>
+      </c>
+      <c r="AM2">
+        <v>2.25</v>
+      </c>
+      <c r="AN2">
+        <v>1.32</v>
+      </c>
+      <c r="AO2">
+        <v>1.26</v>
+      </c>
+      <c r="AP2">
+        <v>1.75</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>1.69</v>
+      </c>
+      <c r="AY2">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ2">
+        <v>2.61</v>
+      </c>
+      <c r="BA2">
+        <v>1.21</v>
+      </c>
+      <c r="BB2">
+        <v>1.4</v>
+      </c>
+      <c r="BC2">
+        <v>1.67</v>
+      </c>
+      <c r="BD2">
+        <v>2.1</v>
+      </c>
+      <c r="BE2">
+        <v>2.7</v>
+      </c>
+      <c r="BF2">
+        <v>6</v>
+      </c>
+      <c r="BG2">
+        <v>10</v>
+      </c>
+      <c r="BH2">
+        <v>2</v>
+      </c>
+      <c r="BI2">
+        <v>7</v>
+      </c>
+      <c r="BJ2">
+        <v>8</v>
+      </c>
+      <c r="BK2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7002936</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45136.5</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>14</v>
+      </c>
+      <c r="T3">
+        <v>2.88</v>
+      </c>
+      <c r="U3">
+        <v>2.25</v>
+      </c>
+      <c r="V3">
+        <v>3.6</v>
+      </c>
+      <c r="W3">
+        <v>1.36</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>2.63</v>
+      </c>
+      <c r="Z3">
+        <v>1.44</v>
+      </c>
+      <c r="AA3">
+        <v>7</v>
+      </c>
+      <c r="AB3">
+        <v>1.1</v>
+      </c>
+      <c r="AC3">
+        <v>1.81</v>
+      </c>
+      <c r="AD3">
+        <v>3.55</v>
+      </c>
+      <c r="AE3">
+        <v>3.75</v>
+      </c>
+      <c r="AF3">
+        <v>1.04</v>
+      </c>
+      <c r="AG3">
+        <v>12.5</v>
+      </c>
+      <c r="AH3">
+        <v>1.23</v>
+      </c>
+      <c r="AI3">
+        <v>4</v>
+      </c>
+      <c r="AJ3">
+        <v>1.68</v>
+      </c>
+      <c r="AK3">
+        <v>1.99</v>
+      </c>
+      <c r="AL3">
+        <v>1.62</v>
+      </c>
+      <c r="AM3">
+        <v>2.2</v>
+      </c>
+      <c r="AN3">
+        <v>1.37</v>
+      </c>
+      <c r="AO3">
+        <v>1.28</v>
+      </c>
+      <c r="AP3">
+        <v>1.63</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1.85</v>
+      </c>
+      <c r="AY3">
+        <v>8.1</v>
+      </c>
+      <c r="AZ3">
+        <v>2.35</v>
+      </c>
+      <c r="BA3">
+        <v>1.22</v>
+      </c>
+      <c r="BB3">
+        <v>1.41</v>
+      </c>
+      <c r="BC3">
+        <v>1.69</v>
+      </c>
+      <c r="BD3">
+        <v>2.12</v>
+      </c>
+      <c r="BE3">
+        <v>2.75</v>
+      </c>
+      <c r="BF3">
+        <v>6</v>
+      </c>
+      <c r="BG3">
+        <v>3</v>
+      </c>
+      <c r="BH3">
+        <v>4</v>
+      </c>
+      <c r="BI3">
+        <v>5</v>
+      </c>
+      <c r="BJ3">
+        <v>10</v>
+      </c>
+      <c r="BK3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7002937</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45136.5</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>2.4</v>
+      </c>
+      <c r="U4">
+        <v>2.3</v>
+      </c>
+      <c r="V4">
+        <v>4.33</v>
+      </c>
+      <c r="W4">
+        <v>1.33</v>
+      </c>
+      <c r="X4">
+        <v>3.25</v>
+      </c>
+      <c r="Y4">
+        <v>2.63</v>
+      </c>
+      <c r="Z4">
+        <v>1.44</v>
+      </c>
+      <c r="AA4">
+        <v>6.5</v>
+      </c>
+      <c r="AB4">
+        <v>1.11</v>
+      </c>
+      <c r="AC4">
+        <v>1.9</v>
+      </c>
+      <c r="AD4">
+        <v>3.7</v>
+      </c>
+      <c r="AE4">
+        <v>3.5</v>
+      </c>
+      <c r="AF4">
+        <v>1.03</v>
+      </c>
+      <c r="AG4">
+        <v>13</v>
+      </c>
+      <c r="AH4">
+        <v>1.21</v>
+      </c>
+      <c r="AI4">
+        <v>4.25</v>
+      </c>
+      <c r="AJ4">
+        <v>1.79</v>
+      </c>
+      <c r="AK4">
+        <v>1.85</v>
+      </c>
+      <c r="AL4">
+        <v>1.67</v>
+      </c>
+      <c r="AM4">
+        <v>2.1</v>
+      </c>
+      <c r="AN4">
+        <v>1.26</v>
+      </c>
+      <c r="AO4">
+        <v>1.26</v>
+      </c>
+      <c r="AP4">
+        <v>1.85</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>1.57</v>
+      </c>
+      <c r="AY4">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ4">
+        <v>3.01</v>
+      </c>
+      <c r="BA4">
+        <v>1.27</v>
+      </c>
+      <c r="BB4">
+        <v>1.49</v>
+      </c>
+      <c r="BC4">
+        <v>1.82</v>
+      </c>
+      <c r="BD4">
+        <v>2.33</v>
+      </c>
+      <c r="BE4">
+        <v>3.1</v>
+      </c>
+      <c r="BF4">
+        <v>7</v>
+      </c>
+      <c r="BG4">
+        <v>5</v>
+      </c>
+      <c r="BH4">
+        <v>6</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>13</v>
+      </c>
+      <c r="BK4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7002938</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45136.5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>2.38</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>1.3</v>
+      </c>
+      <c r="X5">
+        <v>3.4</v>
+      </c>
+      <c r="Y5">
+        <v>2.5</v>
+      </c>
+      <c r="Z5">
+        <v>1.5</v>
+      </c>
+      <c r="AA5">
+        <v>6</v>
+      </c>
+      <c r="AB5">
+        <v>1.13</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>3.75</v>
+      </c>
+      <c r="AE5">
+        <v>3.2</v>
+      </c>
+      <c r="AF5">
+        <v>1.03</v>
+      </c>
+      <c r="AG5">
+        <v>13</v>
+      </c>
+      <c r="AH5">
+        <v>1.22</v>
+      </c>
+      <c r="AI5">
+        <v>4.2</v>
+      </c>
+      <c r="AJ5">
+        <v>1.68</v>
+      </c>
+      <c r="AK5">
+        <v>1.99</v>
+      </c>
+      <c r="AL5">
+        <v>1.57</v>
+      </c>
+      <c r="AM5">
+        <v>2.25</v>
+      </c>
+      <c r="AN5">
+        <v>1.3</v>
+      </c>
+      <c r="AO5">
+        <v>1.26</v>
+      </c>
+      <c r="AP5">
+        <v>1.77</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>3</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1.59</v>
+      </c>
+      <c r="AY5">
+        <v>8.5</v>
+      </c>
+      <c r="AZ5">
+        <v>2.91</v>
+      </c>
+      <c r="BA5">
+        <v>1.25</v>
+      </c>
+      <c r="BB5">
+        <v>1.46</v>
+      </c>
+      <c r="BC5">
+        <v>1.77</v>
+      </c>
+      <c r="BD5">
+        <v>2.25</v>
+      </c>
+      <c r="BE5">
+        <v>3</v>
+      </c>
+      <c r="BF5">
+        <v>4</v>
+      </c>
+      <c r="BG5">
+        <v>10</v>
+      </c>
+      <c r="BH5">
+        <v>6</v>
+      </c>
+      <c r="BI5">
+        <v>5</v>
+      </c>
+      <c r="BJ5">
+        <v>10</v>
+      </c>
+      <c r="BK5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7002939</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45136.60416666666</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>8</v>
+      </c>
+      <c r="U6">
+        <v>2.63</v>
+      </c>
+      <c r="V6">
+        <v>1.73</v>
+      </c>
+      <c r="W6">
+        <v>1.29</v>
+      </c>
+      <c r="X6">
+        <v>3.5</v>
+      </c>
+      <c r="Y6">
+        <v>2.25</v>
+      </c>
+      <c r="Z6">
+        <v>1.57</v>
+      </c>
+      <c r="AA6">
+        <v>5.5</v>
+      </c>
+      <c r="AB6">
+        <v>1.14</v>
+      </c>
+      <c r="AC6">
+        <v>8.25</v>
+      </c>
+      <c r="AD6">
+        <v>5.5</v>
+      </c>
+      <c r="AE6">
+        <v>1.25</v>
+      </c>
+      <c r="AF6">
+        <v>1.02</v>
+      </c>
+      <c r="AG6">
+        <v>17</v>
+      </c>
+      <c r="AH6">
+        <v>1.16</v>
+      </c>
+      <c r="AI6">
+        <v>5</v>
+      </c>
+      <c r="AJ6">
+        <v>1.5</v>
+      </c>
+      <c r="AK6">
+        <v>2.4</v>
+      </c>
+      <c r="AL6">
+        <v>1.95</v>
+      </c>
+      <c r="AM6">
+        <v>1.8</v>
+      </c>
+      <c r="AN6">
+        <v>3.5</v>
+      </c>
+      <c r="AO6">
+        <v>1.14</v>
+      </c>
+      <c r="AP6">
+        <v>1.06</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>3</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>6.16</v>
+      </c>
+      <c r="AY6">
+        <v>11.5</v>
+      </c>
+      <c r="AZ6">
+        <v>1.19</v>
+      </c>
+      <c r="BA6">
+        <v>1.23</v>
+      </c>
+      <c r="BB6">
+        <v>1.43</v>
+      </c>
+      <c r="BC6">
+        <v>1.72</v>
+      </c>
+      <c r="BD6">
+        <v>2.17</v>
+      </c>
+      <c r="BE6">
+        <v>2.8</v>
+      </c>
+      <c r="BF6">
+        <v>4</v>
+      </c>
+      <c r="BG6">
+        <v>8</v>
+      </c>
+      <c r="BH6">
+        <v>5</v>
+      </c>
+      <c r="BI6">
+        <v>7</v>
+      </c>
+      <c r="BJ6">
+        <v>9</v>
+      </c>
+      <c r="BK6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7002940</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45137.5</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>8</v>
+      </c>
+      <c r="S7">
+        <v>12</v>
+      </c>
+      <c r="T7">
+        <v>3.75</v>
+      </c>
+      <c r="U7">
+        <v>2.3</v>
+      </c>
+      <c r="V7">
+        <v>2.6</v>
+      </c>
+      <c r="W7">
+        <v>1.3</v>
+      </c>
+      <c r="X7">
+        <v>3.4</v>
+      </c>
+      <c r="Y7">
+        <v>2.5</v>
+      </c>
+      <c r="Z7">
+        <v>1.5</v>
+      </c>
+      <c r="AA7">
+        <v>6</v>
+      </c>
+      <c r="AB7">
+        <v>1.13</v>
+      </c>
+      <c r="AC7">
+        <v>3.34</v>
+      </c>
+      <c r="AD7">
+        <v>3.43</v>
+      </c>
+      <c r="AE7">
+        <v>1.86</v>
+      </c>
+      <c r="AF7">
+        <v>1.02</v>
+      </c>
+      <c r="AG7">
+        <v>15</v>
+      </c>
+      <c r="AH7">
+        <v>1.22</v>
+      </c>
+      <c r="AI7">
+        <v>4.2</v>
+      </c>
+      <c r="AJ7">
+        <v>1.7</v>
+      </c>
+      <c r="AK7">
+        <v>2.03</v>
+      </c>
+      <c r="AL7">
+        <v>1.57</v>
+      </c>
+      <c r="AM7">
+        <v>2.25</v>
+      </c>
+      <c r="AN7">
+        <v>1.77</v>
+      </c>
+      <c r="AO7">
+        <v>1.26</v>
+      </c>
+      <c r="AP7">
+        <v>1.31</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>3</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>2.18</v>
+      </c>
+      <c r="AY7">
+        <v>9</v>
+      </c>
+      <c r="AZ7">
+        <v>1.91</v>
+      </c>
+      <c r="BA7">
+        <v>1.21</v>
+      </c>
+      <c r="BB7">
+        <v>1.42</v>
+      </c>
+      <c r="BC7">
+        <v>1.75</v>
+      </c>
+      <c r="BD7">
+        <v>2.19</v>
+      </c>
+      <c r="BE7">
+        <v>2.91</v>
+      </c>
+      <c r="BF7">
+        <v>4</v>
+      </c>
+      <c r="BG7">
+        <v>4</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>14</v>
+      </c>
+      <c r="BJ7">
+        <v>4</v>
+      </c>
+      <c r="BK7">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -232,6 +232,9 @@
     <t>Rapid Wien</t>
   </si>
   <si>
+    <t>Sturm Graz</t>
+  </si>
+  <si>
     <t>Blau-Weiß Linz</t>
   </si>
   <si>
@@ -244,9 +247,6 @@
     <t>Salzburg</t>
   </si>
   <si>
-    <t>Sturm Graz</t>
-  </si>
-  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>['29', '34', '59', '69']</t>
+  </si>
+  <si>
+    <t>['27', '77']</t>
   </si>
   <si>
     <t>['23']</t>
@@ -639,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK7"/>
+  <dimension ref="A1:BK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -883,7 +889,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1050,7 +1056,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1074,7 +1080,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1241,7 +1247,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1265,7 +1271,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1432,7 +1438,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1456,7 +1462,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1623,7 +1629,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1647,7 +1653,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1814,7 +1820,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1838,7 +1844,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -1980,6 +1986,388 @@
       </c>
       <c r="BK7">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7002941</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45143.5</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8">
+        <v>11</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>12</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>2.5</v>
+      </c>
+      <c r="V8">
+        <v>5.5</v>
+      </c>
+      <c r="W8">
+        <v>1.26</v>
+      </c>
+      <c r="X8">
+        <v>3.5</v>
+      </c>
+      <c r="Y8">
+        <v>2.34</v>
+      </c>
+      <c r="Z8">
+        <v>1.54</v>
+      </c>
+      <c r="AA8">
+        <v>5.45</v>
+      </c>
+      <c r="AB8">
+        <v>1.12</v>
+      </c>
+      <c r="AC8">
+        <v>1.5</v>
+      </c>
+      <c r="AD8">
+        <v>4.3</v>
+      </c>
+      <c r="AE8">
+        <v>5.75</v>
+      </c>
+      <c r="AF8">
+        <v>1.02</v>
+      </c>
+      <c r="AG8">
+        <v>17</v>
+      </c>
+      <c r="AH8">
+        <v>1.2</v>
+      </c>
+      <c r="AI8">
+        <v>4.5</v>
+      </c>
+      <c r="AJ8">
+        <v>1.58</v>
+      </c>
+      <c r="AK8">
+        <v>2.3</v>
+      </c>
+      <c r="AL8">
+        <v>1.72</v>
+      </c>
+      <c r="AM8">
+        <v>2.1</v>
+      </c>
+      <c r="AN8">
+        <v>1.12</v>
+      </c>
+      <c r="AO8">
+        <v>1.16</v>
+      </c>
+      <c r="AP8">
+        <v>2.6</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>3</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1.34</v>
+      </c>
+      <c r="AY8">
+        <v>9.5</v>
+      </c>
+      <c r="AZ8">
+        <v>3.86</v>
+      </c>
+      <c r="BA8">
+        <v>1.17</v>
+      </c>
+      <c r="BB8">
+        <v>1.28</v>
+      </c>
+      <c r="BC8">
+        <v>1.51</v>
+      </c>
+      <c r="BD8">
+        <v>2</v>
+      </c>
+      <c r="BE8">
+        <v>2.45</v>
+      </c>
+      <c r="BF8">
+        <v>10</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>7</v>
+      </c>
+      <c r="BI8">
+        <v>3</v>
+      </c>
+      <c r="BJ8">
+        <v>17</v>
+      </c>
+      <c r="BK8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7002943</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45143.60416666666</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
+        <v>2.4</v>
+      </c>
+      <c r="V9">
+        <v>4.5</v>
+      </c>
+      <c r="W9">
+        <v>1.29</v>
+      </c>
+      <c r="X9">
+        <v>3.35</v>
+      </c>
+      <c r="Y9">
+        <v>2.39</v>
+      </c>
+      <c r="Z9">
+        <v>1.52</v>
+      </c>
+      <c r="AA9">
+        <v>5.45</v>
+      </c>
+      <c r="AB9">
+        <v>1.12</v>
+      </c>
+      <c r="AC9">
+        <v>1.7</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AE9">
+        <v>4.6</v>
+      </c>
+      <c r="AF9">
+        <v>1.02</v>
+      </c>
+      <c r="AG9">
+        <v>15</v>
+      </c>
+      <c r="AH9">
+        <v>1.2</v>
+      </c>
+      <c r="AI9">
+        <v>4.5</v>
+      </c>
+      <c r="AJ9">
+        <v>1.56</v>
+      </c>
+      <c r="AK9">
+        <v>2.35</v>
+      </c>
+      <c r="AL9">
+        <v>1.63</v>
+      </c>
+      <c r="AM9">
+        <v>2.25</v>
+      </c>
+      <c r="AN9">
+        <v>1.2</v>
+      </c>
+      <c r="AO9">
+        <v>1.2</v>
+      </c>
+      <c r="AP9">
+        <v>2.15</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>3</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>1.51</v>
+      </c>
+      <c r="AY9">
+        <v>8.5</v>
+      </c>
+      <c r="AZ9">
+        <v>3.16</v>
+      </c>
+      <c r="BA9">
+        <v>1.21</v>
+      </c>
+      <c r="BB9">
+        <v>1.4</v>
+      </c>
+      <c r="BC9">
+        <v>1.71</v>
+      </c>
+      <c r="BD9">
+        <v>2.2</v>
+      </c>
+      <c r="BE9">
+        <v>3</v>
+      </c>
+      <c r="BF9">
+        <v>5</v>
+      </c>
+      <c r="BG9">
+        <v>3</v>
+      </c>
+      <c r="BH9">
+        <v>8</v>
+      </c>
+      <c r="BI9">
+        <v>3</v>
+      </c>
+      <c r="BJ9">
+        <v>13</v>
+      </c>
+      <c r="BK9">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -235,18 +235,18 @@
     <t>Sturm Graz</t>
   </si>
   <si>
+    <t>Austria Lustenau</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
+  </si>
+  <si>
     <t>Blau-Weiß Linz</t>
   </si>
   <si>
-    <t>Austria Lustenau</t>
-  </si>
-  <si>
     <t>Austria Klagenfurt</t>
   </si>
   <si>
-    <t>Salzburg</t>
-  </si>
-  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -268,6 +268,12 @@
     <t>['27', '77']</t>
   </si>
   <si>
+    <t>['57', '87', '90+3']</t>
+  </si>
+  <si>
+    <t>['4', '84', '86']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -284,6 +290,12 @@
   </si>
   <si>
     <t>['9', '38', '60']</t>
+  </si>
+  <si>
+    <t>['28', '72']</t>
+  </si>
+  <si>
+    <t>['30', '35', '75']</t>
   </si>
 </sst>
 </file>
@@ -645,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK9"/>
+  <dimension ref="A1:BK12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +901,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1056,7 +1068,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1080,7 +1092,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1247,7 +1259,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1271,7 +1283,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1438,7 +1450,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1462,7 +1474,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1629,7 +1641,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1653,7 +1665,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1844,7 +1856,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2038,13 +2050,13 @@
         <v>81</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R8">
         <v>1</v>
       </c>
       <c r="S8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T8">
         <v>2</v>
@@ -2161,22 +2173,22 @@
         <v>2.45</v>
       </c>
       <c r="BF8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BG8">
         <v>0</v>
       </c>
       <c r="BH8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ8">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BK8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:63">
@@ -2229,13 +2241,13 @@
         <v>81</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T9">
         <v>2.25</v>
@@ -2352,13 +2364,13 @@
         <v>3</v>
       </c>
       <c r="BF9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BI9">
         <v>3</v>
@@ -2367,7 +2379,580 @@
         <v>13</v>
       </c>
       <c r="BK9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7002944</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45144.5</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12</v>
+      </c>
+      <c r="S10">
+        <v>12</v>
+      </c>
+      <c r="T10">
+        <v>4.5</v>
+      </c>
+      <c r="U10">
+        <v>2.4</v>
+      </c>
+      <c r="V10">
+        <v>2.3</v>
+      </c>
+      <c r="W10">
+        <v>1.28</v>
+      </c>
+      <c r="X10">
+        <v>3.4</v>
+      </c>
+      <c r="Y10">
+        <v>2.32</v>
+      </c>
+      <c r="Z10">
+        <v>1.55</v>
+      </c>
+      <c r="AA10">
+        <v>5</v>
+      </c>
+      <c r="AB10">
+        <v>1.14</v>
+      </c>
+      <c r="AC10">
+        <v>4.05</v>
+      </c>
+      <c r="AD10">
+        <v>3.9</v>
+      </c>
+      <c r="AE10">
+        <v>1.75</v>
+      </c>
+      <c r="AF10">
+        <v>1.02</v>
+      </c>
+      <c r="AG10">
+        <v>17</v>
+      </c>
+      <c r="AH10">
+        <v>1.18</v>
+      </c>
+      <c r="AI10">
+        <v>4.75</v>
+      </c>
+      <c r="AJ10">
+        <v>1.55</v>
+      </c>
+      <c r="AK10">
+        <v>2.38</v>
+      </c>
+      <c r="AL10">
+        <v>1.57</v>
+      </c>
+      <c r="AM10">
+        <v>2.35</v>
+      </c>
+      <c r="AN10">
+        <v>2.1</v>
+      </c>
+      <c r="AO10">
+        <v>1.2</v>
+      </c>
+      <c r="AP10">
+        <v>1.22</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>3</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>3.16</v>
+      </c>
+      <c r="AY10">
+        <v>8.5</v>
+      </c>
+      <c r="AZ10">
+        <v>1.51</v>
+      </c>
+      <c r="BA10">
+        <v>1.22</v>
+      </c>
+      <c r="BB10">
+        <v>1.42</v>
+      </c>
+      <c r="BC10">
+        <v>1.8</v>
+      </c>
+      <c r="BD10">
+        <v>2.3</v>
+      </c>
+      <c r="BE10">
+        <v>3.1</v>
+      </c>
+      <c r="BF10">
+        <v>7</v>
+      </c>
+      <c r="BG10">
+        <v>9</v>
+      </c>
+      <c r="BH10">
+        <v>1</v>
+      </c>
+      <c r="BI10">
+        <v>9</v>
+      </c>
+      <c r="BJ10">
+        <v>8</v>
+      </c>
+      <c r="BK10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7002945</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45144.5</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <v>1.44</v>
+      </c>
+      <c r="U11">
+        <v>3.4</v>
+      </c>
+      <c r="V11">
+        <v>9.5</v>
+      </c>
+      <c r="W11">
+        <v>1.14</v>
+      </c>
+      <c r="X11">
+        <v>5.5</v>
+      </c>
+      <c r="Y11">
+        <v>1.73</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <v>3.4</v>
+      </c>
+      <c r="AB11">
+        <v>1.3</v>
+      </c>
+      <c r="AC11">
+        <v>1.15</v>
+      </c>
+      <c r="AD11">
+        <v>7.5</v>
+      </c>
+      <c r="AE11">
+        <v>14</v>
+      </c>
+      <c r="AF11">
+        <v>1.01</v>
+      </c>
+      <c r="AG11">
+        <v>17</v>
+      </c>
+      <c r="AH11">
+        <v>1.05</v>
+      </c>
+      <c r="AI11">
+        <v>9.5</v>
+      </c>
+      <c r="AJ11">
+        <v>1.2</v>
+      </c>
+      <c r="AK11">
+        <v>3.78</v>
+      </c>
+      <c r="AL11">
+        <v>1.75</v>
+      </c>
+      <c r="AM11">
+        <v>2</v>
+      </c>
+      <c r="AN11">
+        <v>1.02</v>
+      </c>
+      <c r="AO11">
+        <v>1.04</v>
+      </c>
+      <c r="AP11">
+        <v>4.75</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>3</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>1.19</v>
+      </c>
+      <c r="AY11">
+        <v>11</v>
+      </c>
+      <c r="AZ11">
+        <v>5.67</v>
+      </c>
+      <c r="BA11">
+        <v>1.18</v>
+      </c>
+      <c r="BB11">
+        <v>1.32</v>
+      </c>
+      <c r="BC11">
+        <v>1.58</v>
+      </c>
+      <c r="BD11">
+        <v>1.98</v>
+      </c>
+      <c r="BE11">
+        <v>2.65</v>
+      </c>
+      <c r="BF11">
+        <v>9</v>
+      </c>
+      <c r="BG11">
+        <v>2</v>
+      </c>
+      <c r="BH11">
+        <v>9</v>
+      </c>
+      <c r="BI11">
+        <v>3</v>
+      </c>
+      <c r="BJ11">
+        <v>18</v>
+      </c>
+      <c r="BK11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7002946</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45144.5</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
         <v>6</v>
+      </c>
+      <c r="O12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>8</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>2.25</v>
+      </c>
+      <c r="V12">
+        <v>3.25</v>
+      </c>
+      <c r="W12">
+        <v>1.33</v>
+      </c>
+      <c r="X12">
+        <v>3.25</v>
+      </c>
+      <c r="Y12">
+        <v>2.63</v>
+      </c>
+      <c r="Z12">
+        <v>1.44</v>
+      </c>
+      <c r="AA12">
+        <v>6.5</v>
+      </c>
+      <c r="AB12">
+        <v>1.11</v>
+      </c>
+      <c r="AC12">
+        <v>2.45</v>
+      </c>
+      <c r="AD12">
+        <v>3.4</v>
+      </c>
+      <c r="AE12">
+        <v>2.7</v>
+      </c>
+      <c r="AF12">
+        <v>1.03</v>
+      </c>
+      <c r="AG12">
+        <v>13</v>
+      </c>
+      <c r="AH12">
+        <v>1.22</v>
+      </c>
+      <c r="AI12">
+        <v>4.2</v>
+      </c>
+      <c r="AJ12">
+        <v>1.68</v>
+      </c>
+      <c r="AK12">
+        <v>2.1</v>
+      </c>
+      <c r="AL12">
+        <v>1.57</v>
+      </c>
+      <c r="AM12">
+        <v>2.25</v>
+      </c>
+      <c r="AN12">
+        <v>1.47</v>
+      </c>
+      <c r="AO12">
+        <v>1.25</v>
+      </c>
+      <c r="AP12">
+        <v>1.57</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>1.91</v>
+      </c>
+      <c r="AY12">
+        <v>8</v>
+      </c>
+      <c r="AZ12">
+        <v>2.2</v>
+      </c>
+      <c r="BA12">
+        <v>1.2</v>
+      </c>
+      <c r="BB12">
+        <v>1.39</v>
+      </c>
+      <c r="BC12">
+        <v>1.7</v>
+      </c>
+      <c r="BD12">
+        <v>2.2</v>
+      </c>
+      <c r="BE12">
+        <v>3</v>
+      </c>
+      <c r="BF12">
+        <v>5</v>
+      </c>
+      <c r="BG12">
+        <v>9</v>
+      </c>
+      <c r="BH12">
+        <v>1</v>
+      </c>
+      <c r="BI12">
+        <v>3</v>
+      </c>
+      <c r="BJ12">
+        <v>6</v>
+      </c>
+      <c r="BK12">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -274,6 +274,18 @@
     <t>['4', '84', '86']</t>
   </si>
   <si>
+    <t>['37', '81']</t>
+  </si>
+  <si>
+    <t>['12', '49']</t>
+  </si>
+  <si>
+    <t>['90+8']</t>
+  </si>
+  <si>
+    <t>['55', '90+8']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -296,6 +308,15 @@
   </si>
   <si>
     <t>['30', '35', '75']</t>
+  </si>
+  <si>
+    <t>['66', '75']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['68']</t>
   </si>
 </sst>
 </file>
@@ -657,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK12"/>
+  <dimension ref="A1:BK19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -901,7 +922,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -988,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT2">
         <v>1</v>
@@ -1092,7 +1113,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1179,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1283,7 +1304,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1474,7 +1495,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1564,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1665,7 +1686,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1752,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
         <v>3</v>
@@ -1856,7 +1877,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2134,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2325,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT9">
         <v>0</v>
@@ -2429,7 +2450,7 @@
         <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2519,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2811,7 +2832,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -2901,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -2953,6 +2974,1343 @@
       </c>
       <c r="BK12">
         <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7002942</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45147.64583333334</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+      <c r="T13">
+        <v>3.25</v>
+      </c>
+      <c r="U13">
+        <v>2.3</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>1.28</v>
+      </c>
+      <c r="X13">
+        <v>3.4</v>
+      </c>
+      <c r="Y13">
+        <v>2.39</v>
+      </c>
+      <c r="Z13">
+        <v>1.52</v>
+      </c>
+      <c r="AA13">
+        <v>5.45</v>
+      </c>
+      <c r="AB13">
+        <v>1.12</v>
+      </c>
+      <c r="AC13">
+        <v>2.53</v>
+      </c>
+      <c r="AD13">
+        <v>3.2</v>
+      </c>
+      <c r="AE13">
+        <v>2.53</v>
+      </c>
+      <c r="AF13">
+        <v>1.02</v>
+      </c>
+      <c r="AG13">
+        <v>12</v>
+      </c>
+      <c r="AH13">
+        <v>1.18</v>
+      </c>
+      <c r="AI13">
+        <v>4.5</v>
+      </c>
+      <c r="AJ13">
+        <v>1.77</v>
+      </c>
+      <c r="AK13">
+        <v>1.87</v>
+      </c>
+      <c r="AL13">
+        <v>1.53</v>
+      </c>
+      <c r="AM13">
+        <v>2.4</v>
+      </c>
+      <c r="AN13">
+        <v>1.47</v>
+      </c>
+      <c r="AO13">
+        <v>1.3</v>
+      </c>
+      <c r="AP13">
+        <v>1.45</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>1</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>1.95</v>
+      </c>
+      <c r="AY13">
+        <v>8</v>
+      </c>
+      <c r="AZ13">
+        <v>2.1</v>
+      </c>
+      <c r="BA13">
+        <v>1.2</v>
+      </c>
+      <c r="BB13">
+        <v>1.33</v>
+      </c>
+      <c r="BC13">
+        <v>1.6</v>
+      </c>
+      <c r="BD13">
+        <v>2</v>
+      </c>
+      <c r="BE13">
+        <v>2.7</v>
+      </c>
+      <c r="BF13">
+        <v>4</v>
+      </c>
+      <c r="BG13">
+        <v>3</v>
+      </c>
+      <c r="BH13">
+        <v>11</v>
+      </c>
+      <c r="BI13">
+        <v>3</v>
+      </c>
+      <c r="BJ13">
+        <v>15</v>
+      </c>
+      <c r="BK13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7002947</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45150.5</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>8</v>
+      </c>
+      <c r="S14">
+        <v>13</v>
+      </c>
+      <c r="T14">
+        <v>1.83</v>
+      </c>
+      <c r="U14">
+        <v>2.65</v>
+      </c>
+      <c r="V14">
+        <v>6.5</v>
+      </c>
+      <c r="W14">
+        <v>1.24</v>
+      </c>
+      <c r="X14">
+        <v>3.7</v>
+      </c>
+      <c r="Y14">
+        <v>2.22</v>
+      </c>
+      <c r="Z14">
+        <v>1.6</v>
+      </c>
+      <c r="AA14">
+        <v>4.95</v>
+      </c>
+      <c r="AB14">
+        <v>1.14</v>
+      </c>
+      <c r="AC14">
+        <v>1.36</v>
+      </c>
+      <c r="AD14">
+        <v>4.4</v>
+      </c>
+      <c r="AE14">
+        <v>8.25</v>
+      </c>
+      <c r="AF14">
+        <v>1.02</v>
+      </c>
+      <c r="AG14">
+        <v>12</v>
+      </c>
+      <c r="AH14">
+        <v>1.16</v>
+      </c>
+      <c r="AI14">
+        <v>5</v>
+      </c>
+      <c r="AJ14">
+        <v>1.5</v>
+      </c>
+      <c r="AK14">
+        <v>2.4</v>
+      </c>
+      <c r="AL14">
+        <v>1.78</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AN14">
+        <v>1.07</v>
+      </c>
+      <c r="AO14">
+        <v>1.12</v>
+      </c>
+      <c r="AP14">
+        <v>3.1</v>
+      </c>
+      <c r="AQ14">
+        <v>3</v>
+      </c>
+      <c r="AR14">
+        <v>3</v>
+      </c>
+      <c r="AS14">
+        <v>2</v>
+      </c>
+      <c r="AT14">
+        <v>2</v>
+      </c>
+      <c r="AU14">
+        <v>1.73</v>
+      </c>
+      <c r="AV14">
+        <v>2.04</v>
+      </c>
+      <c r="AW14">
+        <v>3.77</v>
+      </c>
+      <c r="AX14">
+        <v>1.17</v>
+      </c>
+      <c r="AY14">
+        <v>10</v>
+      </c>
+      <c r="AZ14">
+        <v>7</v>
+      </c>
+      <c r="BA14">
+        <v>1.21</v>
+      </c>
+      <c r="BB14">
+        <v>1.4</v>
+      </c>
+      <c r="BC14">
+        <v>1.71</v>
+      </c>
+      <c r="BD14">
+        <v>2.2</v>
+      </c>
+      <c r="BE14">
+        <v>3</v>
+      </c>
+      <c r="BF14">
+        <v>3</v>
+      </c>
+      <c r="BG14">
+        <v>4</v>
+      </c>
+      <c r="BH14">
+        <v>3</v>
+      </c>
+      <c r="BI14">
+        <v>6</v>
+      </c>
+      <c r="BJ14">
+        <v>6</v>
+      </c>
+      <c r="BK14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7002948</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45150.5</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15">
+        <v>9</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>11</v>
+      </c>
+      <c r="T15">
+        <v>2.55</v>
+      </c>
+      <c r="U15">
+        <v>2.3</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>1.31</v>
+      </c>
+      <c r="X15">
+        <v>3.2</v>
+      </c>
+      <c r="Y15">
+        <v>2.55</v>
+      </c>
+      <c r="Z15">
+        <v>1.46</v>
+      </c>
+      <c r="AA15">
+        <v>5.95</v>
+      </c>
+      <c r="AB15">
+        <v>1.1</v>
+      </c>
+      <c r="AC15">
+        <v>1.99</v>
+      </c>
+      <c r="AD15">
+        <v>3.45</v>
+      </c>
+      <c r="AE15">
+        <v>3.5</v>
+      </c>
+      <c r="AF15">
+        <v>1.03</v>
+      </c>
+      <c r="AG15">
+        <v>13</v>
+      </c>
+      <c r="AH15">
+        <v>1.22</v>
+      </c>
+      <c r="AI15">
+        <v>4</v>
+      </c>
+      <c r="AJ15">
+        <v>1.7</v>
+      </c>
+      <c r="AK15">
+        <v>2</v>
+      </c>
+      <c r="AL15">
+        <v>1.66</v>
+      </c>
+      <c r="AM15">
+        <v>2.2</v>
+      </c>
+      <c r="AN15">
+        <v>1.3</v>
+      </c>
+      <c r="AO15">
+        <v>1.22</v>
+      </c>
+      <c r="AP15">
+        <v>1.87</v>
+      </c>
+      <c r="AQ15">
+        <v>3</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>2</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>1.31</v>
+      </c>
+      <c r="AV15">
+        <v>0.88</v>
+      </c>
+      <c r="AW15">
+        <v>2.19</v>
+      </c>
+      <c r="AX15">
+        <v>1.45</v>
+      </c>
+      <c r="AY15">
+        <v>8</v>
+      </c>
+      <c r="AZ15">
+        <v>3.5</v>
+      </c>
+      <c r="BA15">
+        <v>1.2</v>
+      </c>
+      <c r="BB15">
+        <v>1.33</v>
+      </c>
+      <c r="BC15">
+        <v>1.6</v>
+      </c>
+      <c r="BD15">
+        <v>2.05</v>
+      </c>
+      <c r="BE15">
+        <v>2.7</v>
+      </c>
+      <c r="BF15">
+        <v>6</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>5</v>
+      </c>
+      <c r="BI15">
+        <v>3</v>
+      </c>
+      <c r="BJ15">
+        <v>11</v>
+      </c>
+      <c r="BK15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7002949</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45150.60416666666</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>2.05</v>
+      </c>
+      <c r="U16">
+        <v>2.45</v>
+      </c>
+      <c r="V16">
+        <v>5.5</v>
+      </c>
+      <c r="W16">
+        <v>1.28</v>
+      </c>
+      <c r="X16">
+        <v>3.4</v>
+      </c>
+      <c r="Y16">
+        <v>2.39</v>
+      </c>
+      <c r="Z16">
+        <v>1.52</v>
+      </c>
+      <c r="AA16">
+        <v>5.45</v>
+      </c>
+      <c r="AB16">
+        <v>1.12</v>
+      </c>
+      <c r="AC16">
+        <v>1.5</v>
+      </c>
+      <c r="AD16">
+        <v>4.5</v>
+      </c>
+      <c r="AE16">
+        <v>6</v>
+      </c>
+      <c r="AF16">
+        <v>1.02</v>
+      </c>
+      <c r="AG16">
+        <v>17</v>
+      </c>
+      <c r="AH16">
+        <v>1.2</v>
+      </c>
+      <c r="AI16">
+        <v>4.5</v>
+      </c>
+      <c r="AJ16">
+        <v>1.65</v>
+      </c>
+      <c r="AK16">
+        <v>2.2</v>
+      </c>
+      <c r="AL16">
+        <v>1.75</v>
+      </c>
+      <c r="AM16">
+        <v>2.05</v>
+      </c>
+      <c r="AN16">
+        <v>1.12</v>
+      </c>
+      <c r="AO16">
+        <v>1.17</v>
+      </c>
+      <c r="AP16">
+        <v>2.6</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>2</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>1.19</v>
+      </c>
+      <c r="AV16">
+        <v>1.05</v>
+      </c>
+      <c r="AW16">
+        <v>2.24</v>
+      </c>
+      <c r="AX16">
+        <v>1.39</v>
+      </c>
+      <c r="AY16">
+        <v>10</v>
+      </c>
+      <c r="AZ16">
+        <v>3.76</v>
+      </c>
+      <c r="BA16">
+        <v>1.21</v>
+      </c>
+      <c r="BB16">
+        <v>1.4</v>
+      </c>
+      <c r="BC16">
+        <v>1.71</v>
+      </c>
+      <c r="BD16">
+        <v>2.2</v>
+      </c>
+      <c r="BE16">
+        <v>3</v>
+      </c>
+      <c r="BF16">
+        <v>3</v>
+      </c>
+      <c r="BG16">
+        <v>4</v>
+      </c>
+      <c r="BH16">
+        <v>7</v>
+      </c>
+      <c r="BI16">
+        <v>4</v>
+      </c>
+      <c r="BJ16">
+        <v>10</v>
+      </c>
+      <c r="BK16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7002952</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45151.5</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>3.2</v>
+      </c>
+      <c r="U17">
+        <v>2.25</v>
+      </c>
+      <c r="V17">
+        <v>3.1</v>
+      </c>
+      <c r="W17">
+        <v>1.33</v>
+      </c>
+      <c r="X17">
+        <v>3.25</v>
+      </c>
+      <c r="Y17">
+        <v>2.63</v>
+      </c>
+      <c r="Z17">
+        <v>1.44</v>
+      </c>
+      <c r="AA17">
+        <v>6.5</v>
+      </c>
+      <c r="AB17">
+        <v>1.11</v>
+      </c>
+      <c r="AC17">
+        <v>2.7</v>
+      </c>
+      <c r="AD17">
+        <v>3.4</v>
+      </c>
+      <c r="AE17">
+        <v>2.4</v>
+      </c>
+      <c r="AF17">
+        <v>1.03</v>
+      </c>
+      <c r="AG17">
+        <v>10.5</v>
+      </c>
+      <c r="AH17">
+        <v>1.22</v>
+      </c>
+      <c r="AI17">
+        <v>3.8</v>
+      </c>
+      <c r="AJ17">
+        <v>1.81</v>
+      </c>
+      <c r="AK17">
+        <v>2.05</v>
+      </c>
+      <c r="AL17">
+        <v>1.57</v>
+      </c>
+      <c r="AM17">
+        <v>2.25</v>
+      </c>
+      <c r="AN17">
+        <v>1.53</v>
+      </c>
+      <c r="AO17">
+        <v>1.3</v>
+      </c>
+      <c r="AP17">
+        <v>1.48</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>1.5</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>1.02</v>
+      </c>
+      <c r="AV17">
+        <v>0.61</v>
+      </c>
+      <c r="AW17">
+        <v>1.63</v>
+      </c>
+      <c r="AX17">
+        <v>2.11</v>
+      </c>
+      <c r="AY17">
+        <v>8.9</v>
+      </c>
+      <c r="AZ17">
+        <v>1.97</v>
+      </c>
+      <c r="BA17">
+        <v>1.2</v>
+      </c>
+      <c r="BB17">
+        <v>1.39</v>
+      </c>
+      <c r="BC17">
+        <v>1.7</v>
+      </c>
+      <c r="BD17">
+        <v>2.2</v>
+      </c>
+      <c r="BE17">
+        <v>3</v>
+      </c>
+      <c r="BF17">
+        <v>2</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>2</v>
+      </c>
+      <c r="BI17">
+        <v>3</v>
+      </c>
+      <c r="BJ17">
+        <v>4</v>
+      </c>
+      <c r="BK17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7002950</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45151.5</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q18">
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>10</v>
+      </c>
+      <c r="T18">
+        <v>1.84</v>
+      </c>
+      <c r="U18">
+        <v>2.63</v>
+      </c>
+      <c r="V18">
+        <v>5.9</v>
+      </c>
+      <c r="W18">
+        <v>1.24</v>
+      </c>
+      <c r="X18">
+        <v>3.82</v>
+      </c>
+      <c r="Y18">
+        <v>2.15</v>
+      </c>
+      <c r="Z18">
+        <v>1.66</v>
+      </c>
+      <c r="AA18">
+        <v>4.7</v>
+      </c>
+      <c r="AB18">
+        <v>1.17</v>
+      </c>
+      <c r="AC18">
+        <v>1.4</v>
+      </c>
+      <c r="AD18">
+        <v>5</v>
+      </c>
+      <c r="AE18">
+        <v>6</v>
+      </c>
+      <c r="AF18">
+        <v>1.02</v>
+      </c>
+      <c r="AG18">
+        <v>24</v>
+      </c>
+      <c r="AH18">
+        <v>1.11</v>
+      </c>
+      <c r="AI18">
+        <v>5.2</v>
+      </c>
+      <c r="AJ18">
+        <v>1.47</v>
+      </c>
+      <c r="AK18">
+        <v>2.65</v>
+      </c>
+      <c r="AL18">
+        <v>1.67</v>
+      </c>
+      <c r="AM18">
+        <v>2.17</v>
+      </c>
+      <c r="AN18">
+        <v>1.1</v>
+      </c>
+      <c r="AO18">
+        <v>1.17</v>
+      </c>
+      <c r="AP18">
+        <v>2.88</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>3</v>
+      </c>
+      <c r="AS18">
+        <v>3</v>
+      </c>
+      <c r="AT18">
+        <v>1.5</v>
+      </c>
+      <c r="AU18">
+        <v>2.14</v>
+      </c>
+      <c r="AV18">
+        <v>2.23</v>
+      </c>
+      <c r="AW18">
+        <v>4.37</v>
+      </c>
+      <c r="AX18">
+        <v>1.38</v>
+      </c>
+      <c r="AY18">
+        <v>8</v>
+      </c>
+      <c r="AZ18">
+        <v>4</v>
+      </c>
+      <c r="BA18">
+        <v>1.21</v>
+      </c>
+      <c r="BB18">
+        <v>1.4</v>
+      </c>
+      <c r="BC18">
+        <v>1.71</v>
+      </c>
+      <c r="BD18">
+        <v>2.2</v>
+      </c>
+      <c r="BE18">
+        <v>3</v>
+      </c>
+      <c r="BF18">
+        <v>7</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>8</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>15</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7002951</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45151.5</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>11</v>
+      </c>
+      <c r="T19">
+        <v>2.05</v>
+      </c>
+      <c r="U19">
+        <v>2.4</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
+      </c>
+      <c r="W19">
+        <v>1.3</v>
+      </c>
+      <c r="X19">
+        <v>3.3</v>
+      </c>
+      <c r="Y19">
+        <v>2.35</v>
+      </c>
+      <c r="Z19">
+        <v>1.52</v>
+      </c>
+      <c r="AA19">
+        <v>5.5</v>
+      </c>
+      <c r="AB19">
+        <v>1.13</v>
+      </c>
+      <c r="AC19">
+        <v>1.59</v>
+      </c>
+      <c r="AD19">
+        <v>4.1</v>
+      </c>
+      <c r="AE19">
+        <v>4.85</v>
+      </c>
+      <c r="AF19">
+        <v>1.03</v>
+      </c>
+      <c r="AG19">
+        <v>17</v>
+      </c>
+      <c r="AH19">
+        <v>1.2</v>
+      </c>
+      <c r="AI19">
+        <v>4.6</v>
+      </c>
+      <c r="AJ19">
+        <v>1.57</v>
+      </c>
+      <c r="AK19">
+        <v>2.3</v>
+      </c>
+      <c r="AL19">
+        <v>1.67</v>
+      </c>
+      <c r="AM19">
+        <v>2.1</v>
+      </c>
+      <c r="AN19">
+        <v>1.18</v>
+      </c>
+      <c r="AO19">
+        <v>1.23</v>
+      </c>
+      <c r="AP19">
+        <v>2.3</v>
+      </c>
+      <c r="AQ19">
+        <v>3</v>
+      </c>
+      <c r="AR19">
+        <v>1</v>
+      </c>
+      <c r="AS19">
+        <v>1.5</v>
+      </c>
+      <c r="AT19">
+        <v>2</v>
+      </c>
+      <c r="AU19">
+        <v>2.76</v>
+      </c>
+      <c r="AV19">
+        <v>1.65</v>
+      </c>
+      <c r="AW19">
+        <v>4.41</v>
+      </c>
+      <c r="AX19">
+        <v>1.35</v>
+      </c>
+      <c r="AY19">
+        <v>8</v>
+      </c>
+      <c r="AZ19">
+        <v>4.2</v>
+      </c>
+      <c r="BA19">
+        <v>1.21</v>
+      </c>
+      <c r="BB19">
+        <v>1.4</v>
+      </c>
+      <c r="BC19">
+        <v>1.71</v>
+      </c>
+      <c r="BD19">
+        <v>2.2</v>
+      </c>
+      <c r="BE19">
+        <v>3</v>
+      </c>
+      <c r="BF19">
+        <v>5</v>
+      </c>
+      <c r="BG19">
+        <v>2</v>
+      </c>
+      <c r="BH19">
+        <v>4</v>
+      </c>
+      <c r="BI19">
+        <v>3</v>
+      </c>
+      <c r="BJ19">
+        <v>9</v>
+      </c>
+      <c r="BK19">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -3340,19 +3340,19 @@
         <v>3</v>
       </c>
       <c r="BF14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG14">
         <v>4</v>
       </c>
       <c r="BH14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI14">
         <v>6</v>
       </c>
       <c r="BJ14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK14">
         <v>10</v>
@@ -3534,19 +3534,19 @@
         <v>6</v>
       </c>
       <c r="BG15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BJ15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BK15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:63">
@@ -3722,22 +3722,22 @@
         <v>3</v>
       </c>
       <c r="BF16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG16">
         <v>4</v>
       </c>
       <c r="BH16">
+        <v>6</v>
+      </c>
+      <c r="BI16">
+        <v>3</v>
+      </c>
+      <c r="BJ16">
+        <v>12</v>
+      </c>
+      <c r="BK16">
         <v>7</v>
-      </c>
-      <c r="BI16">
-        <v>4</v>
-      </c>
-      <c r="BJ16">
-        <v>10</v>
-      </c>
-      <c r="BK16">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:63">
@@ -3790,13 +3790,13 @@
         <v>81</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>1</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T17">
         <v>3.2</v>
@@ -3913,22 +3913,22 @@
         <v>3</v>
       </c>
       <c r="BF17">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BG17">
         <v>0</v>
       </c>
       <c r="BH17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BI17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ17">
+        <v>16</v>
+      </c>
+      <c r="BK17">
         <v>4</v>
-      </c>
-      <c r="BK17">
-        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:63">
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="BH18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI18">
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BK18">
         <v>0</v>
@@ -4175,10 +4175,10 @@
         <v>6</v>
       </c>
       <c r="R19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T19">
         <v>2.05</v>
@@ -4298,19 +4298,19 @@
         <v>5</v>
       </c>
       <c r="BG19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI19">
         <v>3</v>
       </c>
       <c r="BJ19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK19">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="109">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -286,6 +286,15 @@
     <t>['55', '90+8']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -317,6 +326,21 @@
   </si>
   <si>
     <t>['68']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['12', '22', '64', '79', '90+2']</t>
+  </si>
+  <si>
+    <t>['16', '47', '50', '64', '76']</t>
   </si>
 </sst>
 </file>
@@ -678,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK19"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +946,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1012,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1113,7 +1137,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1304,7 +1328,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1391,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -1495,7 +1519,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1582,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT5">
         <v>2</v>
@@ -1686,7 +1710,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1877,7 +1901,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -1964,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT7">
         <v>3</v>
@@ -2158,7 +2182,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2349,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2450,7 +2474,7 @@
         <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2832,7 +2856,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -2919,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT12">
         <v>2</v>
@@ -3023,7 +3047,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3405,7 +3429,7 @@
         <v>77</v>
       </c>
       <c r="P15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4169,7 +4193,7 @@
         <v>81</v>
       </c>
       <c r="P19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4311,6 +4335,1152 @@
       </c>
       <c r="BK19">
         <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7002953</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45157.5</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>9</v>
+      </c>
+      <c r="S20">
+        <v>12</v>
+      </c>
+      <c r="T20">
+        <v>4.33</v>
+      </c>
+      <c r="U20">
+        <v>2.5</v>
+      </c>
+      <c r="V20">
+        <v>2.25</v>
+      </c>
+      <c r="W20">
+        <v>1.25</v>
+      </c>
+      <c r="X20">
+        <v>3.75</v>
+      </c>
+      <c r="Y20">
+        <v>2.25</v>
+      </c>
+      <c r="Z20">
+        <v>1.57</v>
+      </c>
+      <c r="AA20">
+        <v>5.5</v>
+      </c>
+      <c r="AB20">
+        <v>1.14</v>
+      </c>
+      <c r="AC20">
+        <v>4.41</v>
+      </c>
+      <c r="AD20">
+        <v>4</v>
+      </c>
+      <c r="AE20">
+        <v>1.73</v>
+      </c>
+      <c r="AF20">
+        <v>1.02</v>
+      </c>
+      <c r="AG20">
+        <v>20</v>
+      </c>
+      <c r="AH20">
+        <v>1.17</v>
+      </c>
+      <c r="AI20">
+        <v>5.2</v>
+      </c>
+      <c r="AJ20">
+        <v>1.5</v>
+      </c>
+      <c r="AK20">
+        <v>2.48</v>
+      </c>
+      <c r="AL20">
+        <v>1.53</v>
+      </c>
+      <c r="AM20">
+        <v>2.38</v>
+      </c>
+      <c r="AN20">
+        <v>2.1</v>
+      </c>
+      <c r="AO20">
+        <v>1.18</v>
+      </c>
+      <c r="AP20">
+        <v>1.22</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0.5</v>
+      </c>
+      <c r="AT20">
+        <v>0.5</v>
+      </c>
+      <c r="AU20">
+        <v>1.19</v>
+      </c>
+      <c r="AV20">
+        <v>0.71</v>
+      </c>
+      <c r="AW20">
+        <v>1.9</v>
+      </c>
+      <c r="AX20">
+        <v>2.66</v>
+      </c>
+      <c r="AY20">
+        <v>8.5</v>
+      </c>
+      <c r="AZ20">
+        <v>1.64</v>
+      </c>
+      <c r="BA20">
+        <v>1.21</v>
+      </c>
+      <c r="BB20">
+        <v>1.4</v>
+      </c>
+      <c r="BC20">
+        <v>1.71</v>
+      </c>
+      <c r="BD20">
+        <v>2.2</v>
+      </c>
+      <c r="BE20">
+        <v>3</v>
+      </c>
+      <c r="BF20">
+        <v>6</v>
+      </c>
+      <c r="BG20">
+        <v>6</v>
+      </c>
+      <c r="BH20">
+        <v>4</v>
+      </c>
+      <c r="BI20">
+        <v>6</v>
+      </c>
+      <c r="BJ20">
+        <v>10</v>
+      </c>
+      <c r="BK20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7002954</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45157.5</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <v>11</v>
+      </c>
+      <c r="T21">
+        <v>4.75</v>
+      </c>
+      <c r="U21">
+        <v>2.5</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>1.25</v>
+      </c>
+      <c r="X21">
+        <v>3.6</v>
+      </c>
+      <c r="Y21">
+        <v>2.21</v>
+      </c>
+      <c r="Z21">
+        <v>1.61</v>
+      </c>
+      <c r="AA21">
+        <v>4.75</v>
+      </c>
+      <c r="AB21">
+        <v>1.16</v>
+      </c>
+      <c r="AC21">
+        <v>6.02</v>
+      </c>
+      <c r="AD21">
+        <v>4.5</v>
+      </c>
+      <c r="AE21">
+        <v>1.5</v>
+      </c>
+      <c r="AF21">
+        <v>1.02</v>
+      </c>
+      <c r="AG21">
+        <v>21</v>
+      </c>
+      <c r="AH21">
+        <v>1.13</v>
+      </c>
+      <c r="AI21">
+        <v>4.85</v>
+      </c>
+      <c r="AJ21">
+        <v>1.51</v>
+      </c>
+      <c r="AK21">
+        <v>2.46</v>
+      </c>
+      <c r="AL21">
+        <v>1.6</v>
+      </c>
+      <c r="AM21">
+        <v>2.25</v>
+      </c>
+      <c r="AN21">
+        <v>2.45</v>
+      </c>
+      <c r="AO21">
+        <v>1.15</v>
+      </c>
+      <c r="AP21">
+        <v>1.14</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>3</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>3</v>
+      </c>
+      <c r="AU21">
+        <v>1.23</v>
+      </c>
+      <c r="AV21">
+        <v>1.85</v>
+      </c>
+      <c r="AW21">
+        <v>3.08</v>
+      </c>
+      <c r="AX21">
+        <v>4.11</v>
+      </c>
+      <c r="AY21">
+        <v>10</v>
+      </c>
+      <c r="AZ21">
+        <v>1.31</v>
+      </c>
+      <c r="BA21">
+        <v>1.21</v>
+      </c>
+      <c r="BB21">
+        <v>1.4</v>
+      </c>
+      <c r="BC21">
+        <v>1.71</v>
+      </c>
+      <c r="BD21">
+        <v>2.2</v>
+      </c>
+      <c r="BE21">
+        <v>3</v>
+      </c>
+      <c r="BF21">
+        <v>2</v>
+      </c>
+      <c r="BG21">
+        <v>6</v>
+      </c>
+      <c r="BH21">
+        <v>4</v>
+      </c>
+      <c r="BI21">
+        <v>9</v>
+      </c>
+      <c r="BJ21">
+        <v>6</v>
+      </c>
+      <c r="BK21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7002955</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45157.60416666666</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+      <c r="T22">
+        <v>2.3</v>
+      </c>
+      <c r="U22">
+        <v>2.25</v>
+      </c>
+      <c r="V22">
+        <v>4</v>
+      </c>
+      <c r="W22">
+        <v>1.33</v>
+      </c>
+      <c r="X22">
+        <v>3.25</v>
+      </c>
+      <c r="Y22">
+        <v>2.5</v>
+      </c>
+      <c r="Z22">
+        <v>1.5</v>
+      </c>
+      <c r="AA22">
+        <v>5.5</v>
+      </c>
+      <c r="AB22">
+        <v>1.12</v>
+      </c>
+      <c r="AC22">
+        <v>1.78</v>
+      </c>
+      <c r="AD22">
+        <v>3.8</v>
+      </c>
+      <c r="AE22">
+        <v>4.35</v>
+      </c>
+      <c r="AF22">
+        <v>1.04</v>
+      </c>
+      <c r="AG22">
+        <v>10</v>
+      </c>
+      <c r="AH22">
+        <v>1.22</v>
+      </c>
+      <c r="AI22">
+        <v>4</v>
+      </c>
+      <c r="AJ22">
+        <v>1.66</v>
+      </c>
+      <c r="AK22">
+        <v>2.14</v>
+      </c>
+      <c r="AL22">
+        <v>1.67</v>
+      </c>
+      <c r="AM22">
+        <v>2.1</v>
+      </c>
+      <c r="AN22">
+        <v>1.2</v>
+      </c>
+      <c r="AO22">
+        <v>1.25</v>
+      </c>
+      <c r="AP22">
+        <v>2</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>1</v>
+      </c>
+      <c r="AT22">
+        <v>0.5</v>
+      </c>
+      <c r="AU22">
+        <v>1.78</v>
+      </c>
+      <c r="AV22">
+        <v>0.58</v>
+      </c>
+      <c r="AW22">
+        <v>2.36</v>
+      </c>
+      <c r="AX22">
+        <v>1.51</v>
+      </c>
+      <c r="AY22">
+        <v>8.5</v>
+      </c>
+      <c r="AZ22">
+        <v>3.07</v>
+      </c>
+      <c r="BA22">
+        <v>1.23</v>
+      </c>
+      <c r="BB22">
+        <v>1.44</v>
+      </c>
+      <c r="BC22">
+        <v>1.83</v>
+      </c>
+      <c r="BD22">
+        <v>2.35</v>
+      </c>
+      <c r="BE22">
+        <v>3.25</v>
+      </c>
+      <c r="BF22">
+        <v>6</v>
+      </c>
+      <c r="BG22">
+        <v>3</v>
+      </c>
+      <c r="BH22">
+        <v>3</v>
+      </c>
+      <c r="BI22">
+        <v>2</v>
+      </c>
+      <c r="BJ22">
+        <v>9</v>
+      </c>
+      <c r="BK22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7002956</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45158.5</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>11</v>
+      </c>
+      <c r="T23">
+        <v>2.38</v>
+      </c>
+      <c r="U23">
+        <v>2.38</v>
+      </c>
+      <c r="V23">
+        <v>4.33</v>
+      </c>
+      <c r="W23">
+        <v>1.3</v>
+      </c>
+      <c r="X23">
+        <v>3.4</v>
+      </c>
+      <c r="Y23">
+        <v>2.5</v>
+      </c>
+      <c r="Z23">
+        <v>1.5</v>
+      </c>
+      <c r="AA23">
+        <v>6</v>
+      </c>
+      <c r="AB23">
+        <v>1.13</v>
+      </c>
+      <c r="AC23">
+        <v>1.79</v>
+      </c>
+      <c r="AD23">
+        <v>3.41</v>
+      </c>
+      <c r="AE23">
+        <v>3.59</v>
+      </c>
+      <c r="AF23">
+        <v>1.04</v>
+      </c>
+      <c r="AG23">
+        <v>10</v>
+      </c>
+      <c r="AH23">
+        <v>1.22</v>
+      </c>
+      <c r="AI23">
+        <v>4</v>
+      </c>
+      <c r="AJ23">
+        <v>1.67</v>
+      </c>
+      <c r="AK23">
+        <v>2.15</v>
+      </c>
+      <c r="AL23">
+        <v>1.62</v>
+      </c>
+      <c r="AM23">
+        <v>2.2</v>
+      </c>
+      <c r="AN23">
+        <v>1.22</v>
+      </c>
+      <c r="AO23">
+        <v>1.2</v>
+      </c>
+      <c r="AP23">
+        <v>2</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
+        <v>0.5</v>
+      </c>
+      <c r="AT23">
+        <v>1</v>
+      </c>
+      <c r="AU23">
+        <v>0.86</v>
+      </c>
+      <c r="AV23">
+        <v>0.92</v>
+      </c>
+      <c r="AW23">
+        <v>1.78</v>
+      </c>
+      <c r="AX23">
+        <v>1.41</v>
+      </c>
+      <c r="AY23">
+        <v>9</v>
+      </c>
+      <c r="AZ23">
+        <v>3.49</v>
+      </c>
+      <c r="BA23">
+        <v>1.17</v>
+      </c>
+      <c r="BB23">
+        <v>1.28</v>
+      </c>
+      <c r="BC23">
+        <v>1.51</v>
+      </c>
+      <c r="BD23">
+        <v>2</v>
+      </c>
+      <c r="BE23">
+        <v>2.45</v>
+      </c>
+      <c r="BF23">
+        <v>6</v>
+      </c>
+      <c r="BG23">
+        <v>2</v>
+      </c>
+      <c r="BH23">
+        <v>8</v>
+      </c>
+      <c r="BI23">
+        <v>5</v>
+      </c>
+      <c r="BJ23">
+        <v>14</v>
+      </c>
+      <c r="BK23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7002957</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45158.5</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>6</v>
+      </c>
+      <c r="T24">
+        <v>4.33</v>
+      </c>
+      <c r="U24">
+        <v>2.38</v>
+      </c>
+      <c r="V24">
+        <v>2.4</v>
+      </c>
+      <c r="W24">
+        <v>1.3</v>
+      </c>
+      <c r="X24">
+        <v>3.4</v>
+      </c>
+      <c r="Y24">
+        <v>2.5</v>
+      </c>
+      <c r="Z24">
+        <v>1.5</v>
+      </c>
+      <c r="AA24">
+        <v>6</v>
+      </c>
+      <c r="AB24">
+        <v>1.13</v>
+      </c>
+      <c r="AC24">
+        <v>4.08</v>
+      </c>
+      <c r="AD24">
+        <v>3.59</v>
+      </c>
+      <c r="AE24">
+        <v>1.65</v>
+      </c>
+      <c r="AF24">
+        <v>1.04</v>
+      </c>
+      <c r="AG24">
+        <v>10</v>
+      </c>
+      <c r="AH24">
+        <v>1.18</v>
+      </c>
+      <c r="AI24">
+        <v>4.2</v>
+      </c>
+      <c r="AJ24">
+        <v>1.67</v>
+      </c>
+      <c r="AK24">
+        <v>2.1</v>
+      </c>
+      <c r="AL24">
+        <v>1.62</v>
+      </c>
+      <c r="AM24">
+        <v>2.2</v>
+      </c>
+      <c r="AN24">
+        <v>1.91</v>
+      </c>
+      <c r="AO24">
+        <v>1.25</v>
+      </c>
+      <c r="AP24">
+        <v>1.22</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>1</v>
+      </c>
+      <c r="AS24">
+        <v>0.5</v>
+      </c>
+      <c r="AT24">
+        <v>2</v>
+      </c>
+      <c r="AU24">
+        <v>0.98</v>
+      </c>
+      <c r="AV24">
+        <v>2.1</v>
+      </c>
+      <c r="AW24">
+        <v>3.08</v>
+      </c>
+      <c r="AX24">
+        <v>2.62</v>
+      </c>
+      <c r="AY24">
+        <v>8.5</v>
+      </c>
+      <c r="AZ24">
+        <v>1.69</v>
+      </c>
+      <c r="BA24">
+        <v>1.17</v>
+      </c>
+      <c r="BB24">
+        <v>1.28</v>
+      </c>
+      <c r="BC24">
+        <v>1.51</v>
+      </c>
+      <c r="BD24">
+        <v>1.98</v>
+      </c>
+      <c r="BE24">
+        <v>2.45</v>
+      </c>
+      <c r="BF24">
+        <v>5</v>
+      </c>
+      <c r="BG24">
+        <v>6</v>
+      </c>
+      <c r="BH24">
+        <v>3</v>
+      </c>
+      <c r="BI24">
+        <v>3</v>
+      </c>
+      <c r="BJ24">
+        <v>8</v>
+      </c>
+      <c r="BK24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7002958</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45158.5</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>6</v>
+      </c>
+      <c r="O25" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25">
+        <v>9</v>
+      </c>
+      <c r="T25">
+        <v>4.75</v>
+      </c>
+      <c r="U25">
+        <v>2.6</v>
+      </c>
+      <c r="V25">
+        <v>2.05</v>
+      </c>
+      <c r="W25">
+        <v>1.25</v>
+      </c>
+      <c r="X25">
+        <v>3.75</v>
+      </c>
+      <c r="Y25">
+        <v>2.1</v>
+      </c>
+      <c r="Z25">
+        <v>1.67</v>
+      </c>
+      <c r="AA25">
+        <v>4.5</v>
+      </c>
+      <c r="AB25">
+        <v>1.18</v>
+      </c>
+      <c r="AC25">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="AD25">
+        <v>4.42</v>
+      </c>
+      <c r="AE25">
+        <v>1.27</v>
+      </c>
+      <c r="AF25">
+        <v>1.02</v>
+      </c>
+      <c r="AG25">
+        <v>13</v>
+      </c>
+      <c r="AH25">
+        <v>1.14</v>
+      </c>
+      <c r="AI25">
+        <v>5</v>
+      </c>
+      <c r="AJ25">
+        <v>1.35</v>
+      </c>
+      <c r="AK25">
+        <v>2.78</v>
+      </c>
+      <c r="AL25">
+        <v>1.53</v>
+      </c>
+      <c r="AM25">
+        <v>2.38</v>
+      </c>
+      <c r="AN25">
+        <v>2.46</v>
+      </c>
+      <c r="AO25">
+        <v>1.19</v>
+      </c>
+      <c r="AP25">
+        <v>1.16</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>3</v>
+      </c>
+      <c r="AS25">
+        <v>0.5</v>
+      </c>
+      <c r="AT25">
+        <v>3</v>
+      </c>
+      <c r="AU25">
+        <v>1.57</v>
+      </c>
+      <c r="AV25">
+        <v>1.9</v>
+      </c>
+      <c r="AW25">
+        <v>3.47</v>
+      </c>
+      <c r="AX25">
+        <v>3.49</v>
+      </c>
+      <c r="AY25">
+        <v>9</v>
+      </c>
+      <c r="AZ25">
+        <v>1.41</v>
+      </c>
+      <c r="BA25">
+        <v>1.24</v>
+      </c>
+      <c r="BB25">
+        <v>1.44</v>
+      </c>
+      <c r="BC25">
+        <v>1.88</v>
+      </c>
+      <c r="BD25">
+        <v>2.35</v>
+      </c>
+      <c r="BE25">
+        <v>3.25</v>
+      </c>
+      <c r="BF25">
+        <v>3</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>3</v>
+      </c>
+      <c r="BI25">
+        <v>8</v>
+      </c>
+      <c r="BJ25">
+        <v>6</v>
+      </c>
+      <c r="BK25">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -5089,13 +5089,13 @@
         <v>2</v>
       </c>
       <c r="BH23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BI23">
         <v>5</v>
       </c>
       <c r="BJ23">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BK23">
         <v>7</v>
@@ -5274,22 +5274,22 @@
         <v>2.45</v>
       </c>
       <c r="BF24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BH24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ24">
         <v>8</v>
       </c>
       <c r="BK24">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:63">
@@ -5465,22 +5465,22 @@
         <v>3.25</v>
       </c>
       <c r="BF25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH25">
         <v>3</v>
       </c>
       <c r="BI25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BK25">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="118">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -295,6 +295,18 @@
     <t>['45+1']</t>
   </si>
   <si>
+    <t>['1', '7', '61', '76']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['32', '58']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -341,6 +353,21 @@
   </si>
   <si>
     <t>['16', '47', '50', '64', '76']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['60', '73']</t>
+  </si>
+  <si>
+    <t>['2', '25', '56']</t>
+  </si>
+  <si>
+    <t>['44', '62', '90+4']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
 </sst>
 </file>
@@ -702,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,7 +973,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1033,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT2">
         <v>2</v>
@@ -1137,7 +1164,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1224,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1328,7 +1355,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1415,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -1519,7 +1546,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1609,7 +1636,7 @@
         <v>0.5</v>
       </c>
       <c r="AT5">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1710,7 +1737,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1901,7 +1928,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2179,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2370,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT9">
         <v>0.5</v>
@@ -2474,7 +2501,7 @@
         <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2564,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2755,7 +2782,7 @@
         <v>3</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2856,7 +2883,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3047,7 +3074,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3325,10 +3352,10 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT14">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU14">
         <v>1.73</v>
@@ -3429,7 +3456,7 @@
         <v>77</v>
       </c>
       <c r="P15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3516,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT15">
         <v>1</v>
@@ -3707,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT16">
         <v>0</v>
@@ -3901,7 +3928,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU17">
         <v>1.02</v>
@@ -4092,7 +4119,7 @@
         <v>3</v>
       </c>
       <c r="AT18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>2.14</v>
@@ -4193,7 +4220,7 @@
         <v>81</v>
       </c>
       <c r="P19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4280,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT19">
         <v>2</v>
@@ -4384,7 +4411,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4575,7 +4602,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -4766,7 +4793,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -4856,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="AT22">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU22">
         <v>1.78</v>
@@ -5148,7 +5175,7 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5339,7 +5366,7 @@
         <v>92</v>
       </c>
       <c r="P25" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5426,7 +5453,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT25">
         <v>3</v>
@@ -5481,6 +5508,1152 @@
       </c>
       <c r="BK25">
         <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7002959</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45164.5</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="O26" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+      <c r="R26">
+        <v>7</v>
+      </c>
+      <c r="S26">
+        <v>12</v>
+      </c>
+      <c r="T26">
+        <v>1.68</v>
+      </c>
+      <c r="U26">
+        <v>2.85</v>
+      </c>
+      <c r="V26">
+        <v>7.5</v>
+      </c>
+      <c r="W26">
+        <v>1.22</v>
+      </c>
+      <c r="X26">
+        <v>3.9</v>
+      </c>
+      <c r="Y26">
+        <v>2.12</v>
+      </c>
+      <c r="Z26">
+        <v>1.66</v>
+      </c>
+      <c r="AA26">
+        <v>4.65</v>
+      </c>
+      <c r="AB26">
+        <v>1.16</v>
+      </c>
+      <c r="AC26">
+        <v>1.27</v>
+      </c>
+      <c r="AD26">
+        <v>6.25</v>
+      </c>
+      <c r="AE26">
+        <v>9.5</v>
+      </c>
+      <c r="AF26">
+        <v>1.02</v>
+      </c>
+      <c r="AG26">
+        <v>23.5</v>
+      </c>
+      <c r="AH26">
+        <v>1.14</v>
+      </c>
+      <c r="AI26">
+        <v>5.5</v>
+      </c>
+      <c r="AJ26">
+        <v>1.45</v>
+      </c>
+      <c r="AK26">
+        <v>2.63</v>
+      </c>
+      <c r="AL26">
+        <v>1.87</v>
+      </c>
+      <c r="AM26">
+        <v>1.9</v>
+      </c>
+      <c r="AN26">
+        <v>1.01</v>
+      </c>
+      <c r="AO26">
+        <v>1.09</v>
+      </c>
+      <c r="AP26">
+        <v>3.75</v>
+      </c>
+      <c r="AQ26">
+        <v>2</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>2.33</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>1.34</v>
+      </c>
+      <c r="AV26">
+        <v>1.03</v>
+      </c>
+      <c r="AW26">
+        <v>2.37</v>
+      </c>
+      <c r="AX26">
+        <v>1.18</v>
+      </c>
+      <c r="AY26">
+        <v>11</v>
+      </c>
+      <c r="AZ26">
+        <v>6.16</v>
+      </c>
+      <c r="BA26">
+        <v>1.2</v>
+      </c>
+      <c r="BB26">
+        <v>1.34</v>
+      </c>
+      <c r="BC26">
+        <v>1.61</v>
+      </c>
+      <c r="BD26">
+        <v>2.05</v>
+      </c>
+      <c r="BE26">
+        <v>2.75</v>
+      </c>
+      <c r="BF26">
+        <v>2</v>
+      </c>
+      <c r="BG26">
+        <v>4</v>
+      </c>
+      <c r="BH26">
+        <v>3</v>
+      </c>
+      <c r="BI26">
+        <v>4</v>
+      </c>
+      <c r="BJ26">
+        <v>5</v>
+      </c>
+      <c r="BK26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7002960</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45164.5</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>94</v>
+      </c>
+      <c r="P27" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>9</v>
+      </c>
+      <c r="S27">
+        <v>13</v>
+      </c>
+      <c r="T27">
+        <v>5</v>
+      </c>
+      <c r="U27">
+        <v>2.65</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>1.22</v>
+      </c>
+      <c r="X27">
+        <v>3.9</v>
+      </c>
+      <c r="Y27">
+        <v>2.22</v>
+      </c>
+      <c r="Z27">
+        <v>1.6</v>
+      </c>
+      <c r="AA27">
+        <v>4.9</v>
+      </c>
+      <c r="AB27">
+        <v>1.15</v>
+      </c>
+      <c r="AC27">
+        <v>6</v>
+      </c>
+      <c r="AD27">
+        <v>4.5</v>
+      </c>
+      <c r="AE27">
+        <v>1.5</v>
+      </c>
+      <c r="AF27">
+        <v>1.01</v>
+      </c>
+      <c r="AG27">
+        <v>13</v>
+      </c>
+      <c r="AH27">
+        <v>1.16</v>
+      </c>
+      <c r="AI27">
+        <v>5</v>
+      </c>
+      <c r="AJ27">
+        <v>1.6</v>
+      </c>
+      <c r="AK27">
+        <v>2.2</v>
+      </c>
+      <c r="AL27">
+        <v>1.65</v>
+      </c>
+      <c r="AM27">
+        <v>2.2</v>
+      </c>
+      <c r="AN27">
+        <v>2.65</v>
+      </c>
+      <c r="AO27">
+        <v>1.15</v>
+      </c>
+      <c r="AP27">
+        <v>1.14</v>
+      </c>
+      <c r="AQ27">
+        <v>2</v>
+      </c>
+      <c r="AR27">
+        <v>3</v>
+      </c>
+      <c r="AS27">
+        <v>1.33</v>
+      </c>
+      <c r="AT27">
+        <v>3</v>
+      </c>
+      <c r="AU27">
+        <v>1.48</v>
+      </c>
+      <c r="AV27">
+        <v>1.64</v>
+      </c>
+      <c r="AW27">
+        <v>3.12</v>
+      </c>
+      <c r="AX27">
+        <v>3.82</v>
+      </c>
+      <c r="AY27">
+        <v>9.5</v>
+      </c>
+      <c r="AZ27">
+        <v>1.37</v>
+      </c>
+      <c r="BA27">
+        <v>1.18</v>
+      </c>
+      <c r="BB27">
+        <v>1.36</v>
+      </c>
+      <c r="BC27">
+        <v>1.63</v>
+      </c>
+      <c r="BD27">
+        <v>2.1</v>
+      </c>
+      <c r="BE27">
+        <v>2.8</v>
+      </c>
+      <c r="BF27">
+        <v>5</v>
+      </c>
+      <c r="BG27">
+        <v>4</v>
+      </c>
+      <c r="BH27">
+        <v>1</v>
+      </c>
+      <c r="BI27">
+        <v>4</v>
+      </c>
+      <c r="BJ27">
+        <v>6</v>
+      </c>
+      <c r="BK27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7002961</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45164.60416666666</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28">
+        <v>9</v>
+      </c>
+      <c r="S28">
+        <v>15</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>2.3</v>
+      </c>
+      <c r="V28">
+        <v>3.25</v>
+      </c>
+      <c r="W28">
+        <v>1.3</v>
+      </c>
+      <c r="X28">
+        <v>3.2</v>
+      </c>
+      <c r="Y28">
+        <v>2.55</v>
+      </c>
+      <c r="Z28">
+        <v>1.46</v>
+      </c>
+      <c r="AA28">
+        <v>5.95</v>
+      </c>
+      <c r="AB28">
+        <v>1.1</v>
+      </c>
+      <c r="AC28">
+        <v>2.35</v>
+      </c>
+      <c r="AD28">
+        <v>3.55</v>
+      </c>
+      <c r="AE28">
+        <v>2.9</v>
+      </c>
+      <c r="AF28">
+        <v>1.02</v>
+      </c>
+      <c r="AG28">
+        <v>15</v>
+      </c>
+      <c r="AH28">
+        <v>1.22</v>
+      </c>
+      <c r="AI28">
+        <v>4</v>
+      </c>
+      <c r="AJ28">
+        <v>1.67</v>
+      </c>
+      <c r="AK28">
+        <v>2.1</v>
+      </c>
+      <c r="AL28">
+        <v>1.62</v>
+      </c>
+      <c r="AM28">
+        <v>2.25</v>
+      </c>
+      <c r="AN28">
+        <v>1.47</v>
+      </c>
+      <c r="AO28">
+        <v>1.22</v>
+      </c>
+      <c r="AP28">
+        <v>1.57</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0.5</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>1.33</v>
+      </c>
+      <c r="AU28">
+        <v>0.99</v>
+      </c>
+      <c r="AV28">
+        <v>0.67</v>
+      </c>
+      <c r="AW28">
+        <v>1.66</v>
+      </c>
+      <c r="AX28">
+        <v>2.05</v>
+      </c>
+      <c r="AY28">
+        <v>8</v>
+      </c>
+      <c r="AZ28">
+        <v>2</v>
+      </c>
+      <c r="BA28">
+        <v>1.2</v>
+      </c>
+      <c r="BB28">
+        <v>1.39</v>
+      </c>
+      <c r="BC28">
+        <v>1.7</v>
+      </c>
+      <c r="BD28">
+        <v>2.2</v>
+      </c>
+      <c r="BE28">
+        <v>3</v>
+      </c>
+      <c r="BF28">
+        <v>5</v>
+      </c>
+      <c r="BG28">
+        <v>8</v>
+      </c>
+      <c r="BH28">
+        <v>7</v>
+      </c>
+      <c r="BI28">
+        <v>6</v>
+      </c>
+      <c r="BJ28">
+        <v>12</v>
+      </c>
+      <c r="BK28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7002964</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45165.5</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+      <c r="S29">
+        <v>9</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>2.3</v>
+      </c>
+      <c r="V29">
+        <v>3.1</v>
+      </c>
+      <c r="W29">
+        <v>1.3</v>
+      </c>
+      <c r="X29">
+        <v>3.4</v>
+      </c>
+      <c r="Y29">
+        <v>2.5</v>
+      </c>
+      <c r="Z29">
+        <v>1.5</v>
+      </c>
+      <c r="AA29">
+        <v>6</v>
+      </c>
+      <c r="AB29">
+        <v>1.13</v>
+      </c>
+      <c r="AC29">
+        <v>2.43</v>
+      </c>
+      <c r="AD29">
+        <v>3.64</v>
+      </c>
+      <c r="AE29">
+        <v>2.69</v>
+      </c>
+      <c r="AF29">
+        <v>1.02</v>
+      </c>
+      <c r="AG29">
+        <v>17</v>
+      </c>
+      <c r="AH29">
+        <v>1.2</v>
+      </c>
+      <c r="AI29">
+        <v>4.33</v>
+      </c>
+      <c r="AJ29">
+        <v>1.49</v>
+      </c>
+      <c r="AK29">
+        <v>2.32</v>
+      </c>
+      <c r="AL29">
+        <v>1.53</v>
+      </c>
+      <c r="AM29">
+        <v>2.38</v>
+      </c>
+      <c r="AN29">
+        <v>1.5</v>
+      </c>
+      <c r="AO29">
+        <v>1.22</v>
+      </c>
+      <c r="AP29">
+        <v>1.55</v>
+      </c>
+      <c r="AQ29">
+        <v>0.5</v>
+      </c>
+      <c r="AR29">
+        <v>2</v>
+      </c>
+      <c r="AS29">
+        <v>0.33</v>
+      </c>
+      <c r="AT29">
+        <v>2.33</v>
+      </c>
+      <c r="AU29">
+        <v>1.22</v>
+      </c>
+      <c r="AV29">
+        <v>1.66</v>
+      </c>
+      <c r="AW29">
+        <v>2.88</v>
+      </c>
+      <c r="AX29">
+        <v>1.83</v>
+      </c>
+      <c r="AY29">
+        <v>9</v>
+      </c>
+      <c r="AZ29">
+        <v>2.29</v>
+      </c>
+      <c r="BA29">
+        <v>1.25</v>
+      </c>
+      <c r="BB29">
+        <v>1.47</v>
+      </c>
+      <c r="BC29">
+        <v>1.93</v>
+      </c>
+      <c r="BD29">
+        <v>2.4</v>
+      </c>
+      <c r="BE29">
+        <v>3.4</v>
+      </c>
+      <c r="BF29">
+        <v>2</v>
+      </c>
+      <c r="BG29">
+        <v>4</v>
+      </c>
+      <c r="BH29">
+        <v>3</v>
+      </c>
+      <c r="BI29">
+        <v>5</v>
+      </c>
+      <c r="BJ29">
+        <v>5</v>
+      </c>
+      <c r="BK29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7002962</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45165.5</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>95</v>
+      </c>
+      <c r="P30" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>13</v>
+      </c>
+      <c r="T30">
+        <v>2.5</v>
+      </c>
+      <c r="U30">
+        <v>2.4</v>
+      </c>
+      <c r="V30">
+        <v>3.75</v>
+      </c>
+      <c r="W30">
+        <v>1.29</v>
+      </c>
+      <c r="X30">
+        <v>3.5</v>
+      </c>
+      <c r="Y30">
+        <v>2.38</v>
+      </c>
+      <c r="Z30">
+        <v>1.53</v>
+      </c>
+      <c r="AA30">
+        <v>5.5</v>
+      </c>
+      <c r="AB30">
+        <v>1.14</v>
+      </c>
+      <c r="AC30">
+        <v>2.04</v>
+      </c>
+      <c r="AD30">
+        <v>3.7</v>
+      </c>
+      <c r="AE30">
+        <v>3.4</v>
+      </c>
+      <c r="AF30">
+        <v>1.02</v>
+      </c>
+      <c r="AG30">
+        <v>17</v>
+      </c>
+      <c r="AH30">
+        <v>1.18</v>
+      </c>
+      <c r="AI30">
+        <v>4.75</v>
+      </c>
+      <c r="AJ30">
+        <v>1.65</v>
+      </c>
+      <c r="AK30">
+        <v>2.03</v>
+      </c>
+      <c r="AL30">
+        <v>1.53</v>
+      </c>
+      <c r="AM30">
+        <v>2.38</v>
+      </c>
+      <c r="AN30">
+        <v>1.3</v>
+      </c>
+      <c r="AO30">
+        <v>1.2</v>
+      </c>
+      <c r="AP30">
+        <v>1.87</v>
+      </c>
+      <c r="AQ30">
+        <v>2</v>
+      </c>
+      <c r="AR30">
+        <v>1.5</v>
+      </c>
+      <c r="AS30">
+        <v>2.33</v>
+      </c>
+      <c r="AT30">
+        <v>1</v>
+      </c>
+      <c r="AU30">
+        <v>1.36</v>
+      </c>
+      <c r="AV30">
+        <v>1.21</v>
+      </c>
+      <c r="AW30">
+        <v>2.57</v>
+      </c>
+      <c r="AX30">
+        <v>1.7</v>
+      </c>
+      <c r="AY30">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ30">
+        <v>2.58</v>
+      </c>
+      <c r="BA30">
+        <v>1.18</v>
+      </c>
+      <c r="BB30">
+        <v>1.35</v>
+      </c>
+      <c r="BC30">
+        <v>1.63</v>
+      </c>
+      <c r="BD30">
+        <v>2.1</v>
+      </c>
+      <c r="BE30">
+        <v>2.8</v>
+      </c>
+      <c r="BF30">
+        <v>5</v>
+      </c>
+      <c r="BG30">
+        <v>4</v>
+      </c>
+      <c r="BH30">
+        <v>2</v>
+      </c>
+      <c r="BI30">
+        <v>3</v>
+      </c>
+      <c r="BJ30">
+        <v>7</v>
+      </c>
+      <c r="BK30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7002963</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45165.5</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31" t="s">
+        <v>96</v>
+      </c>
+      <c r="P31" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q31">
+        <v>8</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>9</v>
+      </c>
+      <c r="T31">
+        <v>2.1</v>
+      </c>
+      <c r="U31">
+        <v>2.4</v>
+      </c>
+      <c r="V31">
+        <v>5</v>
+      </c>
+      <c r="W31">
+        <v>1.29</v>
+      </c>
+      <c r="X31">
+        <v>3.5</v>
+      </c>
+      <c r="Y31">
+        <v>2.38</v>
+      </c>
+      <c r="Z31">
+        <v>1.53</v>
+      </c>
+      <c r="AA31">
+        <v>5.5</v>
+      </c>
+      <c r="AB31">
+        <v>1.14</v>
+      </c>
+      <c r="AC31">
+        <v>1.73</v>
+      </c>
+      <c r="AD31">
+        <v>4.1</v>
+      </c>
+      <c r="AE31">
+        <v>4.33</v>
+      </c>
+      <c r="AF31">
+        <v>1.03</v>
+      </c>
+      <c r="AG31">
+        <v>11</v>
+      </c>
+      <c r="AH31">
+        <v>1.2</v>
+      </c>
+      <c r="AI31">
+        <v>4.75</v>
+      </c>
+      <c r="AJ31">
+        <v>1.57</v>
+      </c>
+      <c r="AK31">
+        <v>2.16</v>
+      </c>
+      <c r="AL31">
+        <v>1.67</v>
+      </c>
+      <c r="AM31">
+        <v>2.1</v>
+      </c>
+      <c r="AN31">
+        <v>1.17</v>
+      </c>
+      <c r="AO31">
+        <v>1.22</v>
+      </c>
+      <c r="AP31">
+        <v>2.15</v>
+      </c>
+      <c r="AQ31">
+        <v>1.5</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>1.33</v>
+      </c>
+      <c r="AT31">
+        <v>0.33</v>
+      </c>
+      <c r="AU31">
+        <v>2.03</v>
+      </c>
+      <c r="AV31">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AW31">
+        <v>2.59</v>
+      </c>
+      <c r="AX31">
+        <v>1.51</v>
+      </c>
+      <c r="AY31">
+        <v>8.5</v>
+      </c>
+      <c r="AZ31">
+        <v>3.07</v>
+      </c>
+      <c r="BA31">
+        <v>1.18</v>
+      </c>
+      <c r="BB31">
+        <v>1.32</v>
+      </c>
+      <c r="BC31">
+        <v>1.57</v>
+      </c>
+      <c r="BD31">
+        <v>1.98</v>
+      </c>
+      <c r="BE31">
+        <v>2.65</v>
+      </c>
+      <c r="BF31">
+        <v>8</v>
+      </c>
+      <c r="BG31">
+        <v>3</v>
+      </c>
+      <c r="BH31">
+        <v>10</v>
+      </c>
+      <c r="BI31">
+        <v>1</v>
+      </c>
+      <c r="BJ31">
+        <v>18</v>
+      </c>
+      <c r="BK31">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -5683,19 +5683,19 @@
         <v>2.75</v>
       </c>
       <c r="BF26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BK26">
         <v>8</v>
@@ -5874,22 +5874,22 @@
         <v>2.8</v>
       </c>
       <c r="BF27">
+        <v>4</v>
+      </c>
+      <c r="BG27">
+        <v>6</v>
+      </c>
+      <c r="BH27">
+        <v>1</v>
+      </c>
+      <c r="BI27">
+        <v>3</v>
+      </c>
+      <c r="BJ27">
         <v>5</v>
       </c>
-      <c r="BG27">
-        <v>4</v>
-      </c>
-      <c r="BH27">
-        <v>1</v>
-      </c>
-      <c r="BI27">
-        <v>4</v>
-      </c>
-      <c r="BJ27">
-        <v>6</v>
-      </c>
       <c r="BK27">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:63">
@@ -6065,22 +6065,22 @@
         <v>3</v>
       </c>
       <c r="BF28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG28">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BH28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BK28">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:63">
@@ -6133,13 +6133,13 @@
         <v>116</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R29">
         <v>5</v>
       </c>
       <c r="S29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T29">
         <v>3</v>
@@ -6259,19 +6259,19 @@
         <v>2</v>
       </c>
       <c r="BG29">
+        <v>7</v>
+      </c>
+      <c r="BH29">
         <v>4</v>
-      </c>
-      <c r="BH29">
-        <v>3</v>
       </c>
       <c r="BI29">
         <v>5</v>
       </c>
       <c r="BJ29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK29">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:63">
@@ -6447,10 +6447,10 @@
         <v>2.8</v>
       </c>
       <c r="BF30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH30">
         <v>2</v>
@@ -6459,10 +6459,10 @@
         <v>3</v>
       </c>
       <c r="BJ30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK30">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:63">
@@ -6638,22 +6638,22 @@
         <v>2.65</v>
       </c>
       <c r="BF31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BG31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ31">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BK31">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -307,6 +307,21 @@
     <t>['60']</t>
   </si>
   <si>
+    <t>['20', '74']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['13', '35']</t>
+  </si>
+  <si>
+    <t>['79', '90+6']</t>
+  </si>
+  <si>
+    <t>['3', '90+1']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -368,6 +383,18 @@
   </si>
   <si>
     <t>['8']</t>
+  </si>
+  <si>
+    <t>['2', '11', '52', '64']</t>
+  </si>
+  <si>
+    <t>['7', '62', '66']</t>
+  </si>
+  <si>
+    <t>['62', '90+1']</t>
+  </si>
+  <si>
+    <t>['9', '70']</t>
   </si>
 </sst>
 </file>
@@ -729,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BK37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -973,7 +1000,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1060,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT2">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1164,7 +1191,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1251,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1355,7 +1382,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1445,7 +1472,7 @@
         <v>0.33</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1546,7 +1573,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1633,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT5">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1737,7 +1764,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1824,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT6">
         <v>3</v>
@@ -1928,7 +1955,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2015,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT7">
         <v>3</v>
@@ -2501,7 +2528,7 @@
         <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2883,7 +2910,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -2973,7 +3000,7 @@
         <v>0.5</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3074,7 +3101,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3355,7 +3382,7 @@
         <v>2.33</v>
       </c>
       <c r="AT14">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU14">
         <v>1.73</v>
@@ -3456,7 +3483,7 @@
         <v>77</v>
       </c>
       <c r="P15" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3543,10 +3570,10 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU15">
         <v>1.31</v>
@@ -3734,10 +3761,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU16">
         <v>1.19</v>
@@ -3925,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT17">
         <v>0.33</v>
@@ -4220,7 +4247,7 @@
         <v>81</v>
       </c>
       <c r="P19" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4310,7 +4337,7 @@
         <v>1.33</v>
       </c>
       <c r="AT19">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU19">
         <v>2.76</v>
@@ -4411,7 +4438,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4498,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT20">
         <v>0.5</v>
@@ -4602,7 +4629,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -4793,7 +4820,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5071,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5175,7 +5202,7 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5265,7 +5292,7 @@
         <v>0.5</v>
       </c>
       <c r="AT24">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU24">
         <v>0.98</v>
@@ -5366,7 +5393,7 @@
         <v>92</v>
       </c>
       <c r="P25" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5557,7 +5584,7 @@
         <v>93</v>
       </c>
       <c r="P26" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5647,7 +5674,7 @@
         <v>2.33</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU26">
         <v>1.34</v>
@@ -5748,7 +5775,7 @@
         <v>94</v>
       </c>
       <c r="P27" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -5835,7 +5862,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT27">
         <v>3</v>
@@ -5939,7 +5966,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6130,7 +6157,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6220,7 +6247,7 @@
         <v>0.33</v>
       </c>
       <c r="AT29">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU29">
         <v>1.22</v>
@@ -6408,7 +6435,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -6512,7 +6539,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -6654,6 +6681,1152 @@
       </c>
       <c r="BK31">
         <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7002966</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45171.5</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>6</v>
+      </c>
+      <c r="O32" t="s">
+        <v>97</v>
+      </c>
+      <c r="P32" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>7</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>2.38</v>
+      </c>
+      <c r="V32">
+        <v>3.1</v>
+      </c>
+      <c r="W32">
+        <v>1.29</v>
+      </c>
+      <c r="X32">
+        <v>3.5</v>
+      </c>
+      <c r="Y32">
+        <v>2.38</v>
+      </c>
+      <c r="Z32">
+        <v>1.53</v>
+      </c>
+      <c r="AA32">
+        <v>5.5</v>
+      </c>
+      <c r="AB32">
+        <v>1.14</v>
+      </c>
+      <c r="AC32">
+        <v>2.55</v>
+      </c>
+      <c r="AD32">
+        <v>3.6</v>
+      </c>
+      <c r="AE32">
+        <v>2.55</v>
+      </c>
+      <c r="AF32">
+        <v>1.02</v>
+      </c>
+      <c r="AG32">
+        <v>15</v>
+      </c>
+      <c r="AH32">
+        <v>1.18</v>
+      </c>
+      <c r="AI32">
+        <v>4.8</v>
+      </c>
+      <c r="AJ32">
+        <v>1.6</v>
+      </c>
+      <c r="AK32">
+        <v>2.25</v>
+      </c>
+      <c r="AL32">
+        <v>1.5</v>
+      </c>
+      <c r="AM32">
+        <v>2.5</v>
+      </c>
+      <c r="AN32">
+        <v>1.42</v>
+      </c>
+      <c r="AO32">
+        <v>1.27</v>
+      </c>
+      <c r="AP32">
+        <v>1.55</v>
+      </c>
+      <c r="AQ32">
+        <v>0.5</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0.33</v>
+      </c>
+      <c r="AT32">
+        <v>0.75</v>
+      </c>
+      <c r="AU32">
+        <v>1.23</v>
+      </c>
+      <c r="AV32">
+        <v>0.97</v>
+      </c>
+      <c r="AW32">
+        <v>2.2</v>
+      </c>
+      <c r="AX32">
+        <v>1.95</v>
+      </c>
+      <c r="AY32">
+        <v>8</v>
+      </c>
+      <c r="AZ32">
+        <v>2.1</v>
+      </c>
+      <c r="BA32">
+        <v>1.2</v>
+      </c>
+      <c r="BB32">
+        <v>1.39</v>
+      </c>
+      <c r="BC32">
+        <v>1.7</v>
+      </c>
+      <c r="BD32">
+        <v>2.2</v>
+      </c>
+      <c r="BE32">
+        <v>3</v>
+      </c>
+      <c r="BF32">
+        <v>4</v>
+      </c>
+      <c r="BG32">
+        <v>2</v>
+      </c>
+      <c r="BH32">
+        <v>4</v>
+      </c>
+      <c r="BI32">
+        <v>4</v>
+      </c>
+      <c r="BJ32">
+        <v>8</v>
+      </c>
+      <c r="BK32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7002965</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45171.5</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q33">
+        <v>9</v>
+      </c>
+      <c r="R33">
+        <v>7</v>
+      </c>
+      <c r="S33">
+        <v>16</v>
+      </c>
+      <c r="T33">
+        <v>2.63</v>
+      </c>
+      <c r="U33">
+        <v>2.3</v>
+      </c>
+      <c r="V33">
+        <v>3.75</v>
+      </c>
+      <c r="W33">
+        <v>1.33</v>
+      </c>
+      <c r="X33">
+        <v>3.25</v>
+      </c>
+      <c r="Y33">
+        <v>2.5</v>
+      </c>
+      <c r="Z33">
+        <v>1.5</v>
+      </c>
+      <c r="AA33">
+        <v>6.5</v>
+      </c>
+      <c r="AB33">
+        <v>1.11</v>
+      </c>
+      <c r="AC33">
+        <v>2.1</v>
+      </c>
+      <c r="AD33">
+        <v>3.5</v>
+      </c>
+      <c r="AE33">
+        <v>3.3</v>
+      </c>
+      <c r="AF33">
+        <v>1.03</v>
+      </c>
+      <c r="AG33">
+        <v>13</v>
+      </c>
+      <c r="AH33">
+        <v>1.2</v>
+      </c>
+      <c r="AI33">
+        <v>4.35</v>
+      </c>
+      <c r="AJ33">
+        <v>1.75</v>
+      </c>
+      <c r="AK33">
+        <v>2</v>
+      </c>
+      <c r="AL33">
+        <v>1.62</v>
+      </c>
+      <c r="AM33">
+        <v>2.2</v>
+      </c>
+      <c r="AN33">
+        <v>1.35</v>
+      </c>
+      <c r="AO33">
+        <v>1.22</v>
+      </c>
+      <c r="AP33">
+        <v>1.75</v>
+      </c>
+      <c r="AQ33">
+        <v>1.33</v>
+      </c>
+      <c r="AR33">
+        <v>2</v>
+      </c>
+      <c r="AS33">
+        <v>1</v>
+      </c>
+      <c r="AT33">
+        <v>2.33</v>
+      </c>
+      <c r="AU33">
+        <v>1.27</v>
+      </c>
+      <c r="AV33">
+        <v>1.34</v>
+      </c>
+      <c r="AW33">
+        <v>2.61</v>
+      </c>
+      <c r="AX33">
+        <v>1.95</v>
+      </c>
+      <c r="AY33">
+        <v>8</v>
+      </c>
+      <c r="AZ33">
+        <v>2.1</v>
+      </c>
+      <c r="BA33">
+        <v>1.2</v>
+      </c>
+      <c r="BB33">
+        <v>1.39</v>
+      </c>
+      <c r="BC33">
+        <v>1.7</v>
+      </c>
+      <c r="BD33">
+        <v>2.2</v>
+      </c>
+      <c r="BE33">
+        <v>3</v>
+      </c>
+      <c r="BF33">
+        <v>4</v>
+      </c>
+      <c r="BG33">
+        <v>5</v>
+      </c>
+      <c r="BH33">
+        <v>4</v>
+      </c>
+      <c r="BI33">
+        <v>8</v>
+      </c>
+      <c r="BJ33">
+        <v>8</v>
+      </c>
+      <c r="BK33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7002967</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45171.60416666666</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q34">
+        <v>5</v>
+      </c>
+      <c r="R34">
+        <v>5</v>
+      </c>
+      <c r="S34">
+        <v>10</v>
+      </c>
+      <c r="T34">
+        <v>5.5</v>
+      </c>
+      <c r="U34">
+        <v>2.38</v>
+      </c>
+      <c r="V34">
+        <v>2.1</v>
+      </c>
+      <c r="W34">
+        <v>1.33</v>
+      </c>
+      <c r="X34">
+        <v>3.25</v>
+      </c>
+      <c r="Y34">
+        <v>2.5</v>
+      </c>
+      <c r="Z34">
+        <v>1.5</v>
+      </c>
+      <c r="AA34">
+        <v>6.5</v>
+      </c>
+      <c r="AB34">
+        <v>1.11</v>
+      </c>
+      <c r="AC34">
+        <v>5.15</v>
+      </c>
+      <c r="AD34">
+        <v>4.2</v>
+      </c>
+      <c r="AE34">
+        <v>1.61</v>
+      </c>
+      <c r="AF34">
+        <v>1.02</v>
+      </c>
+      <c r="AG34">
+        <v>15</v>
+      </c>
+      <c r="AH34">
+        <v>1.2</v>
+      </c>
+      <c r="AI34">
+        <v>4.33</v>
+      </c>
+      <c r="AJ34">
+        <v>1.7</v>
+      </c>
+      <c r="AK34">
+        <v>2.05</v>
+      </c>
+      <c r="AL34">
+        <v>1.8</v>
+      </c>
+      <c r="AM34">
+        <v>1.95</v>
+      </c>
+      <c r="AN34">
+        <v>2.6</v>
+      </c>
+      <c r="AO34">
+        <v>1.17</v>
+      </c>
+      <c r="AP34">
+        <v>1.12</v>
+      </c>
+      <c r="AQ34">
+        <v>1.5</v>
+      </c>
+      <c r="AR34">
+        <v>3</v>
+      </c>
+      <c r="AS34">
+        <v>1</v>
+      </c>
+      <c r="AT34">
+        <v>3</v>
+      </c>
+      <c r="AU34">
+        <v>1.53</v>
+      </c>
+      <c r="AV34">
+        <v>1.76</v>
+      </c>
+      <c r="AW34">
+        <v>3.29</v>
+      </c>
+      <c r="AX34">
+        <v>3.49</v>
+      </c>
+      <c r="AY34">
+        <v>9</v>
+      </c>
+      <c r="AZ34">
+        <v>1.41</v>
+      </c>
+      <c r="BA34">
+        <v>1.18</v>
+      </c>
+      <c r="BB34">
+        <v>1.35</v>
+      </c>
+      <c r="BC34">
+        <v>1.63</v>
+      </c>
+      <c r="BD34">
+        <v>2.1</v>
+      </c>
+      <c r="BE34">
+        <v>2.8</v>
+      </c>
+      <c r="BF34">
+        <v>5</v>
+      </c>
+      <c r="BG34">
+        <v>2</v>
+      </c>
+      <c r="BH34">
+        <v>4</v>
+      </c>
+      <c r="BI34">
+        <v>3</v>
+      </c>
+      <c r="BJ34">
+        <v>9</v>
+      </c>
+      <c r="BK34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7002968</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45172.5</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>99</v>
+      </c>
+      <c r="P35" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
+      <c r="S35">
+        <v>9</v>
+      </c>
+      <c r="T35">
+        <v>1.95</v>
+      </c>
+      <c r="U35">
+        <v>2.5</v>
+      </c>
+      <c r="V35">
+        <v>5.5</v>
+      </c>
+      <c r="W35">
+        <v>1.29</v>
+      </c>
+      <c r="X35">
+        <v>3.5</v>
+      </c>
+      <c r="Y35">
+        <v>2.25</v>
+      </c>
+      <c r="Z35">
+        <v>1.57</v>
+      </c>
+      <c r="AA35">
+        <v>5.5</v>
+      </c>
+      <c r="AB35">
+        <v>1.14</v>
+      </c>
+      <c r="AC35">
+        <v>1.4</v>
+      </c>
+      <c r="AD35">
+        <v>4.33</v>
+      </c>
+      <c r="AE35">
+        <v>5.5</v>
+      </c>
+      <c r="AF35">
+        <v>1.01</v>
+      </c>
+      <c r="AG35">
+        <v>13</v>
+      </c>
+      <c r="AH35">
+        <v>1.14</v>
+      </c>
+      <c r="AI35">
+        <v>5.2</v>
+      </c>
+      <c r="AJ35">
+        <v>1.53</v>
+      </c>
+      <c r="AK35">
+        <v>2.35</v>
+      </c>
+      <c r="AL35">
+        <v>1.7</v>
+      </c>
+      <c r="AM35">
+        <v>2.05</v>
+      </c>
+      <c r="AN35">
+        <v>1.1</v>
+      </c>
+      <c r="AO35">
+        <v>1.2</v>
+      </c>
+      <c r="AP35">
+        <v>2.45</v>
+      </c>
+      <c r="AQ35">
+        <v>3</v>
+      </c>
+      <c r="AR35">
+        <v>2</v>
+      </c>
+      <c r="AS35">
+        <v>3</v>
+      </c>
+      <c r="AT35">
+        <v>1.33</v>
+      </c>
+      <c r="AU35">
+        <v>1.98</v>
+      </c>
+      <c r="AV35">
+        <v>1.91</v>
+      </c>
+      <c r="AW35">
+        <v>3.89</v>
+      </c>
+      <c r="AX35">
+        <v>1.37</v>
+      </c>
+      <c r="AY35">
+        <v>9.5</v>
+      </c>
+      <c r="AZ35">
+        <v>3.69</v>
+      </c>
+      <c r="BA35">
+        <v>1.2</v>
+      </c>
+      <c r="BB35">
+        <v>1.33</v>
+      </c>
+      <c r="BC35">
+        <v>1.6</v>
+      </c>
+      <c r="BD35">
+        <v>2</v>
+      </c>
+      <c r="BE35">
+        <v>2.7</v>
+      </c>
+      <c r="BF35">
+        <v>4</v>
+      </c>
+      <c r="BG35">
+        <v>4</v>
+      </c>
+      <c r="BH35">
+        <v>6</v>
+      </c>
+      <c r="BI35">
+        <v>5</v>
+      </c>
+      <c r="BJ35">
+        <v>10</v>
+      </c>
+      <c r="BK35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7002969</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45172.5</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>100</v>
+      </c>
+      <c r="P36" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q36">
+        <v>7</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>9</v>
+      </c>
+      <c r="T36">
+        <v>1.8</v>
+      </c>
+      <c r="U36">
+        <v>2.75</v>
+      </c>
+      <c r="V36">
+        <v>6.5</v>
+      </c>
+      <c r="W36">
+        <v>1.25</v>
+      </c>
+      <c r="X36">
+        <v>3.75</v>
+      </c>
+      <c r="Y36">
+        <v>2.1</v>
+      </c>
+      <c r="Z36">
+        <v>1.67</v>
+      </c>
+      <c r="AA36">
+        <v>4.5</v>
+      </c>
+      <c r="AB36">
+        <v>1.18</v>
+      </c>
+      <c r="AC36">
+        <v>1.35</v>
+      </c>
+      <c r="AD36">
+        <v>4.6</v>
+      </c>
+      <c r="AE36">
+        <v>6.25</v>
+      </c>
+      <c r="AF36">
+        <v>1.03</v>
+      </c>
+      <c r="AG36">
+        <v>11</v>
+      </c>
+      <c r="AH36">
+        <v>1.11</v>
+      </c>
+      <c r="AI36">
+        <v>5.3</v>
+      </c>
+      <c r="AJ36">
+        <v>1.44</v>
+      </c>
+      <c r="AK36">
+        <v>2.6</v>
+      </c>
+      <c r="AL36">
+        <v>1.7</v>
+      </c>
+      <c r="AM36">
+        <v>2.05</v>
+      </c>
+      <c r="AN36">
+        <v>1.08</v>
+      </c>
+      <c r="AO36">
+        <v>1.15</v>
+      </c>
+      <c r="AP36">
+        <v>3.18</v>
+      </c>
+      <c r="AQ36">
+        <v>2.33</v>
+      </c>
+      <c r="AR36">
+        <v>1</v>
+      </c>
+      <c r="AS36">
+        <v>2.5</v>
+      </c>
+      <c r="AT36">
+        <v>0.67</v>
+      </c>
+      <c r="AU36">
+        <v>1.34</v>
+      </c>
+      <c r="AV36">
+        <v>0.74</v>
+      </c>
+      <c r="AW36">
+        <v>2.08</v>
+      </c>
+      <c r="AX36">
+        <v>1.14</v>
+      </c>
+      <c r="AY36">
+        <v>12</v>
+      </c>
+      <c r="AZ36">
+        <v>7.01</v>
+      </c>
+      <c r="BA36">
+        <v>1.2</v>
+      </c>
+      <c r="BB36">
+        <v>1.39</v>
+      </c>
+      <c r="BC36">
+        <v>1.7</v>
+      </c>
+      <c r="BD36">
+        <v>2.2</v>
+      </c>
+      <c r="BE36">
+        <v>3</v>
+      </c>
+      <c r="BF36">
+        <v>6</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>6</v>
+      </c>
+      <c r="BI36">
+        <v>5</v>
+      </c>
+      <c r="BJ36">
+        <v>12</v>
+      </c>
+      <c r="BK36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7002970</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45172.5</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>101</v>
+      </c>
+      <c r="P37" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q37">
+        <v>7</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <v>10</v>
+      </c>
+      <c r="T37">
+        <v>2.3</v>
+      </c>
+      <c r="U37">
+        <v>2.4</v>
+      </c>
+      <c r="V37">
+        <v>4.33</v>
+      </c>
+      <c r="W37">
+        <v>1.29</v>
+      </c>
+      <c r="X37">
+        <v>3.5</v>
+      </c>
+      <c r="Y37">
+        <v>2.25</v>
+      </c>
+      <c r="Z37">
+        <v>1.57</v>
+      </c>
+      <c r="AA37">
+        <v>5.5</v>
+      </c>
+      <c r="AB37">
+        <v>1.14</v>
+      </c>
+      <c r="AC37">
+        <v>1.67</v>
+      </c>
+      <c r="AD37">
+        <v>3.85</v>
+      </c>
+      <c r="AE37">
+        <v>3.75</v>
+      </c>
+      <c r="AF37">
+        <v>1.02</v>
+      </c>
+      <c r="AG37">
+        <v>17</v>
+      </c>
+      <c r="AH37">
+        <v>1.18</v>
+      </c>
+      <c r="AI37">
+        <v>4.75</v>
+      </c>
+      <c r="AJ37">
+        <v>1.53</v>
+      </c>
+      <c r="AK37">
+        <v>2.35</v>
+      </c>
+      <c r="AL37">
+        <v>1.57</v>
+      </c>
+      <c r="AM37">
+        <v>2.25</v>
+      </c>
+      <c r="AN37">
+        <v>1.29</v>
+      </c>
+      <c r="AO37">
+        <v>1.22</v>
+      </c>
+      <c r="AP37">
+        <v>2</v>
+      </c>
+      <c r="AQ37">
+        <v>0.5</v>
+      </c>
+      <c r="AR37">
+        <v>2.33</v>
+      </c>
+      <c r="AS37">
+        <v>0.67</v>
+      </c>
+      <c r="AT37">
+        <v>2</v>
+      </c>
+      <c r="AU37">
+        <v>1.35</v>
+      </c>
+      <c r="AV37">
+        <v>1.57</v>
+      </c>
+      <c r="AW37">
+        <v>2.92</v>
+      </c>
+      <c r="AX37">
+        <v>1.51</v>
+      </c>
+      <c r="AY37">
+        <v>8.5</v>
+      </c>
+      <c r="AZ37">
+        <v>3.07</v>
+      </c>
+      <c r="BA37">
+        <v>1.18</v>
+      </c>
+      <c r="BB37">
+        <v>1.35</v>
+      </c>
+      <c r="BC37">
+        <v>1.63</v>
+      </c>
+      <c r="BD37">
+        <v>2.05</v>
+      </c>
+      <c r="BE37">
+        <v>2.8</v>
+      </c>
+      <c r="BF37">
+        <v>8</v>
+      </c>
+      <c r="BG37">
+        <v>2</v>
+      </c>
+      <c r="BH37">
+        <v>6</v>
+      </c>
+      <c r="BI37">
+        <v>3</v>
+      </c>
+      <c r="BJ37">
+        <v>14</v>
+      </c>
+      <c r="BK37">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -6856,10 +6856,10 @@
         <v>3</v>
       </c>
       <c r="BF32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH32">
         <v>4</v>
@@ -6868,10 +6868,10 @@
         <v>4</v>
       </c>
       <c r="BJ32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK32">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:63">
@@ -7050,19 +7050,19 @@
         <v>4</v>
       </c>
       <c r="BG33">
+        <v>8</v>
+      </c>
+      <c r="BH33">
         <v>5</v>
       </c>
-      <c r="BH33">
-        <v>4</v>
-      </c>
       <c r="BI33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK33">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:63">
@@ -7241,19 +7241,19 @@
         <v>5</v>
       </c>
       <c r="BG34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI34">
         <v>3</v>
       </c>
       <c r="BJ34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK34">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:63">
@@ -7429,10 +7429,10 @@
         <v>2.7</v>
       </c>
       <c r="BF35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH35">
         <v>6</v>
@@ -7441,10 +7441,10 @@
         <v>5</v>
       </c>
       <c r="BJ35">
+        <v>11</v>
+      </c>
+      <c r="BK35">
         <v>10</v>
-      </c>
-      <c r="BK35">
-        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:63">
@@ -7626,16 +7626,16 @@
         <v>0</v>
       </c>
       <c r="BH36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK36">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:63">
@@ -7814,7 +7814,7 @@
         <v>8</v>
       </c>
       <c r="BG37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH37">
         <v>6</v>
@@ -7826,7 +7826,7 @@
         <v>14</v>
       </c>
       <c r="BK37">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -280,12 +280,12 @@
     <t>['12', '49']</t>
   </si>
   <si>
+    <t>['55', '90+8']</t>
+  </si>
+  <si>
     <t>['90+8']</t>
   </si>
   <si>
-    <t>['55', '90+8']</t>
-  </si>
-  <si>
     <t>['16']</t>
   </si>
   <si>
@@ -379,10 +379,10 @@
     <t>['2', '25', '56']</t>
   </si>
   <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['44', '62', '90+4']</t>
-  </si>
-  <si>
-    <t>['8']</t>
   </si>
   <si>
     <t>['2', '11', '52', '64']</t>
@@ -3823,7 +3823,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7002952</v>
+        <v>7002950</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -3838,10 +3838,10 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3853,13 +3853,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17" t="s">
         <v>88</v>
@@ -3868,121 +3868,121 @@
         <v>81</v>
       </c>
       <c r="Q17">
+        <v>8</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>10</v>
+      </c>
+      <c r="T17">
+        <v>1.84</v>
+      </c>
+      <c r="U17">
+        <v>2.63</v>
+      </c>
+      <c r="V17">
+        <v>5.9</v>
+      </c>
+      <c r="W17">
+        <v>1.24</v>
+      </c>
+      <c r="X17">
+        <v>3.82</v>
+      </c>
+      <c r="Y17">
+        <v>2.15</v>
+      </c>
+      <c r="Z17">
+        <v>1.66</v>
+      </c>
+      <c r="AA17">
+        <v>4.7</v>
+      </c>
+      <c r="AB17">
+        <v>1.17</v>
+      </c>
+      <c r="AC17">
+        <v>1.4</v>
+      </c>
+      <c r="AD17">
+        <v>5</v>
+      </c>
+      <c r="AE17">
         <v>6</v>
       </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>7</v>
-      </c>
-      <c r="T17">
-        <v>3.2</v>
-      </c>
-      <c r="U17">
-        <v>2.25</v>
-      </c>
-      <c r="V17">
-        <v>3.1</v>
-      </c>
-      <c r="W17">
-        <v>1.33</v>
-      </c>
-      <c r="X17">
-        <v>3.25</v>
-      </c>
-      <c r="Y17">
-        <v>2.63</v>
-      </c>
-      <c r="Z17">
-        <v>1.44</v>
-      </c>
-      <c r="AA17">
-        <v>6.5</v>
-      </c>
-      <c r="AB17">
+      <c r="AF17">
+        <v>1.02</v>
+      </c>
+      <c r="AG17">
+        <v>24</v>
+      </c>
+      <c r="AH17">
         <v>1.11</v>
       </c>
-      <c r="AC17">
-        <v>2.7</v>
-      </c>
-      <c r="AD17">
-        <v>3.4</v>
-      </c>
-      <c r="AE17">
-        <v>2.4</v>
-      </c>
-      <c r="AF17">
-        <v>1.03</v>
-      </c>
-      <c r="AG17">
-        <v>10.5</v>
-      </c>
-      <c r="AH17">
-        <v>1.22</v>
-      </c>
       <c r="AI17">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="AJ17">
-        <v>1.81</v>
+        <v>1.47</v>
       </c>
       <c r="AK17">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="AL17">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AM17">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="AN17">
-        <v>1.53</v>
+        <v>1.1</v>
       </c>
       <c r="AO17">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AP17">
-        <v>1.48</v>
+        <v>2.88</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT17">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU17">
-        <v>1.02</v>
+        <v>2.14</v>
       </c>
       <c r="AV17">
-        <v>0.61</v>
+        <v>2.23</v>
       </c>
       <c r="AW17">
-        <v>1.63</v>
+        <v>4.37</v>
       </c>
       <c r="AX17">
-        <v>2.11</v>
+        <v>1.38</v>
       </c>
       <c r="AY17">
-        <v>8.9</v>
+        <v>8</v>
       </c>
       <c r="AZ17">
-        <v>1.97</v>
+        <v>4</v>
       </c>
       <c r="BA17">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="BB17">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="BC17">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="BD17">
         <v>2.2</v>
@@ -3991,22 +3991,22 @@
         <v>3</v>
       </c>
       <c r="BF17">
+        <v>7</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
         <v>9</v>
       </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
-      <c r="BH17">
-        <v>7</v>
-      </c>
       <c r="BI17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BJ17">
         <v>16</v>
       </c>
       <c r="BK17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:63">
@@ -4014,7 +4014,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7002950</v>
+        <v>7002951</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -4029,10 +4029,10 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4044,127 +4044,127 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T18">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="U18">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="V18">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="W18">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="X18">
-        <v>3.82</v>
+        <v>3.3</v>
       </c>
       <c r="Y18">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="Z18">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="AA18">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="AB18">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AC18">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="AD18">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="AE18">
-        <v>6</v>
+        <v>4.85</v>
       </c>
       <c r="AF18">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG18">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AH18">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AI18">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="AJ18">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AK18">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="AL18">
         <v>1.67</v>
       </c>
       <c r="AM18">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="AN18">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AO18">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AP18">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="AQ18">
         <v>3</v>
       </c>
       <c r="AR18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS18">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AU18">
-        <v>2.14</v>
+        <v>2.76</v>
       </c>
       <c r="AV18">
-        <v>2.23</v>
+        <v>1.65</v>
       </c>
       <c r="AW18">
-        <v>4.37</v>
+        <v>4.41</v>
       </c>
       <c r="AX18">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AY18">
         <v>8</v>
       </c>
       <c r="AZ18">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BA18">
         <v>1.21</v>
@@ -4182,22 +4182,22 @@
         <v>3</v>
       </c>
       <c r="BF18">
+        <v>5</v>
+      </c>
+      <c r="BG18">
+        <v>4</v>
+      </c>
+      <c r="BH18">
+        <v>3</v>
+      </c>
+      <c r="BI18">
+        <v>3</v>
+      </c>
+      <c r="BJ18">
+        <v>8</v>
+      </c>
+      <c r="BK18">
         <v>7</v>
-      </c>
-      <c r="BG18">
-        <v>0</v>
-      </c>
-      <c r="BH18">
-        <v>9</v>
-      </c>
-      <c r="BI18">
-        <v>0</v>
-      </c>
-      <c r="BJ18">
-        <v>16</v>
-      </c>
-      <c r="BK18">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:63">
@@ -4205,7 +4205,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7002951</v>
+        <v>7002952</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
@@ -4220,10 +4220,10 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4235,136 +4235,136 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
       <c r="O19" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" t="s">
         <v>81</v>
-      </c>
-      <c r="P19" t="s">
-        <v>112</v>
       </c>
       <c r="Q19">
         <v>6</v>
       </c>
       <c r="R19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T19">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="U19">
+        <v>2.25</v>
+      </c>
+      <c r="V19">
+        <v>3.1</v>
+      </c>
+      <c r="W19">
+        <v>1.33</v>
+      </c>
+      <c r="X19">
+        <v>3.25</v>
+      </c>
+      <c r="Y19">
+        <v>2.63</v>
+      </c>
+      <c r="Z19">
+        <v>1.44</v>
+      </c>
+      <c r="AA19">
+        <v>6.5</v>
+      </c>
+      <c r="AB19">
+        <v>1.11</v>
+      </c>
+      <c r="AC19">
+        <v>2.7</v>
+      </c>
+      <c r="AD19">
+        <v>3.4</v>
+      </c>
+      <c r="AE19">
         <v>2.4</v>
-      </c>
-      <c r="V19">
-        <v>5</v>
-      </c>
-      <c r="W19">
-        <v>1.3</v>
-      </c>
-      <c r="X19">
-        <v>3.3</v>
-      </c>
-      <c r="Y19">
-        <v>2.35</v>
-      </c>
-      <c r="Z19">
-        <v>1.52</v>
-      </c>
-      <c r="AA19">
-        <v>5.5</v>
-      </c>
-      <c r="AB19">
-        <v>1.13</v>
-      </c>
-      <c r="AC19">
-        <v>1.59</v>
-      </c>
-      <c r="AD19">
-        <v>4.1</v>
-      </c>
-      <c r="AE19">
-        <v>4.85</v>
       </c>
       <c r="AF19">
         <v>1.03</v>
       </c>
       <c r="AG19">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AH19">
+        <v>1.22</v>
+      </c>
+      <c r="AI19">
+        <v>3.8</v>
+      </c>
+      <c r="AJ19">
+        <v>1.81</v>
+      </c>
+      <c r="AK19">
+        <v>2.05</v>
+      </c>
+      <c r="AL19">
+        <v>1.57</v>
+      </c>
+      <c r="AM19">
+        <v>2.25</v>
+      </c>
+      <c r="AN19">
+        <v>1.53</v>
+      </c>
+      <c r="AO19">
+        <v>1.3</v>
+      </c>
+      <c r="AP19">
+        <v>1.48</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>0.33</v>
+      </c>
+      <c r="AU19">
+        <v>1.02</v>
+      </c>
+      <c r="AV19">
+        <v>0.61</v>
+      </c>
+      <c r="AW19">
+        <v>1.63</v>
+      </c>
+      <c r="AX19">
+        <v>2.11</v>
+      </c>
+      <c r="AY19">
+        <v>8.9</v>
+      </c>
+      <c r="AZ19">
+        <v>1.97</v>
+      </c>
+      <c r="BA19">
         <v>1.2</v>
       </c>
-      <c r="AI19">
-        <v>4.6</v>
-      </c>
-      <c r="AJ19">
-        <v>1.57</v>
-      </c>
-      <c r="AK19">
-        <v>2.3</v>
-      </c>
-      <c r="AL19">
-        <v>1.67</v>
-      </c>
-      <c r="AM19">
-        <v>2.1</v>
-      </c>
-      <c r="AN19">
-        <v>1.18</v>
-      </c>
-      <c r="AO19">
-        <v>1.23</v>
-      </c>
-      <c r="AP19">
-        <v>2.3</v>
-      </c>
-      <c r="AQ19">
-        <v>3</v>
-      </c>
-      <c r="AR19">
-        <v>1</v>
-      </c>
-      <c r="AS19">
-        <v>1.33</v>
-      </c>
-      <c r="AT19">
-        <v>2.33</v>
-      </c>
-      <c r="AU19">
-        <v>2.76</v>
-      </c>
-      <c r="AV19">
-        <v>1.65</v>
-      </c>
-      <c r="AW19">
-        <v>4.41</v>
-      </c>
-      <c r="AX19">
-        <v>1.35</v>
-      </c>
-      <c r="AY19">
-        <v>8</v>
-      </c>
-      <c r="AZ19">
-        <v>4.2</v>
-      </c>
-      <c r="BA19">
-        <v>1.21</v>
-      </c>
       <c r="BB19">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="BC19">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="BD19">
         <v>2.2</v>
@@ -4373,22 +4373,22 @@
         <v>3</v>
       </c>
       <c r="BF19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>7</v>
+      </c>
+      <c r="BI19">
         <v>4</v>
       </c>
-      <c r="BH19">
-        <v>3</v>
-      </c>
-      <c r="BI19">
-        <v>3</v>
-      </c>
       <c r="BJ19">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BK19">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:63">
@@ -6115,7 +6115,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7002964</v>
+        <v>7002962</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -6130,79 +6130,79 @@
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P29" t="s">
         <v>81</v>
       </c>
-      <c r="P29" t="s">
-        <v>121</v>
-      </c>
       <c r="Q29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S29">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="V29">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="W29">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X29">
+        <v>3.5</v>
+      </c>
+      <c r="Y29">
+        <v>2.38</v>
+      </c>
+      <c r="Z29">
+        <v>1.53</v>
+      </c>
+      <c r="AA29">
+        <v>5.5</v>
+      </c>
+      <c r="AB29">
+        <v>1.14</v>
+      </c>
+      <c r="AC29">
+        <v>2.04</v>
+      </c>
+      <c r="AD29">
+        <v>3.7</v>
+      </c>
+      <c r="AE29">
         <v>3.4</v>
-      </c>
-      <c r="Y29">
-        <v>2.5</v>
-      </c>
-      <c r="Z29">
-        <v>1.5</v>
-      </c>
-      <c r="AA29">
-        <v>6</v>
-      </c>
-      <c r="AB29">
-        <v>1.13</v>
-      </c>
-      <c r="AC29">
-        <v>2.43</v>
-      </c>
-      <c r="AD29">
-        <v>3.64</v>
-      </c>
-      <c r="AE29">
-        <v>2.69</v>
       </c>
       <c r="AF29">
         <v>1.02</v>
@@ -6211,16 +6211,16 @@
         <v>17</v>
       </c>
       <c r="AH29">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AI29">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AJ29">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="AK29">
-        <v>2.32</v>
+        <v>2.03</v>
       </c>
       <c r="AL29">
         <v>1.53</v>
@@ -6229,76 +6229,76 @@
         <v>2.38</v>
       </c>
       <c r="AN29">
+        <v>1.3</v>
+      </c>
+      <c r="AO29">
+        <v>1.2</v>
+      </c>
+      <c r="AP29">
+        <v>1.87</v>
+      </c>
+      <c r="AQ29">
+        <v>2</v>
+      </c>
+      <c r="AR29">
         <v>1.5</v>
       </c>
-      <c r="AO29">
-        <v>1.22</v>
-      </c>
-      <c r="AP29">
-        <v>1.55</v>
-      </c>
-      <c r="AQ29">
-        <v>0.5</v>
-      </c>
-      <c r="AR29">
-        <v>2</v>
-      </c>
       <c r="AS29">
-        <v>0.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU29">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AV29">
-        <v>1.66</v>
+        <v>1.21</v>
       </c>
       <c r="AW29">
-        <v>2.88</v>
+        <v>2.57</v>
       </c>
       <c r="AX29">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AY29">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ29">
-        <v>2.29</v>
+        <v>2.58</v>
       </c>
       <c r="BA29">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="BB29">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="BC29">
-        <v>1.93</v>
+        <v>1.63</v>
       </c>
       <c r="BD29">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="BE29">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="BF29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BI29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ29">
+        <v>8</v>
+      </c>
+      <c r="BK29">
         <v>6</v>
-      </c>
-      <c r="BK29">
-        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:63">
@@ -6306,7 +6306,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7002962</v>
+        <v>7002963</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -6321,52 +6321,52 @@
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>2</v>
       </c>
       <c r="O30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="U30">
         <v>2.4</v>
       </c>
       <c r="V30">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="W30">
         <v>1.29</v>
@@ -6387,106 +6387,106 @@
         <v>1.14</v>
       </c>
       <c r="AC30">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="AD30">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AE30">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="AF30">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG30">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AH30">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AI30">
         <v>4.75</v>
       </c>
       <c r="AJ30">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AK30">
+        <v>2.16</v>
+      </c>
+      <c r="AL30">
+        <v>1.67</v>
+      </c>
+      <c r="AM30">
+        <v>2.1</v>
+      </c>
+      <c r="AN30">
+        <v>1.17</v>
+      </c>
+      <c r="AO30">
+        <v>1.22</v>
+      </c>
+      <c r="AP30">
+        <v>2.15</v>
+      </c>
+      <c r="AQ30">
+        <v>1.5</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>1.33</v>
+      </c>
+      <c r="AT30">
+        <v>0.33</v>
+      </c>
+      <c r="AU30">
         <v>2.03</v>
       </c>
-      <c r="AL30">
-        <v>1.53</v>
-      </c>
-      <c r="AM30">
-        <v>2.38</v>
-      </c>
-      <c r="AN30">
-        <v>1.3</v>
-      </c>
-      <c r="AO30">
-        <v>1.2</v>
-      </c>
-      <c r="AP30">
-        <v>1.87</v>
-      </c>
-      <c r="AQ30">
-        <v>2</v>
-      </c>
-      <c r="AR30">
-        <v>1.5</v>
-      </c>
-      <c r="AS30">
-        <v>2.5</v>
-      </c>
-      <c r="AT30">
-        <v>1</v>
-      </c>
-      <c r="AU30">
-        <v>1.36</v>
-      </c>
       <c r="AV30">
-        <v>1.21</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AW30">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="AX30">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="AY30">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AZ30">
-        <v>2.58</v>
+        <v>3.07</v>
       </c>
       <c r="BA30">
         <v>1.18</v>
       </c>
       <c r="BB30">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="BC30">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="BD30">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="BE30">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BF30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BG30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH30">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BI30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ30">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="BK30">
         <v>6</v>
@@ -6497,7 +6497,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7002963</v>
+        <v>7002964</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -6512,10 +6512,10 @@
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -6527,160 +6527,160 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="P31" t="s">
         <v>122</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T31">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="V31">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="W31">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X31">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y31">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z31">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA31">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB31">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AC31">
-        <v>1.73</v>
+        <v>2.43</v>
       </c>
       <c r="AD31">
-        <v>4.1</v>
+        <v>3.64</v>
       </c>
       <c r="AE31">
-        <v>4.33</v>
+        <v>2.69</v>
       </c>
       <c r="AF31">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AG31">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AH31">
         <v>1.2</v>
       </c>
       <c r="AI31">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AJ31">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="AK31">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="AL31">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AM31">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AN31">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AO31">
         <v>1.22</v>
       </c>
       <c r="AP31">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS31">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AT31">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AU31">
-        <v>2.03</v>
+        <v>1.22</v>
       </c>
       <c r="AV31">
-        <v>0.5600000000000001</v>
+        <v>1.66</v>
       </c>
       <c r="AW31">
-        <v>2.59</v>
+        <v>2.88</v>
       </c>
       <c r="AX31">
-        <v>1.51</v>
+        <v>1.83</v>
       </c>
       <c r="AY31">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ31">
-        <v>3.07</v>
+        <v>2.29</v>
       </c>
       <c r="BA31">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="BB31">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="BC31">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="BD31">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="BE31">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="BF31">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BG31">
+        <v>7</v>
+      </c>
+      <c r="BH31">
         <v>4</v>
       </c>
-      <c r="BH31">
+      <c r="BI31">
+        <v>5</v>
+      </c>
+      <c r="BJ31">
+        <v>6</v>
+      </c>
+      <c r="BK31">
         <v>12</v>
-      </c>
-      <c r="BI31">
-        <v>2</v>
-      </c>
-      <c r="BJ31">
-        <v>22</v>
-      </c>
-      <c r="BK31">
-        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:63">

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK39"/>
+  <dimension ref="A1:BK43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
         <v>0.67</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT8" t="n">
         <v>1.25</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
         <v>1.33</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
@@ -3948,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU17" t="n">
         <v>2.14</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT18" t="n">
         <v>2.33</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>1.02</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU25" t="n">
         <v>1.57</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>0.75</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU27" t="n">
         <v>1.48</v>
@@ -6384,7 +6384,7 @@
         <v>2.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU29" t="n">
         <v>1.36</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>2.03</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT31" t="n">
         <v>2</v>
@@ -8247,22 +8247,22 @@
         <v>3.4</v>
       </c>
       <c r="BF38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH38" t="n">
         <v>4</v>
       </c>
       <c r="BI38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BK38" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -8450,22 +8450,834 @@
         <v>2.5</v>
       </c>
       <c r="BF39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG39" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI39" t="n">
         <v>5</v>
       </c>
       <c r="BJ39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BK39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7002971</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45185.60416666666</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['53', '63']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['40', '73']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6</v>
+      </c>
+      <c r="S40" t="n">
+        <v>11</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG40" t="n">
         <v>10</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7002975</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45186.39583333334</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>['50', '56']</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['38', '42', '62']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>7</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7002976</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45186.39583333334</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['43', '51']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>10</v>
+      </c>
+      <c r="S42" t="n">
+        <v>14</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7002973</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45186.5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['29', '41', '84']</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['69', '76', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>7</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6</v>
+      </c>
+      <c r="S43" t="n">
+        <v>13</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK43"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT5" t="n">
         <v>2</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU15" t="n">
         <v>1.31</v>
@@ -3745,7 +3745,7 @@
         <v>2.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU16" t="n">
         <v>1.19</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT17" t="n">
         <v>0.75</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT20" t="n">
         <v>1.33</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT22" t="n">
         <v>1.25</v>
@@ -5166,7 +5166,7 @@
         <v>0.67</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU23" t="n">
         <v>0.86</v>
@@ -5775,7 +5775,7 @@
         <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU26" t="n">
         <v>1.34</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU32" t="n">
         <v>1.23</v>
@@ -7599,7 +7599,7 @@
         <v>2</v>
       </c>
       <c r="AS35" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT35" t="n">
         <v>1.33</v>
@@ -7805,7 +7805,7 @@
         <v>2.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU36" t="n">
         <v>1.34</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT38" t="n">
         <v>1.33</v>
@@ -9226,7 +9226,7 @@
         <v>1.25</v>
       </c>
       <c r="AT43" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU43" t="n">
         <v>2.21</v>
@@ -9278,6 +9278,615 @@
       </c>
       <c r="BK43" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7002982</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45192.5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>5</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['51', '59']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['7', '48', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>10</v>
+      </c>
+      <c r="S44" t="n">
+        <v>13</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7002977</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45192.5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>7002979</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45192.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>8</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>11</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V46" t="n">
+        <v>5</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK46"/>
+  <dimension ref="A1:BK49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT2" t="n">
         <v>1.33</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT6" t="n">
         <v>2.5</v>
@@ -1918,7 +1918,7 @@
         <v>0.67</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT8" t="n">
         <v>1.25</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0.67</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT16" t="n">
         <v>1.2</v>
@@ -3948,7 +3948,7 @@
         <v>2.25</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU17" t="n">
         <v>2.14</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU18" t="n">
         <v>2.76</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU21" t="n">
         <v>1.23</v>
@@ -6381,10 +6381,10 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU29" t="n">
         <v>1.36</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU33" t="n">
         <v>1.27</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT34" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU34" t="n">
         <v>1.53</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT36" t="n">
         <v>0.5</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU42" t="n">
         <v>1.12</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT43" t="n">
         <v>1.5</v>
@@ -9465,13 +9465,13 @@
         <v>3.3</v>
       </c>
       <c r="BF44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI44" t="n">
         <v>7</v>
@@ -9480,7 +9480,7 @@
         <v>7</v>
       </c>
       <c r="BK44" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -9545,13 +9545,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
         <v>1</v>
       </c>
       <c r="S45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T45" t="n">
         <v>1.57</v>
@@ -9668,22 +9668,22 @@
         <v>3.5</v>
       </c>
       <c r="BF45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH45" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BI45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ45" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BK45" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -9877,16 +9877,625 @@
         <v>4</v>
       </c>
       <c r="BH46" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BI46" t="n">
         <v>4</v>
       </c>
       <c r="BJ46" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BK46" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>7002978</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45193.39583333334</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>7</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>9</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>5</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7002981</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45193.39583333334</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['7', '15']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>6</v>
+      </c>
+      <c r="R48" t="n">
+        <v>8</v>
+      </c>
+      <c r="S48" t="n">
+        <v>14</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7002980</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45193.5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>7</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -10480,22 +10480,22 @@
         <v>2.5</v>
       </c>
       <c r="BF49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG49" t="n">
         <v>4</v>
       </c>
       <c r="BH49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ49" t="n">
         <v>8</v>
       </c>
       <c r="BK49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ49"/>
+  <dimension ref="A1:AZ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.2</v>
@@ -1349,7 +1349,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ12" t="n">
         <v>2</v>
@@ -2879,7 +2879,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR14" t="n">
         <v>1.73</v>
@@ -3046,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.5</v>
@@ -3899,7 +3899,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
         <v>1.19</v>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.33</v>
@@ -4749,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR25" t="n">
         <v>1.57</v>
@@ -5086,10 +5086,10 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR27" t="n">
         <v>1.48</v>
@@ -5769,7 +5769,7 @@
         <v>1</v>
       </c>
       <c r="AQ31" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR31" t="n">
         <v>1.22</v>
@@ -6106,7 +6106,7 @@
         <v>2</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33" t="n">
         <v>2</v>
@@ -6789,7 +6789,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR37" t="n">
         <v>1.35</v>
@@ -6959,7 +6959,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR38" t="n">
         <v>1.59</v>
@@ -7126,7 +7126,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.25</v>
@@ -7299,7 +7299,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR40" t="n">
         <v>1.36</v>
@@ -8857,6 +8857,516 @@
       </c>
       <c r="AZ49" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>7003009</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45199.5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['25', '40']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X50" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>7003122</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45199.5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>7003164</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45199.5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>9</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="n">
+        <v>4</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>['21', '25', '39', '58']</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ52"/>
+  <dimension ref="A1:AZ55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,7 +839,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ7" t="n">
         <v>2.5</v>
@@ -1859,7 +1859,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ9" t="n">
         <v>1</v>
@@ -2369,7 +2369,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.8</v>
@@ -3729,7 +3729,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR19" t="n">
         <v>1.02</v>
@@ -4239,7 +4239,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR22" t="n">
         <v>1.78</v>
@@ -4406,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.5</v>
@@ -4579,7 +4579,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR24" t="n">
         <v>0.98</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.2</v>
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR28" t="n">
         <v>0.99</v>
@@ -5599,7 +5599,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR30" t="n">
         <v>2.03</v>
@@ -6449,7 +6449,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR35" t="n">
         <v>1.98</v>
@@ -6786,7 +6786,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.8</v>
@@ -7129,7 +7129,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR39" t="n">
         <v>1.06</v>
@@ -7296,7 +7296,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.6</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR41" t="n">
         <v>1</v>
@@ -9351,21 +9351,531 @@
         <v>2.81</v>
       </c>
       <c r="AU52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV52" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY52" t="n">
         <v>4</v>
       </c>
-      <c r="AW52" t="n">
+      <c r="AZ52" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>7003087</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45200.39583333334</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S53" t="n">
+        <v>8</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U53" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>7003205</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45200.39583333334</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U54" t="n">
         <v>3</v>
       </c>
-      <c r="AX52" t="n">
+      <c r="V54" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X54" t="n">
         <v>7</v>
       </c>
-      <c r="AY52" t="n">
+      <c r="Y54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX54" t="n">
         <v>3</v>
       </c>
-      <c r="AZ52" t="n">
+      <c r="AY54" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>7003052</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45200.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X55" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ55" t="n">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -9011,19 +9011,19 @@
         <v>2.48</v>
       </c>
       <c r="AU50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV50" t="n">
         <v>8</v>
       </c>
       <c r="AW50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX50" t="n">
         <v>5</v>
       </c>
       <c r="AY50" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ50" t="n">
         <v>13</v>
@@ -9181,16 +9181,16 @@
         <v>2.44</v>
       </c>
       <c r="AU51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV51" t="n">
         <v>5</v>
       </c>
-      <c r="AV51" t="n">
-        <v>4</v>
-      </c>
       <c r="AW51" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY51" t="n">
         <v>11</v>
@@ -9351,22 +9351,22 @@
         <v>2.81</v>
       </c>
       <c r="AU52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV52" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX52" t="n">
         <v>9</v>
       </c>
       <c r="AY52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ52" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -9527,13 +9527,13 @@
         <v>4</v>
       </c>
       <c r="AW53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX53" t="n">
         <v>4</v>
       </c>
       <c r="AY53" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ53" t="n">
         <v>8</v>
@@ -9861,22 +9861,22 @@
         <v>3.18</v>
       </c>
       <c r="AU55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV55" t="n">
         <v>4</v>
       </c>
       <c r="AW55" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX55" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AY55" t="n">
         <v>10</v>
       </c>
       <c r="AZ55" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ55"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -868,6 +948,54 @@
       <c r="AZ2" t="n">
         <v>17</v>
       </c>
+      <c r="BA2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1038,6 +1166,54 @@
       <c r="AZ3" t="n">
         <v>8</v>
       </c>
+      <c r="BA3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1207,6 +1383,54 @@
       </c>
       <c r="AZ4" t="n">
         <v>5</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="5">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>15</v>
       </c>
+      <c r="BA5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1548,6 +1820,54 @@
       <c r="AZ6" t="n">
         <v>15</v>
       </c>
+      <c r="BA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>18</v>
       </c>
+      <c r="BA7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1888,6 +2256,54 @@
       <c r="AZ8" t="n">
         <v>5</v>
       </c>
+      <c r="BA8" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>5</v>
       </c>
+      <c r="BA9" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>18</v>
       </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>5</v>
       </c>
+      <c r="BA11" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>12</v>
       </c>
+      <c r="BA12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>6</v>
       </c>
+      <c r="BA13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>10</v>
       </c>
+      <c r="BA14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>4</v>
       </c>
+      <c r="BA15" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3248,6 +4000,54 @@
       <c r="AZ16" t="n">
         <v>7</v>
       </c>
+      <c r="BA16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>0</v>
       </c>
+      <c r="BA17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3588,6 +4436,54 @@
       <c r="AZ18" t="n">
         <v>7</v>
       </c>
+      <c r="BA18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3758,6 +4654,54 @@
       <c r="AZ19" t="n">
         <v>4</v>
       </c>
+      <c r="BA19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3928,6 +4872,54 @@
       <c r="AZ20" t="n">
         <v>12</v>
       </c>
+      <c r="BA20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4098,6 +5090,54 @@
       <c r="AZ21" t="n">
         <v>15</v>
       </c>
+      <c r="BA21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4268,6 +5308,54 @@
       <c r="AZ22" t="n">
         <v>5</v>
       </c>
+      <c r="BA22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4438,6 +5526,54 @@
       <c r="AZ23" t="n">
         <v>7</v>
       </c>
+      <c r="BA23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4608,6 +5744,54 @@
       <c r="AZ24" t="n">
         <v>13</v>
       </c>
+      <c r="BA24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.46</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4778,6 +5962,54 @@
       <c r="AZ25" t="n">
         <v>10</v>
       </c>
+      <c r="BA25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4948,6 +6180,54 @@
       <c r="AZ26" t="n">
         <v>8</v>
       </c>
+      <c r="BA26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5118,6 +6398,54 @@
       <c r="AZ27" t="n">
         <v>9</v>
       </c>
+      <c r="BA27" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5288,6 +6616,54 @@
       <c r="AZ28" t="n">
         <v>21</v>
       </c>
+      <c r="BA28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5458,6 +6834,54 @@
       <c r="AZ29" t="n">
         <v>6</v>
       </c>
+      <c r="BA29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5628,6 +7052,54 @@
       <c r="AZ30" t="n">
         <v>6</v>
       </c>
+      <c r="BA30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5798,6 +7270,54 @@
       <c r="AZ31" t="n">
         <v>12</v>
       </c>
+      <c r="BA31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5968,6 +7488,54 @@
       <c r="AZ32" t="n">
         <v>10</v>
       </c>
+      <c r="BA32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6138,6 +7706,54 @@
       <c r="AZ33" t="n">
         <v>14</v>
       </c>
+      <c r="BA33" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6308,6 +7924,54 @@
       <c r="AZ34" t="n">
         <v>7</v>
       </c>
+      <c r="BA34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6478,6 +8142,54 @@
       <c r="AZ35" t="n">
         <v>10</v>
       </c>
+      <c r="BA35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6648,6 +8360,54 @@
       <c r="AZ36" t="n">
         <v>4</v>
       </c>
+      <c r="BA36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6818,6 +8578,54 @@
       <c r="AZ37" t="n">
         <v>7</v>
       </c>
+      <c r="BA37" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6988,6 +8796,54 @@
       <c r="AZ38" t="n">
         <v>8</v>
       </c>
+      <c r="BA38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7158,6 +9014,54 @@
       <c r="AZ39" t="n">
         <v>12</v>
       </c>
+      <c r="BA39" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7328,6 +9232,54 @@
       <c r="AZ40" t="n">
         <v>15</v>
       </c>
+      <c r="BA40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7498,6 +9450,54 @@
       <c r="AZ41" t="n">
         <v>14</v>
       </c>
+      <c r="BA41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7668,6 +9668,54 @@
       <c r="AZ42" t="n">
         <v>11</v>
       </c>
+      <c r="BA42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7838,6 +9886,54 @@
       <c r="AZ43" t="n">
         <v>14</v>
       </c>
+      <c r="BA43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8008,6 +10104,54 @@
       <c r="AZ44" t="n">
         <v>12</v>
       </c>
+      <c r="BA44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8178,6 +10322,54 @@
       <c r="AZ45" t="n">
         <v>9</v>
       </c>
+      <c r="BA45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -8348,6 +10540,54 @@
       <c r="AZ46" t="n">
         <v>8</v>
       </c>
+      <c r="BA46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -8518,6 +10758,54 @@
       <c r="AZ47" t="n">
         <v>11</v>
       </c>
+      <c r="BA47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -8688,6 +10976,54 @@
       <c r="AZ48" t="n">
         <v>8</v>
       </c>
+      <c r="BA48" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -8858,6 +11194,54 @@
       <c r="AZ49" t="n">
         <v>8</v>
       </c>
+      <c r="BA49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9028,6 +11412,54 @@
       <c r="AZ50" t="n">
         <v>13</v>
       </c>
+      <c r="BA50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9198,6 +11630,54 @@
       <c r="AZ51" t="n">
         <v>8</v>
       </c>
+      <c r="BA51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -9368,6 +11848,54 @@
       <c r="AZ52" t="n">
         <v>18</v>
       </c>
+      <c r="BA52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9538,6 +12066,54 @@
       <c r="AZ53" t="n">
         <v>8</v>
       </c>
+      <c r="BA53" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9708,6 +12284,54 @@
       <c r="AZ54" t="n">
         <v>5</v>
       </c>
+      <c r="BA54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -9877,6 +12501,54 @@
       </c>
       <c r="AZ55" t="n">
         <v>16</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.5</v>
@@ -1791,7 +1791,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.5</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.5</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR16" t="n">
         <v>1.19</v>
@@ -4625,7 +4625,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR19" t="n">
         <v>1.02</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR21" t="n">
         <v>1.23</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>1.78</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.5</v>
@@ -5715,7 +5715,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR24" t="n">
         <v>0.98</v>
@@ -5930,10 +5930,10 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR25" t="n">
         <v>1.57</v>
@@ -6151,7 +6151,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR26" t="n">
         <v>1.34</v>
@@ -6366,10 +6366,10 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR27" t="n">
         <v>1.48</v>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="n">
         <v>0.99</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.6</v>
@@ -7023,7 +7023,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR30" t="n">
         <v>2.03</v>
@@ -7238,7 +7238,7 @@
         <v>2</v>
       </c>
       <c r="AP31" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.8</v>
@@ -7459,7 +7459,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR32" t="n">
         <v>1.23</v>
@@ -7674,7 +7674,7 @@
         <v>2</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ33" t="n">
         <v>2</v>
@@ -7895,7 +7895,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR34" t="n">
         <v>1.53</v>
@@ -8113,7 +8113,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR35" t="n">
         <v>1.98</v>
@@ -8328,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.5</v>
@@ -8546,7 +8546,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.8</v>
@@ -8764,7 +8764,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38" t="n">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR39" t="n">
         <v>1.06</v>
@@ -9203,7 +9203,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR40" t="n">
         <v>1.36</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR41" t="n">
         <v>1</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.6</v>
@@ -10293,7 +10293,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="n">
         <v>1.83</v>
@@ -10508,7 +10508,7 @@
         <v>0.67</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.5</v>
@@ -10726,7 +10726,7 @@
         <v>2.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ47" t="n">
         <v>2</v>
@@ -11165,7 +11165,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ49" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR49" t="n">
         <v>2.07</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ50" t="n">
         <v>1</v>
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR52" t="n">
         <v>1.15</v>
@@ -12037,7 +12037,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR53" t="n">
         <v>1.32</v>
@@ -12252,10 +12252,10 @@
         <v>1.25</v>
       </c>
       <c r="AP54" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR54" t="n">
         <v>1.23</v>
@@ -12470,10 +12470,10 @@
         <v>1.33</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR55" t="n">
         <v>1.51</v>
@@ -12549,6 +12549,1314 @@
       </c>
       <c r="BP55" t="n">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>7003327</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45206.5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>10</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>4</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['38', '40', '55', '77']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X56" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>7003413</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45206.5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>10</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="n">
+        <v>5</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['10', '13', '27', '62', '81']</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X57" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>7003457</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45206.5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['58', '75', '90+2']</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X58" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>7003246</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45207.39583333334</v>
+      </c>
+      <c r="F59" t="n">
+        <v>10</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>6</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X59" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>7003282</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45207.39583333334</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['54', '59']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U60" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X60" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>7003369</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45207.5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['45+1', '74']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['7', '29']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U61" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -12703,22 +12703,22 @@
         <v>2.47</v>
       </c>
       <c r="AU56" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW56" t="n">
         <v>7</v>
       </c>
       <c r="AX56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY56" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ56" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA56" t="n">
         <v>4</v>
@@ -12921,22 +12921,22 @@
         <v>2.72</v>
       </c>
       <c r="AU57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV57" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AW57" t="n">
         <v>5</v>
       </c>
       <c r="AX57" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ57" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA57" t="n">
         <v>1</v>
@@ -13139,22 +13139,22 @@
         <v>2.12</v>
       </c>
       <c r="AU58" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY58" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA58" t="n">
         <v>5</v>
@@ -13360,16 +13360,16 @@
         <v>9</v>
       </c>
       <c r="AV59" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX59" t="n">
         <v>6</v>
       </c>
-      <c r="AW59" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>5</v>
-      </c>
       <c r="AY59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ59" t="n">
         <v>11</v>
@@ -13578,28 +13578,28 @@
         <v>3</v>
       </c>
       <c r="AV60" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX60" t="n">
         <v>6</v>
       </c>
       <c r="AY60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ60" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA60" t="n">
         <v>6</v>
       </c>
       <c r="BB60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD60" t="n">
         <v>2.91</v>
@@ -13793,22 +13793,22 @@
         <v>3.08</v>
       </c>
       <c r="AU61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX61" t="n">
         <v>4</v>
       </c>
       <c r="AY61" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ61" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA61" t="n">
         <v>5</v>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.33</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.67</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR14" t="n">
         <v>1.73</v>
@@ -3753,7 +3753,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR15" t="n">
         <v>1.31</v>
@@ -4186,10 +4186,10 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>2.14</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR18" t="n">
         <v>2.76</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.67</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR20" t="n">
         <v>1.19</v>
@@ -5497,7 +5497,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR23" t="n">
         <v>0.86</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.6</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
         <v>1.36</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.67</v>
@@ -7241,7 +7241,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR31" t="n">
         <v>1.22</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR33" t="n">
         <v>1.27</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ34" t="n">
         <v>2.6</v>
@@ -8110,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.6</v>
@@ -8331,7 +8331,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR36" t="n">
         <v>1.34</v>
@@ -8549,7 +8549,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR37" t="n">
         <v>1.35</v>
@@ -8767,7 +8767,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR38" t="n">
         <v>1.59</v>
@@ -8982,7 +8982,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ39" t="n">
         <v>1</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.33</v>
@@ -9639,7 +9639,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR42" t="n">
         <v>1.12</v>
@@ -9854,10 +9854,10 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR43" t="n">
         <v>2.21</v>
@@ -10072,10 +10072,10 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR44" t="n">
         <v>1.29</v>
@@ -10290,7 +10290,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45" t="n">
         <v>1</v>
@@ -10511,7 +10511,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR46" t="n">
         <v>1.4</v>
@@ -10729,7 +10729,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -10944,10 +10944,10 @@
         <v>0.75</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR48" t="n">
         <v>1.46</v>
@@ -11162,7 +11162,7 @@
         <v>3</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ49" t="n">
         <v>2.6</v>
@@ -11383,7 +11383,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR50" t="n">
         <v>1.29</v>
@@ -11598,10 +11598,10 @@
         <v>2</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR51" t="n">
         <v>0.99</v>
@@ -12034,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.67</v>
@@ -13857,6 +13857,1314 @@
       </c>
       <c r="BP61" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>7003533</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45220.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>11</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['13', '42']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X62" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>7003607</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45220.5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>11</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>7003494</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45220.5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>11</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X64" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>7003647</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45221.39583333334</v>
+      </c>
+      <c r="F65" t="n">
+        <v>11</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X65" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>7003681</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45221.39583333334</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['33', '80']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U66" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V66" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X66" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>7003571</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45221.5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>11</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="n">
+        <v>5</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['11', '90+2']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['60', '65', '74']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X67" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14011,22 +14011,22 @@
         <v>2.72</v>
       </c>
       <c r="AU62" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV62" t="n">
         <v>3</v>
       </c>
       <c r="AW62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ62" t="n">
         <v>6</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>5</v>
       </c>
       <c r="BA62" t="n">
         <v>2</v>
@@ -14229,22 +14229,22 @@
         <v>1.72</v>
       </c>
       <c r="AU63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY63" t="n">
         <v>12</v>
       </c>
       <c r="AZ63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA63" t="n">
         <v>1</v>
@@ -14665,22 +14665,22 @@
         <v>2.52</v>
       </c>
       <c r="AU65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX65" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY65" t="n">
         <v>17</v>
       </c>
       <c r="AZ65" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA65" t="n">
         <v>12</v>
@@ -14883,31 +14883,31 @@
         <v>2.45</v>
       </c>
       <c r="AU66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV66" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX66" t="n">
         <v>11</v>
       </c>
       <c r="AY66" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB66" t="n">
         <v>8</v>
       </c>
-      <c r="AZ66" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>7</v>
-      </c>
       <c r="BC66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD66" t="n">
         <v>2.66</v>
@@ -15101,31 +15101,31 @@
         <v>3.29</v>
       </c>
       <c r="AU67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY67" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA67" t="n">
         <v>6</v>
       </c>
-      <c r="AZ67" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA67" t="n">
-        <v>5</v>
-      </c>
       <c r="BB67" t="n">
         <v>1</v>
       </c>
       <c r="BC67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD67" t="n">
         <v>1.55</v>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.6</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR19" t="n">
         <v>1.02</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR22" t="n">
         <v>1.78</v>
@@ -5497,7 +5497,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR23" t="n">
         <v>0.86</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.6</v>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR28" t="n">
         <v>0.99</v>
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR30" t="n">
         <v>2.03</v>
@@ -8110,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.6</v>
@@ -8764,7 +8764,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.4</v>
@@ -8982,10 +8982,10 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR39" t="n">
         <v>1.06</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR41" t="n">
         <v>1</v>
@@ -9857,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR43" t="n">
         <v>2.21</v>
@@ -10075,7 +10075,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR44" t="n">
         <v>1.29</v>
@@ -10290,7 +10290,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ45" t="n">
         <v>1</v>
@@ -10508,7 +10508,7 @@
         <v>0.67</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.6</v>
@@ -11598,7 +11598,7 @@
         <v>2</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ51" t="n">
         <v>2</v>
@@ -12037,7 +12037,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR53" t="n">
         <v>1.32</v>
@@ -12255,7 +12255,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR54" t="n">
         <v>1.23</v>
@@ -13127,7 +13127,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR58" t="n">
         <v>1.14</v>
@@ -13345,7 +13345,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR59" t="n">
         <v>1.37</v>
@@ -13778,7 +13778,7 @@
         <v>2.6</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.33</v>
@@ -14214,7 +14214,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.6</v>
@@ -14432,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.4</v>
@@ -14653,7 +14653,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR65" t="n">
         <v>1.3</v>
@@ -15165,6 +15165,660 @@
       </c>
       <c r="BP67" t="n">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>7003714</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45227.5</v>
+      </c>
+      <c r="F68" t="n">
+        <v>12</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['44', '46', '59']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S68" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X68" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>7003789</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45227.5</v>
+      </c>
+      <c r="F69" t="n">
+        <v>12</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U69" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X69" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>7003853</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45227.5</v>
+      </c>
+      <c r="F70" t="n">
+        <v>12</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['10', '90+6']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X70" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
         <v>2</v>
@@ -4189,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR17" t="n">
         <v>2.14</v>
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR18" t="n">
         <v>2.76</v>
@@ -4843,7 +4843,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR20" t="n">
         <v>1.19</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR29" t="n">
         <v>1.36</v>
@@ -7677,7 +7677,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR33" t="n">
         <v>1.27</v>
@@ -8767,7 +8767,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR38" t="n">
         <v>1.59</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.33</v>
@@ -9639,7 +9639,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR42" t="n">
         <v>1.12</v>
@@ -10729,7 +10729,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -10947,7 +10947,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR48" t="n">
         <v>1.46</v>
@@ -11383,7 +11383,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR50" t="n">
         <v>1.29</v>
@@ -12034,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.57</v>
@@ -13996,10 +13996,10 @@
         <v>2</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR62" t="n">
         <v>1.37</v>
@@ -14435,7 +14435,7 @@
         <v>2</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR64" t="n">
         <v>1.82</v>
@@ -14871,7 +14871,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR66" t="n">
         <v>1.22</v>
@@ -15819,6 +15819,660 @@
       </c>
       <c r="BP70" t="n">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>7003753</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45228.4375</v>
+      </c>
+      <c r="F71" t="n">
+        <v>12</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X71" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>7003889</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45228.4375</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="n">
+        <v>4</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['36', '59', '66', '83']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U72" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X72" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>7003822</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F73" t="n">
+        <v>12</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="n">
+        <v>6</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['15', '90+1', '90+7']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['22', '72', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U73" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X73" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -15319,22 +15319,22 @@
         <v>2.96</v>
       </c>
       <c r="AU68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV68" t="n">
         <v>3</v>
       </c>
-      <c r="AV68" t="n">
+      <c r="AW68" t="n">
         <v>4</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>5</v>
       </c>
       <c r="AX68" t="n">
         <v>7</v>
       </c>
       <c r="AY68" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA68" t="n">
         <v>4</v>
@@ -15543,16 +15543,16 @@
         <v>3</v>
       </c>
       <c r="AW69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA69" t="n">
         <v>5</v>
@@ -15755,22 +15755,22 @@
         <v>2.38</v>
       </c>
       <c r="AU70" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX70" t="n">
         <v>4</v>
       </c>
       <c r="AY70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA70" t="n">
         <v>7</v>
@@ -15973,31 +15973,31 @@
         <v>2.83</v>
       </c>
       <c r="AU71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV71" t="n">
         <v>4</v>
       </c>
-      <c r="AV71" t="n">
-        <v>3</v>
-      </c>
       <c r="AW71" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA71" t="n">
         <v>7</v>
       </c>
-      <c r="AX71" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY71" t="n">
+      <c r="BB71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC71" t="n">
         <v>11</v>
-      </c>
-      <c r="AZ71" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA71" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB71" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC71" t="n">
-        <v>7</v>
       </c>
       <c r="BD71" t="n">
         <v>1.62</v>
@@ -16194,28 +16194,28 @@
         <v>2</v>
       </c>
       <c r="AV72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY72" t="n">
         <v>5</v>
       </c>
-      <c r="AW72" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX72" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY72" t="n">
-        <v>4</v>
-      </c>
       <c r="AZ72" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA72" t="n">
         <v>2</v>
       </c>
       <c r="BB72" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BC72" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD72" t="n">
         <v>2.63</v>
@@ -16409,31 +16409,31 @@
         <v>3.13</v>
       </c>
       <c r="AU73" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV73" t="n">
         <v>6</v>
       </c>
-      <c r="AV73" t="n">
-        <v>4</v>
-      </c>
       <c r="AW73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY73" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ73" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA73" t="n">
         <v>7</v>
       </c>
       <c r="BB73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC73" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD73" t="n">
         <v>1.65</v>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ3" t="n">
         <v>1</v>
@@ -1355,7 +1355,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>2.6</v>
@@ -3535,7 +3535,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR14" t="n">
         <v>1.73</v>
@@ -3750,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR15" t="n">
         <v>1.31</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.33</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.17</v>
@@ -5933,7 +5933,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR25" t="n">
         <v>1.57</v>
@@ -6366,10 +6366,10 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR27" t="n">
         <v>1.48</v>
@@ -7241,7 +7241,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ31" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR31" t="n">
         <v>1.22</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -7674,7 +7674,7 @@
         <v>2</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.83</v>
@@ -8331,7 +8331,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR36" t="n">
         <v>1.34</v>
@@ -8546,10 +8546,10 @@
         <v>2.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR37" t="n">
         <v>1.35</v>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR40" t="n">
         <v>1.36</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.17</v>
@@ -10511,7 +10511,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR46" t="n">
         <v>1.4</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.33</v>
@@ -11601,7 +11601,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR51" t="n">
         <v>0.99</v>
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR52" t="n">
         <v>1.15</v>
@@ -12470,7 +12470,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.6</v>
@@ -12688,7 +12688,7 @@
         <v>1.2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56" t="n">
         <v>1</v>
@@ -13560,7 +13560,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ60" t="n">
         <v>2.6</v>
@@ -13781,7 +13781,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR61" t="n">
         <v>1.33</v>
@@ -14217,7 +14217,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR63" t="n">
         <v>1.02</v>
@@ -14868,7 +14868,7 @@
         <v>0.6</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.29</v>
@@ -15089,7 +15089,7 @@
         <v>1</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR67" t="n">
         <v>1.88</v>
@@ -16473,6 +16473,660 @@
       </c>
       <c r="BP73" t="n">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>7003961</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F74" t="n">
+        <v>13</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>4</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['19', '43', '69', '75']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X74" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7004000</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>13</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S75" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X75" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>7004116</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F76" t="n">
+        <v>13</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['27', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X76" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.5</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.43</v>
@@ -2009,7 +2009,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR16" t="n">
         <v>1.19</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.57</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR21" t="n">
         <v>1.23</v>
@@ -5715,7 +5715,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR24" t="n">
         <v>0.98</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ25" t="n">
         <v>2.43</v>
@@ -6151,7 +6151,7 @@
         <v>2</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR26" t="n">
         <v>1.34</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.29</v>
@@ -7238,7 +7238,7 @@
         <v>2</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.71</v>
@@ -7459,7 +7459,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR32" t="n">
         <v>1.23</v>
@@ -7892,10 +7892,10 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR34" t="n">
         <v>1.53</v>
@@ -8113,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR35" t="n">
         <v>1.98</v>
@@ -8328,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.5</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.29</v>
@@ -10293,7 +10293,7 @@
         <v>2</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR45" t="n">
         <v>1.83</v>
@@ -10726,7 +10726,7 @@
         <v>2.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.83</v>
@@ -10944,7 +10944,7 @@
         <v>0.75</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.29</v>
@@ -11165,7 +11165,7 @@
         <v>1</v>
       </c>
       <c r="AQ49" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR49" t="n">
         <v>2.07</v>
@@ -12252,7 +12252,7 @@
         <v>1.25</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.86</v>
@@ -12473,7 +12473,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR55" t="n">
         <v>1.51</v>
@@ -12691,7 +12691,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR56" t="n">
         <v>1.4</v>
@@ -12909,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR57" t="n">
         <v>1.03</v>
@@ -13124,7 +13124,7 @@
         <v>0.8</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.57</v>
@@ -13342,7 +13342,7 @@
         <v>1.2</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.86</v>
@@ -13563,7 +13563,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR60" t="n">
         <v>1.25</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.17</v>
@@ -16627,31 +16627,31 @@
         <v>2.62</v>
       </c>
       <c r="AU74" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA74" t="n">
         <v>5</v>
       </c>
-      <c r="AV74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>3</v>
-      </c>
       <c r="BB74" t="n">
         <v>2</v>
       </c>
       <c r="BC74" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD74" t="n">
         <v>1.71</v>
@@ -16845,31 +16845,31 @@
         <v>2.16</v>
       </c>
       <c r="AU75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY75" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB75" t="n">
         <v>1</v>
       </c>
       <c r="BC75" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD75" t="n">
         <v>1.22</v>
@@ -17063,22 +17063,22 @@
         <v>2.92</v>
       </c>
       <c r="AU76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV76" t="n">
         <v>4</v>
       </c>
-      <c r="AV76" t="n">
-        <v>2</v>
-      </c>
       <c r="AW76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX76" t="n">
         <v>7</v>
       </c>
       <c r="AY76" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ76" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA76" t="n">
         <v>5</v>
@@ -17127,6 +17127,660 @@
       </c>
       <c r="BP76" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>7004034</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45235.4375</v>
+      </c>
+      <c r="F77" t="n">
+        <v>13</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['65', '69']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X77" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>7004077</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45235.4375</v>
+      </c>
+      <c r="F78" t="n">
+        <v>13</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3</v>
+      </c>
+      <c r="L78" t="n">
+        <v>3</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="n">
+        <v>5</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['40', '53', '83']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['8', '31']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X78" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>7003922</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45235.54166666666</v>
+      </c>
+      <c r="F79" t="n">
+        <v>13</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>2</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>3</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>4</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['36', '45+1', '90+1']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X79" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.5</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.71</v>
@@ -1791,7 +1791,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.83</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR20" t="n">
         <v>1.19</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR21" t="n">
         <v>1.23</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR22" t="n">
         <v>1.78</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR23" t="n">
         <v>0.86</v>
@@ -5712,10 +5712,10 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR24" t="n">
         <v>0.98</v>
@@ -5930,10 +5930,10 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AR25" t="n">
         <v>1.57</v>
@@ -6369,7 +6369,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AR27" t="n">
         <v>1.48</v>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR28" t="n">
         <v>0.99</v>
@@ -7238,7 +7238,7 @@
         <v>2</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.71</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.86</v>
@@ -7895,7 +7895,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR34" t="n">
         <v>1.53</v>
@@ -8113,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR35" t="n">
         <v>1.98</v>
@@ -8546,7 +8546,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.71</v>
@@ -8764,10 +8764,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR38" t="n">
         <v>1.59</v>
@@ -8982,10 +8982,10 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR39" t="n">
         <v>1.06</v>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AR40" t="n">
         <v>1.36</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.29</v>
@@ -9857,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR43" t="n">
         <v>2.21</v>
@@ -10072,10 +10072,10 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR44" t="n">
         <v>1.29</v>
@@ -10508,7 +10508,7 @@
         <v>0.67</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.5</v>
@@ -11165,7 +11165,7 @@
         <v>1</v>
       </c>
       <c r="AQ49" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR49" t="n">
         <v>2.07</v>
@@ -11383,7 +11383,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR50" t="n">
         <v>1.29</v>
@@ -11598,7 +11598,7 @@
         <v>2</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.71</v>
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AR52" t="n">
         <v>1.15</v>
@@ -12252,10 +12252,10 @@
         <v>1.25</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR54" t="n">
         <v>1.23</v>
@@ -12470,10 +12470,10 @@
         <v>1.33</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR55" t="n">
         <v>1.51</v>
@@ -12688,7 +12688,7 @@
         <v>1.2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.86</v>
@@ -12909,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR57" t="n">
         <v>1.03</v>
@@ -13124,7 +13124,7 @@
         <v>0.8</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.57</v>
@@ -13345,7 +13345,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR59" t="n">
         <v>1.37</v>
@@ -13563,7 +13563,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR60" t="n">
         <v>1.25</v>
@@ -13778,10 +13778,10 @@
         <v>2.6</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AR61" t="n">
         <v>1.33</v>
@@ -14214,7 +14214,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.5</v>
@@ -14435,7 +14435,7 @@
         <v>2</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR64" t="n">
         <v>1.82</v>
@@ -14653,7 +14653,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR65" t="n">
         <v>1.3</v>
@@ -14868,7 +14868,7 @@
         <v>0.6</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.29</v>
@@ -15307,7 +15307,7 @@
         <v>2</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR68" t="n">
         <v>1.71</v>
@@ -15522,7 +15522,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.57</v>
@@ -15740,10 +15740,10 @@
         <v>1.4</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR70" t="n">
         <v>1.17</v>
@@ -16397,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR73" t="n">
         <v>1.79</v>
@@ -16830,7 +16830,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.5</v>
@@ -17048,10 +17048,10 @@
         <v>2.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AR76" t="n">
         <v>1.23</v>
@@ -17269,7 +17269,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR77" t="n">
         <v>1.52</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.86</v>
@@ -17705,7 +17705,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ79" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR79" t="n">
         <v>1.46</v>
@@ -17781,6 +17781,1314 @@
       </c>
       <c r="BP79" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>7004204</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F80" t="n">
+        <v>14</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X80" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>7004205</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F81" t="n">
+        <v>14</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>3</v>
+      </c>
+      <c r="L81" t="n">
+        <v>5</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>6</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['33', '39', '45', '61', '80']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X81" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>7004203</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F82" t="n">
+        <v>14</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="n">
+        <v>5</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['69', '85']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['13', '64', '77']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X82" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>7004202</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45242.4375</v>
+      </c>
+      <c r="F83" t="n">
+        <v>14</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['29', '82']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X83" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>7004189</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45242.4375</v>
+      </c>
+      <c r="F84" t="n">
+        <v>14</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="n">
+        <v>3</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['3', '19', '67']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X84" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>7004153</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F85" t="n">
+        <v>14</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U85" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X85" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.57</v>
@@ -1355,7 +1355,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.14</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.71</v>
@@ -3753,7 +3753,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR15" t="n">
         <v>1.31</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.86</v>
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.29</v>
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR18" t="n">
         <v>2.76</v>
@@ -4625,7 +4625,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR19" t="n">
         <v>1.02</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.86</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.29</v>
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR30" t="n">
         <v>2.03</v>
@@ -7677,7 +7677,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR33" t="n">
         <v>1.27</v>
@@ -8110,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="AP35" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.57</v>
@@ -8328,10 +8328,10 @@
         <v>1</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR36" t="n">
         <v>1.34</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.25</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR41" t="n">
         <v>1</v>
@@ -10290,7 +10290,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.86</v>
@@ -10511,7 +10511,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR46" t="n">
         <v>1.4</v>
@@ -10726,10 +10726,10 @@
         <v>2.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -12034,10 +12034,10 @@
         <v>1</v>
       </c>
       <c r="AP53" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR53" t="n">
         <v>1.32</v>
@@ -13127,7 +13127,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR58" t="n">
         <v>1.14</v>
@@ -13342,7 +13342,7 @@
         <v>1.2</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.75</v>
@@ -13996,10 +13996,10 @@
         <v>2</v>
       </c>
       <c r="AP62" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR62" t="n">
         <v>1.37</v>
@@ -14217,7 +14217,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR63" t="n">
         <v>1.02</v>
@@ -14432,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="AP64" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.14</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.75</v>
@@ -15525,7 +15525,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR69" t="n">
         <v>1.43</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.29</v>
@@ -16179,7 +16179,7 @@
         <v>0</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR72" t="n">
         <v>1.01</v>
@@ -16833,7 +16833,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR75" t="n">
         <v>1.47</v>
@@ -17702,7 +17702,7 @@
         <v>2.6</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ79" t="n">
         <v>2.29</v>
@@ -19089,6 +19089,660 @@
       </c>
       <c r="BP85" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>7004206</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F86" t="n">
+        <v>15</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="n">
+        <v>5</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['45+4', '48', '85']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['11', '56']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S86" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U86" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X86" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>7004207</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F87" t="n">
+        <v>15</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S87" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X87" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7004215</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F88" t="n">
+        <v>15</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['48', '70']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S88" t="n">
+        <v>10</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X88" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.25</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.75</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR14" t="n">
         <v>1.73</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.43</v>
@@ -3971,7 +3971,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR16" t="n">
         <v>1.19</v>
@@ -4189,7 +4189,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR17" t="n">
         <v>2.14</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.57</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.5</v>
@@ -6151,7 +6151,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR26" t="n">
         <v>1.34</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ27" t="n">
         <v>2.25</v>
@@ -6805,7 +6805,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR29" t="n">
         <v>1.36</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.5</v>
@@ -7241,7 +7241,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR31" t="n">
         <v>1.22</v>
@@ -7459,7 +7459,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR32" t="n">
         <v>1.23</v>
@@ -7674,7 +7674,7 @@
         <v>2</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.57</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ34" t="n">
         <v>2.29</v>
@@ -8549,7 +8549,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR37" t="n">
         <v>1.35</v>
@@ -9639,7 +9639,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR42" t="n">
         <v>1.12</v>
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.43</v>
@@ -10293,7 +10293,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR45" t="n">
         <v>1.83</v>
@@ -10944,10 +10944,10 @@
         <v>0.75</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR48" t="n">
         <v>1.46</v>
@@ -11162,7 +11162,7 @@
         <v>3</v>
       </c>
       <c r="AP49" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ49" t="n">
         <v>2.29</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.14</v>
@@ -11601,7 +11601,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR51" t="n">
         <v>0.99</v>
@@ -12691,7 +12691,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR56" t="n">
         <v>1.4</v>
@@ -13560,7 +13560,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ60" t="n">
         <v>2.29</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.43</v>
@@ -14871,7 +14871,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR66" t="n">
         <v>1.22</v>
@@ -15086,10 +15086,10 @@
         <v>1.8</v>
       </c>
       <c r="AP67" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR67" t="n">
         <v>1.88</v>
@@ -15961,7 +15961,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR71" t="n">
         <v>1.45</v>
@@ -16394,7 +16394,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.14</v>
@@ -16612,10 +16612,10 @@
         <v>2</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR74" t="n">
         <v>1.26</v>
@@ -17266,7 +17266,7 @@
         <v>1.6</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.57</v>
@@ -17487,7 +17487,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR78" t="n">
         <v>1.2</v>
@@ -19243,22 +19243,22 @@
         <v>3.04</v>
       </c>
       <c r="AU86" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV86" t="n">
         <v>4</v>
       </c>
-      <c r="AV86" t="n">
-        <v>3</v>
-      </c>
       <c r="AW86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX86" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY86" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA86" t="n">
         <v>4</v>
@@ -19461,10 +19461,10 @@
         <v>2.51</v>
       </c>
       <c r="AU87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW87" t="n">
         <v>5</v>
@@ -19473,10 +19473,10 @@
         <v>6</v>
       </c>
       <c r="AY87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ87" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA87" t="n">
         <v>8</v>
@@ -19679,22 +19679,22 @@
         <v>2.16</v>
       </c>
       <c r="AU88" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW88" t="n">
         <v>8</v>
-      </c>
-      <c r="AV88" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW88" t="n">
-        <v>7</v>
       </c>
       <c r="AX88" t="n">
         <v>3</v>
       </c>
       <c r="AY88" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ88" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA88" t="n">
         <v>10</v>
@@ -19743,6 +19743,660 @@
       </c>
       <c r="BP88" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7004214</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45256.4375</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X89" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>7004217</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45256.4375</v>
+      </c>
+      <c r="F90" t="n">
+        <v>15</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X90" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>7004216</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45256.54166666666</v>
+      </c>
+      <c r="F91" t="n">
+        <v>15</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S91" t="n">
+        <v>6</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U91" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V91" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -19900,19 +19900,19 @@
         <v>5</v>
       </c>
       <c r="AV89" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AW89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX89" t="n">
         <v>4</v>
       </c>
       <c r="AY89" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ89" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA89" t="n">
         <v>5</v>
@@ -20118,16 +20118,16 @@
         <v>4</v>
       </c>
       <c r="AV90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX90" t="n">
         <v>3</v>
       </c>
-      <c r="AW90" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX90" t="n">
-        <v>2</v>
-      </c>
       <c r="AY90" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ90" t="n">
         <v>5</v>
@@ -20333,19 +20333,19 @@
         <v>2.91</v>
       </c>
       <c r="AU91" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV91" t="n">
         <v>0</v>
       </c>
       <c r="AW91" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX91" t="n">
         <v>3</v>
       </c>
       <c r="AY91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ91" t="n">
         <v>3</v>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -19900,19 +19900,19 @@
         <v>5</v>
       </c>
       <c r="AV89" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AW89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX89" t="n">
         <v>4</v>
       </c>
       <c r="AY89" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ89" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA89" t="n">
         <v>5</v>
@@ -20118,16 +20118,16 @@
         <v>4</v>
       </c>
       <c r="AV90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW90" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY90" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ90" t="n">
         <v>5</v>
@@ -20333,19 +20333,19 @@
         <v>2.91</v>
       </c>
       <c r="AU91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV91" t="n">
         <v>0</v>
       </c>
       <c r="AW91" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX91" t="n">
         <v>3</v>
       </c>
       <c r="AY91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ91" t="n">
         <v>3</v>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.5</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.13</v>
@@ -4407,7 +4407,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR18" t="n">
         <v>2.76</v>
@@ -4843,7 +4843,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR20" t="n">
         <v>1.19</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR21" t="n">
         <v>1.23</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.75</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR23" t="n">
         <v>0.86</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.57</v>
@@ -7677,7 +7677,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR33" t="n">
         <v>1.27</v>
@@ -7895,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR34" t="n">
         <v>1.53</v>
@@ -8110,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.57</v>
@@ -8546,7 +8546,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.88</v>
@@ -8764,10 +8764,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR38" t="n">
         <v>1.59</v>
@@ -8982,7 +8982,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.75</v>
@@ -9857,7 +9857,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR43" t="n">
         <v>2.21</v>
@@ -10075,7 +10075,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR44" t="n">
         <v>1.29</v>
@@ -10290,7 +10290,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.75</v>
@@ -10508,7 +10508,7 @@
         <v>0.67</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.43</v>
@@ -10729,7 +10729,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -11165,7 +11165,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ49" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR49" t="n">
         <v>2.07</v>
@@ -11383,7 +11383,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR50" t="n">
         <v>1.29</v>
@@ -11598,7 +11598,7 @@
         <v>2</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.88</v>
@@ -12470,7 +12470,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.57</v>
@@ -12688,7 +12688,7 @@
         <v>1.2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.75</v>
@@ -13563,7 +13563,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR60" t="n">
         <v>1.25</v>
@@ -13778,7 +13778,7 @@
         <v>2.6</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.25</v>
@@ -13999,7 +13999,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR62" t="n">
         <v>1.37</v>
@@ -14214,7 +14214,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.43</v>
@@ -14432,10 +14432,10 @@
         <v>1</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR64" t="n">
         <v>1.82</v>
@@ -14653,7 +14653,7 @@
         <v>1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR65" t="n">
         <v>1.3</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.75</v>
@@ -15522,7 +15522,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.5</v>
@@ -15740,10 +15740,10 @@
         <v>1.4</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR70" t="n">
         <v>1.17</v>
@@ -16179,7 +16179,7 @@
         <v>0</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR72" t="n">
         <v>1.01</v>
@@ -16397,7 +16397,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR73" t="n">
         <v>1.79</v>
@@ -16830,7 +16830,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.43</v>
@@ -17705,7 +17705,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ79" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR79" t="n">
         <v>1.46</v>
@@ -18359,7 +18359,7 @@
         <v>0</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR82" t="n">
         <v>0.95</v>
@@ -18574,10 +18574,10 @@
         <v>1.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR83" t="n">
         <v>1.21</v>
@@ -18792,10 +18792,10 @@
         <v>2.17</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR84" t="n">
         <v>1.33</v>
@@ -19010,7 +19010,7 @@
         <v>2.43</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ85" t="n">
         <v>2.25</v>
@@ -19228,10 +19228,10 @@
         <v>1.83</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR86" t="n">
         <v>1.63</v>
@@ -20397,6 +20397,878 @@
       </c>
       <c r="BP91" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7004218</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45263.4375</v>
+      </c>
+      <c r="F92" t="n">
+        <v>16</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S92" t="n">
+        <v>7</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X92" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7004221</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45263.4375</v>
+      </c>
+      <c r="F93" t="n">
+        <v>16</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="n">
+        <v>2</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X93" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>7004219</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45263.54166666666</v>
+      </c>
+      <c r="F94" t="n">
+        <v>16</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X94" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>7004220</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45264.625</v>
+      </c>
+      <c r="F95" t="n">
+        <v>16</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X95" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.88</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.25</v>
@@ -3753,7 +3753,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR15" t="n">
         <v>1.31</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.5</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.13</v>
@@ -5715,7 +5715,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR24" t="n">
         <v>0.98</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.75</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34" t="n">
         <v>2.13</v>
@@ -8113,7 +8113,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR35" t="n">
         <v>1.98</v>
@@ -8331,7 +8331,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR36" t="n">
         <v>1.34</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.25</v>
@@ -10511,7 +10511,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR46" t="n">
         <v>1.4</v>
@@ -10944,7 +10944,7 @@
         <v>0.75</v>
       </c>
       <c r="AP48" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.13</v>
@@ -12473,7 +12473,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR55" t="n">
         <v>1.51</v>
@@ -12909,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR57" t="n">
         <v>1.03</v>
@@ -14217,7 +14217,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR63" t="n">
         <v>1.02</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.25</v>
@@ -14868,7 +14868,7 @@
         <v>0.6</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.13</v>
@@ -16833,7 +16833,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR75" t="n">
         <v>1.47</v>
@@ -17048,7 +17048,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ76" t="n">
         <v>2.25</v>
@@ -17266,10 +17266,10 @@
         <v>1.6</v>
       </c>
       <c r="AP77" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR77" t="n">
         <v>1.52</v>
@@ -17923,7 +17923,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR80" t="n">
         <v>1.28</v>
@@ -18138,7 +18138,7 @@
         <v>0.86</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.75</v>
@@ -19667,7 +19667,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR88" t="n">
         <v>1.48</v>
@@ -20100,7 +20100,7 @@
         <v>1.71</v>
       </c>
       <c r="AP90" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.88</v>
@@ -20987,7 +20987,7 @@
         <v>2.91</v>
       </c>
       <c r="AU94" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV94" t="n">
         <v>2</v>
@@ -20996,13 +20996,13 @@
         <v>5</v>
       </c>
       <c r="AX94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY94" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA94" t="n">
         <v>3</v>
@@ -21205,31 +21205,31 @@
         <v>2.58</v>
       </c>
       <c r="AU95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA95" t="n">
         <v>4</v>
       </c>
-      <c r="AV95" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW95" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX95" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY95" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ95" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA95" t="n">
-        <v>3</v>
-      </c>
       <c r="BB95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC95" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD95" t="n">
         <v>2.05</v>
@@ -21269,6 +21269,442 @@
       </c>
       <c r="BP95" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>7004222</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45265.625</v>
+      </c>
+      <c r="F96" t="n">
+        <v>16</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['6', '60', '87']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>7004223</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45265.625</v>
+      </c>
+      <c r="F97" t="n">
+        <v>16</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="n">
+        <v>3</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['50', '74']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S97" t="n">
+        <v>2</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U97" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.75</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.5</v>
@@ -5933,7 +5933,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR25" t="n">
         <v>1.57</v>
@@ -6369,7 +6369,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR27" t="n">
         <v>1.48</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.5</v>
@@ -9203,7 +9203,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR40" t="n">
         <v>1.36</v>
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.25</v>
@@ -11162,7 +11162,7 @@
         <v>3</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ49" t="n">
         <v>2.13</v>
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR52" t="n">
         <v>1.15</v>
@@ -13781,7 +13781,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR61" t="n">
         <v>1.33</v>
@@ -15086,7 +15086,7 @@
         <v>1.8</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.88</v>
@@ -16394,7 +16394,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.13</v>
@@ -17051,7 +17051,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR76" t="n">
         <v>1.23</v>
@@ -19013,7 +19013,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR85" t="n">
         <v>1.41</v>
@@ -20318,7 +20318,7 @@
         <v>0.86</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.75</v>
@@ -21705,6 +21705,224 @@
       </c>
       <c r="BP97" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>7004226</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45269.4375</v>
+      </c>
+      <c r="F98" t="n">
+        <v>17</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X98" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.38</v>
@@ -2227,7 +2227,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.5</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.88</v>
@@ -4189,7 +4189,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR17" t="n">
         <v>2.14</v>
@@ -4625,7 +4625,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR19" t="n">
         <v>1.02</v>
@@ -4843,7 +4843,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR20" t="n">
         <v>1.19</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR22" t="n">
         <v>1.78</v>
@@ -5497,7 +5497,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR23" t="n">
         <v>0.86</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.75</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ25" t="n">
         <v>2.33</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.75</v>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR28" t="n">
         <v>0.99</v>
@@ -6805,7 +6805,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR29" t="n">
         <v>1.36</v>
@@ -7023,7 +7023,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR30" t="n">
         <v>2.03</v>
@@ -7238,7 +7238,7 @@
         <v>2</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.88</v>
@@ -8764,10 +8764,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR38" t="n">
         <v>1.59</v>
@@ -8982,10 +8982,10 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR39" t="n">
         <v>1.06</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.33</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR41" t="n">
         <v>1</v>
@@ -9636,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR42" t="n">
         <v>1.12</v>
@@ -9857,7 +9857,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR43" t="n">
         <v>2.21</v>
@@ -10075,7 +10075,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR44" t="n">
         <v>1.29</v>
@@ -10508,7 +10508,7 @@
         <v>0.67</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.38</v>
@@ -10947,7 +10947,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR48" t="n">
         <v>1.46</v>
@@ -11383,7 +11383,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR50" t="n">
         <v>1.29</v>
@@ -11598,7 +11598,7 @@
         <v>2</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.88</v>
@@ -12034,10 +12034,10 @@
         <v>1</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR53" t="n">
         <v>1.32</v>
@@ -12252,10 +12252,10 @@
         <v>1.25</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR54" t="n">
         <v>1.23</v>
@@ -13124,10 +13124,10 @@
         <v>0.8</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR58" t="n">
         <v>1.14</v>
@@ -13345,7 +13345,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR59" t="n">
         <v>1.37</v>
@@ -13778,7 +13778,7 @@
         <v>2.6</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.33</v>
@@ -13996,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.5</v>
@@ -14214,7 +14214,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.38</v>
@@ -14435,7 +14435,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR64" t="n">
         <v>1.82</v>
@@ -14653,7 +14653,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR65" t="n">
         <v>1.3</v>
@@ -14871,7 +14871,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR66" t="n">
         <v>1.22</v>
@@ -15307,7 +15307,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR68" t="n">
         <v>1.71</v>
@@ -15522,10 +15522,10 @@
         <v>0.67</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR69" t="n">
         <v>1.43</v>
@@ -15740,10 +15740,10 @@
         <v>1.4</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR70" t="n">
         <v>1.17</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR71" t="n">
         <v>1.45</v>
@@ -16397,7 +16397,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR73" t="n">
         <v>1.79</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.75</v>
@@ -17920,7 +17920,7 @@
         <v>1.83</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.75</v>
@@ -18141,7 +18141,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR81" t="n">
         <v>1.23</v>
@@ -18359,7 +18359,7 @@
         <v>0</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR82" t="n">
         <v>0.95</v>
@@ -18574,10 +18574,10 @@
         <v>1.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR83" t="n">
         <v>1.21</v>
@@ -18792,7 +18792,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.13</v>
@@ -19449,7 +19449,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR87" t="n">
         <v>1.53</v>
@@ -19664,7 +19664,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.38</v>
@@ -19885,7 +19885,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR89" t="n">
         <v>1.34</v>
@@ -20539,7 +20539,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR92" t="n">
         <v>1.59</v>
@@ -20754,7 +20754,7 @@
         <v>2.29</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ93" t="n">
         <v>2.13</v>
@@ -20975,7 +20975,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR94" t="n">
         <v>1.47</v>
@@ -21190,7 +21190,7 @@
         <v>1.57</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.5</v>
@@ -21862,19 +21862,19 @@
         <v>6</v>
       </c>
       <c r="AV98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW98" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX98" t="n">
         <v>4</v>
       </c>
       <c r="AY98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA98" t="n">
         <v>5</v>
@@ -21923,6 +21923,1096 @@
       </c>
       <c r="BP98" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>7004225</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45269.54166666666</v>
+      </c>
+      <c r="F99" t="n">
+        <v>17</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="n">
+        <v>4</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['64', '65']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['73', '85']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S99" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X99" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>7004228</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45269.54166666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>17</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="n">
+        <v>4</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['61', '72', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>6</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X100" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>7004227</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45270.4375</v>
+      </c>
+      <c r="F101" t="n">
+        <v>17</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['45', '48']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X101" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>7004229</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45270.4375</v>
+      </c>
+      <c r="F102" t="n">
+        <v>17</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['27', '53']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U102" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X102" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>7004224</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F103" t="n">
+        <v>17</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>6</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U103" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X103" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -22077,16 +22077,16 @@
         <v>2.66</v>
       </c>
       <c r="AU99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV99" t="n">
         <v>6</v>
       </c>
-      <c r="AV99" t="n">
-        <v>4</v>
-      </c>
       <c r="AW99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX99" t="n">
         <v>3</v>
-      </c>
-      <c r="AX99" t="n">
-        <v>5</v>
       </c>
       <c r="AY99" t="n">
         <v>9</v>
@@ -22295,22 +22295,22 @@
         <v>2.36</v>
       </c>
       <c r="AU100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV100" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW100" t="n">
         <v>3</v>
       </c>
       <c r="AX100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ100" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA100" t="n">
         <v>3</v>
@@ -22513,31 +22513,31 @@
         <v>2.25</v>
       </c>
       <c r="AU101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX101" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB101" t="n">
         <v>4</v>
       </c>
-      <c r="AY101" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ101" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA101" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB101" t="n">
-        <v>3</v>
-      </c>
       <c r="BC101" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD101" t="n">
         <v>1.69</v>
@@ -22731,22 +22731,22 @@
         <v>2.48</v>
       </c>
       <c r="AU102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV102" t="n">
         <v>5</v>
       </c>
-      <c r="AV102" t="n">
-        <v>4</v>
-      </c>
       <c r="AW102" t="n">
         <v>0</v>
       </c>
       <c r="AX102" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ102" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA102" t="n">
         <v>2</v>
@@ -22949,22 +22949,22 @@
         <v>2.8</v>
       </c>
       <c r="AU103" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV103" t="n">
         <v>3</v>
       </c>
       <c r="AW103" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AX103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY103" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA103" t="n">
         <v>10</v>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.33</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.78</v>
@@ -3099,7 +3099,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR14" t="n">
         <v>1.73</v>
@@ -3750,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR15" t="n">
         <v>1.31</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR16" t="n">
         <v>1.19</v>
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.11</v>
@@ -4407,7 +4407,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR18" t="n">
         <v>2.76</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.78</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.33</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR21" t="n">
         <v>1.23</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.11</v>
@@ -5715,7 +5715,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR24" t="n">
         <v>0.98</v>
@@ -6151,7 +6151,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR26" t="n">
         <v>1.34</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27" t="n">
         <v>2.33</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.11</v>
@@ -7241,7 +7241,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR31" t="n">
         <v>1.22</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR32" t="n">
         <v>1.23</v>
@@ -7674,10 +7674,10 @@
         <v>2</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR33" t="n">
         <v>1.27</v>
@@ -7892,10 +7892,10 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR34" t="n">
         <v>1.53</v>
@@ -8110,10 +8110,10 @@
         <v>2</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR35" t="n">
         <v>1.98</v>
@@ -8328,10 +8328,10 @@
         <v>1</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR36" t="n">
         <v>1.34</v>
@@ -8546,10 +8546,10 @@
         <v>2.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR37" t="n">
         <v>1.35</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.11</v>
@@ -10290,10 +10290,10 @@
         <v>0.75</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR45" t="n">
         <v>1.83</v>
@@ -10511,7 +10511,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR46" t="n">
         <v>1.4</v>
@@ -10726,10 +10726,10 @@
         <v>2.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -10944,7 +10944,7 @@
         <v>0.75</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.11</v>
@@ -11165,7 +11165,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ49" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR49" t="n">
         <v>2.07</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.33</v>
@@ -11601,7 +11601,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR51" t="n">
         <v>0.99</v>
@@ -12470,10 +12470,10 @@
         <v>1.33</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR55" t="n">
         <v>1.51</v>
@@ -12688,10 +12688,10 @@
         <v>1.2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR56" t="n">
         <v>1.4</v>
@@ -12909,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR57" t="n">
         <v>1.03</v>
@@ -13342,7 +13342,7 @@
         <v>1.2</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.67</v>
@@ -13560,10 +13560,10 @@
         <v>2.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR60" t="n">
         <v>1.25</v>
@@ -13999,7 +13999,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR62" t="n">
         <v>1.37</v>
@@ -14217,7 +14217,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR63" t="n">
         <v>1.02</v>
@@ -14432,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.33</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.11</v>
@@ -14868,7 +14868,7 @@
         <v>0.6</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.11</v>
@@ -15089,7 +15089,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR67" t="n">
         <v>1.88</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.67</v>
@@ -16179,7 +16179,7 @@
         <v>0</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR72" t="n">
         <v>1.01</v>
@@ -16612,10 +16612,10 @@
         <v>2</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR74" t="n">
         <v>1.26</v>
@@ -16830,10 +16830,10 @@
         <v>0.6</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR75" t="n">
         <v>1.47</v>
@@ -17048,7 +17048,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ76" t="n">
         <v>2.33</v>
@@ -17266,10 +17266,10 @@
         <v>1.6</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR77" t="n">
         <v>1.52</v>
@@ -17487,7 +17487,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR78" t="n">
         <v>1.2</v>
@@ -17702,10 +17702,10 @@
         <v>2.6</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ79" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR79" t="n">
         <v>1.46</v>
@@ -17923,7 +17923,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR80" t="n">
         <v>1.28</v>
@@ -18138,7 +18138,7 @@
         <v>0.86</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.67</v>
@@ -18795,7 +18795,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR84" t="n">
         <v>1.33</v>
@@ -19010,7 +19010,7 @@
         <v>2.43</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ85" t="n">
         <v>2.33</v>
@@ -19228,10 +19228,10 @@
         <v>1.83</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR86" t="n">
         <v>1.63</v>
@@ -19446,7 +19446,7 @@
         <v>0.57</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.78</v>
@@ -19667,7 +19667,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR88" t="n">
         <v>1.48</v>
@@ -19882,7 +19882,7 @@
         <v>1.29</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.11</v>
@@ -20100,10 +20100,10 @@
         <v>1.71</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR90" t="n">
         <v>1.41</v>
@@ -20321,7 +20321,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR91" t="n">
         <v>1.81</v>
@@ -20536,7 +20536,7 @@
         <v>1.43</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.11</v>
@@ -20757,7 +20757,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ93" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR93" t="n">
         <v>1.24</v>
@@ -20972,7 +20972,7 @@
         <v>1.14</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.33</v>
@@ -21193,7 +21193,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR95" t="n">
         <v>1.21</v>
@@ -21408,10 +21408,10 @@
         <v>0.43</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR96" t="n">
         <v>1.41</v>
@@ -21626,10 +21626,10 @@
         <v>1.57</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR97" t="n">
         <v>1.28</v>
@@ -23013,6 +23013,1314 @@
       </c>
       <c r="BP103" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>7004230</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45331.6875</v>
+      </c>
+      <c r="F104" t="n">
+        <v>18</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X104" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7004233</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45332.54166666666</v>
+      </c>
+      <c r="F105" t="n">
+        <v>18</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>3</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>4</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['13', '51', '55']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X105" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7004234</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45332.54166666666</v>
+      </c>
+      <c r="F106" t="n">
+        <v>18</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X106" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>7004232</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45333.4375</v>
+      </c>
+      <c r="F107" t="n">
+        <v>18</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" t="n">
+        <v>2</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['12', '75']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S107" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V107" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X107" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>7004235</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45333.4375</v>
+      </c>
+      <c r="F108" t="n">
+        <v>18</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2</v>
+      </c>
+      <c r="N108" t="n">
+        <v>2</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['73', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U108" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V108" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X108" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7004231</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45333.54166666666</v>
+      </c>
+      <c r="F109" t="n">
+        <v>18</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>2</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="n">
+        <v>4</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['30', '90+2']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['36', '82']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S109" t="n">
+        <v>6</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X109" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.67</v>
+        <v>0.3</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.22</v>
+        <v>0.85</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.2</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2218,16 +2218,16 @@
         <v>2.6</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.11</v>
+        <v>1.55</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2436,16 +2436,16 @@
         <v>2.15</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" t="n">
         <v>2.1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2654,16 +2654,16 @@
         <v>1.22</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10" t="n">
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>4.75</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11" t="n">
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3093,13 +3093,13 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3308,16 +3308,16 @@
         <v>1.45</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3529,13 +3529,13 @@
         <v>3</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP14" t="n">
         <v>2.1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AR14" t="n">
         <v>1.73</v>
@@ -3744,16 +3744,16 @@
         <v>1.87</v>
       </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO15" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.67</v>
+        <v>0.3</v>
       </c>
       <c r="AR15" t="n">
         <v>1.31</v>
@@ -3962,16 +3962,16 @@
         <v>2.6</v>
       </c>
       <c r="AN16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AR16" t="n">
         <v>1.19</v>
@@ -4183,13 +4183,13 @@
         <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="AR17" t="n">
         <v>2.14</v>
@@ -4398,16 +4398,16 @@
         <v>2.3</v>
       </c>
       <c r="AN18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO18" t="n">
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.11</v>
+        <v>1.55</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="AR18" t="n">
         <v>2.76</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.22</v>
+        <v>0.85</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="AR19" t="n">
         <v>1.02</v>
@@ -4837,13 +4837,13 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AR20" t="n">
         <v>1.19</v>
@@ -5052,16 +5052,16 @@
         <v>1.14</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO21" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR21" t="n">
         <v>1.23</v>
@@ -5270,16 +5270,16 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="AR22" t="n">
         <v>1.78</v>
@@ -5488,16 +5488,16 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="AR23" t="n">
         <v>0.86</v>
@@ -5706,16 +5706,16 @@
         <v>1.22</v>
       </c>
       <c r="AN24" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO24" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AR24" t="n">
         <v>0.98</v>
@@ -5924,13 +5924,13 @@
         <v>1.16</v>
       </c>
       <c r="AN25" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO25" t="n">
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AQ25" t="n">
         <v>2.2</v>
@@ -6142,16 +6142,16 @@
         <v>3.75</v>
       </c>
       <c r="AN26" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP26" t="n">
         <v>2.1</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AR26" t="n">
         <v>1.34</v>
@@ -6360,13 +6360,13 @@
         <v>1.14</v>
       </c>
       <c r="AN27" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO27" t="n">
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ27" t="n">
         <v>2.2</v>
@@ -6578,16 +6578,16 @@
         <v>1.57</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="AR28" t="n">
         <v>0.99</v>
@@ -6796,16 +6796,16 @@
         <v>1.87</v>
       </c>
       <c r="AN29" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO29" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="AR29" t="n">
         <v>1.36</v>
@@ -7014,16 +7014,16 @@
         <v>2.15</v>
       </c>
       <c r="AN30" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.11</v>
+        <v>1.55</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="AR30" t="n">
         <v>2.03</v>
@@ -7232,16 +7232,16 @@
         <v>1.55</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO31" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AR31" t="n">
         <v>1.22</v>
@@ -7450,16 +7450,16 @@
         <v>1.55</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AR32" t="n">
         <v>1.23</v>
@@ -7668,16 +7668,16 @@
         <v>1.75</v>
       </c>
       <c r="AN33" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AO33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="AR33" t="n">
         <v>1.27</v>
@@ -7886,16 +7886,16 @@
         <v>1.12</v>
       </c>
       <c r="AN34" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO34" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.22</v>
+        <v>0.85</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR34" t="n">
         <v>1.53</v>
@@ -8107,13 +8107,13 @@
         <v>3</v>
       </c>
       <c r="AO35" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AR35" t="n">
         <v>1.98</v>
@@ -8322,16 +8322,16 @@
         <v>3.18</v>
       </c>
       <c r="AN36" t="n">
-        <v>2.33</v>
+        <v>1.6</v>
       </c>
       <c r="AO36" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.67</v>
+        <v>0.3</v>
       </c>
       <c r="AR36" t="n">
         <v>1.34</v>
@@ -8540,16 +8540,16 @@
         <v>2</v>
       </c>
       <c r="AN37" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO37" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AR37" t="n">
         <v>1.35</v>
@@ -8758,16 +8758,16 @@
         <v>1.3</v>
       </c>
       <c r="AN38" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.5</v>
+        <v>1.83</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AR38" t="n">
         <v>1.59</v>
@@ -8976,16 +8976,16 @@
         <v>1.66</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO39" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="AR39" t="n">
         <v>1.06</v>
@@ -9194,7 +9194,7 @@
         <v>1.45</v>
       </c>
       <c r="AN40" t="n">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AO40" t="n">
         <v>3</v>
@@ -9412,16 +9412,16 @@
         <v>1.6</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO41" t="n">
         <v>0.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="AR41" t="n">
         <v>1</v>
@@ -9630,16 +9630,16 @@
         <v>1.44</v>
       </c>
       <c r="AN42" t="n">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO42" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="AR42" t="n">
         <v>1.12</v>
@@ -9854,10 +9854,10 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.11</v>
+        <v>1.55</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="AR43" t="n">
         <v>2.21</v>
@@ -10066,16 +10066,16 @@
         <v>1.42</v>
       </c>
       <c r="AN44" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AO44" t="n">
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="AR44" t="n">
         <v>1.29</v>
@@ -10284,16 +10284,16 @@
         <v>4</v>
       </c>
       <c r="AN45" t="n">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AO45" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AR45" t="n">
         <v>1.83</v>
@@ -10502,16 +10502,16 @@
         <v>2.2</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.67</v>
+        <v>1.43</v>
       </c>
       <c r="AO46" t="n">
-        <v>0.67</v>
+        <v>0.29</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.67</v>
+        <v>0.3</v>
       </c>
       <c r="AR46" t="n">
         <v>1.4</v>
@@ -10720,16 +10720,16 @@
         <v>2.4</v>
       </c>
       <c r="AN47" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO47" t="n">
-        <v>2.33</v>
+        <v>1.57</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -10938,16 +10938,16 @@
         <v>1.3</v>
       </c>
       <c r="AN48" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO48" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.22</v>
+        <v>0.85</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="AR48" t="n">
         <v>1.46</v>
@@ -11156,16 +11156,16 @@
         <v>1.44</v>
       </c>
       <c r="AN49" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AO49" t="n">
-        <v>3</v>
+        <v>2.43</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.11</v>
+        <v>1.55</v>
       </c>
       <c r="AQ49" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR49" t="n">
         <v>2.07</v>
@@ -11374,16 +11374,16 @@
         <v>1.4</v>
       </c>
       <c r="AN50" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO50" t="n">
-        <v>1.33</v>
+        <v>1.88</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AR50" t="n">
         <v>1.29</v>
@@ -11592,16 +11592,16 @@
         <v>1.47</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO51" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AR51" t="n">
         <v>0.99</v>
@@ -11810,13 +11810,13 @@
         <v>1.03</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO52" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AP52" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AQ52" t="n">
         <v>2.2</v>
@@ -12028,16 +12028,16 @@
         <v>3.55</v>
       </c>
       <c r="AN53" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO53" t="n">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AP53" t="n">
         <v>2.1</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="AR53" t="n">
         <v>1.32</v>
@@ -12246,16 +12246,16 @@
         <v>1.73</v>
       </c>
       <c r="AN54" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="AR54" t="n">
         <v>1.23</v>
@@ -12464,16 +12464,16 @@
         <v>1.55</v>
       </c>
       <c r="AN55" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AO55" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AR55" t="n">
         <v>1.51</v>
@@ -12682,16 +12682,16 @@
         <v>2</v>
       </c>
       <c r="AN56" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AO56" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AR56" t="n">
         <v>1.4</v>
@@ -12900,16 +12900,16 @@
         <v>1.14</v>
       </c>
       <c r="AN57" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AO57" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AP57" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AR57" t="n">
         <v>1.03</v>
@@ -13118,16 +13118,16 @@
         <v>2.15</v>
       </c>
       <c r="AN58" t="n">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="AO58" t="n">
-        <v>0.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="AR58" t="n">
         <v>1.14</v>
@@ -13336,16 +13336,16 @@
         <v>2.65</v>
       </c>
       <c r="AN59" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AO59" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="AR59" t="n">
         <v>1.37</v>
@@ -13554,16 +13554,16 @@
         <v>1.22</v>
       </c>
       <c r="AN60" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AO60" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR60" t="n">
         <v>1.25</v>
@@ -13772,13 +13772,13 @@
         <v>1.08</v>
       </c>
       <c r="AN61" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AO61" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.2</v>
@@ -13990,16 +13990,16 @@
         <v>2.38</v>
       </c>
       <c r="AN62" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AO62" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP62" t="n">
         <v>2.1</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="AR62" t="n">
         <v>1.37</v>
@@ -14208,16 +14208,16 @@
         <v>1.9</v>
       </c>
       <c r="AN63" t="n">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="AO63" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.67</v>
+        <v>0.3</v>
       </c>
       <c r="AR63" t="n">
         <v>1.02</v>
@@ -14426,16 +14426,16 @@
         <v>2.4</v>
       </c>
       <c r="AN64" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AO64" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AR64" t="n">
         <v>1.82</v>
@@ -14644,16 +14644,16 @@
         <v>1.51</v>
       </c>
       <c r="AN65" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AO65" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.22</v>
+        <v>0.85</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="AR65" t="n">
         <v>1.3</v>
@@ -14862,16 +14862,16 @@
         <v>1.26</v>
       </c>
       <c r="AN66" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO66" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="AR66" t="n">
         <v>1.22</v>
@@ -15080,16 +15080,16 @@
         <v>2.15</v>
       </c>
       <c r="AN67" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AO67" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.11</v>
+        <v>1.55</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AR67" t="n">
         <v>1.88</v>
@@ -15298,16 +15298,16 @@
         <v>4.2</v>
       </c>
       <c r="AN68" t="n">
-        <v>1.8</v>
+        <v>2.09</v>
       </c>
       <c r="AO68" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="AR68" t="n">
         <v>1.71</v>
@@ -15516,16 +15516,16 @@
         <v>2.25</v>
       </c>
       <c r="AN69" t="n">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="AO69" t="n">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="AR69" t="n">
         <v>1.43</v>
@@ -15734,16 +15734,16 @@
         <v>1.52</v>
       </c>
       <c r="AN70" t="n">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="AO70" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="AR70" t="n">
         <v>1.17</v>
@@ -15952,16 +15952,16 @@
         <v>2.25</v>
       </c>
       <c r="AN71" t="n">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AO71" t="n">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AP71" t="n">
         <v>2.1</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="AR71" t="n">
         <v>1.45</v>
@@ -16170,16 +16170,16 @@
         <v>1.25</v>
       </c>
       <c r="AN72" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AO72" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AP72" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="AR72" t="n">
         <v>1.01</v>
@@ -16388,16 +16388,16 @@
         <v>1.72</v>
       </c>
       <c r="AN73" t="n">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AO73" t="n">
-        <v>1.4</v>
+        <v>1.91</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.11</v>
+        <v>1.55</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AR73" t="n">
         <v>1.79</v>
@@ -16609,13 +16609,13 @@
         <v>1.17</v>
       </c>
       <c r="AO74" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AR74" t="n">
         <v>1.26</v>
@@ -16824,16 +16824,16 @@
         <v>2.9</v>
       </c>
       <c r="AN75" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AO75" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.67</v>
+        <v>0.3</v>
       </c>
       <c r="AR75" t="n">
         <v>1.47</v>
@@ -17042,13 +17042,13 @@
         <v>1.01</v>
       </c>
       <c r="AN76" t="n">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="AO76" t="n">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="AQ76" t="n">
         <v>2.2</v>
@@ -17260,16 +17260,16 @@
         <v>1.28</v>
       </c>
       <c r="AN77" t="n">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="AO77" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.22</v>
+        <v>0.85</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AR77" t="n">
         <v>1.52</v>
@@ -17478,16 +17478,16 @@
         <v>1.87</v>
       </c>
       <c r="AN78" t="n">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="AO78" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AR78" t="n">
         <v>1.2</v>
@@ -17696,16 +17696,16 @@
         <v>1.47</v>
       </c>
       <c r="AN79" t="n">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO79" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="AQ79" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR79" t="n">
         <v>1.46</v>
@@ -17914,16 +17914,16 @@
         <v>1.35</v>
       </c>
       <c r="AN80" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AO80" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AR80" t="n">
         <v>1.28</v>
@@ -18132,16 +18132,16 @@
         <v>1.4</v>
       </c>
       <c r="AN81" t="n">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AO81" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="AR81" t="n">
         <v>1.23</v>
@@ -18350,16 +18350,16 @@
         <v>1.24</v>
       </c>
       <c r="AN82" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AO82" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AP82" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="AR82" t="n">
         <v>0.95</v>
@@ -18568,16 +18568,16 @@
         <v>1.25</v>
       </c>
       <c r="AN83" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO83" t="n">
-        <v>1.33</v>
+        <v>1.92</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AR83" t="n">
         <v>1.21</v>
@@ -18786,16 +18786,16 @@
         <v>1.22</v>
       </c>
       <c r="AN84" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AO84" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR84" t="n">
         <v>1.33</v>
@@ -19004,13 +19004,13 @@
         <v>1.22</v>
       </c>
       <c r="AN85" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AO85" t="n">
-        <v>2.43</v>
+        <v>2.23</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="AQ85" t="n">
         <v>2.2</v>
@@ -19222,16 +19222,16 @@
         <v>2.95</v>
       </c>
       <c r="AN86" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AO86" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="AR86" t="n">
         <v>1.63</v>
@@ -19440,16 +19440,16 @@
         <v>3.1</v>
       </c>
       <c r="AN87" t="n">
-        <v>2.43</v>
+        <v>1.79</v>
       </c>
       <c r="AO87" t="n">
         <v>0.57</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="AR87" t="n">
         <v>1.53</v>
@@ -19658,16 +19658,16 @@
         <v>3.83</v>
       </c>
       <c r="AN88" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AO88" t="n">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="AP88" t="n">
         <v>2.1</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.67</v>
+        <v>0.3</v>
       </c>
       <c r="AR88" t="n">
         <v>1.48</v>
@@ -19879,13 +19879,13 @@
         <v>1.43</v>
       </c>
       <c r="AO89" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="AR89" t="n">
         <v>1.34</v>
@@ -20094,16 +20094,16 @@
         <v>1.63</v>
       </c>
       <c r="AN90" t="n">
-        <v>1.17</v>
+        <v>0.93</v>
       </c>
       <c r="AO90" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.22</v>
+        <v>0.85</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AR90" t="n">
         <v>1.41</v>
@@ -20312,16 +20312,16 @@
         <v>3</v>
       </c>
       <c r="AN91" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO91" t="n">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.11</v>
+        <v>1.55</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AR91" t="n">
         <v>1.81</v>
@@ -20530,16 +20530,16 @@
         <v>3.3</v>
       </c>
       <c r="AN92" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AO92" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="AR92" t="n">
         <v>1.59</v>
@@ -20748,16 +20748,16 @@
         <v>1.22</v>
       </c>
       <c r="AN93" t="n">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AO93" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="AQ93" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR93" t="n">
         <v>1.24</v>
@@ -20966,16 +20966,16 @@
         <v>1.48</v>
       </c>
       <c r="AN94" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AO94" t="n">
-        <v>1.14</v>
+        <v>1.87</v>
       </c>
       <c r="AP94" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ94" t="n">
         <v>1.7</v>
-      </c>
-      <c r="AQ94" t="n">
-        <v>1.3</v>
       </c>
       <c r="AR94" t="n">
         <v>1.47</v>
@@ -21184,16 +21184,16 @@
         <v>1.45</v>
       </c>
       <c r="AN95" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="AO95" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="AR95" t="n">
         <v>1.21</v>
@@ -21402,16 +21402,16 @@
         <v>2.4</v>
       </c>
       <c r="AN96" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AO96" t="n">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.22</v>
+        <v>0.85</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.67</v>
+        <v>0.3</v>
       </c>
       <c r="AR96" t="n">
         <v>1.41</v>
@@ -21620,16 +21620,16 @@
         <v>1.12</v>
       </c>
       <c r="AN97" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AO97" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AR97" t="n">
         <v>1.28</v>
@@ -21838,13 +21838,13 @@
         <v>1.28</v>
       </c>
       <c r="AN98" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO98" t="n">
         <v>2.25</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.11</v>
+        <v>1.55</v>
       </c>
       <c r="AQ98" t="n">
         <v>2.2</v>
@@ -22056,16 +22056,16 @@
         <v>1.36</v>
       </c>
       <c r="AN99" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO99" t="n">
         <v>1.25</v>
       </c>
-      <c r="AO99" t="n">
-        <v>1.13</v>
-      </c>
       <c r="AP99" t="n">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="AR99" t="n">
         <v>1.3</v>
@@ -22274,16 +22274,16 @@
         <v>1.09</v>
       </c>
       <c r="AN100" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AO100" t="n">
-        <v>1.13</v>
+        <v>1.81</v>
       </c>
       <c r="AP100" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AR100" t="n">
         <v>0.98</v>
@@ -22492,16 +22492,16 @@
         <v>1.75</v>
       </c>
       <c r="AN101" t="n">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
       <c r="AO101" t="n">
         <v>0.5</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="AR101" t="n">
         <v>1.23</v>
@@ -22710,16 +22710,16 @@
         <v>1.65</v>
       </c>
       <c r="AN102" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AO102" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="AR102" t="n">
         <v>1.23</v>
@@ -22931,13 +22931,13 @@
         <v>2.13</v>
       </c>
       <c r="AO103" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP103" t="n">
         <v>2.1</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="AR103" t="n">
         <v>1.57</v>
@@ -23146,16 +23146,16 @@
         <v>1.88</v>
       </c>
       <c r="AN104" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AO104" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR104" t="n">
         <v>1.61</v>
@@ -23364,16 +23364,16 @@
         <v>1.83</v>
       </c>
       <c r="AN105" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="AO105" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="AR105" t="n">
         <v>1.45</v>
@@ -23582,16 +23582,16 @@
         <v>1.72</v>
       </c>
       <c r="AN106" t="n">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO106" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.22</v>
+        <v>0.85</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AR106" t="n">
         <v>1.48</v>
@@ -23800,16 +23800,16 @@
         <v>1.32</v>
       </c>
       <c r="AN107" t="n">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="AO107" t="n">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AR107" t="n">
         <v>1.31</v>
@@ -24018,16 +24018,16 @@
         <v>2</v>
       </c>
       <c r="AN108" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AO108" t="n">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.67</v>
+        <v>0.3</v>
       </c>
       <c r="AR108" t="n">
         <v>1.26</v>
@@ -24236,16 +24236,16 @@
         <v>2.65</v>
       </c>
       <c r="AN109" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="AO109" t="n">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AR109" t="n">
         <v>1.48</v>
@@ -24454,16 +24454,16 @@
         <v>2.25</v>
       </c>
       <c r="AN110" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AO110" t="n">
-        <v>0.78</v>
+        <v>0.61</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="AR110" t="n">
         <v>1.29</v>
@@ -24672,16 +24672,16 @@
         <v>1.9</v>
       </c>
       <c r="AN111" t="n">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="AO111" t="n">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="AR111" t="n">
         <v>1.44</v>
@@ -24890,13 +24890,13 @@
         <v>1.1</v>
       </c>
       <c r="AN112" t="n">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AO112" t="n">
-        <v>2.33</v>
+        <v>2.22</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="AQ112" t="n">
         <v>2.2</v>
@@ -25108,16 +25108,16 @@
         <v>1.2</v>
       </c>
       <c r="AN113" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO113" t="n">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="AP113" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AR113" t="n">
         <v>0.96</v>
@@ -25326,16 +25326,16 @@
         <v>1.28</v>
       </c>
       <c r="AN114" t="n">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="AO114" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AR114" t="n">
         <v>1.2</v>
@@ -25544,16 +25544,16 @@
         <v>1.67</v>
       </c>
       <c r="AN115" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AO115" t="n">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="AP115" t="n">
         <v>2.1</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AR115" t="n">
         <v>1.67</v>
@@ -25629,6 +25629,1314 @@
       </c>
       <c r="BP115" t="n">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>7004246</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45346.54166666666</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>2</v>
+      </c>
+      <c r="N116" t="n">
+        <v>3</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['67', '84']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S116" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U116" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="V116" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X116" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>7004242</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45346.54166666666</v>
+      </c>
+      <c r="F117" t="n">
+        <v>20</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>4</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>4</v>
+      </c>
+      <c r="L117" t="n">
+        <v>7</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>7</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['4', '13', '18', '32', '54', '72', '88']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>3</v>
+      </c>
+      <c r="S117" t="n">
+        <v>12</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U117" t="n">
+        <v>4</v>
+      </c>
+      <c r="V117" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X117" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7004243</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45346.54166666666</v>
+      </c>
+      <c r="F118" t="n">
+        <v>20</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S118" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U118" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V118" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X118" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>7004244</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45347.4375</v>
+      </c>
+      <c r="F119" t="n">
+        <v>20</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>2</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['39', '71']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S119" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X119" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>7004247</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45347.4375</v>
+      </c>
+      <c r="F120" t="n">
+        <v>20</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2</v>
+      </c>
+      <c r="K120" t="n">
+        <v>2</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['9', '12']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U120" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X120" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>7004245</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45347.54166666666</v>
+      </c>
+      <c r="F121" t="n">
+        <v>20</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>3</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>3</v>
+      </c>
+      <c r="L121" t="n">
+        <v>3</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>3</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['18', '20', '40']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S121" t="n">
+        <v>4</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X121" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1071,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ2">
         <v>1.8</v>
@@ -2235,7 +2235,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ6">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ16">
         <v>0.7</v>
@@ -6149,7 +6149,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ25">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR25">
         <v>1.57</v>
@@ -6561,7 +6561,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ27">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR27">
         <v>1.48</v>
@@ -6970,7 +6970,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ29">
         <v>1.18</v>
@@ -8412,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ36">
         <v>0.64</v>
@@ -9239,7 +9239,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ40">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -10678,7 +10678,7 @@
         <v>2.33</v>
       </c>
       <c r="AP47">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ47">
         <v>1.36</v>
@@ -11711,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="AQ52">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR52">
         <v>1.15</v>
@@ -13150,7 +13150,7 @@
         <v>1.2</v>
       </c>
       <c r="AP59">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ59">
         <v>0.6</v>
@@ -13565,7 +13565,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ61">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -16655,7 +16655,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ76">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -17270,7 +17270,7 @@
         <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ79">
         <v>2.1</v>
@@ -18509,7 +18509,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ85">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR85">
         <v>1.41</v>
@@ -18918,7 +18918,7 @@
         <v>0.57</v>
       </c>
       <c r="AP87">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ87">
         <v>0.7</v>
@@ -21187,7 +21187,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ98">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
@@ -23450,7 +23450,7 @@
         <v>1.88</v>
       </c>
       <c r="AP109">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ109">
         <v>1.73</v>
@@ -24071,7 +24071,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ112">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR112">
         <v>1.27</v>
@@ -25304,7 +25304,7 @@
         <v>1.11</v>
       </c>
       <c r="AP118">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ118">
         <v>1.18</v>
@@ -27236,6 +27236,212 @@
         <v>3.04</v>
       </c>
       <c r="BP127">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7004254</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45360.54166666666</v>
+      </c>
+      <c r="F128">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>70</v>
+      </c>
+      <c r="H128" t="s">
+        <v>79</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>86</v>
+      </c>
+      <c r="P128" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q128">
+        <v>4.4</v>
+      </c>
+      <c r="R128">
+        <v>2.1</v>
+      </c>
+      <c r="S128">
+        <v>2.37</v>
+      </c>
+      <c r="T128">
+        <v>1.39</v>
+      </c>
+      <c r="U128">
+        <v>2.75</v>
+      </c>
+      <c r="V128">
+        <v>2.8</v>
+      </c>
+      <c r="W128">
+        <v>1.38</v>
+      </c>
+      <c r="X128">
+        <v>7.25</v>
+      </c>
+      <c r="Y128">
+        <v>1.08</v>
+      </c>
+      <c r="Z128">
+        <v>4.07</v>
+      </c>
+      <c r="AA128">
+        <v>3.87</v>
+      </c>
+      <c r="AB128">
+        <v>1.8</v>
+      </c>
+      <c r="AC128">
+        <v>1.03</v>
+      </c>
+      <c r="AD128">
+        <v>8.4</v>
+      </c>
+      <c r="AE128">
+        <v>1.29</v>
+      </c>
+      <c r="AF128">
+        <v>3.15</v>
+      </c>
+      <c r="AG128">
+        <v>1.59</v>
+      </c>
+      <c r="AH128">
+        <v>2.21</v>
+      </c>
+      <c r="AI128">
+        <v>1.85</v>
+      </c>
+      <c r="AJ128">
+        <v>1.82</v>
+      </c>
+      <c r="AK128">
+        <v>1.93</v>
+      </c>
+      <c r="AL128">
+        <v>1.28</v>
+      </c>
+      <c r="AM128">
+        <v>1.21</v>
+      </c>
+      <c r="AN128">
+        <v>2.1</v>
+      </c>
+      <c r="AO128">
+        <v>2.2</v>
+      </c>
+      <c r="AP128">
+        <v>1.91</v>
+      </c>
+      <c r="AQ128">
+        <v>2.27</v>
+      </c>
+      <c r="AR128">
+        <v>1.51</v>
+      </c>
+      <c r="AS128">
+        <v>1.52</v>
+      </c>
+      <c r="AT128">
+        <v>3.03</v>
+      </c>
+      <c r="AU128">
+        <v>5</v>
+      </c>
+      <c r="AV128">
+        <v>8</v>
+      </c>
+      <c r="AW128">
+        <v>7</v>
+      </c>
+      <c r="AX128">
+        <v>4</v>
+      </c>
+      <c r="AY128">
+        <v>12</v>
+      </c>
+      <c r="AZ128">
+        <v>12</v>
+      </c>
+      <c r="BA128">
+        <v>4</v>
+      </c>
+      <c r="BB128">
+        <v>7</v>
+      </c>
+      <c r="BC128">
+        <v>11</v>
+      </c>
+      <c r="BD128">
+        <v>2.52</v>
+      </c>
+      <c r="BE128">
+        <v>8</v>
+      </c>
+      <c r="BF128">
+        <v>1.75</v>
+      </c>
+      <c r="BG128">
+        <v>1.32</v>
+      </c>
+      <c r="BH128">
+        <v>3.2</v>
+      </c>
+      <c r="BI128">
+        <v>1.57</v>
+      </c>
+      <c r="BJ128">
+        <v>2.35</v>
+      </c>
+      <c r="BK128">
+        <v>1.88</v>
+      </c>
+      <c r="BL128">
+        <v>1.92</v>
+      </c>
+      <c r="BM128">
+        <v>2.45</v>
+      </c>
+      <c r="BN128">
+        <v>1.53</v>
+      </c>
+      <c r="BO128">
+        <v>3.3</v>
+      </c>
+      <c r="BP128">
         <v>1.31</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,18 @@
     <t>['36']</t>
   </si>
   <si>
+    <t>['60', '90+2']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['41', '88']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -539,9 +551,6 @@
   </si>
   <si>
     <t>['68']</t>
-  </si>
-  <si>
-    <t>['70']</t>
   </si>
   <si>
     <t>['33']</t>
@@ -710,6 +719,12 @@
   </si>
   <si>
     <t>['4', '45+1']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['29']</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1330,7 +1345,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1411,7 +1426,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ2">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1536,7 +1551,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1614,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ3">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1742,7 +1757,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1820,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ4">
         <v>0.64</v>
@@ -1948,7 +1963,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2154,7 +2169,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2360,7 +2375,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -2438,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ7">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2647,7 +2662,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ8">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2978,7 +2993,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3056,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AQ10">
         <v>1.18</v>
@@ -3265,7 +3280,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ11">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3390,7 +3405,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3596,7 +3611,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3674,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ13">
         <v>1.18</v>
@@ -4008,7 +4023,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4086,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ15">
         <v>0.64</v>
@@ -4295,7 +4310,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ16">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR16">
         <v>1.19</v>
@@ -4626,7 +4641,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4913,7 +4928,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ19">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR19">
         <v>1.02</v>
@@ -5038,7 +5053,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="Q20">
         <v>4.33</v>
@@ -5244,7 +5259,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5322,10 +5337,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AQ21">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.23</v>
@@ -5450,7 +5465,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5528,10 +5543,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ22">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR22">
         <v>1.78</v>
@@ -5734,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ23">
         <v>1.18</v>
@@ -5862,7 +5877,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>4.33</v>
@@ -5943,7 +5958,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ24">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR24">
         <v>0.98</v>
@@ -6068,7 +6083,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>4.75</v>
@@ -6146,7 +6161,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ25">
         <v>2.27</v>
@@ -6274,7 +6289,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q26">
         <v>1.68</v>
@@ -6355,7 +6370,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ26">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR26">
         <v>1.34</v>
@@ -6480,7 +6495,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6558,7 +6573,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ27">
         <v>2.27</v>
@@ -6686,7 +6701,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6764,10 +6779,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AQ28">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR28">
         <v>0.99</v>
@@ -7098,7 +7113,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7179,7 +7194,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ30">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR30">
         <v>2.03</v>
@@ -7304,7 +7319,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7382,7 +7397,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ31">
         <v>1.73</v>
@@ -7510,7 +7525,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7591,7 +7606,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ32">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR32">
         <v>1.23</v>
@@ -7716,7 +7731,7 @@
         <v>86</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7794,7 +7809,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ33">
         <v>1.36</v>
@@ -7922,7 +7937,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8003,7 +8018,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ34">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.53</v>
@@ -8209,7 +8224,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ35">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR35">
         <v>1.98</v>
@@ -8540,7 +8555,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8618,7 +8633,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ37">
         <v>1.73</v>
@@ -8746,7 +8761,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8824,7 +8839,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ38">
         <v>1.27</v>
@@ -8952,7 +8967,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9033,7 +9048,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ39">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR39">
         <v>1.06</v>
@@ -9158,7 +9173,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9364,7 +9379,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9442,10 +9457,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AQ41">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR41">
         <v>1</v>
@@ -9570,7 +9585,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9648,7 +9663,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ42">
         <v>1.18</v>
@@ -9776,7 +9791,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -9982,7 +9997,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>3.25</v>
@@ -10188,7 +10203,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -10269,7 +10284,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ45">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR45">
         <v>1.83</v>
@@ -10472,7 +10487,7 @@
         <v>0.67</v>
       </c>
       <c r="AP46">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ46">
         <v>0.64</v>
@@ -10806,7 +10821,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11012,7 +11027,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11093,7 +11108,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ49">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>2.07</v>
@@ -11218,7 +11233,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11296,7 +11311,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ50">
         <v>1.27</v>
@@ -11630,7 +11645,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>9.5</v>
@@ -11708,7 +11723,7 @@
         <v>2.5</v>
       </c>
       <c r="AP52">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AQ52">
         <v>2.27</v>
@@ -11917,7 +11932,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ53">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR53">
         <v>1.32</v>
@@ -12120,10 +12135,10 @@
         <v>1.25</v>
       </c>
       <c r="AP54">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ54">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR54">
         <v>1.23</v>
@@ -12326,10 +12341,10 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ55">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR55">
         <v>1.51</v>
@@ -12532,10 +12547,10 @@
         <v>1.2</v>
       </c>
       <c r="AP56">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ56">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR56">
         <v>1.4</v>
@@ -12660,7 +12675,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>5.5</v>
@@ -12738,10 +12753,10 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AQ57">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR57">
         <v>1.03</v>
@@ -12944,10 +12959,10 @@
         <v>0.8</v>
       </c>
       <c r="AP58">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ58">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR58">
         <v>1.14</v>
@@ -13153,7 +13168,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ59">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR59">
         <v>1.37</v>
@@ -13278,7 +13293,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>4.5</v>
@@ -13356,10 +13371,10 @@
         <v>2.5</v>
       </c>
       <c r="AP60">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ60">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR60">
         <v>1.25</v>
@@ -13484,7 +13499,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13562,7 +13577,7 @@
         <v>2.6</v>
       </c>
       <c r="AP61">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ61">
         <v>2.27</v>
@@ -13690,7 +13705,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -14102,7 +14117,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14514,7 +14529,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14720,7 +14735,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15007,7 +15022,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ68">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR68">
         <v>1.71</v>
@@ -15210,10 +15225,10 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ69">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR69">
         <v>1.43</v>
@@ -15750,7 +15765,7 @@
         <v>86</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>4.33</v>
@@ -15828,7 +15843,7 @@
         <v>1.6</v>
       </c>
       <c r="AP72">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AQ72">
         <v>1.36</v>
@@ -15956,7 +15971,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16240,7 +16255,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ74">
         <v>1.73</v>
@@ -16446,7 +16461,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ75">
         <v>0.64</v>
@@ -16574,7 +16589,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>7.5</v>
@@ -16780,7 +16795,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>4.33</v>
@@ -16861,7 +16876,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ77">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR77">
         <v>1.52</v>
@@ -16986,7 +17001,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17064,10 +17079,10 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ78">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR78">
         <v>1.2</v>
@@ -17273,7 +17288,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ79">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR79">
         <v>1.46</v>
@@ -17476,10 +17491,10 @@
         <v>1.83</v>
       </c>
       <c r="AP80">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ80">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR80">
         <v>1.28</v>
@@ -17604,7 +17619,7 @@
         <v>134</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17685,7 +17700,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ81">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR81">
         <v>1.23</v>
@@ -17810,7 +17825,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -17888,7 +17903,7 @@
         <v>1.17</v>
       </c>
       <c r="AP82">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AQ82">
         <v>1.18</v>
@@ -18222,7 +18237,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18300,10 +18315,10 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ84">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR84">
         <v>1.33</v>
@@ -18506,7 +18521,7 @@
         <v>2.43</v>
       </c>
       <c r="AP85">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ85">
         <v>2.27</v>
@@ -18634,7 +18649,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18921,7 +18936,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ87">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR87">
         <v>1.53</v>
@@ -19330,7 +19345,7 @@
         <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ89">
         <v>1.18</v>
@@ -19458,7 +19473,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19745,7 +19760,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ91">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR91">
         <v>1.81</v>
@@ -20076,7 +20091,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20157,7 +20172,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ93">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR93">
         <v>1.24</v>
@@ -20360,7 +20375,7 @@
         <v>1.14</v>
       </c>
       <c r="AP94">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ94">
         <v>1.27</v>
@@ -20566,7 +20581,7 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ95">
         <v>1.36</v>
@@ -20900,7 +20915,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q97">
         <v>5.5</v>
@@ -20981,7 +20996,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ97">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR97">
         <v>1.28</v>
@@ -21312,7 +21327,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21390,7 +21405,7 @@
         <v>1.13</v>
       </c>
       <c r="AP99">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ99">
         <v>1.18</v>
@@ -21518,7 +21533,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21596,7 +21611,7 @@
         <v>1.13</v>
       </c>
       <c r="AP100">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AQ100">
         <v>1.27</v>
@@ -21724,7 +21739,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21805,7 +21820,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ101">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -22008,7 +22023,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ102">
         <v>1.18</v>
@@ -22217,7 +22232,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ103">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR103">
         <v>1.57</v>
@@ -22342,7 +22357,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22423,7 +22438,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ104">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -22548,7 +22563,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -22626,7 +22641,7 @@
         <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ105">
         <v>1.36</v>
@@ -22754,7 +22769,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22835,7 +22850,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ106">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR106">
         <v>1.48</v>
@@ -22960,7 +22975,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23038,10 +23053,10 @@
         <v>1.75</v>
       </c>
       <c r="AP107">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ107">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR107">
         <v>1.31</v>
@@ -23166,7 +23181,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23372,7 +23387,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23578,7 +23593,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -23656,10 +23671,10 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ110">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR110">
         <v>1.29</v>
@@ -23862,10 +23877,10 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ111">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR111">
         <v>1.44</v>
@@ -24196,7 +24211,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q113">
         <v>4.33</v>
@@ -24274,7 +24289,7 @@
         <v>1.78</v>
       </c>
       <c r="AP113">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AQ113">
         <v>1.73</v>
@@ -24480,7 +24495,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ114">
         <v>1.27</v>
@@ -24689,7 +24704,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ115">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR115">
         <v>1.67</v>
@@ -24814,7 +24829,7 @@
         <v>121</v>
       </c>
       <c r="P116" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q116">
         <v>3.16</v>
@@ -25510,10 +25525,10 @@
         <v>0.78</v>
       </c>
       <c r="AP119">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ119">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR119">
         <v>1.3</v>
@@ -25638,7 +25653,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q120">
         <v>5.5</v>
@@ -25719,7 +25734,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ120">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR120">
         <v>1.27</v>
@@ -26462,7 +26477,7 @@
         <v>103</v>
       </c>
       <c r="P124" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q124">
         <v>1.57</v>
@@ -26668,7 +26683,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27443,6 +27458,1036 @@
       </c>
       <c r="BP128">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7004257</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45361.54166666666</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>81</v>
+      </c>
+      <c r="H129" t="s">
+        <v>76</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>161</v>
+      </c>
+      <c r="P129" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q129">
+        <v>3.7</v>
+      </c>
+      <c r="R129">
+        <v>2.23</v>
+      </c>
+      <c r="S129">
+        <v>3.07</v>
+      </c>
+      <c r="T129">
+        <v>1.4</v>
+      </c>
+      <c r="U129">
+        <v>3.01</v>
+      </c>
+      <c r="V129">
+        <v>2.95</v>
+      </c>
+      <c r="W129">
+        <v>1.42</v>
+      </c>
+      <c r="X129">
+        <v>6.3</v>
+      </c>
+      <c r="Y129">
+        <v>1.1</v>
+      </c>
+      <c r="Z129">
+        <v>3.56</v>
+      </c>
+      <c r="AA129">
+        <v>2.8</v>
+      </c>
+      <c r="AB129">
+        <v>2.4</v>
+      </c>
+      <c r="AC129">
+        <v>1.06</v>
+      </c>
+      <c r="AD129">
+        <v>6.85</v>
+      </c>
+      <c r="AE129">
+        <v>1.28</v>
+      </c>
+      <c r="AF129">
+        <v>3.18</v>
+      </c>
+      <c r="AG129">
+        <v>1.84</v>
+      </c>
+      <c r="AH129">
+        <v>1.9</v>
+      </c>
+      <c r="AI129">
+        <v>1.73</v>
+      </c>
+      <c r="AJ129">
+        <v>2.04</v>
+      </c>
+      <c r="AK129">
+        <v>1.61</v>
+      </c>
+      <c r="AL129">
+        <v>1.41</v>
+      </c>
+      <c r="AM129">
+        <v>1.3</v>
+      </c>
+      <c r="AN129">
+        <v>1.4</v>
+      </c>
+      <c r="AO129">
+        <v>1.8</v>
+      </c>
+      <c r="AP129">
+        <v>1.36</v>
+      </c>
+      <c r="AQ129">
+        <v>1.73</v>
+      </c>
+      <c r="AR129">
+        <v>1.29</v>
+      </c>
+      <c r="AS129">
+        <v>1.75</v>
+      </c>
+      <c r="AT129">
+        <v>3.04</v>
+      </c>
+      <c r="AU129">
+        <v>5</v>
+      </c>
+      <c r="AV129">
+        <v>4</v>
+      </c>
+      <c r="AW129">
+        <v>3</v>
+      </c>
+      <c r="AX129">
+        <v>1</v>
+      </c>
+      <c r="AY129">
+        <v>8</v>
+      </c>
+      <c r="AZ129">
+        <v>5</v>
+      </c>
+      <c r="BA129">
+        <v>3</v>
+      </c>
+      <c r="BB129">
+        <v>0</v>
+      </c>
+      <c r="BC129">
+        <v>3</v>
+      </c>
+      <c r="BD129">
+        <v>2.33</v>
+      </c>
+      <c r="BE129">
+        <v>8</v>
+      </c>
+      <c r="BF129">
+        <v>1.82</v>
+      </c>
+      <c r="BG129">
+        <v>1.23</v>
+      </c>
+      <c r="BH129">
+        <v>3.56</v>
+      </c>
+      <c r="BI129">
+        <v>1.48</v>
+      </c>
+      <c r="BJ129">
+        <v>2.53</v>
+      </c>
+      <c r="BK129">
+        <v>1.88</v>
+      </c>
+      <c r="BL129">
+        <v>1.92</v>
+      </c>
+      <c r="BM129">
+        <v>2.24</v>
+      </c>
+      <c r="BN129">
+        <v>1.61</v>
+      </c>
+      <c r="BO129">
+        <v>3.04</v>
+      </c>
+      <c r="BP129">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7004258</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45361.54166666666</v>
+      </c>
+      <c r="F130">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>78</v>
+      </c>
+      <c r="H130" t="s">
+        <v>80</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130" t="s">
+        <v>164</v>
+      </c>
+      <c r="P130" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q130">
+        <v>4.5</v>
+      </c>
+      <c r="R130">
+        <v>2.16</v>
+      </c>
+      <c r="S130">
+        <v>2.46</v>
+      </c>
+      <c r="T130">
+        <v>1.39</v>
+      </c>
+      <c r="U130">
+        <v>2.86</v>
+      </c>
+      <c r="V130">
+        <v>2.82</v>
+      </c>
+      <c r="W130">
+        <v>1.4</v>
+      </c>
+      <c r="X130">
+        <v>7.2</v>
+      </c>
+      <c r="Y130">
+        <v>1.08</v>
+      </c>
+      <c r="Z130">
+        <v>3.78</v>
+      </c>
+      <c r="AA130">
+        <v>3.6</v>
+      </c>
+      <c r="AB130">
+        <v>1.95</v>
+      </c>
+      <c r="AC130">
+        <v>1.02</v>
+      </c>
+      <c r="AD130">
+        <v>9</v>
+      </c>
+      <c r="AE130">
+        <v>1.27</v>
+      </c>
+      <c r="AF130">
+        <v>3.28</v>
+      </c>
+      <c r="AG130">
+        <v>1.95</v>
+      </c>
+      <c r="AH130">
+        <v>1.8</v>
+      </c>
+      <c r="AI130">
+        <v>1.81</v>
+      </c>
+      <c r="AJ130">
+        <v>1.93</v>
+      </c>
+      <c r="AK130">
+        <v>1.91</v>
+      </c>
+      <c r="AL130">
+        <v>1.28</v>
+      </c>
+      <c r="AM130">
+        <v>1.25</v>
+      </c>
+      <c r="AN130">
+        <v>0</v>
+      </c>
+      <c r="AO130">
+        <v>0.7</v>
+      </c>
+      <c r="AP130">
+        <v>0.27</v>
+      </c>
+      <c r="AQ130">
+        <v>0.64</v>
+      </c>
+      <c r="AR130">
+        <v>0.98</v>
+      </c>
+      <c r="AS130">
+        <v>1.01</v>
+      </c>
+      <c r="AT130">
+        <v>1.99</v>
+      </c>
+      <c r="AU130">
+        <v>8</v>
+      </c>
+      <c r="AV130">
+        <v>5</v>
+      </c>
+      <c r="AW130">
+        <v>4</v>
+      </c>
+      <c r="AX130">
+        <v>5</v>
+      </c>
+      <c r="AY130">
+        <v>12</v>
+      </c>
+      <c r="AZ130">
+        <v>10</v>
+      </c>
+      <c r="BA130">
+        <v>5</v>
+      </c>
+      <c r="BB130">
+        <v>4</v>
+      </c>
+      <c r="BC130">
+        <v>9</v>
+      </c>
+      <c r="BD130">
+        <v>2.8</v>
+      </c>
+      <c r="BE130">
+        <v>8</v>
+      </c>
+      <c r="BF130">
+        <v>1.59</v>
+      </c>
+      <c r="BG130">
+        <v>1.3</v>
+      </c>
+      <c r="BH130">
+        <v>3.1</v>
+      </c>
+      <c r="BI130">
+        <v>1.61</v>
+      </c>
+      <c r="BJ130">
+        <v>2.27</v>
+      </c>
+      <c r="BK130">
+        <v>1.9</v>
+      </c>
+      <c r="BL130">
+        <v>1.9</v>
+      </c>
+      <c r="BM130">
+        <v>2.54</v>
+      </c>
+      <c r="BN130">
+        <v>1.49</v>
+      </c>
+      <c r="BO130">
+        <v>3.45</v>
+      </c>
+      <c r="BP130">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7004255</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45361.54166666666</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>71</v>
+      </c>
+      <c r="H131" t="s">
+        <v>74</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>165</v>
+      </c>
+      <c r="P131" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q131">
+        <v>2.7</v>
+      </c>
+      <c r="R131">
+        <v>2.23</v>
+      </c>
+      <c r="S131">
+        <v>4.4</v>
+      </c>
+      <c r="T131">
+        <v>1.42</v>
+      </c>
+      <c r="U131">
+        <v>2.96</v>
+      </c>
+      <c r="V131">
+        <v>3.07</v>
+      </c>
+      <c r="W131">
+        <v>1.39</v>
+      </c>
+      <c r="X131">
+        <v>7.4</v>
+      </c>
+      <c r="Y131">
+        <v>1.07</v>
+      </c>
+      <c r="Z131">
+        <v>2.04</v>
+      </c>
+      <c r="AA131">
+        <v>3.4</v>
+      </c>
+      <c r="AB131">
+        <v>3.69</v>
+      </c>
+      <c r="AC131">
+        <v>1.02</v>
+      </c>
+      <c r="AD131">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE131">
+        <v>1.28</v>
+      </c>
+      <c r="AF131">
+        <v>3.18</v>
+      </c>
+      <c r="AG131">
+        <v>1.95</v>
+      </c>
+      <c r="AH131">
+        <v>1.8</v>
+      </c>
+      <c r="AI131">
+        <v>1.8</v>
+      </c>
+      <c r="AJ131">
+        <v>1.95</v>
+      </c>
+      <c r="AK131">
+        <v>1.3</v>
+      </c>
+      <c r="AL131">
+        <v>1.3</v>
+      </c>
+      <c r="AM131">
+        <v>1.78</v>
+      </c>
+      <c r="AN131">
+        <v>1.6</v>
+      </c>
+      <c r="AO131">
+        <v>0.6</v>
+      </c>
+      <c r="AP131">
+        <v>1.55</v>
+      </c>
+      <c r="AQ131">
+        <v>0.64</v>
+      </c>
+      <c r="AR131">
+        <v>1.31</v>
+      </c>
+      <c r="AS131">
+        <v>1.22</v>
+      </c>
+      <c r="AT131">
+        <v>2.53</v>
+      </c>
+      <c r="AU131">
+        <v>3</v>
+      </c>
+      <c r="AV131">
+        <v>8</v>
+      </c>
+      <c r="AW131">
+        <v>3</v>
+      </c>
+      <c r="AX131">
+        <v>7</v>
+      </c>
+      <c r="AY131">
+        <v>6</v>
+      </c>
+      <c r="AZ131">
+        <v>15</v>
+      </c>
+      <c r="BA131">
+        <v>2</v>
+      </c>
+      <c r="BB131">
+        <v>10</v>
+      </c>
+      <c r="BC131">
+        <v>12</v>
+      </c>
+      <c r="BD131">
+        <v>1.75</v>
+      </c>
+      <c r="BE131">
+        <v>8</v>
+      </c>
+      <c r="BF131">
+        <v>2.42</v>
+      </c>
+      <c r="BG131">
+        <v>1.2</v>
+      </c>
+      <c r="BH131">
+        <v>3.9</v>
+      </c>
+      <c r="BI131">
+        <v>1.38</v>
+      </c>
+      <c r="BJ131">
+        <v>2.75</v>
+      </c>
+      <c r="BK131">
+        <v>1.72</v>
+      </c>
+      <c r="BL131">
+        <v>2.08</v>
+      </c>
+      <c r="BM131">
+        <v>2.15</v>
+      </c>
+      <c r="BN131">
+        <v>1.68</v>
+      </c>
+      <c r="BO131">
+        <v>2.8</v>
+      </c>
+      <c r="BP131">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7004256</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45361.54166666666</v>
+      </c>
+      <c r="F132">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>75</v>
+      </c>
+      <c r="H132" t="s">
+        <v>73</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>166</v>
+      </c>
+      <c r="P132" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q132">
+        <v>2</v>
+      </c>
+      <c r="R132">
+        <v>2.4</v>
+      </c>
+      <c r="S132">
+        <v>5.5</v>
+      </c>
+      <c r="T132">
+        <v>1.29</v>
+      </c>
+      <c r="U132">
+        <v>3.5</v>
+      </c>
+      <c r="V132">
+        <v>2.25</v>
+      </c>
+      <c r="W132">
+        <v>1.6</v>
+      </c>
+      <c r="X132">
+        <v>5</v>
+      </c>
+      <c r="Y132">
+        <v>1.14</v>
+      </c>
+      <c r="Z132">
+        <v>1.5</v>
+      </c>
+      <c r="AA132">
+        <v>4.5</v>
+      </c>
+      <c r="AB132">
+        <v>6.02</v>
+      </c>
+      <c r="AC132">
+        <v>1.03</v>
+      </c>
+      <c r="AD132">
+        <v>11</v>
+      </c>
+      <c r="AE132">
+        <v>1.2</v>
+      </c>
+      <c r="AF132">
+        <v>4.33</v>
+      </c>
+      <c r="AG132">
+        <v>1.62</v>
+      </c>
+      <c r="AH132">
+        <v>2.21</v>
+      </c>
+      <c r="AI132">
+        <v>1.73</v>
+      </c>
+      <c r="AJ132">
+        <v>2</v>
+      </c>
+      <c r="AK132">
+        <v>1.14</v>
+      </c>
+      <c r="AL132">
+        <v>1.21</v>
+      </c>
+      <c r="AM132">
+        <v>2.5</v>
+      </c>
+      <c r="AN132">
+        <v>1.7</v>
+      </c>
+      <c r="AO132">
+        <v>0.7</v>
+      </c>
+      <c r="AP132">
+        <v>1.82</v>
+      </c>
+      <c r="AQ132">
+        <v>0.64</v>
+      </c>
+      <c r="AR132">
+        <v>1.4</v>
+      </c>
+      <c r="AS132">
+        <v>1.08</v>
+      </c>
+      <c r="AT132">
+        <v>2.48</v>
+      </c>
+      <c r="AU132">
+        <v>5</v>
+      </c>
+      <c r="AV132">
+        <v>4</v>
+      </c>
+      <c r="AW132">
+        <v>4</v>
+      </c>
+      <c r="AX132">
+        <v>5</v>
+      </c>
+      <c r="AY132">
+        <v>9</v>
+      </c>
+      <c r="AZ132">
+        <v>9</v>
+      </c>
+      <c r="BA132">
+        <v>4</v>
+      </c>
+      <c r="BB132">
+        <v>2</v>
+      </c>
+      <c r="BC132">
+        <v>6</v>
+      </c>
+      <c r="BD132">
+        <v>1.37</v>
+      </c>
+      <c r="BE132">
+        <v>9</v>
+      </c>
+      <c r="BF132">
+        <v>3.7</v>
+      </c>
+      <c r="BG132">
+        <v>1.16</v>
+      </c>
+      <c r="BH132">
+        <v>4.25</v>
+      </c>
+      <c r="BI132">
+        <v>1.33</v>
+      </c>
+      <c r="BJ132">
+        <v>2.91</v>
+      </c>
+      <c r="BK132">
+        <v>1.62</v>
+      </c>
+      <c r="BL132">
+        <v>2.26</v>
+      </c>
+      <c r="BM132">
+        <v>2.01</v>
+      </c>
+      <c r="BN132">
+        <v>1.79</v>
+      </c>
+      <c r="BO132">
+        <v>2.56</v>
+      </c>
+      <c r="BP132">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7004259</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45361.54166666666</v>
+      </c>
+      <c r="F133">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
+        <v>72</v>
+      </c>
+      <c r="H133" t="s">
+        <v>77</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>167</v>
+      </c>
+      <c r="P133" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q133">
+        <v>3.9</v>
+      </c>
+      <c r="R133">
+        <v>2.3</v>
+      </c>
+      <c r="S133">
+        <v>2.4</v>
+      </c>
+      <c r="T133">
+        <v>1.3</v>
+      </c>
+      <c r="U133">
+        <v>3.2</v>
+      </c>
+      <c r="V133">
+        <v>2.5</v>
+      </c>
+      <c r="W133">
+        <v>1.5</v>
+      </c>
+      <c r="X133">
+        <v>5.8</v>
+      </c>
+      <c r="Y133">
+        <v>1.1</v>
+      </c>
+      <c r="Z133">
+        <v>3.71</v>
+      </c>
+      <c r="AA133">
+        <v>3.6</v>
+      </c>
+      <c r="AB133">
+        <v>1.97</v>
+      </c>
+      <c r="AC133">
+        <v>1.02</v>
+      </c>
+      <c r="AD133">
+        <v>10.5</v>
+      </c>
+      <c r="AE133">
+        <v>1.25</v>
+      </c>
+      <c r="AF133">
+        <v>3.75</v>
+      </c>
+      <c r="AG133">
+        <v>1.75</v>
+      </c>
+      <c r="AH133">
+        <v>2.01</v>
+      </c>
+      <c r="AI133">
+        <v>1.65</v>
+      </c>
+      <c r="AJ133">
+        <v>2.2</v>
+      </c>
+      <c r="AK133">
+        <v>1.83</v>
+      </c>
+      <c r="AL133">
+        <v>1.22</v>
+      </c>
+      <c r="AM133">
+        <v>1.3</v>
+      </c>
+      <c r="AN133">
+        <v>1.8</v>
+      </c>
+      <c r="AO133">
+        <v>2.1</v>
+      </c>
+      <c r="AP133">
+        <v>1.73</v>
+      </c>
+      <c r="AQ133">
+        <v>2</v>
+      </c>
+      <c r="AR133">
+        <v>1.16</v>
+      </c>
+      <c r="AS133">
+        <v>1.48</v>
+      </c>
+      <c r="AT133">
+        <v>2.64</v>
+      </c>
+      <c r="AU133">
+        <v>2</v>
+      </c>
+      <c r="AV133">
+        <v>4</v>
+      </c>
+      <c r="AW133">
+        <v>2</v>
+      </c>
+      <c r="AX133">
+        <v>5</v>
+      </c>
+      <c r="AY133">
+        <v>4</v>
+      </c>
+      <c r="AZ133">
+        <v>9</v>
+      </c>
+      <c r="BA133">
+        <v>6</v>
+      </c>
+      <c r="BB133">
+        <v>8</v>
+      </c>
+      <c r="BC133">
+        <v>14</v>
+      </c>
+      <c r="BD133">
+        <v>2.44</v>
+      </c>
+      <c r="BE133">
+        <v>8</v>
+      </c>
+      <c r="BF133">
+        <v>1.75</v>
+      </c>
+      <c r="BG133">
+        <v>1.21</v>
+      </c>
+      <c r="BH133">
+        <v>3.8</v>
+      </c>
+      <c r="BI133">
+        <v>1.4</v>
+      </c>
+      <c r="BJ133">
+        <v>2.65</v>
+      </c>
+      <c r="BK133">
+        <v>1.88</v>
+      </c>
+      <c r="BL133">
+        <v>1.92</v>
+      </c>
+      <c r="BM133">
+        <v>2.19</v>
+      </c>
+      <c r="BN133">
+        <v>1.65</v>
+      </c>
+      <c r="BO133">
+        <v>2.85</v>
+      </c>
+      <c r="BP133">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,9 @@
     <t>['41', '88']</t>
   </si>
   <si>
+    <t>['28', '45', '51', '84', '90+3']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -725,6 +728,9 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['4', '18', '23', '39']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP134"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1351,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1551,7 +1557,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1757,7 +1763,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1838,7 +1844,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ4">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1963,7 +1969,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2041,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5">
         <v>1.73</v>
@@ -2169,7 +2175,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2247,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ6">
         <v>2.27</v>
@@ -2375,7 +2381,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -2456,7 +2462,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2993,7 +2999,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3071,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ10">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3277,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11">
         <v>0.64</v>
@@ -3405,7 +3411,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -3486,7 +3492,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ12">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3611,7 +3617,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3689,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4023,7 +4029,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4104,7 +4110,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ15">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>1.31</v>
@@ -4513,10 +4519,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
         <v>2.14</v>
@@ -4641,7 +4647,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4722,7 +4728,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ18">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>2.76</v>
@@ -4925,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ19">
         <v>0.64</v>
@@ -5131,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ20">
         <v>1.25</v>
@@ -5259,7 +5265,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5340,7 +5346,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR21">
         <v>1.23</v>
@@ -5465,7 +5471,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5543,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>0.64</v>
@@ -5671,7 +5677,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -5877,7 +5883,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q24">
         <v>4.33</v>
@@ -5955,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ24">
         <v>1.73</v>
@@ -6164,7 +6170,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ25">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR25">
         <v>0.86</v>
@@ -6289,7 +6295,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>1.68</v>
@@ -6495,7 +6501,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6701,7 +6707,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6988,7 +6994,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ29">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR29">
         <v>1.36</v>
@@ -7113,7 +7119,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7319,7 +7325,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7525,7 +7531,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7606,7 +7612,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ32">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -7731,7 +7737,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -7809,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ33">
         <v>0.64</v>
@@ -7937,7 +7943,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8015,10 +8021,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR34">
         <v>1.53</v>
@@ -8143,7 +8149,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8427,7 +8433,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36">
         <v>1.73</v>
@@ -8636,7 +8642,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ37">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR37">
         <v>1.34</v>
@@ -8761,7 +8767,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8839,7 +8845,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
         <v>1.25</v>
@@ -8967,7 +8973,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9045,7 +9051,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ39">
         <v>0.64</v>
@@ -9173,7 +9179,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9379,7 +9385,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9585,7 +9591,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9666,7 +9672,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ42">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR42">
         <v>1.12</v>
@@ -9791,7 +9797,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -9872,7 +9878,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ43">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR43">
         <v>2.21</v>
@@ -9997,7 +10003,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>3.25</v>
@@ -10075,10 +10081,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ44">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR44">
         <v>1.29</v>
@@ -10203,7 +10209,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -10281,7 +10287,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ45">
         <v>0.64</v>
@@ -10487,10 +10493,10 @@
         <v>0.67</v>
       </c>
       <c r="AP46">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR46">
         <v>1.4</v>
@@ -10615,7 +10621,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10693,10 +10699,10 @@
         <v>0.75</v>
       </c>
       <c r="AP47">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ47">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR47">
         <v>1.46</v>
@@ -10902,7 +10908,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ48">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR48">
         <v>1.43</v>
@@ -11027,7 +11033,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11108,7 +11114,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR49">
         <v>2.07</v>
@@ -11233,7 +11239,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11517,7 +11523,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ51">
         <v>1.73</v>
@@ -11645,7 +11651,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>9.5</v>
@@ -12469,7 +12475,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -13087,7 +13093,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13168,7 +13174,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR59">
         <v>1.25</v>
@@ -13499,7 +13505,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13577,7 +13583,7 @@
         <v>2.6</v>
       </c>
       <c r="AP61">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ61">
         <v>2.27</v>
@@ -13705,7 +13711,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13783,7 +13789,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ62">
         <v>1.25</v>
@@ -13911,7 +13917,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -13992,7 +13998,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ63">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR63">
         <v>1.37</v>
@@ -14195,10 +14201,10 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ64">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR64">
         <v>1.02</v>
@@ -14401,10 +14407,10 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ65">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR65">
         <v>1.3</v>
@@ -14529,7 +14535,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14607,10 +14613,10 @@
         <v>0.6</v>
       </c>
       <c r="AP66">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ66">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -14735,7 +14741,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15019,7 +15025,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ68">
         <v>0.64</v>
@@ -15225,10 +15231,10 @@
         <v>1.4</v>
       </c>
       <c r="AP69">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ69">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR69">
         <v>1.17</v>
@@ -15431,7 +15437,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ70">
         <v>0.64</v>
@@ -15559,7 +15565,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -15640,7 +15646,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ71">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR71">
         <v>1.01</v>
@@ -15846,7 +15852,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ72">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR72">
         <v>1.45</v>
@@ -15971,7 +15977,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16464,7 +16470,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ75">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR75">
         <v>1.47</v>
@@ -16589,7 +16595,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>7.5</v>
@@ -16667,7 +16673,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ76">
         <v>2.27</v>
@@ -16795,7 +16801,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>4.33</v>
@@ -16873,7 +16879,7 @@
         <v>1.6</v>
       </c>
       <c r="AP77">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ77">
         <v>1.73</v>
@@ -17001,7 +17007,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17288,7 +17294,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ79">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR79">
         <v>1.46</v>
@@ -17413,7 +17419,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q80">
         <v>3.5</v>
@@ -17491,7 +17497,7 @@
         <v>0.86</v>
       </c>
       <c r="AP80">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ80">
         <v>0.64</v>
@@ -17825,7 +17831,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -17906,7 +17912,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ82">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR82">
         <v>0.95</v>
@@ -18109,7 +18115,7 @@
         <v>1.33</v>
       </c>
       <c r="AP83">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ83">
         <v>1.25</v>
@@ -18237,7 +18243,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18315,10 +18321,10 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR84">
         <v>1.33</v>
@@ -18649,7 +18655,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18727,10 +18733,10 @@
         <v>1.83</v>
       </c>
       <c r="AP86">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ86">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR86">
         <v>1.63</v>
@@ -19142,7 +19148,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ88">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR88">
         <v>1.48</v>
@@ -19348,7 +19354,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ89">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR89">
         <v>1.34</v>
@@ -19473,7 +19479,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19551,7 +19557,7 @@
         <v>1.71</v>
       </c>
       <c r="AP90">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ90">
         <v>1.73</v>
@@ -19885,7 +19891,7 @@
         <v>141</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -19963,10 +19969,10 @@
         <v>2.29</v>
       </c>
       <c r="AP92">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ92">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR92">
         <v>1.24</v>
@@ -20169,10 +20175,10 @@
         <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ93">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR93">
         <v>1.59</v>
@@ -20581,10 +20587,10 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ95">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR95">
         <v>1.21</v>
@@ -20709,7 +20715,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>5.5</v>
@@ -20787,7 +20793,7 @@
         <v>1.57</v>
       </c>
       <c r="AP96">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ96">
         <v>1.73</v>
@@ -20993,10 +20999,10 @@
         <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ97">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR97">
         <v>1.41</v>
@@ -21327,7 +21333,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21405,10 +21411,10 @@
         <v>1.13</v>
       </c>
       <c r="AP99">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ99">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR99">
         <v>1.3</v>
@@ -21533,7 +21539,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21739,7 +21745,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21817,7 +21823,7 @@
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ101">
         <v>0.64</v>
@@ -22026,7 +22032,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ102">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR102">
         <v>1.23</v>
@@ -22357,7 +22363,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22435,10 +22441,10 @@
         <v>2.13</v>
       </c>
       <c r="AP104">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ104">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -22563,7 +22569,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -22644,7 +22650,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ105">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -22769,7 +22775,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22847,7 +22853,7 @@
         <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ106">
         <v>0.64</v>
@@ -22975,7 +22981,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q107">
         <v>2.4</v>
@@ -23053,10 +23059,10 @@
         <v>0.38</v>
       </c>
       <c r="AP107">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ107">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR107">
         <v>1.26</v>
@@ -23181,7 +23187,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>3.75</v>
@@ -23387,7 +23393,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23593,7 +23599,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -24083,7 +24089,7 @@
         <v>2.33</v>
       </c>
       <c r="AP112">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ112">
         <v>2.27</v>
@@ -24211,7 +24217,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q113">
         <v>4.33</v>
@@ -24907,10 +24913,10 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ116">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR116">
         <v>1.6</v>
@@ -25116,7 +25122,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ117">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR117">
         <v>1.56</v>
@@ -25241,7 +25247,7 @@
         <v>120</v>
       </c>
       <c r="P118" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q118">
         <v>3.16</v>
@@ -25319,10 +25325,10 @@
         <v>1.33</v>
       </c>
       <c r="AP118">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ118">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR118">
         <v>1.55</v>
@@ -25447,7 +25453,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q119">
         <v>5.5</v>
@@ -25525,10 +25531,10 @@
         <v>2</v>
       </c>
       <c r="AP119">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ119">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR119">
         <v>1.27</v>
@@ -25731,7 +25737,7 @@
         <v>0.78</v>
       </c>
       <c r="AP120">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ120">
         <v>0.64</v>
@@ -25940,7 +25946,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ121">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR121">
         <v>1.79</v>
@@ -26143,7 +26149,7 @@
         <v>1.9</v>
       </c>
       <c r="AP122">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ122">
         <v>1.73</v>
@@ -26352,7 +26358,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ123">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR123">
         <v>1.65</v>
@@ -26477,7 +26483,7 @@
         <v>103</v>
       </c>
       <c r="P124" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q124">
         <v>1.57</v>
@@ -26558,7 +26564,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ124">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR124">
         <v>1.75</v>
@@ -26683,7 +26689,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -26761,10 +26767,10 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ125">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR125">
         <v>1.22</v>
@@ -26967,7 +26973,7 @@
         <v>1.3</v>
       </c>
       <c r="AP126">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ126">
         <v>1.25</v>
@@ -27173,10 +27179,10 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ127">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR127">
         <v>1.29</v>
@@ -27507,7 +27513,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q129">
         <v>3.9</v>
@@ -27588,7 +27594,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ129">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR129">
         <v>1.16</v>
@@ -27713,7 +27719,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q130">
         <v>3.7</v>
@@ -27791,7 +27797,7 @@
         <v>1.8</v>
       </c>
       <c r="AP130">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ130">
         <v>1.73</v>
@@ -28694,6 +28700,1036 @@
       </c>
       <c r="BP134">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7383362</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45367.54166666666</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s">
+        <v>80</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135" t="s">
+        <v>86</v>
+      </c>
+      <c r="P135" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q135">
+        <v>2.5</v>
+      </c>
+      <c r="R135">
+        <v>2.1</v>
+      </c>
+      <c r="S135">
+        <v>4.75</v>
+      </c>
+      <c r="T135">
+        <v>1.4</v>
+      </c>
+      <c r="U135">
+        <v>2.75</v>
+      </c>
+      <c r="V135">
+        <v>3</v>
+      </c>
+      <c r="W135">
+        <v>1.36</v>
+      </c>
+      <c r="X135">
+        <v>8</v>
+      </c>
+      <c r="Y135">
+        <v>1.08</v>
+      </c>
+      <c r="Z135">
+        <v>1.73</v>
+      </c>
+      <c r="AA135">
+        <v>3.6</v>
+      </c>
+      <c r="AB135">
+        <v>4.2</v>
+      </c>
+      <c r="AC135">
+        <v>1.06</v>
+      </c>
+      <c r="AD135">
+        <v>8</v>
+      </c>
+      <c r="AE135">
+        <v>1.3</v>
+      </c>
+      <c r="AF135">
+        <v>3.4</v>
+      </c>
+      <c r="AG135">
+        <v>2</v>
+      </c>
+      <c r="AH135">
+        <v>1.85</v>
+      </c>
+      <c r="AI135">
+        <v>1.95</v>
+      </c>
+      <c r="AJ135">
+        <v>1.8</v>
+      </c>
+      <c r="AK135">
+        <v>1.21</v>
+      </c>
+      <c r="AL135">
+        <v>1.28</v>
+      </c>
+      <c r="AM135">
+        <v>1.95</v>
+      </c>
+      <c r="AN135">
+        <v>1.09</v>
+      </c>
+      <c r="AO135">
+        <v>0.64</v>
+      </c>
+      <c r="AP135">
+        <v>1.08</v>
+      </c>
+      <c r="AQ135">
+        <v>0.67</v>
+      </c>
+      <c r="AR135">
+        <v>1.23</v>
+      </c>
+      <c r="AS135">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT135">
+        <v>1.92</v>
+      </c>
+      <c r="AU135">
+        <v>5</v>
+      </c>
+      <c r="AV135">
+        <v>6</v>
+      </c>
+      <c r="AW135">
+        <v>4</v>
+      </c>
+      <c r="AX135">
+        <v>2</v>
+      </c>
+      <c r="AY135">
+        <v>9</v>
+      </c>
+      <c r="AZ135">
+        <v>8</v>
+      </c>
+      <c r="BA135">
+        <v>1</v>
+      </c>
+      <c r="BB135">
+        <v>2</v>
+      </c>
+      <c r="BC135">
+        <v>3</v>
+      </c>
+      <c r="BD135">
+        <v>1.45</v>
+      </c>
+      <c r="BE135">
+        <v>8.5</v>
+      </c>
+      <c r="BF135">
+        <v>3.33</v>
+      </c>
+      <c r="BG135">
+        <v>1.26</v>
+      </c>
+      <c r="BH135">
+        <v>3.34</v>
+      </c>
+      <c r="BI135">
+        <v>1.55</v>
+      </c>
+      <c r="BJ135">
+        <v>2.3</v>
+      </c>
+      <c r="BK135">
+        <v>1.85</v>
+      </c>
+      <c r="BL135">
+        <v>1.95</v>
+      </c>
+      <c r="BM135">
+        <v>2.3</v>
+      </c>
+      <c r="BN135">
+        <v>1.55</v>
+      </c>
+      <c r="BO135">
+        <v>3.3</v>
+      </c>
+      <c r="BP135">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7383363</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45367.54166666666</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>74</v>
+      </c>
+      <c r="H136" t="s">
+        <v>75</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>82</v>
+      </c>
+      <c r="P136" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q136">
+        <v>3.75</v>
+      </c>
+      <c r="R136">
+        <v>2.05</v>
+      </c>
+      <c r="S136">
+        <v>3</v>
+      </c>
+      <c r="T136">
+        <v>1.44</v>
+      </c>
+      <c r="U136">
+        <v>2.63</v>
+      </c>
+      <c r="V136">
+        <v>3.25</v>
+      </c>
+      <c r="W136">
+        <v>1.33</v>
+      </c>
+      <c r="X136">
+        <v>10</v>
+      </c>
+      <c r="Y136">
+        <v>1.06</v>
+      </c>
+      <c r="Z136">
+        <v>3.1</v>
+      </c>
+      <c r="AA136">
+        <v>3.2</v>
+      </c>
+      <c r="AB136">
+        <v>2.15</v>
+      </c>
+      <c r="AC136">
+        <v>1.08</v>
+      </c>
+      <c r="AD136">
+        <v>7</v>
+      </c>
+      <c r="AE136">
+        <v>1.36</v>
+      </c>
+      <c r="AF136">
+        <v>3</v>
+      </c>
+      <c r="AG136">
+        <v>2.1</v>
+      </c>
+      <c r="AH136">
+        <v>1.65</v>
+      </c>
+      <c r="AI136">
+        <v>1.95</v>
+      </c>
+      <c r="AJ136">
+        <v>1.8</v>
+      </c>
+      <c r="AK136">
+        <v>1.6</v>
+      </c>
+      <c r="AL136">
+        <v>1.37</v>
+      </c>
+      <c r="AM136">
+        <v>1.3</v>
+      </c>
+      <c r="AN136">
+        <v>1.09</v>
+      </c>
+      <c r="AO136">
+        <v>1.18</v>
+      </c>
+      <c r="AP136">
+        <v>1.08</v>
+      </c>
+      <c r="AQ136">
+        <v>1.17</v>
+      </c>
+      <c r="AR136">
+        <v>1.46</v>
+      </c>
+      <c r="AS136">
+        <v>1.34</v>
+      </c>
+      <c r="AT136">
+        <v>2.8</v>
+      </c>
+      <c r="AU136">
+        <v>6</v>
+      </c>
+      <c r="AV136">
+        <v>4</v>
+      </c>
+      <c r="AW136">
+        <v>4</v>
+      </c>
+      <c r="AX136">
+        <v>8</v>
+      </c>
+      <c r="AY136">
+        <v>10</v>
+      </c>
+      <c r="AZ136">
+        <v>12</v>
+      </c>
+      <c r="BA136">
+        <v>3</v>
+      </c>
+      <c r="BB136">
+        <v>7</v>
+      </c>
+      <c r="BC136">
+        <v>10</v>
+      </c>
+      <c r="BD136">
+        <v>2.05</v>
+      </c>
+      <c r="BE136">
+        <v>8</v>
+      </c>
+      <c r="BF136">
+        <v>1.95</v>
+      </c>
+      <c r="BG136">
+        <v>1.17</v>
+      </c>
+      <c r="BH136">
+        <v>4.15</v>
+      </c>
+      <c r="BI136">
+        <v>1.35</v>
+      </c>
+      <c r="BJ136">
+        <v>2.95</v>
+      </c>
+      <c r="BK136">
+        <v>1.58</v>
+      </c>
+      <c r="BL136">
+        <v>2.23</v>
+      </c>
+      <c r="BM136">
+        <v>2.07</v>
+      </c>
+      <c r="BN136">
+        <v>1.67</v>
+      </c>
+      <c r="BO136">
+        <v>2.7</v>
+      </c>
+      <c r="BP136">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7383364</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45367.54166666666</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>73</v>
+      </c>
+      <c r="H137" t="s">
+        <v>71</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>101</v>
+      </c>
+      <c r="P137" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q137">
+        <v>4</v>
+      </c>
+      <c r="R137">
+        <v>2.2</v>
+      </c>
+      <c r="S137">
+        <v>2.6</v>
+      </c>
+      <c r="T137">
+        <v>1.36</v>
+      </c>
+      <c r="U137">
+        <v>3</v>
+      </c>
+      <c r="V137">
+        <v>2.63</v>
+      </c>
+      <c r="W137">
+        <v>1.44</v>
+      </c>
+      <c r="X137">
+        <v>7</v>
+      </c>
+      <c r="Y137">
+        <v>1.1</v>
+      </c>
+      <c r="Z137">
+        <v>3.3</v>
+      </c>
+      <c r="AA137">
+        <v>3.5</v>
+      </c>
+      <c r="AB137">
+        <v>1.95</v>
+      </c>
+      <c r="AC137">
+        <v>1.05</v>
+      </c>
+      <c r="AD137">
+        <v>9</v>
+      </c>
+      <c r="AE137">
+        <v>1.25</v>
+      </c>
+      <c r="AF137">
+        <v>3.75</v>
+      </c>
+      <c r="AG137">
+        <v>1.83</v>
+      </c>
+      <c r="AH137">
+        <v>2.03</v>
+      </c>
+      <c r="AI137">
+        <v>1.75</v>
+      </c>
+      <c r="AJ137">
+        <v>2</v>
+      </c>
+      <c r="AK137">
+        <v>1.87</v>
+      </c>
+      <c r="AL137">
+        <v>1.22</v>
+      </c>
+      <c r="AM137">
+        <v>1.28</v>
+      </c>
+      <c r="AN137">
+        <v>0.64</v>
+      </c>
+      <c r="AO137">
+        <v>1.18</v>
+      </c>
+      <c r="AP137">
+        <v>0.67</v>
+      </c>
+      <c r="AQ137">
+        <v>1.17</v>
+      </c>
+      <c r="AR137">
+        <v>1.32</v>
+      </c>
+      <c r="AS137">
+        <v>1.24</v>
+      </c>
+      <c r="AT137">
+        <v>2.56</v>
+      </c>
+      <c r="AU137">
+        <v>3</v>
+      </c>
+      <c r="AV137">
+        <v>5</v>
+      </c>
+      <c r="AW137">
+        <v>4</v>
+      </c>
+      <c r="AX137">
+        <v>4</v>
+      </c>
+      <c r="AY137">
+        <v>7</v>
+      </c>
+      <c r="AZ137">
+        <v>9</v>
+      </c>
+      <c r="BA137">
+        <v>4</v>
+      </c>
+      <c r="BB137">
+        <v>4</v>
+      </c>
+      <c r="BC137">
+        <v>8</v>
+      </c>
+      <c r="BD137">
+        <v>2.28</v>
+      </c>
+      <c r="BE137">
+        <v>8</v>
+      </c>
+      <c r="BF137">
+        <v>1.85</v>
+      </c>
+      <c r="BG137">
+        <v>1.18</v>
+      </c>
+      <c r="BH137">
+        <v>4.15</v>
+      </c>
+      <c r="BI137">
+        <v>1.33</v>
+      </c>
+      <c r="BJ137">
+        <v>3.05</v>
+      </c>
+      <c r="BK137">
+        <v>1.61</v>
+      </c>
+      <c r="BL137">
+        <v>2.17</v>
+      </c>
+      <c r="BM137">
+        <v>2.07</v>
+      </c>
+      <c r="BN137">
+        <v>1.67</v>
+      </c>
+      <c r="BO137">
+        <v>2.75</v>
+      </c>
+      <c r="BP137">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7383365</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45368.4375</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>81</v>
+      </c>
+      <c r="H138" t="s">
+        <v>77</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>4</v>
+      </c>
+      <c r="K138">
+        <v>4</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>4</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138" t="s">
+        <v>86</v>
+      </c>
+      <c r="P138" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q138">
+        <v>4.5</v>
+      </c>
+      <c r="R138">
+        <v>2.2</v>
+      </c>
+      <c r="S138">
+        <v>2.5</v>
+      </c>
+      <c r="T138">
+        <v>1.4</v>
+      </c>
+      <c r="U138">
+        <v>2.75</v>
+      </c>
+      <c r="V138">
+        <v>3</v>
+      </c>
+      <c r="W138">
+        <v>1.36</v>
+      </c>
+      <c r="X138">
+        <v>8</v>
+      </c>
+      <c r="Y138">
+        <v>1.08</v>
+      </c>
+      <c r="Z138">
+        <v>4.1</v>
+      </c>
+      <c r="AA138">
+        <v>3.4</v>
+      </c>
+      <c r="AB138">
+        <v>1.85</v>
+      </c>
+      <c r="AC138">
+        <v>1.02</v>
+      </c>
+      <c r="AD138">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE138">
+        <v>1.33</v>
+      </c>
+      <c r="AF138">
+        <v>3.41</v>
+      </c>
+      <c r="AG138">
+        <v>2.05</v>
+      </c>
+      <c r="AH138">
+        <v>1.7</v>
+      </c>
+      <c r="AI138">
+        <v>1.91</v>
+      </c>
+      <c r="AJ138">
+        <v>1.91</v>
+      </c>
+      <c r="AK138">
+        <v>1.9</v>
+      </c>
+      <c r="AL138">
+        <v>1.27</v>
+      </c>
+      <c r="AM138">
+        <v>1.23</v>
+      </c>
+      <c r="AN138">
+        <v>1.36</v>
+      </c>
+      <c r="AO138">
+        <v>2</v>
+      </c>
+      <c r="AP138">
+        <v>1.25</v>
+      </c>
+      <c r="AQ138">
+        <v>2.08</v>
+      </c>
+      <c r="AR138">
+        <v>1.28</v>
+      </c>
+      <c r="AS138">
+        <v>1.45</v>
+      </c>
+      <c r="AT138">
+        <v>2.73</v>
+      </c>
+      <c r="AU138">
+        <v>3</v>
+      </c>
+      <c r="AV138">
+        <v>7</v>
+      </c>
+      <c r="AW138">
+        <v>2</v>
+      </c>
+      <c r="AX138">
+        <v>3</v>
+      </c>
+      <c r="AY138">
+        <v>5</v>
+      </c>
+      <c r="AZ138">
+        <v>10</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>1</v>
+      </c>
+      <c r="BC138">
+        <v>1</v>
+      </c>
+      <c r="BD138">
+        <v>2.44</v>
+      </c>
+      <c r="BE138">
+        <v>8</v>
+      </c>
+      <c r="BF138">
+        <v>1.75</v>
+      </c>
+      <c r="BG138">
+        <v>1.22</v>
+      </c>
+      <c r="BH138">
+        <v>3.65</v>
+      </c>
+      <c r="BI138">
+        <v>1.44</v>
+      </c>
+      <c r="BJ138">
+        <v>2.58</v>
+      </c>
+      <c r="BK138">
+        <v>1.9</v>
+      </c>
+      <c r="BL138">
+        <v>1.9</v>
+      </c>
+      <c r="BM138">
+        <v>2.19</v>
+      </c>
+      <c r="BN138">
+        <v>1.65</v>
+      </c>
+      <c r="BO138">
+        <v>2.98</v>
+      </c>
+      <c r="BP138">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7383366</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45368.54166666666</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>79</v>
+      </c>
+      <c r="H139" t="s">
+        <v>72</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>5</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>6</v>
+      </c>
+      <c r="O139" t="s">
+        <v>168</v>
+      </c>
+      <c r="P139" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q139">
+        <v>1.8</v>
+      </c>
+      <c r="R139">
+        <v>2.6</v>
+      </c>
+      <c r="S139">
+        <v>7.5</v>
+      </c>
+      <c r="T139">
+        <v>1.3</v>
+      </c>
+      <c r="U139">
+        <v>3.4</v>
+      </c>
+      <c r="V139">
+        <v>2.38</v>
+      </c>
+      <c r="W139">
+        <v>1.53</v>
+      </c>
+      <c r="X139">
+        <v>6</v>
+      </c>
+      <c r="Y139">
+        <v>1.13</v>
+      </c>
+      <c r="Z139">
+        <v>1.36</v>
+      </c>
+      <c r="AA139">
+        <v>5</v>
+      </c>
+      <c r="AB139">
+        <v>7.5</v>
+      </c>
+      <c r="AC139">
+        <v>1.03</v>
+      </c>
+      <c r="AD139">
+        <v>11</v>
+      </c>
+      <c r="AE139">
+        <v>1.17</v>
+      </c>
+      <c r="AF139">
+        <v>4.5</v>
+      </c>
+      <c r="AG139">
+        <v>1.55</v>
+      </c>
+      <c r="AH139">
+        <v>2.3</v>
+      </c>
+      <c r="AI139">
+        <v>1.95</v>
+      </c>
+      <c r="AJ139">
+        <v>1.8</v>
+      </c>
+      <c r="AK139">
+        <v>1.07</v>
+      </c>
+      <c r="AL139">
+        <v>1.16</v>
+      </c>
+      <c r="AM139">
+        <v>3.2</v>
+      </c>
+      <c r="AN139">
+        <v>2.27</v>
+      </c>
+      <c r="AO139">
+        <v>1.36</v>
+      </c>
+      <c r="AP139">
+        <v>2.33</v>
+      </c>
+      <c r="AQ139">
+        <v>1.25</v>
+      </c>
+      <c r="AR139">
+        <v>1.7</v>
+      </c>
+      <c r="AS139">
+        <v>1.33</v>
+      </c>
+      <c r="AT139">
+        <v>3.03</v>
+      </c>
+      <c r="AU139">
+        <v>3</v>
+      </c>
+      <c r="AV139">
+        <v>2</v>
+      </c>
+      <c r="AW139">
+        <v>2</v>
+      </c>
+      <c r="AX139">
+        <v>2</v>
+      </c>
+      <c r="AY139">
+        <v>5</v>
+      </c>
+      <c r="AZ139">
+        <v>4</v>
+      </c>
+      <c r="BA139">
+        <v>1</v>
+      </c>
+      <c r="BB139">
+        <v>1</v>
+      </c>
+      <c r="BC139">
+        <v>2</v>
+      </c>
+      <c r="BD139">
+        <v>1.3</v>
+      </c>
+      <c r="BE139">
+        <v>9.5</v>
+      </c>
+      <c r="BF139">
+        <v>4.44</v>
+      </c>
+      <c r="BG139">
+        <v>1.25</v>
+      </c>
+      <c r="BH139">
+        <v>3.42</v>
+      </c>
+      <c r="BI139">
+        <v>1.51</v>
+      </c>
+      <c r="BJ139">
+        <v>2.48</v>
+      </c>
+      <c r="BK139">
+        <v>1.9</v>
+      </c>
+      <c r="BL139">
+        <v>1.9</v>
+      </c>
+      <c r="BM139">
+        <v>2.39</v>
+      </c>
+      <c r="BN139">
+        <v>1.55</v>
+      </c>
+      <c r="BO139">
+        <v>3.14</v>
+      </c>
+      <c r="BP139">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -29478,13 +29478,13 @@
         <v>10</v>
       </c>
       <c r="BA138">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB138">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC138">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BD138">
         <v>2.44</v>
@@ -29666,31 +29666,31 @@
         <v>3.03</v>
       </c>
       <c r="AU139">
+        <v>7</v>
+      </c>
+      <c r="AV139">
         <v>3</v>
       </c>
-      <c r="AV139">
-        <v>2</v>
-      </c>
       <c r="AW139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX139">
         <v>2</v>
       </c>
       <c r="AY139">
+        <v>10</v>
+      </c>
+      <c r="AZ139">
         <v>5</v>
       </c>
-      <c r="AZ139">
-        <v>4</v>
-      </c>
       <c r="BA139">
         <v>1</v>
       </c>
       <c r="BB139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD139">
         <v>1.3</v>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -29666,22 +29666,22 @@
         <v>3.03</v>
       </c>
       <c r="AU139">
+        <v>13</v>
+      </c>
+      <c r="AV139">
+        <v>5</v>
+      </c>
+      <c r="AW139">
+        <v>5</v>
+      </c>
+      <c r="AX139">
+        <v>2</v>
+      </c>
+      <c r="AY139">
+        <v>18</v>
+      </c>
+      <c r="AZ139">
         <v>7</v>
-      </c>
-      <c r="AV139">
-        <v>3</v>
-      </c>
-      <c r="AW139">
-        <v>3</v>
-      </c>
-      <c r="AX139">
-        <v>2</v>
-      </c>
-      <c r="AY139">
-        <v>10</v>
-      </c>
-      <c r="AZ139">
-        <v>5</v>
       </c>
       <c r="BA139">
         <v>1</v>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1092,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1638,7 +1638,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ3">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7">
         <v>2.08</v>
@@ -4316,7 +4316,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ16">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR16">
         <v>1.19</v>
@@ -6167,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
         <v>1.17</v>
@@ -6376,7 +6376,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ26">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR26">
         <v>1.34</v>
@@ -7818,7 +7818,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ33">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR33">
         <v>1.23</v>
@@ -8227,7 +8227,7 @@
         <v>2.33</v>
       </c>
       <c r="AP35">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35">
         <v>1.73</v>
@@ -10290,7 +10290,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ45">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR45">
         <v>1.83</v>
@@ -12347,7 +12347,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55">
         <v>1.73</v>
@@ -12965,10 +12965,10 @@
         <v>1.2</v>
       </c>
       <c r="AP58">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>1.4</v>
@@ -16467,7 +16467,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ75">
         <v>0.67</v>
@@ -17088,7 +17088,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ78">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR78">
         <v>1.2</v>
@@ -18527,7 +18527,7 @@
         <v>2.43</v>
       </c>
       <c r="AP85">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ85">
         <v>2.27</v>
@@ -19766,7 +19766,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ91">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR91">
         <v>1.81</v>
@@ -20381,7 +20381,7 @@
         <v>1.14</v>
       </c>
       <c r="AP94">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ94">
         <v>1.25</v>
@@ -22647,7 +22647,7 @@
         <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ105">
         <v>1.25</v>
@@ -22856,7 +22856,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ106">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR106">
         <v>1.48</v>
@@ -23883,7 +23883,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ111">
         <v>0.64</v>
@@ -25740,7 +25740,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ120">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR120">
         <v>1.3</v>
@@ -28006,7 +28006,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ131">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR131">
         <v>0.98</v>
@@ -28415,7 +28415,7 @@
         <v>0.7</v>
       </c>
       <c r="AP133">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ133">
         <v>0.64</v>
@@ -29730,6 +29730,212 @@
       </c>
       <c r="BP139">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7383367</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45380.64583333334</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140" t="s">
+        <v>75</v>
+      </c>
+      <c r="H140" t="s">
+        <v>78</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140" t="s">
+        <v>86</v>
+      </c>
+      <c r="P140" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q140">
+        <v>2.25</v>
+      </c>
+      <c r="R140">
+        <v>2.25</v>
+      </c>
+      <c r="S140">
+        <v>5.5</v>
+      </c>
+      <c r="T140">
+        <v>1.36</v>
+      </c>
+      <c r="U140">
+        <v>3</v>
+      </c>
+      <c r="V140">
+        <v>2.75</v>
+      </c>
+      <c r="W140">
+        <v>1.4</v>
+      </c>
+      <c r="X140">
+        <v>7</v>
+      </c>
+      <c r="Y140">
+        <v>1.1</v>
+      </c>
+      <c r="Z140">
+        <v>1.68</v>
+      </c>
+      <c r="AA140">
+        <v>3.7</v>
+      </c>
+      <c r="AB140">
+        <v>4.9</v>
+      </c>
+      <c r="AC140">
+        <v>1.05</v>
+      </c>
+      <c r="AD140">
+        <v>9.5</v>
+      </c>
+      <c r="AE140">
+        <v>1.28</v>
+      </c>
+      <c r="AF140">
+        <v>3.55</v>
+      </c>
+      <c r="AG140">
+        <v>1.9</v>
+      </c>
+      <c r="AH140">
+        <v>1.94</v>
+      </c>
+      <c r="AI140">
+        <v>1.91</v>
+      </c>
+      <c r="AJ140">
+        <v>1.91</v>
+      </c>
+      <c r="AK140">
+        <v>1.15</v>
+      </c>
+      <c r="AL140">
+        <v>1.2</v>
+      </c>
+      <c r="AM140">
+        <v>2.2</v>
+      </c>
+      <c r="AN140">
+        <v>1.82</v>
+      </c>
+      <c r="AO140">
+        <v>0.64</v>
+      </c>
+      <c r="AP140">
+        <v>1.75</v>
+      </c>
+      <c r="AQ140">
+        <v>0.67</v>
+      </c>
+      <c r="AR140">
+        <v>1.4</v>
+      </c>
+      <c r="AS140">
+        <v>1.03</v>
+      </c>
+      <c r="AT140">
+        <v>2.43</v>
+      </c>
+      <c r="AU140">
+        <v>2</v>
+      </c>
+      <c r="AV140">
+        <v>4</v>
+      </c>
+      <c r="AW140">
+        <v>3</v>
+      </c>
+      <c r="AX140">
+        <v>7</v>
+      </c>
+      <c r="AY140">
+        <v>5</v>
+      </c>
+      <c r="AZ140">
+        <v>11</v>
+      </c>
+      <c r="BA140">
+        <v>6</v>
+      </c>
+      <c r="BB140">
+        <v>3</v>
+      </c>
+      <c r="BC140">
+        <v>9</v>
+      </c>
+      <c r="BD140">
+        <v>1.41</v>
+      </c>
+      <c r="BE140">
+        <v>9</v>
+      </c>
+      <c r="BF140">
+        <v>3.49</v>
+      </c>
+      <c r="BG140">
+        <v>1.22</v>
+      </c>
+      <c r="BH140">
+        <v>3.64</v>
+      </c>
+      <c r="BI140">
+        <v>1.55</v>
+      </c>
+      <c r="BJ140">
+        <v>2.3</v>
+      </c>
+      <c r="BK140">
+        <v>1.9</v>
+      </c>
+      <c r="BL140">
+        <v>1.9</v>
+      </c>
+      <c r="BM140">
+        <v>2.3</v>
+      </c>
+      <c r="BN140">
+        <v>1.55</v>
+      </c>
+      <c r="BO140">
+        <v>2.98</v>
+      </c>
+      <c r="BP140">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -523,6 +523,12 @@
     <t>['28', '45', '51', '84', '90+3']</t>
   </si>
   <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -731,6 +737,12 @@
   </si>
   <si>
     <t>['4', '18', '23', '39']</t>
+  </si>
+  <si>
+    <t>['42', '60']</t>
+  </si>
+  <si>
+    <t>['3', '43', '80']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1363,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1429,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1557,7 +1569,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1635,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
         <v>0.67</v>
@@ -1763,7 +1775,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1841,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ4">
         <v>0.67</v>
@@ -1969,7 +1981,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2050,7 +2062,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2175,7 +2187,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2256,7 +2268,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ6">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2381,7 +2393,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -2668,7 +2680,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2871,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1.25</v>
@@ -2999,7 +3011,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3286,7 +3298,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3411,7 +3423,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -3489,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ12">
         <v>1.17</v>
@@ -3617,7 +3629,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3901,10 +3913,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR14">
         <v>1.73</v>
@@ -4029,7 +4041,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4107,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>0.67</v>
@@ -4313,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.67</v>
@@ -4647,7 +4659,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4934,7 +4946,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ19">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR19">
         <v>1.02</v>
@@ -5265,7 +5277,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5343,7 +5355,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ21">
         <v>2.08</v>
@@ -5471,7 +5483,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5552,7 +5564,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
         <v>1.78</v>
@@ -5677,7 +5689,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -5755,10 +5767,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ23">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR23">
         <v>1.57</v>
@@ -5883,7 +5895,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q24">
         <v>4.33</v>
@@ -5964,7 +5976,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ24">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR24">
         <v>0.98</v>
@@ -6295,7 +6307,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q26">
         <v>1.68</v>
@@ -6373,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>0.67</v>
@@ -6501,7 +6513,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6579,10 +6591,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR27">
         <v>1.48</v>
@@ -6707,7 +6719,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6785,10 +6797,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ28">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
         <v>0.99</v>
@@ -6991,7 +7003,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.17</v>
@@ -7119,7 +7131,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7200,7 +7212,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ30">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR30">
         <v>2.03</v>
@@ -7325,7 +7337,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7403,10 +7415,10 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ31">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7531,7 +7543,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7609,7 +7621,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>1.25</v>
@@ -7737,7 +7749,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -7943,7 +7955,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8149,7 +8161,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8230,7 +8242,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ35">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR35">
         <v>1.35</v>
@@ -8436,7 +8448,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ36">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR36">
         <v>1.98</v>
@@ -8639,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>0.67</v>
@@ -8767,7 +8779,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8973,7 +8985,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9054,7 +9066,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ39">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR39">
         <v>1.06</v>
@@ -9179,7 +9191,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9257,10 +9269,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9385,7 +9397,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9463,10 +9475,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ41">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR41">
         <v>1</v>
@@ -9591,7 +9603,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9669,7 +9681,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ42">
         <v>1.17</v>
@@ -9797,7 +9809,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -10003,7 +10015,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>3.25</v>
@@ -10209,7 +10221,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -10621,7 +10633,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10905,7 +10917,7 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>1.25</v>
@@ -11033,7 +11045,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11239,7 +11251,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11317,7 +11329,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>1.25</v>
@@ -11526,7 +11538,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ51">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR51">
         <v>0.99</v>
@@ -11651,7 +11663,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>9.5</v>
@@ -11729,10 +11741,10 @@
         <v>2.5</v>
       </c>
       <c r="AP52">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ52">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR52">
         <v>1.15</v>
@@ -11935,10 +11947,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR53">
         <v>1.32</v>
@@ -12141,10 +12153,10 @@
         <v>1.25</v>
       </c>
       <c r="AP54">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ54">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR54">
         <v>1.23</v>
@@ -12350,7 +12362,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR55">
         <v>1.51</v>
@@ -12475,7 +12487,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12553,10 +12565,10 @@
         <v>1.25</v>
       </c>
       <c r="AP56">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ56">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR56">
         <v>1.03</v>
@@ -12759,10 +12771,10 @@
         <v>0.8</v>
       </c>
       <c r="AP57">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ57">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR57">
         <v>1.14</v>
@@ -13093,7 +13105,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13171,7 +13183,7 @@
         <v>2.5</v>
       </c>
       <c r="AP59">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
         <v>2.08</v>
@@ -13377,10 +13389,10 @@
         <v>1.2</v>
       </c>
       <c r="AP60">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR60">
         <v>1.37</v>
@@ -13505,7 +13517,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13586,7 +13598,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ61">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -13711,7 +13723,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13917,7 +13929,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -13995,7 +14007,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>1.25</v>
@@ -14535,7 +14547,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14741,7 +14753,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14822,7 +14834,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ67">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR67">
         <v>1.88</v>
@@ -15028,7 +15040,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ68">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR68">
         <v>1.43</v>
@@ -15440,7 +15452,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ70">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR70">
         <v>1.71</v>
@@ -15565,7 +15577,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -15643,7 +15655,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ71">
         <v>1.25</v>
@@ -15849,7 +15861,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>1.17</v>
@@ -15977,7 +15989,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16261,10 +16273,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR74">
         <v>1.26</v>
@@ -16595,7 +16607,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>7.5</v>
@@ -16676,7 +16688,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ76">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -16801,7 +16813,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>4.33</v>
@@ -16882,7 +16894,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ77">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR77">
         <v>1.52</v>
@@ -17007,7 +17019,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17085,7 +17097,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ78">
         <v>0.67</v>
@@ -17291,7 +17303,7 @@
         <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>2.08</v>
@@ -17419,7 +17431,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>3.5</v>
@@ -17500,7 +17512,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ80">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -17703,10 +17715,10 @@
         <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ81">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR81">
         <v>1.28</v>
@@ -17831,7 +17843,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -17909,7 +17921,7 @@
         <v>1.17</v>
       </c>
       <c r="AP82">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ82">
         <v>1.17</v>
@@ -18243,7 +18255,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18530,7 +18542,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ85">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR85">
         <v>1.41</v>
@@ -18655,7 +18667,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18939,10 +18951,10 @@
         <v>0.57</v>
       </c>
       <c r="AP87">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR87">
         <v>1.53</v>
@@ -19145,7 +19157,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>0.67</v>
@@ -19351,7 +19363,7 @@
         <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89">
         <v>1.17</v>
@@ -19479,7 +19491,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19560,7 +19572,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ90">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR90">
         <v>1.41</v>
@@ -19891,7 +19903,7 @@
         <v>141</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20715,7 +20727,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>5.5</v>
@@ -20796,7 +20808,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ96">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR96">
         <v>1.28</v>
@@ -21208,7 +21220,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ98">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
@@ -21333,7 +21345,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21539,7 +21551,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21617,7 +21629,7 @@
         <v>1.13</v>
       </c>
       <c r="AP100">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ100">
         <v>1.25</v>
@@ -21745,7 +21757,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21826,7 +21838,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ101">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -22029,7 +22041,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ102">
         <v>1.17</v>
@@ -22235,10 +22247,10 @@
         <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR103">
         <v>1.57</v>
@@ -22363,7 +22375,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22569,7 +22581,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -22775,7 +22787,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22981,7 +22993,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q107">
         <v>2.4</v>
@@ -23187,7 +23199,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>3.75</v>
@@ -23265,10 +23277,10 @@
         <v>1.75</v>
       </c>
       <c r="AP108">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ108">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR108">
         <v>1.31</v>
@@ -23393,7 +23405,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23471,10 +23483,10 @@
         <v>1.88</v>
       </c>
       <c r="AP109">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR109">
         <v>1.48</v>
@@ -23599,7 +23611,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -23677,10 +23689,10 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR110">
         <v>1.29</v>
@@ -23886,7 +23898,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ111">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR111">
         <v>1.44</v>
@@ -24092,7 +24104,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ112">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR112">
         <v>1.27</v>
@@ -24217,7 +24229,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q113">
         <v>4.33</v>
@@ -24295,10 +24307,10 @@
         <v>1.78</v>
       </c>
       <c r="AP113">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ113">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR113">
         <v>0.96</v>
@@ -24501,7 +24513,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ114">
         <v>1.25</v>
@@ -24707,10 +24719,10 @@
         <v>1.89</v>
       </c>
       <c r="AP115">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR115">
         <v>1.67</v>
@@ -25119,7 +25131,7 @@
         <v>1.11</v>
       </c>
       <c r="AP117">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>1.17</v>
@@ -25247,7 +25259,7 @@
         <v>120</v>
       </c>
       <c r="P118" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q118">
         <v>3.16</v>
@@ -25453,7 +25465,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q119">
         <v>5.5</v>
@@ -26152,7 +26164,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ122">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR122">
         <v>1.69</v>
@@ -26355,7 +26367,7 @@
         <v>1.3</v>
       </c>
       <c r="AP123">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
         <v>1.17</v>
@@ -26483,7 +26495,7 @@
         <v>103</v>
       </c>
       <c r="P124" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q124">
         <v>1.57</v>
@@ -26689,7 +26701,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27385,10 +27397,10 @@
         <v>2.2</v>
       </c>
       <c r="AP128">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ128">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR128">
         <v>1.51</v>
@@ -27513,7 +27525,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q129">
         <v>3.9</v>
@@ -27591,7 +27603,7 @@
         <v>2.1</v>
       </c>
       <c r="AP129">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ129">
         <v>2.08</v>
@@ -27719,7 +27731,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q130">
         <v>3.7</v>
@@ -27800,7 +27812,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ130">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR130">
         <v>1.29</v>
@@ -28003,7 +28015,7 @@
         <v>0.7</v>
       </c>
       <c r="AP131">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ131">
         <v>0.67</v>
@@ -28209,10 +28221,10 @@
         <v>0.6</v>
       </c>
       <c r="AP132">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR132">
         <v>1.31</v>
@@ -28418,7 +28430,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ133">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR133">
         <v>1.4</v>
@@ -29367,7 +29379,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q138">
         <v>4.5</v>
@@ -29573,7 +29585,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29936,6 +29948,1036 @@
       </c>
       <c r="BP140">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7383369</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45381.54166666666</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141" t="s">
+        <v>80</v>
+      </c>
+      <c r="H141" t="s">
+        <v>73</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>169</v>
+      </c>
+      <c r="P141" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q141">
+        <v>3.75</v>
+      </c>
+      <c r="R141">
+        <v>2.05</v>
+      </c>
+      <c r="S141">
+        <v>3.1</v>
+      </c>
+      <c r="T141">
+        <v>1.44</v>
+      </c>
+      <c r="U141">
+        <v>2.63</v>
+      </c>
+      <c r="V141">
+        <v>3.25</v>
+      </c>
+      <c r="W141">
+        <v>1.33</v>
+      </c>
+      <c r="X141">
+        <v>10</v>
+      </c>
+      <c r="Y141">
+        <v>1.06</v>
+      </c>
+      <c r="Z141">
+        <v>2.97</v>
+      </c>
+      <c r="AA141">
+        <v>3.35</v>
+      </c>
+      <c r="AB141">
+        <v>2.18</v>
+      </c>
+      <c r="AC141">
+        <v>1.06</v>
+      </c>
+      <c r="AD141">
+        <v>10</v>
+      </c>
+      <c r="AE141">
+        <v>1.36</v>
+      </c>
+      <c r="AF141">
+        <v>3.1</v>
+      </c>
+      <c r="AG141">
+        <v>1.97</v>
+      </c>
+      <c r="AH141">
+        <v>1.87</v>
+      </c>
+      <c r="AI141">
+        <v>1.95</v>
+      </c>
+      <c r="AJ141">
+        <v>1.8</v>
+      </c>
+      <c r="AK141">
+        <v>1.62</v>
+      </c>
+      <c r="AL141">
+        <v>1.28</v>
+      </c>
+      <c r="AM141">
+        <v>1.38</v>
+      </c>
+      <c r="AN141">
+        <v>0.27</v>
+      </c>
+      <c r="AO141">
+        <v>0.64</v>
+      </c>
+      <c r="AP141">
+        <v>0.25</v>
+      </c>
+      <c r="AQ141">
+        <v>0.83</v>
+      </c>
+      <c r="AR141">
+        <v>1.03</v>
+      </c>
+      <c r="AS141">
+        <v>1.08</v>
+      </c>
+      <c r="AT141">
+        <v>2.11</v>
+      </c>
+      <c r="AU141">
+        <v>3</v>
+      </c>
+      <c r="AV141">
+        <v>4</v>
+      </c>
+      <c r="AW141">
+        <v>2</v>
+      </c>
+      <c r="AX141">
+        <v>6</v>
+      </c>
+      <c r="AY141">
+        <v>5</v>
+      </c>
+      <c r="AZ141">
+        <v>10</v>
+      </c>
+      <c r="BA141">
+        <v>4</v>
+      </c>
+      <c r="BB141">
+        <v>10</v>
+      </c>
+      <c r="BC141">
+        <v>14</v>
+      </c>
+      <c r="BD141">
+        <v>2.44</v>
+      </c>
+      <c r="BE141">
+        <v>8</v>
+      </c>
+      <c r="BF141">
+        <v>1.75</v>
+      </c>
+      <c r="BG141">
+        <v>1.24</v>
+      </c>
+      <c r="BH141">
+        <v>3.48</v>
+      </c>
+      <c r="BI141">
+        <v>1.52</v>
+      </c>
+      <c r="BJ141">
+        <v>2.47</v>
+      </c>
+      <c r="BK141">
+        <v>1.85</v>
+      </c>
+      <c r="BL141">
+        <v>1.95</v>
+      </c>
+      <c r="BM141">
+        <v>2.33</v>
+      </c>
+      <c r="BN141">
+        <v>1.58</v>
+      </c>
+      <c r="BO141">
+        <v>3.14</v>
+      </c>
+      <c r="BP141">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7383368</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45381.55208333334</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142" t="s">
+        <v>71</v>
+      </c>
+      <c r="H142" t="s">
+        <v>74</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142" t="s">
+        <v>86</v>
+      </c>
+      <c r="P142" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q142">
+        <v>3.1</v>
+      </c>
+      <c r="R142">
+        <v>2.05</v>
+      </c>
+      <c r="S142">
+        <v>3.75</v>
+      </c>
+      <c r="T142">
+        <v>1.44</v>
+      </c>
+      <c r="U142">
+        <v>2.63</v>
+      </c>
+      <c r="V142">
+        <v>3.25</v>
+      </c>
+      <c r="W142">
+        <v>1.33</v>
+      </c>
+      <c r="X142">
+        <v>10</v>
+      </c>
+      <c r="Y142">
+        <v>1.06</v>
+      </c>
+      <c r="Z142">
+        <v>2.2</v>
+      </c>
+      <c r="AA142">
+        <v>3.3</v>
+      </c>
+      <c r="AB142">
+        <v>2.97</v>
+      </c>
+      <c r="AC142">
+        <v>1.07</v>
+      </c>
+      <c r="AD142">
+        <v>9.5</v>
+      </c>
+      <c r="AE142">
+        <v>1.4</v>
+      </c>
+      <c r="AF142">
+        <v>2.95</v>
+      </c>
+      <c r="AG142">
+        <v>2.01</v>
+      </c>
+      <c r="AH142">
+        <v>1.83</v>
+      </c>
+      <c r="AI142">
+        <v>1.91</v>
+      </c>
+      <c r="AJ142">
+        <v>1.91</v>
+      </c>
+      <c r="AK142">
+        <v>1.4</v>
+      </c>
+      <c r="AL142">
+        <v>1.28</v>
+      </c>
+      <c r="AM142">
+        <v>1.6</v>
+      </c>
+      <c r="AN142">
+        <v>1.55</v>
+      </c>
+      <c r="AO142">
+        <v>0.64</v>
+      </c>
+      <c r="AP142">
+        <v>1.5</v>
+      </c>
+      <c r="AQ142">
+        <v>0.67</v>
+      </c>
+      <c r="AR142">
+        <v>1.29</v>
+      </c>
+      <c r="AS142">
+        <v>1.28</v>
+      </c>
+      <c r="AT142">
+        <v>2.57</v>
+      </c>
+      <c r="AU142">
+        <v>7</v>
+      </c>
+      <c r="AV142">
+        <v>5</v>
+      </c>
+      <c r="AW142">
+        <v>3</v>
+      </c>
+      <c r="AX142">
+        <v>5</v>
+      </c>
+      <c r="AY142">
+        <v>10</v>
+      </c>
+      <c r="AZ142">
+        <v>10</v>
+      </c>
+      <c r="BA142">
+        <v>6</v>
+      </c>
+      <c r="BB142">
+        <v>11</v>
+      </c>
+      <c r="BC142">
+        <v>17</v>
+      </c>
+      <c r="BD142">
+        <v>2</v>
+      </c>
+      <c r="BE142">
+        <v>8</v>
+      </c>
+      <c r="BF142">
+        <v>2</v>
+      </c>
+      <c r="BG142">
+        <v>1.17</v>
+      </c>
+      <c r="BH142">
+        <v>4.2</v>
+      </c>
+      <c r="BI142">
+        <v>1.35</v>
+      </c>
+      <c r="BJ142">
+        <v>2.84</v>
+      </c>
+      <c r="BK142">
+        <v>1.86</v>
+      </c>
+      <c r="BL142">
+        <v>1.86</v>
+      </c>
+      <c r="BM142">
+        <v>2.06</v>
+      </c>
+      <c r="BN142">
+        <v>1.72</v>
+      </c>
+      <c r="BO142">
+        <v>2.69</v>
+      </c>
+      <c r="BP142">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7383370</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45382.39583333334</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143" t="s">
+        <v>70</v>
+      </c>
+      <c r="H143" t="s">
+        <v>81</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143" t="s">
+        <v>170</v>
+      </c>
+      <c r="P143" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q143">
+        <v>2.2</v>
+      </c>
+      <c r="R143">
+        <v>2.25</v>
+      </c>
+      <c r="S143">
+        <v>5.5</v>
+      </c>
+      <c r="T143">
+        <v>1.36</v>
+      </c>
+      <c r="U143">
+        <v>3</v>
+      </c>
+      <c r="V143">
+        <v>2.75</v>
+      </c>
+      <c r="W143">
+        <v>1.4</v>
+      </c>
+      <c r="X143">
+        <v>8</v>
+      </c>
+      <c r="Y143">
+        <v>1.08</v>
+      </c>
+      <c r="Z143">
+        <v>1.55</v>
+      </c>
+      <c r="AA143">
+        <v>3.9</v>
+      </c>
+      <c r="AB143">
+        <v>5</v>
+      </c>
+      <c r="AC143">
+        <v>1.04</v>
+      </c>
+      <c r="AD143">
+        <v>11</v>
+      </c>
+      <c r="AE143">
+        <v>1.28</v>
+      </c>
+      <c r="AF143">
+        <v>3.6</v>
+      </c>
+      <c r="AG143">
+        <v>1.88</v>
+      </c>
+      <c r="AH143">
+        <v>1.8</v>
+      </c>
+      <c r="AI143">
+        <v>1.95</v>
+      </c>
+      <c r="AJ143">
+        <v>1.8</v>
+      </c>
+      <c r="AK143">
+        <v>1.14</v>
+      </c>
+      <c r="AL143">
+        <v>1.2</v>
+      </c>
+      <c r="AM143">
+        <v>2.35</v>
+      </c>
+      <c r="AN143">
+        <v>1.91</v>
+      </c>
+      <c r="AO143">
+        <v>1.73</v>
+      </c>
+      <c r="AP143">
+        <v>2</v>
+      </c>
+      <c r="AQ143">
+        <v>1.58</v>
+      </c>
+      <c r="AR143">
+        <v>1.51</v>
+      </c>
+      <c r="AS143">
+        <v>1.12</v>
+      </c>
+      <c r="AT143">
+        <v>2.63</v>
+      </c>
+      <c r="AU143">
+        <v>6</v>
+      </c>
+      <c r="AV143">
+        <v>5</v>
+      </c>
+      <c r="AW143">
+        <v>5</v>
+      </c>
+      <c r="AX143">
+        <v>1</v>
+      </c>
+      <c r="AY143">
+        <v>11</v>
+      </c>
+      <c r="AZ143">
+        <v>6</v>
+      </c>
+      <c r="BA143">
+        <v>5</v>
+      </c>
+      <c r="BB143">
+        <v>3</v>
+      </c>
+      <c r="BC143">
+        <v>8</v>
+      </c>
+      <c r="BD143">
+        <v>1.51</v>
+      </c>
+      <c r="BE143">
+        <v>8.5</v>
+      </c>
+      <c r="BF143">
+        <v>3.16</v>
+      </c>
+      <c r="BG143">
+        <v>1.21</v>
+      </c>
+      <c r="BH143">
+        <v>3.74</v>
+      </c>
+      <c r="BI143">
+        <v>1.41</v>
+      </c>
+      <c r="BJ143">
+        <v>2.69</v>
+      </c>
+      <c r="BK143">
+        <v>1.82</v>
+      </c>
+      <c r="BL143">
+        <v>1.98</v>
+      </c>
+      <c r="BM143">
+        <v>2.15</v>
+      </c>
+      <c r="BN143">
+        <v>1.68</v>
+      </c>
+      <c r="BO143">
+        <v>2.84</v>
+      </c>
+      <c r="BP143">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7383371</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45382.39583333334</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144" t="s">
+        <v>72</v>
+      </c>
+      <c r="H144" t="s">
+        <v>76</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>2</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>3</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>86</v>
+      </c>
+      <c r="P144" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q144">
+        <v>3.75</v>
+      </c>
+      <c r="R144">
+        <v>2.2</v>
+      </c>
+      <c r="S144">
+        <v>2.88</v>
+      </c>
+      <c r="T144">
+        <v>1.4</v>
+      </c>
+      <c r="U144">
+        <v>2.75</v>
+      </c>
+      <c r="V144">
+        <v>2.75</v>
+      </c>
+      <c r="W144">
+        <v>1.4</v>
+      </c>
+      <c r="X144">
+        <v>8</v>
+      </c>
+      <c r="Y144">
+        <v>1.08</v>
+      </c>
+      <c r="Z144">
+        <v>3.1</v>
+      </c>
+      <c r="AA144">
+        <v>3.4</v>
+      </c>
+      <c r="AB144">
+        <v>2.05</v>
+      </c>
+      <c r="AC144">
+        <v>1.04</v>
+      </c>
+      <c r="AD144">
+        <v>12</v>
+      </c>
+      <c r="AE144">
+        <v>1.28</v>
+      </c>
+      <c r="AF144">
+        <v>3.6</v>
+      </c>
+      <c r="AG144">
+        <v>1.82</v>
+      </c>
+      <c r="AH144">
+        <v>1.86</v>
+      </c>
+      <c r="AI144">
+        <v>1.75</v>
+      </c>
+      <c r="AJ144">
+        <v>2</v>
+      </c>
+      <c r="AK144">
+        <v>1.72</v>
+      </c>
+      <c r="AL144">
+        <v>1.25</v>
+      </c>
+      <c r="AM144">
+        <v>1.35</v>
+      </c>
+      <c r="AN144">
+        <v>1.73</v>
+      </c>
+      <c r="AO144">
+        <v>1.73</v>
+      </c>
+      <c r="AP144">
+        <v>1.58</v>
+      </c>
+      <c r="AQ144">
+        <v>1.83</v>
+      </c>
+      <c r="AR144">
+        <v>1.12</v>
+      </c>
+      <c r="AS144">
+        <v>1.67</v>
+      </c>
+      <c r="AT144">
+        <v>2.79</v>
+      </c>
+      <c r="AU144">
+        <v>2</v>
+      </c>
+      <c r="AV144">
+        <v>6</v>
+      </c>
+      <c r="AW144">
+        <v>2</v>
+      </c>
+      <c r="AX144">
+        <v>2</v>
+      </c>
+      <c r="AY144">
+        <v>4</v>
+      </c>
+      <c r="AZ144">
+        <v>8</v>
+      </c>
+      <c r="BA144">
+        <v>1</v>
+      </c>
+      <c r="BB144">
+        <v>7</v>
+      </c>
+      <c r="BC144">
+        <v>8</v>
+      </c>
+      <c r="BD144">
+        <v>2.44</v>
+      </c>
+      <c r="BE144">
+        <v>8</v>
+      </c>
+      <c r="BF144">
+        <v>1.75</v>
+      </c>
+      <c r="BG144">
+        <v>1.22</v>
+      </c>
+      <c r="BH144">
+        <v>3.65</v>
+      </c>
+      <c r="BI144">
+        <v>1.43</v>
+      </c>
+      <c r="BJ144">
+        <v>2.62</v>
+      </c>
+      <c r="BK144">
+        <v>1.9</v>
+      </c>
+      <c r="BL144">
+        <v>1.9</v>
+      </c>
+      <c r="BM144">
+        <v>2.17</v>
+      </c>
+      <c r="BN144">
+        <v>1.67</v>
+      </c>
+      <c r="BO144">
+        <v>2.93</v>
+      </c>
+      <c r="BP144">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7383372</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45382.5</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145" t="s">
+        <v>77</v>
+      </c>
+      <c r="H145" t="s">
+        <v>79</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
+        <v>86</v>
+      </c>
+      <c r="P145" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q145">
+        <v>3.75</v>
+      </c>
+      <c r="R145">
+        <v>2.2</v>
+      </c>
+      <c r="S145">
+        <v>2.88</v>
+      </c>
+      <c r="T145">
+        <v>1.4</v>
+      </c>
+      <c r="U145">
+        <v>2.75</v>
+      </c>
+      <c r="V145">
+        <v>2.75</v>
+      </c>
+      <c r="W145">
+        <v>1.4</v>
+      </c>
+      <c r="X145">
+        <v>8</v>
+      </c>
+      <c r="Y145">
+        <v>1.08</v>
+      </c>
+      <c r="Z145">
+        <v>3</v>
+      </c>
+      <c r="AA145">
+        <v>3.4</v>
+      </c>
+      <c r="AB145">
+        <v>2.21</v>
+      </c>
+      <c r="AC145">
+        <v>1.05</v>
+      </c>
+      <c r="AD145">
+        <v>11</v>
+      </c>
+      <c r="AE145">
+        <v>1.3</v>
+      </c>
+      <c r="AF145">
+        <v>3.4</v>
+      </c>
+      <c r="AG145">
+        <v>2.02</v>
+      </c>
+      <c r="AH145">
+        <v>1.84</v>
+      </c>
+      <c r="AI145">
+        <v>1.75</v>
+      </c>
+      <c r="AJ145">
+        <v>2</v>
+      </c>
+      <c r="AK145">
+        <v>1.68</v>
+      </c>
+      <c r="AL145">
+        <v>1.25</v>
+      </c>
+      <c r="AM145">
+        <v>1.36</v>
+      </c>
+      <c r="AN145">
+        <v>2.18</v>
+      </c>
+      <c r="AO145">
+        <v>2.27</v>
+      </c>
+      <c r="AP145">
+        <v>2</v>
+      </c>
+      <c r="AQ145">
+        <v>2.33</v>
+      </c>
+      <c r="AR145">
+        <v>1.68</v>
+      </c>
+      <c r="AS145">
+        <v>1.53</v>
+      </c>
+      <c r="AT145">
+        <v>3.21</v>
+      </c>
+      <c r="AU145">
+        <v>2</v>
+      </c>
+      <c r="AV145">
+        <v>3</v>
+      </c>
+      <c r="AW145">
+        <v>3</v>
+      </c>
+      <c r="AX145">
+        <v>4</v>
+      </c>
+      <c r="AY145">
+        <v>5</v>
+      </c>
+      <c r="AZ145">
+        <v>7</v>
+      </c>
+      <c r="BA145">
+        <v>5</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
+      <c r="BC145">
+        <v>5</v>
+      </c>
+      <c r="BD145">
+        <v>2</v>
+      </c>
+      <c r="BE145">
+        <v>8</v>
+      </c>
+      <c r="BF145">
+        <v>2</v>
+      </c>
+      <c r="BG145">
+        <v>1.26</v>
+      </c>
+      <c r="BH145">
+        <v>3.34</v>
+      </c>
+      <c r="BI145">
+        <v>1.54</v>
+      </c>
+      <c r="BJ145">
+        <v>2.41</v>
+      </c>
+      <c r="BK145">
+        <v>1.88</v>
+      </c>
+      <c r="BL145">
+        <v>1.92</v>
+      </c>
+      <c r="BM145">
+        <v>2.39</v>
+      </c>
+      <c r="BN145">
+        <v>1.55</v>
+      </c>
+      <c r="BO145">
+        <v>3.2</v>
+      </c>
+      <c r="BP145">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -30090,22 +30090,22 @@
         <v>2.11</v>
       </c>
       <c r="AU141">
+        <v>4</v>
+      </c>
+      <c r="AV141">
+        <v>5</v>
+      </c>
+      <c r="AW141">
         <v>3</v>
-      </c>
-      <c r="AV141">
-        <v>4</v>
-      </c>
-      <c r="AW141">
-        <v>2</v>
       </c>
       <c r="AX141">
         <v>6</v>
       </c>
       <c r="AY141">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ141">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA141">
         <v>4</v>
@@ -30296,22 +30296,22 @@
         <v>2.57</v>
       </c>
       <c r="AU142">
+        <v>5</v>
+      </c>
+      <c r="AV142">
         <v>7</v>
       </c>
-      <c r="AV142">
-        <v>5</v>
-      </c>
       <c r="AW142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX142">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY142">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ142">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA142">
         <v>6</v>
@@ -30914,31 +30914,31 @@
         <v>3.21</v>
       </c>
       <c r="AU145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV145">
         <v>3</v>
       </c>
       <c r="AW145">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY145">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ145">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA145">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB145">
         <v>0</v>
       </c>
       <c r="BC145">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD145">
         <v>2</v>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1104,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1856,7 +1856,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ7">
         <v>2.08</v>
@@ -3298,7 +3298,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR15">
         <v>1.31</v>
@@ -4946,7 +4946,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ19">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR19">
         <v>1.02</v>
@@ -6179,10 +6179,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ25">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR25">
         <v>0.86</v>
@@ -7212,7 +7212,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ30">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR30">
         <v>2.03</v>
@@ -8239,7 +8239,7 @@
         <v>2.33</v>
       </c>
       <c r="AP35">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ35">
         <v>1.58</v>
@@ -8654,7 +8654,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR37">
         <v>1.34</v>
@@ -9478,7 +9478,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ41">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR41">
         <v>1</v>
@@ -9890,7 +9890,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ43">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR43">
         <v>2.21</v>
@@ -10096,7 +10096,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ44">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR44">
         <v>1.29</v>
@@ -10508,7 +10508,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR46">
         <v>1.4</v>
@@ -11950,7 +11950,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR53">
         <v>1.32</v>
@@ -12359,7 +12359,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ55">
         <v>1.83</v>
@@ -12774,7 +12774,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ57">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR57">
         <v>1.14</v>
@@ -12977,7 +12977,7 @@
         <v>1.2</v>
       </c>
       <c r="AP58">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -14216,7 +14216,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ64">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR64">
         <v>1.02</v>
@@ -14422,7 +14422,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ65">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR65">
         <v>1.3</v>
@@ -15040,7 +15040,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ68">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR68">
         <v>1.43</v>
@@ -15246,7 +15246,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ69">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR69">
         <v>1.17</v>
@@ -16479,10 +16479,10 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ75">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR75">
         <v>1.47</v>
@@ -17924,7 +17924,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ82">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR82">
         <v>0.95</v>
@@ -18539,7 +18539,7 @@
         <v>2.43</v>
       </c>
       <c r="AP85">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ85">
         <v>2.33</v>
@@ -18954,7 +18954,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR87">
         <v>1.53</v>
@@ -19160,7 +19160,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR88">
         <v>1.48</v>
@@ -20190,7 +20190,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ93">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR93">
         <v>1.59</v>
@@ -20393,7 +20393,7 @@
         <v>1.14</v>
       </c>
       <c r="AP94">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ94">
         <v>1.25</v>
@@ -21014,7 +21014,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ97">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR97">
         <v>1.41</v>
@@ -21838,7 +21838,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ101">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -22044,7 +22044,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ102">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR102">
         <v>1.23</v>
@@ -22659,7 +22659,7 @@
         <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ105">
         <v>1.25</v>
@@ -23074,7 +23074,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ107">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR107">
         <v>1.26</v>
@@ -23692,7 +23692,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR110">
         <v>1.29</v>
@@ -23895,7 +23895,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ111">
         <v>0.67</v>
@@ -24928,7 +24928,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ116">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR116">
         <v>1.6</v>
@@ -25134,7 +25134,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR117">
         <v>1.56</v>
@@ -26370,7 +26370,7 @@
         <v>2</v>
       </c>
       <c r="AQ123">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR123">
         <v>1.65</v>
@@ -26576,7 +26576,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ124">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR124">
         <v>1.75</v>
@@ -28427,10 +28427,10 @@
         <v>0.7</v>
       </c>
       <c r="AP133">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ133">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR133">
         <v>1.4</v>
@@ -28842,7 +28842,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ135">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR135">
         <v>1.23</v>
@@ -29254,7 +29254,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ137">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR137">
         <v>1.32</v>
@@ -29869,7 +29869,7 @@
         <v>0.64</v>
       </c>
       <c r="AP140">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ140">
         <v>0.67</v>
@@ -30078,7 +30078,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ141">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR141">
         <v>1.03</v>
@@ -30978,6 +30978,624 @@
       </c>
       <c r="BP145">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7383373</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45387.60416666666</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+      <c r="G146" t="s">
+        <v>74</v>
+      </c>
+      <c r="H146" t="s">
+        <v>73</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146" t="s">
+        <v>86</v>
+      </c>
+      <c r="P146" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q146">
+        <v>2.5</v>
+      </c>
+      <c r="R146">
+        <v>2.1</v>
+      </c>
+      <c r="S146">
+        <v>4.75</v>
+      </c>
+      <c r="T146">
+        <v>1.4</v>
+      </c>
+      <c r="U146">
+        <v>2.75</v>
+      </c>
+      <c r="V146">
+        <v>3</v>
+      </c>
+      <c r="W146">
+        <v>1.36</v>
+      </c>
+      <c r="X146">
+        <v>9</v>
+      </c>
+      <c r="Y146">
+        <v>1.07</v>
+      </c>
+      <c r="Z146">
+        <v>2.06</v>
+      </c>
+      <c r="AA146">
+        <v>3.55</v>
+      </c>
+      <c r="AB146">
+        <v>3.4</v>
+      </c>
+      <c r="AC146">
+        <v>1.06</v>
+      </c>
+      <c r="AD146">
+        <v>9.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.36</v>
+      </c>
+      <c r="AF146">
+        <v>3.1</v>
+      </c>
+      <c r="AG146">
+        <v>1.9</v>
+      </c>
+      <c r="AH146">
+        <v>1.81</v>
+      </c>
+      <c r="AI146">
+        <v>1.95</v>
+      </c>
+      <c r="AJ146">
+        <v>1.8</v>
+      </c>
+      <c r="AK146">
+        <v>1.22</v>
+      </c>
+      <c r="AL146">
+        <v>1.25</v>
+      </c>
+      <c r="AM146">
+        <v>2</v>
+      </c>
+      <c r="AN146">
+        <v>1.08</v>
+      </c>
+      <c r="AO146">
+        <v>0.83</v>
+      </c>
+      <c r="AP146">
+        <v>1.08</v>
+      </c>
+      <c r="AQ146">
+        <v>0.85</v>
+      </c>
+      <c r="AR146">
+        <v>1.44</v>
+      </c>
+      <c r="AS146">
+        <v>1.12</v>
+      </c>
+      <c r="AT146">
+        <v>2.56</v>
+      </c>
+      <c r="AU146">
+        <v>7</v>
+      </c>
+      <c r="AV146">
+        <v>3</v>
+      </c>
+      <c r="AW146">
+        <v>1</v>
+      </c>
+      <c r="AX146">
+        <v>1</v>
+      </c>
+      <c r="AY146">
+        <v>8</v>
+      </c>
+      <c r="AZ146">
+        <v>4</v>
+      </c>
+      <c r="BA146">
+        <v>5</v>
+      </c>
+      <c r="BB146">
+        <v>3</v>
+      </c>
+      <c r="BC146">
+        <v>8</v>
+      </c>
+      <c r="BD146">
+        <v>1.51</v>
+      </c>
+      <c r="BE146">
+        <v>8.5</v>
+      </c>
+      <c r="BF146">
+        <v>3.07</v>
+      </c>
+      <c r="BG146">
+        <v>1.16</v>
+      </c>
+      <c r="BH146">
+        <v>4.3</v>
+      </c>
+      <c r="BI146">
+        <v>1.33</v>
+      </c>
+      <c r="BJ146">
+        <v>2.93</v>
+      </c>
+      <c r="BK146">
+        <v>1.64</v>
+      </c>
+      <c r="BL146">
+        <v>2.21</v>
+      </c>
+      <c r="BM146">
+        <v>2</v>
+      </c>
+      <c r="BN146">
+        <v>1.74</v>
+      </c>
+      <c r="BO146">
+        <v>2.62</v>
+      </c>
+      <c r="BP146">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7383374</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45388.5</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147" t="s">
+        <v>75</v>
+      </c>
+      <c r="H147" t="s">
+        <v>80</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>170</v>
+      </c>
+      <c r="P147" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q147">
+        <v>1.8</v>
+      </c>
+      <c r="R147">
+        <v>2.5</v>
+      </c>
+      <c r="S147">
+        <v>7.5</v>
+      </c>
+      <c r="T147">
+        <v>1.3</v>
+      </c>
+      <c r="U147">
+        <v>3.4</v>
+      </c>
+      <c r="V147">
+        <v>2.5</v>
+      </c>
+      <c r="W147">
+        <v>1.5</v>
+      </c>
+      <c r="X147">
+        <v>6</v>
+      </c>
+      <c r="Y147">
+        <v>1.13</v>
+      </c>
+      <c r="Z147">
+        <v>1.34</v>
+      </c>
+      <c r="AA147">
+        <v>4.9</v>
+      </c>
+      <c r="AB147">
+        <v>7.5</v>
+      </c>
+      <c r="AC147">
+        <v>1.03</v>
+      </c>
+      <c r="AD147">
+        <v>12.4</v>
+      </c>
+      <c r="AE147">
+        <v>1.18</v>
+      </c>
+      <c r="AF147">
+        <v>4.1</v>
+      </c>
+      <c r="AG147">
+        <v>1.67</v>
+      </c>
+      <c r="AH147">
+        <v>2.1</v>
+      </c>
+      <c r="AI147">
+        <v>2</v>
+      </c>
+      <c r="AJ147">
+        <v>1.75</v>
+      </c>
+      <c r="AK147">
+        <v>1.03</v>
+      </c>
+      <c r="AL147">
+        <v>1.16</v>
+      </c>
+      <c r="AM147">
+        <v>3.4</v>
+      </c>
+      <c r="AN147">
+        <v>1.75</v>
+      </c>
+      <c r="AO147">
+        <v>0.67</v>
+      </c>
+      <c r="AP147">
+        <v>1.69</v>
+      </c>
+      <c r="AQ147">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR147">
+        <v>1.34</v>
+      </c>
+      <c r="AS147">
+        <v>0.73</v>
+      </c>
+      <c r="AT147">
+        <v>2.07</v>
+      </c>
+      <c r="AU147">
+        <v>2</v>
+      </c>
+      <c r="AV147">
+        <v>0</v>
+      </c>
+      <c r="AW147">
+        <v>6</v>
+      </c>
+      <c r="AX147">
+        <v>2</v>
+      </c>
+      <c r="AY147">
+        <v>8</v>
+      </c>
+      <c r="AZ147">
+        <v>2</v>
+      </c>
+      <c r="BA147">
+        <v>10</v>
+      </c>
+      <c r="BB147">
+        <v>0</v>
+      </c>
+      <c r="BC147">
+        <v>10</v>
+      </c>
+      <c r="BD147">
+        <v>1.14</v>
+      </c>
+      <c r="BE147">
+        <v>12</v>
+      </c>
+      <c r="BF147">
+        <v>7.01</v>
+      </c>
+      <c r="BG147">
+        <v>1.27</v>
+      </c>
+      <c r="BH147">
+        <v>3.76</v>
+      </c>
+      <c r="BI147">
+        <v>1.5</v>
+      </c>
+      <c r="BJ147">
+        <v>2.4</v>
+      </c>
+      <c r="BK147">
+        <v>1.8</v>
+      </c>
+      <c r="BL147">
+        <v>2</v>
+      </c>
+      <c r="BM147">
+        <v>2.2</v>
+      </c>
+      <c r="BN147">
+        <v>1.6</v>
+      </c>
+      <c r="BO147">
+        <v>3.07</v>
+      </c>
+      <c r="BP147">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7383375</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45388.60416666666</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148" t="s">
+        <v>78</v>
+      </c>
+      <c r="H148" t="s">
+        <v>71</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148" t="s">
+        <v>86</v>
+      </c>
+      <c r="P148" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q148">
+        <v>3.4</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>3.4</v>
+      </c>
+      <c r="T148">
+        <v>1.5</v>
+      </c>
+      <c r="U148">
+        <v>2.5</v>
+      </c>
+      <c r="V148">
+        <v>3.4</v>
+      </c>
+      <c r="W148">
+        <v>1.3</v>
+      </c>
+      <c r="X148">
+        <v>10</v>
+      </c>
+      <c r="Y148">
+        <v>1.06</v>
+      </c>
+      <c r="Z148">
+        <v>2.64</v>
+      </c>
+      <c r="AA148">
+        <v>3.35</v>
+      </c>
+      <c r="AB148">
+        <v>2.48</v>
+      </c>
+      <c r="AC148">
+        <v>1.07</v>
+      </c>
+      <c r="AD148">
+        <v>8.5</v>
+      </c>
+      <c r="AE148">
+        <v>1.42</v>
+      </c>
+      <c r="AF148">
+        <v>2.85</v>
+      </c>
+      <c r="AG148">
+        <v>2.23</v>
+      </c>
+      <c r="AH148">
+        <v>1.56</v>
+      </c>
+      <c r="AI148">
+        <v>1.95</v>
+      </c>
+      <c r="AJ148">
+        <v>1.8</v>
+      </c>
+      <c r="AK148">
+        <v>1.5</v>
+      </c>
+      <c r="AL148">
+        <v>1.28</v>
+      </c>
+      <c r="AM148">
+        <v>1.47</v>
+      </c>
+      <c r="AN148">
+        <v>1.08</v>
+      </c>
+      <c r="AO148">
+        <v>1.17</v>
+      </c>
+      <c r="AP148">
+        <v>1.08</v>
+      </c>
+      <c r="AQ148">
+        <v>1.15</v>
+      </c>
+      <c r="AR148">
+        <v>1.24</v>
+      </c>
+      <c r="AS148">
+        <v>1.23</v>
+      </c>
+      <c r="AT148">
+        <v>2.47</v>
+      </c>
+      <c r="AU148">
+        <v>2</v>
+      </c>
+      <c r="AV148">
+        <v>3</v>
+      </c>
+      <c r="AW148">
+        <v>6</v>
+      </c>
+      <c r="AX148">
+        <v>2</v>
+      </c>
+      <c r="AY148">
+        <v>8</v>
+      </c>
+      <c r="AZ148">
+        <v>5</v>
+      </c>
+      <c r="BA148">
+        <v>1</v>
+      </c>
+      <c r="BB148">
+        <v>1</v>
+      </c>
+      <c r="BC148">
+        <v>2</v>
+      </c>
+      <c r="BD148">
+        <v>1.91</v>
+      </c>
+      <c r="BE148">
+        <v>8</v>
+      </c>
+      <c r="BF148">
+        <v>2.2</v>
+      </c>
+      <c r="BG148">
+        <v>1.33</v>
+      </c>
+      <c r="BH148">
+        <v>3.33</v>
+      </c>
+      <c r="BI148">
+        <v>1.5</v>
+      </c>
+      <c r="BJ148">
+        <v>2.4</v>
+      </c>
+      <c r="BK148">
+        <v>1.65</v>
+      </c>
+      <c r="BL148">
+        <v>2.13</v>
+      </c>
+      <c r="BM148">
+        <v>2</v>
+      </c>
+      <c r="BN148">
+        <v>1.73</v>
+      </c>
+      <c r="BO148">
+        <v>2.5</v>
+      </c>
+      <c r="BP148">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,15 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['28', '90+8']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -743,6 +752,12 @@
   </si>
   <si>
     <t>['3', '43', '80']</t>
+  </si>
+  <si>
+    <t>['25', '45+1']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP148"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1363,7 +1378,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1444,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1569,7 +1584,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1775,7 +1790,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1981,7 +1996,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2187,7 +2202,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2393,7 +2408,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -2883,10 +2898,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ9">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3011,7 +3026,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3092,7 +3107,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3295,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AQ11">
         <v>0.85</v>
@@ -3423,7 +3438,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -3629,7 +3644,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3707,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ13">
         <v>1.15</v>
@@ -3913,7 +3928,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ14">
         <v>1.58</v>
@@ -4041,7 +4056,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4531,7 +4546,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AQ17">
         <v>1.17</v>
@@ -4659,7 +4674,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4740,7 +4755,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR18">
         <v>2.76</v>
@@ -5152,7 +5167,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR20">
         <v>1.19</v>
@@ -5277,7 +5292,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5483,7 +5498,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5561,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ22">
         <v>0.67</v>
@@ -5689,7 +5704,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -5895,7 +5910,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>4.33</v>
@@ -5976,7 +5991,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ24">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR24">
         <v>0.98</v>
@@ -6307,7 +6322,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>1.68</v>
@@ -6385,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ26">
         <v>0.67</v>
@@ -6513,7 +6528,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6719,7 +6734,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7131,7 +7146,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7337,7 +7352,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7543,7 +7558,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7624,7 +7639,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -7749,7 +7764,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -7955,7 +7970,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8161,7 +8176,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8445,10 +8460,10 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AQ36">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR36">
         <v>1.98</v>
@@ -8779,7 +8794,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8857,10 +8872,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR38">
         <v>1.59</v>
@@ -8985,7 +9000,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9191,7 +9206,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9269,7 +9284,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ40">
         <v>2.33</v>
@@ -9397,7 +9412,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9603,7 +9618,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9809,7 +9824,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -10015,7 +10030,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>3.25</v>
@@ -10221,7 +10236,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -10299,7 +10314,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AQ45">
         <v>0.67</v>
@@ -10505,7 +10520,7 @@
         <v>0.67</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ46">
         <v>0.6899999999999999</v>
@@ -10633,7 +10648,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10920,7 +10935,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR48">
         <v>1.43</v>
@@ -11045,7 +11060,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11251,7 +11266,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11332,7 +11347,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -11663,7 +11678,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q52">
         <v>9.5</v>
@@ -11947,7 +11962,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ53">
         <v>0.85</v>
@@ -12362,7 +12377,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ55">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR55">
         <v>1.51</v>
@@ -12487,7 +12502,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12568,7 +12583,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ56">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR56">
         <v>1.03</v>
@@ -13105,7 +13120,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13517,7 +13532,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13595,7 +13610,7 @@
         <v>2.6</v>
       </c>
       <c r="AP61">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ61">
         <v>2.33</v>
@@ -13723,7 +13738,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13801,10 +13816,10 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -13929,7 +13944,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14007,10 +14022,10 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ63">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR63">
         <v>1.37</v>
@@ -14547,7 +14562,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14753,7 +14768,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15037,7 +15052,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ68">
         <v>0.85</v>
@@ -15449,7 +15464,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AQ70">
         <v>0.67</v>
@@ -15577,7 +15592,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -15658,7 +15673,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ71">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR71">
         <v>1.01</v>
@@ -15861,7 +15876,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ72">
         <v>1.17</v>
@@ -15989,7 +16004,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16070,7 +16085,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR73">
         <v>1.79</v>
@@ -16607,7 +16622,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>7.5</v>
@@ -16813,7 +16828,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>4.33</v>
@@ -16894,7 +16909,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ77">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR77">
         <v>1.52</v>
@@ -17019,7 +17034,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17431,7 +17446,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>3.5</v>
@@ -17718,7 +17733,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ81">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR81">
         <v>1.28</v>
@@ -17843,7 +17858,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -18130,7 +18145,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR83">
         <v>1.21</v>
@@ -18255,7 +18270,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18333,7 +18348,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ84">
         <v>2.08</v>
@@ -18667,7 +18682,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18745,10 +18760,10 @@
         <v>1.83</v>
       </c>
       <c r="AP86">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AQ86">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR86">
         <v>1.63</v>
@@ -19157,7 +19172,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ88">
         <v>0.6899999999999999</v>
@@ -19491,7 +19506,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19903,7 +19918,7 @@
         <v>141</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20187,7 +20202,7 @@
         <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AQ93">
         <v>1.15</v>
@@ -20396,7 +20411,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ94">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR94">
         <v>1.47</v>
@@ -20599,10 +20614,10 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ95">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR95">
         <v>1.21</v>
@@ -20727,7 +20742,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q96">
         <v>5.5</v>
@@ -20808,7 +20823,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ96">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR96">
         <v>1.28</v>
@@ -21345,7 +21360,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21423,7 +21438,7 @@
         <v>1.13</v>
       </c>
       <c r="AP99">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ99">
         <v>1.17</v>
@@ -21551,7 +21566,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21632,7 +21647,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ100">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR100">
         <v>0.98</v>
@@ -21757,7 +21772,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22247,7 +22262,7 @@
         <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ103">
         <v>0.67</v>
@@ -22375,7 +22390,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22453,7 +22468,7 @@
         <v>2.13</v>
       </c>
       <c r="AP104">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AQ104">
         <v>2.08</v>
@@ -22581,7 +22596,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -22662,7 +22677,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ105">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -22787,7 +22802,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22993,7 +23008,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>2.4</v>
@@ -23199,7 +23214,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>3.75</v>
@@ -23280,7 +23295,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ108">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR108">
         <v>1.31</v>
@@ -23405,7 +23420,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23611,7 +23626,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -24229,7 +24244,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q113">
         <v>4.33</v>
@@ -24516,7 +24531,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ114">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR114">
         <v>1.2</v>
@@ -24719,10 +24734,10 @@
         <v>1.89</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ115">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR115">
         <v>1.67</v>
@@ -24925,7 +24940,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AQ116">
         <v>0.6899999999999999</v>
@@ -25259,7 +25274,7 @@
         <v>120</v>
       </c>
       <c r="P118" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q118">
         <v>3.16</v>
@@ -25340,7 +25355,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ118">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR118">
         <v>1.55</v>
@@ -25465,7 +25480,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q119">
         <v>5.5</v>
@@ -25749,7 +25764,7 @@
         <v>0.78</v>
       </c>
       <c r="AP120">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ120">
         <v>0.67</v>
@@ -26161,7 +26176,7 @@
         <v>1.9</v>
       </c>
       <c r="AP122">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AQ122">
         <v>1.58</v>
@@ -26367,7 +26382,7 @@
         <v>1.3</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ123">
         <v>1.15</v>
@@ -26495,7 +26510,7 @@
         <v>103</v>
       </c>
       <c r="P124" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q124">
         <v>1.57</v>
@@ -26701,7 +26716,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -26988,7 +27003,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ126">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR126">
         <v>1.51</v>
@@ -27194,7 +27209,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ127">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR127">
         <v>1.29</v>
@@ -27525,7 +27540,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q129">
         <v>3.9</v>
@@ -27731,7 +27746,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q130">
         <v>3.7</v>
@@ -27809,10 +27824,10 @@
         <v>1.8</v>
       </c>
       <c r="AP130">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ130">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR130">
         <v>1.29</v>
@@ -28636,7 +28651,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ134">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR134">
         <v>1.72</v>
@@ -29379,7 +29394,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q138">
         <v>4.5</v>
@@ -29457,7 +29472,7 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ138">
         <v>2.08</v>
@@ -29585,7 +29600,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29663,10 +29678,10 @@
         <v>1.36</v>
       </c>
       <c r="AP139">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AQ139">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR139">
         <v>1.7</v>
@@ -29997,7 +30012,7 @@
         <v>169</v>
       </c>
       <c r="P141" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30615,7 +30630,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30696,7 +30711,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ144">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR144">
         <v>1.12</v>
@@ -30821,7 +30836,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -30899,7 +30914,7 @@
         <v>2.27</v>
       </c>
       <c r="AP145">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ145">
         <v>2.33</v>
@@ -31120,22 +31135,22 @@
         <v>2.56</v>
       </c>
       <c r="AU146">
+        <v>4</v>
+      </c>
+      <c r="AV146">
+        <v>2</v>
+      </c>
+      <c r="AW146">
+        <v>3</v>
+      </c>
+      <c r="AX146">
+        <v>3</v>
+      </c>
+      <c r="AY146">
         <v>7</v>
       </c>
-      <c r="AV146">
-        <v>3</v>
-      </c>
-      <c r="AW146">
-        <v>1</v>
-      </c>
-      <c r="AX146">
-        <v>1</v>
-      </c>
-      <c r="AY146">
-        <v>8</v>
-      </c>
       <c r="AZ146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA146">
         <v>5</v>
@@ -31326,31 +31341,31 @@
         <v>2.07</v>
       </c>
       <c r="AU147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW147">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY147">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ147">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BA147">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC147">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BD147">
         <v>1.14</v>
@@ -31532,31 +31547,31 @@
         <v>2.47</v>
       </c>
       <c r="AU148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV148">
         <v>3</v>
       </c>
       <c r="AW148">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX148">
         <v>2</v>
       </c>
       <c r="AY148">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ148">
         <v>5</v>
       </c>
       <c r="BA148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB148">
         <v>1</v>
       </c>
       <c r="BC148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BD148">
         <v>1.91</v>
@@ -31596,6 +31611,624 @@
       </c>
       <c r="BP148">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7383376</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45389.39583333334</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149" t="s">
+        <v>77</v>
+      </c>
+      <c r="H149" t="s">
+        <v>70</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149" t="s">
+        <v>171</v>
+      </c>
+      <c r="P149" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q149">
+        <v>2.75</v>
+      </c>
+      <c r="R149">
+        <v>2.1</v>
+      </c>
+      <c r="S149">
+        <v>4</v>
+      </c>
+      <c r="T149">
+        <v>1.44</v>
+      </c>
+      <c r="U149">
+        <v>2.63</v>
+      </c>
+      <c r="V149">
+        <v>3.25</v>
+      </c>
+      <c r="W149">
+        <v>1.33</v>
+      </c>
+      <c r="X149">
+        <v>9</v>
+      </c>
+      <c r="Y149">
+        <v>1.07</v>
+      </c>
+      <c r="Z149">
+        <v>2.05</v>
+      </c>
+      <c r="AA149">
+        <v>3.25</v>
+      </c>
+      <c r="AB149">
+        <v>3.5</v>
+      </c>
+      <c r="AC149">
+        <v>1.06</v>
+      </c>
+      <c r="AD149">
+        <v>10</v>
+      </c>
+      <c r="AE149">
+        <v>1.36</v>
+      </c>
+      <c r="AF149">
+        <v>3.2</v>
+      </c>
+      <c r="AG149">
+        <v>2.05</v>
+      </c>
+      <c r="AH149">
+        <v>1.7</v>
+      </c>
+      <c r="AI149">
+        <v>1.91</v>
+      </c>
+      <c r="AJ149">
+        <v>1.91</v>
+      </c>
+      <c r="AK149">
+        <v>1.3</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>1.78</v>
+      </c>
+      <c r="AN149">
+        <v>2</v>
+      </c>
+      <c r="AO149">
+        <v>1.25</v>
+      </c>
+      <c r="AP149">
+        <v>2.08</v>
+      </c>
+      <c r="AQ149">
+        <v>1.15</v>
+      </c>
+      <c r="AR149">
+        <v>1.62</v>
+      </c>
+      <c r="AS149">
+        <v>1.32</v>
+      </c>
+      <c r="AT149">
+        <v>2.94</v>
+      </c>
+      <c r="AU149">
+        <v>5</v>
+      </c>
+      <c r="AV149">
+        <v>4</v>
+      </c>
+      <c r="AW149">
+        <v>5</v>
+      </c>
+      <c r="AX149">
+        <v>3</v>
+      </c>
+      <c r="AY149">
+        <v>10</v>
+      </c>
+      <c r="AZ149">
+        <v>7</v>
+      </c>
+      <c r="BA149">
+        <v>6</v>
+      </c>
+      <c r="BB149">
+        <v>5</v>
+      </c>
+      <c r="BC149">
+        <v>11</v>
+      </c>
+      <c r="BD149">
+        <v>1.69</v>
+      </c>
+      <c r="BE149">
+        <v>8.5</v>
+      </c>
+      <c r="BF149">
+        <v>2.62</v>
+      </c>
+      <c r="BG149">
+        <v>1.24</v>
+      </c>
+      <c r="BH149">
+        <v>4.04</v>
+      </c>
+      <c r="BI149">
+        <v>1.45</v>
+      </c>
+      <c r="BJ149">
+        <v>2.75</v>
+      </c>
+      <c r="BK149">
+        <v>1.73</v>
+      </c>
+      <c r="BL149">
+        <v>2</v>
+      </c>
+      <c r="BM149">
+        <v>2</v>
+      </c>
+      <c r="BN149">
+        <v>1.74</v>
+      </c>
+      <c r="BO149">
+        <v>2.88</v>
+      </c>
+      <c r="BP149">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7383377</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45389.39583333334</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+      <c r="G150" t="s">
+        <v>81</v>
+      </c>
+      <c r="H150" t="s">
+        <v>72</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+      <c r="K150">
+        <v>3</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150" t="s">
+        <v>172</v>
+      </c>
+      <c r="P150" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q150">
+        <v>3.25</v>
+      </c>
+      <c r="R150">
+        <v>2.1</v>
+      </c>
+      <c r="S150">
+        <v>3.4</v>
+      </c>
+      <c r="T150">
+        <v>1.44</v>
+      </c>
+      <c r="U150">
+        <v>2.63</v>
+      </c>
+      <c r="V150">
+        <v>3.25</v>
+      </c>
+      <c r="W150">
+        <v>1.33</v>
+      </c>
+      <c r="X150">
+        <v>9</v>
+      </c>
+      <c r="Y150">
+        <v>1.07</v>
+      </c>
+      <c r="Z150">
+        <v>2.5</v>
+      </c>
+      <c r="AA150">
+        <v>3.2</v>
+      </c>
+      <c r="AB150">
+        <v>2.7</v>
+      </c>
+      <c r="AC150">
+        <v>1.07</v>
+      </c>
+      <c r="AD150">
+        <v>8</v>
+      </c>
+      <c r="AE150">
+        <v>1.36</v>
+      </c>
+      <c r="AF150">
+        <v>3.1</v>
+      </c>
+      <c r="AG150">
+        <v>2.1</v>
+      </c>
+      <c r="AH150">
+        <v>1.67</v>
+      </c>
+      <c r="AI150">
+        <v>1.8</v>
+      </c>
+      <c r="AJ150">
+        <v>1.95</v>
+      </c>
+      <c r="AK150">
+        <v>1.44</v>
+      </c>
+      <c r="AL150">
+        <v>1.28</v>
+      </c>
+      <c r="AM150">
+        <v>1.5</v>
+      </c>
+      <c r="AN150">
+        <v>1.25</v>
+      </c>
+      <c r="AO150">
+        <v>1.25</v>
+      </c>
+      <c r="AP150">
+        <v>1.23</v>
+      </c>
+      <c r="AQ150">
+        <v>1.23</v>
+      </c>
+      <c r="AR150">
+        <v>1.25</v>
+      </c>
+      <c r="AS150">
+        <v>1.29</v>
+      </c>
+      <c r="AT150">
+        <v>2.54</v>
+      </c>
+      <c r="AU150">
+        <v>5</v>
+      </c>
+      <c r="AV150">
+        <v>6</v>
+      </c>
+      <c r="AW150">
+        <v>6</v>
+      </c>
+      <c r="AX150">
+        <v>7</v>
+      </c>
+      <c r="AY150">
+        <v>11</v>
+      </c>
+      <c r="AZ150">
+        <v>13</v>
+      </c>
+      <c r="BA150">
+        <v>4</v>
+      </c>
+      <c r="BB150">
+        <v>5</v>
+      </c>
+      <c r="BC150">
+        <v>9</v>
+      </c>
+      <c r="BD150">
+        <v>1.95</v>
+      </c>
+      <c r="BE150">
+        <v>7.5</v>
+      </c>
+      <c r="BF150">
+        <v>2.1</v>
+      </c>
+      <c r="BG150">
+        <v>1.41</v>
+      </c>
+      <c r="BH150">
+        <v>2.91</v>
+      </c>
+      <c r="BI150">
+        <v>1.65</v>
+      </c>
+      <c r="BJ150">
+        <v>2.13</v>
+      </c>
+      <c r="BK150">
+        <v>2.05</v>
+      </c>
+      <c r="BL150">
+        <v>1.7</v>
+      </c>
+      <c r="BM150">
+        <v>2.47</v>
+      </c>
+      <c r="BN150">
+        <v>1.52</v>
+      </c>
+      <c r="BO150">
+        <v>4.1</v>
+      </c>
+      <c r="BP150">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7383378</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45389.5</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="G151" t="s">
+        <v>79</v>
+      </c>
+      <c r="H151" t="s">
+        <v>76</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>173</v>
+      </c>
+      <c r="P151" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q151">
+        <v>2.2</v>
+      </c>
+      <c r="R151">
+        <v>2.3</v>
+      </c>
+      <c r="S151">
+        <v>5.5</v>
+      </c>
+      <c r="T151">
+        <v>1.33</v>
+      </c>
+      <c r="U151">
+        <v>3.25</v>
+      </c>
+      <c r="V151">
+        <v>2.63</v>
+      </c>
+      <c r="W151">
+        <v>1.44</v>
+      </c>
+      <c r="X151">
+        <v>6.5</v>
+      </c>
+      <c r="Y151">
+        <v>1.11</v>
+      </c>
+      <c r="Z151">
+        <v>1.6</v>
+      </c>
+      <c r="AA151">
+        <v>4.1</v>
+      </c>
+      <c r="AB151">
+        <v>5</v>
+      </c>
+      <c r="AC151">
+        <v>1.03</v>
+      </c>
+      <c r="AD151">
+        <v>13</v>
+      </c>
+      <c r="AE151">
+        <v>1.22</v>
+      </c>
+      <c r="AF151">
+        <v>4</v>
+      </c>
+      <c r="AG151">
+        <v>1.72</v>
+      </c>
+      <c r="AH151">
+        <v>1.98</v>
+      </c>
+      <c r="AI151">
+        <v>1.8</v>
+      </c>
+      <c r="AJ151">
+        <v>1.95</v>
+      </c>
+      <c r="AK151">
+        <v>1.15</v>
+      </c>
+      <c r="AL151">
+        <v>1.18</v>
+      </c>
+      <c r="AM151">
+        <v>2.4</v>
+      </c>
+      <c r="AN151">
+        <v>2.33</v>
+      </c>
+      <c r="AO151">
+        <v>1.83</v>
+      </c>
+      <c r="AP151">
+        <v>2.23</v>
+      </c>
+      <c r="AQ151">
+        <v>1.77</v>
+      </c>
+      <c r="AR151">
+        <v>1.78</v>
+      </c>
+      <c r="AS151">
+        <v>1.64</v>
+      </c>
+      <c r="AT151">
+        <v>3.42</v>
+      </c>
+      <c r="AU151">
+        <v>5</v>
+      </c>
+      <c r="AV151">
+        <v>0</v>
+      </c>
+      <c r="AW151">
+        <v>5</v>
+      </c>
+      <c r="AX151">
+        <v>3</v>
+      </c>
+      <c r="AY151">
+        <v>10</v>
+      </c>
+      <c r="AZ151">
+        <v>3</v>
+      </c>
+      <c r="BA151">
+        <v>8</v>
+      </c>
+      <c r="BB151">
+        <v>1</v>
+      </c>
+      <c r="BC151">
+        <v>9</v>
+      </c>
+      <c r="BD151">
+        <v>1.51</v>
+      </c>
+      <c r="BE151">
+        <v>8.5</v>
+      </c>
+      <c r="BF151">
+        <v>3.07</v>
+      </c>
+      <c r="BG151">
+        <v>1.4</v>
+      </c>
+      <c r="BH151">
+        <v>2.96</v>
+      </c>
+      <c r="BI151">
+        <v>1.61</v>
+      </c>
+      <c r="BJ151">
+        <v>2.27</v>
+      </c>
+      <c r="BK151">
+        <v>2</v>
+      </c>
+      <c r="BL151">
+        <v>1.8</v>
+      </c>
+      <c r="BM151">
+        <v>2.58</v>
+      </c>
+      <c r="BN151">
+        <v>1.48</v>
+      </c>
+      <c r="BO151">
+        <v>4</v>
+      </c>
+      <c r="BP151">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -31550,19 +31550,19 @@
         <v>3</v>
       </c>
       <c r="AV148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW148">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX148">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY148">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ148">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA148">
         <v>3</v>
@@ -32165,31 +32165,31 @@
         <v>3.42</v>
       </c>
       <c r="AU151">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV151">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW151">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY151">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ151">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BA151">
         <v>8</v>
       </c>
       <c r="BB151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC151">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD151">
         <v>1.51</v>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>['87']</t>
+  </si>
+  <si>
+    <t>['18', '26', '73']</t>
   </si>
   <si>
     <t>['23']</t>
@@ -1119,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1381,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1456,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ2">
         <v>1.77</v>
@@ -1584,7 +1587,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1790,7 +1793,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1996,7 +1999,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2202,7 +2205,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2283,7 +2286,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ6">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2408,7 +2411,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -3026,7 +3029,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3438,7 +3441,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -3644,7 +3647,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -4056,7 +4059,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4340,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ16">
         <v>0.67</v>
@@ -4674,7 +4677,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -5292,7 +5295,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5498,7 +5501,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5704,7 +5707,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -5785,7 +5788,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ23">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AR23">
         <v>1.57</v>
@@ -5910,7 +5913,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>4.33</v>
@@ -6322,7 +6325,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>1.68</v>
@@ -6528,7 +6531,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6609,7 +6612,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AR27">
         <v>1.48</v>
@@ -6734,7 +6737,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7018,7 +7021,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ29">
         <v>1.17</v>
@@ -7146,7 +7149,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7352,7 +7355,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7558,7 +7561,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7764,7 +7767,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -7970,7 +7973,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8176,7 +8179,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8666,7 +8669,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ37">
         <v>0.6899999999999999</v>
@@ -8794,7 +8797,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9000,7 +9003,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9206,7 +9209,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9287,7 +9290,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ40">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9412,7 +9415,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9618,7 +9621,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9824,7 +9827,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -10030,7 +10033,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>3.25</v>
@@ -10236,7 +10239,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -10648,7 +10651,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10932,7 +10935,7 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ48">
         <v>1.23</v>
@@ -11060,7 +11063,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11266,7 +11269,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11678,7 +11681,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>9.5</v>
@@ -11759,7 +11762,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ52">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AR52">
         <v>1.15</v>
@@ -12502,7 +12505,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -13120,7 +13123,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13404,7 +13407,7 @@
         <v>1.2</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ60">
         <v>0.67</v>
@@ -13532,7 +13535,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13613,7 +13616,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ61">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -13738,7 +13741,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13944,7 +13947,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14562,7 +14565,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14768,7 +14771,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15592,7 +15595,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -16004,7 +16007,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16622,7 +16625,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>7.5</v>
@@ -16703,7 +16706,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ76">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -16828,7 +16831,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>4.33</v>
@@ -17034,7 +17037,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17318,7 +17321,7 @@
         <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ79">
         <v>2.08</v>
@@ -17446,7 +17449,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>3.5</v>
@@ -17858,7 +17861,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -18270,7 +18273,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18557,7 +18560,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ85">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AR85">
         <v>1.41</v>
@@ -18682,7 +18685,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18966,7 +18969,7 @@
         <v>0.57</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ87">
         <v>0.85</v>
@@ -19506,7 +19509,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19918,7 +19921,7 @@
         <v>141</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20742,7 +20745,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>5.5</v>
@@ -21235,7 +21238,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ98">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
@@ -21360,7 +21363,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21566,7 +21569,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21772,7 +21775,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22390,7 +22393,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22596,7 +22599,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -22802,7 +22805,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23008,7 +23011,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>2.4</v>
@@ -23214,7 +23217,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>3.75</v>
@@ -23420,7 +23423,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23498,7 +23501,7 @@
         <v>1.88</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ109">
         <v>1.58</v>
@@ -23626,7 +23629,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -24119,7 +24122,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ112">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AR112">
         <v>1.27</v>
@@ -24244,7 +24247,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q113">
         <v>4.33</v>
@@ -25146,7 +25149,7 @@
         <v>1.11</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ117">
         <v>1.15</v>
@@ -25274,7 +25277,7 @@
         <v>120</v>
       </c>
       <c r="P118" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q118">
         <v>3.16</v>
@@ -25480,7 +25483,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q119">
         <v>5.5</v>
@@ -26510,7 +26513,7 @@
         <v>103</v>
       </c>
       <c r="P124" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q124">
         <v>1.57</v>
@@ -26716,7 +26719,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27412,10 +27415,10 @@
         <v>2.2</v>
       </c>
       <c r="AP128">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ128">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AR128">
         <v>1.51</v>
@@ -27540,7 +27543,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q129">
         <v>3.9</v>
@@ -27746,7 +27749,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q130">
         <v>3.7</v>
@@ -29394,7 +29397,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q138">
         <v>4.5</v>
@@ -29600,7 +29603,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -30012,7 +30015,7 @@
         <v>169</v>
       </c>
       <c r="P141" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30502,7 +30505,7 @@
         <v>1.73</v>
       </c>
       <c r="AP143">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ143">
         <v>1.58</v>
@@ -30630,7 +30633,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30836,7 +30839,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -30917,7 +30920,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ145">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AR145">
         <v>1.68</v>
@@ -31866,7 +31869,7 @@
         <v>172</v>
       </c>
       <c r="P150" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32072,7 +32075,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32229,6 +32232,212 @@
       </c>
       <c r="BP151">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7383379</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45394.60416666666</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>70</v>
+      </c>
+      <c r="H152" t="s">
+        <v>79</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>174</v>
+      </c>
+      <c r="P152" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q152">
+        <v>4.75</v>
+      </c>
+      <c r="R152">
+        <v>2.2</v>
+      </c>
+      <c r="S152">
+        <v>2.4</v>
+      </c>
+      <c r="T152">
+        <v>1.36</v>
+      </c>
+      <c r="U152">
+        <v>3</v>
+      </c>
+      <c r="V152">
+        <v>2.75</v>
+      </c>
+      <c r="W152">
+        <v>1.4</v>
+      </c>
+      <c r="X152">
+        <v>8</v>
+      </c>
+      <c r="Y152">
+        <v>1.08</v>
+      </c>
+      <c r="Z152">
+        <v>4.08</v>
+      </c>
+      <c r="AA152">
+        <v>3.66</v>
+      </c>
+      <c r="AB152">
+        <v>1.89</v>
+      </c>
+      <c r="AC152">
+        <v>1.04</v>
+      </c>
+      <c r="AD152">
+        <v>12</v>
+      </c>
+      <c r="AE152">
+        <v>1.3</v>
+      </c>
+      <c r="AF152">
+        <v>3.5</v>
+      </c>
+      <c r="AG152">
+        <v>1.9</v>
+      </c>
+      <c r="AH152">
+        <v>1.95</v>
+      </c>
+      <c r="AI152">
+        <v>1.8</v>
+      </c>
+      <c r="AJ152">
+        <v>1.95</v>
+      </c>
+      <c r="AK152">
+        <v>2</v>
+      </c>
+      <c r="AL152">
+        <v>1.22</v>
+      </c>
+      <c r="AM152">
+        <v>1.22</v>
+      </c>
+      <c r="AN152">
+        <v>2</v>
+      </c>
+      <c r="AO152">
+        <v>2.33</v>
+      </c>
+      <c r="AP152">
+        <v>2.08</v>
+      </c>
+      <c r="AQ152">
+        <v>2.15</v>
+      </c>
+      <c r="AR152">
+        <v>1.51</v>
+      </c>
+      <c r="AS152">
+        <v>1.49</v>
+      </c>
+      <c r="AT152">
+        <v>3</v>
+      </c>
+      <c r="AU152">
+        <v>4</v>
+      </c>
+      <c r="AV152">
+        <v>5</v>
+      </c>
+      <c r="AW152">
+        <v>7</v>
+      </c>
+      <c r="AX152">
+        <v>5</v>
+      </c>
+      <c r="AY152">
+        <v>11</v>
+      </c>
+      <c r="AZ152">
+        <v>10</v>
+      </c>
+      <c r="BA152">
+        <v>0</v>
+      </c>
+      <c r="BB152">
+        <v>4</v>
+      </c>
+      <c r="BC152">
+        <v>4</v>
+      </c>
+      <c r="BD152">
+        <v>2.62</v>
+      </c>
+      <c r="BE152">
+        <v>9</v>
+      </c>
+      <c r="BF152">
+        <v>1.67</v>
+      </c>
+      <c r="BG152">
+        <v>1.29</v>
+      </c>
+      <c r="BH152">
+        <v>3.14</v>
+      </c>
+      <c r="BI152">
+        <v>1.56</v>
+      </c>
+      <c r="BJ152">
+        <v>2.27</v>
+      </c>
+      <c r="BK152">
+        <v>1.97</v>
+      </c>
+      <c r="BL152">
+        <v>1.78</v>
+      </c>
+      <c r="BM152">
+        <v>2.57</v>
+      </c>
+      <c r="BN152">
+        <v>1.44</v>
+      </c>
+      <c r="BO152">
+        <v>3.48</v>
+      </c>
+      <c r="BP152">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,12 @@
     <t>['18', '26', '73']</t>
   </si>
   <si>
+    <t>['4', '50']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -635,9 +641,6 @@
   </si>
   <si>
     <t>['61']</t>
-  </si>
-  <si>
-    <t>['5']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -761,6 +764,9 @@
   </si>
   <si>
     <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['9', '63', '90']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1387,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1587,7 +1593,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1665,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1793,7 +1799,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1871,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ4">
         <v>0.6899999999999999</v>
@@ -1999,7 +2005,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2077,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ5">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2205,7 +2211,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2411,7 +2417,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -2492,7 +2498,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ7">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2695,10 +2701,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3029,7 +3035,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3441,7 +3447,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -3519,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ12">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3647,7 +3653,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3934,7 +3940,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ14">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR14">
         <v>1.73</v>
@@ -4059,7 +4065,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4137,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ15">
         <v>0.6899999999999999</v>
@@ -4346,7 +4352,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR16">
         <v>1.19</v>
@@ -4552,7 +4558,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ17">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR17">
         <v>2.14</v>
@@ -4677,7 +4683,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4755,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ18">
         <v>1.23</v>
@@ -5167,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ20">
         <v>1.15</v>
@@ -5295,7 +5301,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5373,10 +5379,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ21">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR21">
         <v>1.23</v>
@@ -5501,7 +5507,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5582,7 +5588,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR22">
         <v>1.78</v>
@@ -5707,7 +5713,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -5785,7 +5791,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ23">
         <v>2.15</v>
@@ -5913,7 +5919,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>4.33</v>
@@ -6325,7 +6331,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>1.68</v>
@@ -6406,7 +6412,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR26">
         <v>1.34</v>
@@ -6531,7 +6537,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6609,7 +6615,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
         <v>2.15</v>
@@ -6737,7 +6743,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6815,10 +6821,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR28">
         <v>0.99</v>
@@ -7024,7 +7030,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ29">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR29">
         <v>1.36</v>
@@ -7149,7 +7155,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7227,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ30">
         <v>0.85</v>
@@ -7355,7 +7361,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7433,10 +7439,10 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ31">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7561,7 +7567,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7639,7 +7645,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32">
         <v>1.23</v>
@@ -7767,7 +7773,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -7845,10 +7851,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR33">
         <v>1.23</v>
@@ -7973,7 +7979,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8054,7 +8060,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ34">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR34">
         <v>1.53</v>
@@ -8179,7 +8185,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8260,7 +8266,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ35">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR35">
         <v>1.35</v>
@@ -8797,7 +8803,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9003,7 +9009,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9084,7 +9090,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ39">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR39">
         <v>1.06</v>
@@ -9209,7 +9215,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9415,7 +9421,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9493,7 +9499,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ41">
         <v>0.85</v>
@@ -9621,7 +9627,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9699,10 +9705,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ42">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR42">
         <v>1.12</v>
@@ -9827,7 +9833,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -9905,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ43">
         <v>1.15</v>
@@ -10033,7 +10039,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>3.25</v>
@@ -10111,7 +10117,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ44">
         <v>1.15</v>
@@ -10239,7 +10245,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -10320,7 +10326,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ45">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR45">
         <v>1.83</v>
@@ -10651,7 +10657,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10732,7 +10738,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ47">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR47">
         <v>1.46</v>
@@ -11063,7 +11069,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11141,10 +11147,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ49">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR49">
         <v>2.07</v>
@@ -11269,7 +11275,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11347,7 +11353,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ50">
         <v>1.15</v>
@@ -11556,7 +11562,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ51">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR51">
         <v>0.99</v>
@@ -11681,7 +11687,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q52">
         <v>9.5</v>
@@ -11759,7 +11765,7 @@
         <v>2.5</v>
       </c>
       <c r="AP52">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ52">
         <v>2.15</v>
@@ -12171,10 +12177,10 @@
         <v>1.25</v>
       </c>
       <c r="AP54">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ54">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR54">
         <v>1.23</v>
@@ -12505,7 +12511,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12583,7 +12589,7 @@
         <v>1.25</v>
       </c>
       <c r="AP56">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ56">
         <v>1.77</v>
@@ -12789,7 +12795,7 @@
         <v>0.8</v>
       </c>
       <c r="AP57">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ57">
         <v>0.85</v>
@@ -12998,7 +13004,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR58">
         <v>1.4</v>
@@ -13123,7 +13129,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13201,10 +13207,10 @@
         <v>2.5</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ59">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR59">
         <v>1.25</v>
@@ -13410,7 +13416,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ60">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR60">
         <v>1.37</v>
@@ -13535,7 +13541,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13741,7 +13747,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13947,7 +13953,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14565,7 +14571,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14643,10 +14649,10 @@
         <v>0.6</v>
       </c>
       <c r="AP66">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ66">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -14771,7 +14777,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14849,10 +14855,10 @@
         <v>1.8</v>
       </c>
       <c r="AP67">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ67">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR67">
         <v>1.88</v>
@@ -15470,7 +15476,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ70">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR70">
         <v>1.71</v>
@@ -15595,7 +15601,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -15673,7 +15679,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ71">
         <v>1.23</v>
@@ -15882,7 +15888,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ72">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR72">
         <v>1.45</v>
@@ -16007,7 +16013,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16085,7 +16091,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ73">
         <v>1.15</v>
@@ -16291,10 +16297,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ74">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR74">
         <v>1.26</v>
@@ -16625,7 +16631,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>7.5</v>
@@ -16703,7 +16709,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ76">
         <v>2.15</v>
@@ -16831,7 +16837,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>4.33</v>
@@ -17037,7 +17043,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17115,10 +17121,10 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ78">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR78">
         <v>1.2</v>
@@ -17324,7 +17330,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ79">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR79">
         <v>1.46</v>
@@ -17449,7 +17455,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q80">
         <v>3.5</v>
@@ -17527,10 +17533,10 @@
         <v>0.86</v>
       </c>
       <c r="AP80">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ80">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -17733,7 +17739,7 @@
         <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ81">
         <v>1.77</v>
@@ -17861,7 +17867,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -17939,7 +17945,7 @@
         <v>1.17</v>
       </c>
       <c r="AP82">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ82">
         <v>1.15</v>
@@ -18273,7 +18279,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18354,7 +18360,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ84">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR84">
         <v>1.33</v>
@@ -18685,7 +18691,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19381,10 +19387,10 @@
         <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR89">
         <v>1.34</v>
@@ -19509,7 +19515,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19590,7 +19596,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ90">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR90">
         <v>1.41</v>
@@ -19793,10 +19799,10 @@
         <v>0.86</v>
       </c>
       <c r="AP91">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ91">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR91">
         <v>1.81</v>
@@ -19921,7 +19927,7 @@
         <v>141</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20002,7 +20008,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ92">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR92">
         <v>1.24</v>
@@ -20745,7 +20751,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>5.5</v>
@@ -20823,7 +20829,7 @@
         <v>1.57</v>
       </c>
       <c r="AP96">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ96">
         <v>1.77</v>
@@ -21235,7 +21241,7 @@
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ98">
         <v>2.15</v>
@@ -21363,7 +21369,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21444,7 +21450,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ99">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR99">
         <v>1.3</v>
@@ -21569,7 +21575,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21647,7 +21653,7 @@
         <v>1.13</v>
       </c>
       <c r="AP100">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ100">
         <v>1.15</v>
@@ -21775,7 +21781,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22059,7 +22065,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ102">
         <v>1.15</v>
@@ -22268,7 +22274,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ103">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR103">
         <v>1.57</v>
@@ -22393,7 +22399,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22474,7 +22480,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ104">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -22599,7 +22605,7 @@
         <v>152</v>
       </c>
       <c r="P105" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -22805,7 +22811,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22886,7 +22892,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ106">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR106">
         <v>1.48</v>
@@ -23011,7 +23017,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q107">
         <v>2.4</v>
@@ -23089,7 +23095,7 @@
         <v>0.38</v>
       </c>
       <c r="AP107">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ107">
         <v>0.6899999999999999</v>
@@ -23217,7 +23223,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q108">
         <v>3.75</v>
@@ -23295,7 +23301,7 @@
         <v>1.75</v>
       </c>
       <c r="AP108">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ108">
         <v>1.77</v>
@@ -23423,7 +23429,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23504,7 +23510,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ109">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR109">
         <v>1.48</v>
@@ -23629,7 +23635,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -23707,7 +23713,7 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ110">
         <v>0.85</v>
@@ -23916,7 +23922,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ111">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR111">
         <v>1.44</v>
@@ -24247,7 +24253,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q113">
         <v>4.33</v>
@@ -24325,10 +24331,10 @@
         <v>1.78</v>
       </c>
       <c r="AP113">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ113">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR113">
         <v>0.96</v>
@@ -24531,7 +24537,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ114">
         <v>1.15</v>
@@ -25277,7 +25283,7 @@
         <v>120</v>
       </c>
       <c r="P118" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>3.16</v>
@@ -25483,7 +25489,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>5.5</v>
@@ -25561,10 +25567,10 @@
         <v>2</v>
       </c>
       <c r="AP119">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ119">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR119">
         <v>1.27</v>
@@ -25770,7 +25776,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ120">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR120">
         <v>1.3</v>
@@ -25973,10 +25979,10 @@
         <v>1.11</v>
       </c>
       <c r="AP121">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ121">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR121">
         <v>1.79</v>
@@ -26182,7 +26188,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ122">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR122">
         <v>1.69</v>
@@ -26513,7 +26519,7 @@
         <v>103</v>
       </c>
       <c r="P124" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q124">
         <v>1.57</v>
@@ -26591,7 +26597,7 @@
         <v>0.6</v>
       </c>
       <c r="AP124">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ124">
         <v>0.6899999999999999</v>
@@ -26719,7 +26725,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -26800,7 +26806,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ125">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR125">
         <v>1.22</v>
@@ -27209,7 +27215,7 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ127">
         <v>1.23</v>
@@ -27543,7 +27549,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q129">
         <v>3.9</v>
@@ -27621,10 +27627,10 @@
         <v>2.1</v>
       </c>
       <c r="AP129">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ129">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR129">
         <v>1.16</v>
@@ -27749,7 +27755,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q130">
         <v>3.7</v>
@@ -28033,10 +28039,10 @@
         <v>0.7</v>
       </c>
       <c r="AP131">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ131">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR131">
         <v>0.98</v>
@@ -28239,10 +28245,10 @@
         <v>0.6</v>
       </c>
       <c r="AP132">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ132">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR132">
         <v>1.31</v>
@@ -28651,7 +28657,7 @@
         <v>1.27</v>
       </c>
       <c r="AP134">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ134">
         <v>1.15</v>
@@ -29066,7 +29072,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ136">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -29269,7 +29275,7 @@
         <v>1.18</v>
       </c>
       <c r="AP137">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ137">
         <v>1.15</v>
@@ -29397,7 +29403,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q138">
         <v>4.5</v>
@@ -29478,7 +29484,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ138">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR138">
         <v>1.28</v>
@@ -29603,7 +29609,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29890,7 +29896,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ140">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR140">
         <v>1.4</v>
@@ -30015,7 +30021,7 @@
         <v>169</v>
       </c>
       <c r="P141" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30093,7 +30099,7 @@
         <v>0.64</v>
       </c>
       <c r="AP141">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ141">
         <v>0.85</v>
@@ -30299,10 +30305,10 @@
         <v>0.64</v>
       </c>
       <c r="AP142">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ142">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR142">
         <v>1.29</v>
@@ -30508,7 +30514,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ143">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR143">
         <v>1.51</v>
@@ -30633,7 +30639,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30711,7 +30717,7 @@
         <v>1.73</v>
       </c>
       <c r="AP144">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ144">
         <v>1.77</v>
@@ -30839,7 +30845,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31869,7 +31875,7 @@
         <v>172</v>
       </c>
       <c r="P150" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32075,7 +32081,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32281,7 +32287,7 @@
         <v>174</v>
       </c>
       <c r="P152" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q152">
         <v>4.75</v>
@@ -32438,6 +32444,1036 @@
       </c>
       <c r="BP152">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7383380</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45395.5</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153" t="s">
+        <v>80</v>
+      </c>
+      <c r="H153" t="s">
+        <v>74</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>86</v>
+      </c>
+      <c r="P153" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q153">
+        <v>4.75</v>
+      </c>
+      <c r="R153">
+        <v>2.05</v>
+      </c>
+      <c r="S153">
+        <v>2.63</v>
+      </c>
+      <c r="T153">
+        <v>1.5</v>
+      </c>
+      <c r="U153">
+        <v>2.5</v>
+      </c>
+      <c r="V153">
+        <v>3.4</v>
+      </c>
+      <c r="W153">
+        <v>1.3</v>
+      </c>
+      <c r="X153">
+        <v>10</v>
+      </c>
+      <c r="Y153">
+        <v>1.06</v>
+      </c>
+      <c r="Z153">
+        <v>4.2</v>
+      </c>
+      <c r="AA153">
+        <v>3.15</v>
+      </c>
+      <c r="AB153">
+        <v>1.9</v>
+      </c>
+      <c r="AC153">
+        <v>1.08</v>
+      </c>
+      <c r="AD153">
+        <v>8.5</v>
+      </c>
+      <c r="AE153">
+        <v>1.44</v>
+      </c>
+      <c r="AF153">
+        <v>2.8</v>
+      </c>
+      <c r="AG153">
+        <v>2.25</v>
+      </c>
+      <c r="AH153">
+        <v>1.56</v>
+      </c>
+      <c r="AI153">
+        <v>2.05</v>
+      </c>
+      <c r="AJ153">
+        <v>1.7</v>
+      </c>
+      <c r="AK153">
+        <v>1.9</v>
+      </c>
+      <c r="AL153">
+        <v>1.25</v>
+      </c>
+      <c r="AM153">
+        <v>1.22</v>
+      </c>
+      <c r="AN153">
+        <v>0.25</v>
+      </c>
+      <c r="AO153">
+        <v>0.67</v>
+      </c>
+      <c r="AP153">
+        <v>0.23</v>
+      </c>
+      <c r="AQ153">
+        <v>0.85</v>
+      </c>
+      <c r="AR153">
+        <v>1.03</v>
+      </c>
+      <c r="AS153">
+        <v>1.32</v>
+      </c>
+      <c r="AT153">
+        <v>2.35</v>
+      </c>
+      <c r="AU153">
+        <v>3</v>
+      </c>
+      <c r="AV153">
+        <v>6</v>
+      </c>
+      <c r="AW153">
+        <v>5</v>
+      </c>
+      <c r="AX153">
+        <v>3</v>
+      </c>
+      <c r="AY153">
+        <v>8</v>
+      </c>
+      <c r="AZ153">
+        <v>9</v>
+      </c>
+      <c r="BA153">
+        <v>2</v>
+      </c>
+      <c r="BB153">
+        <v>7</v>
+      </c>
+      <c r="BC153">
+        <v>9</v>
+      </c>
+      <c r="BD153">
+        <v>1.96</v>
+      </c>
+      <c r="BE153">
+        <v>9</v>
+      </c>
+      <c r="BF153">
+        <v>2.12</v>
+      </c>
+      <c r="BG153">
+        <v>1.23</v>
+      </c>
+      <c r="BH153">
+        <v>3.56</v>
+      </c>
+      <c r="BI153">
+        <v>1.45</v>
+      </c>
+      <c r="BJ153">
+        <v>2.55</v>
+      </c>
+      <c r="BK153">
+        <v>1.8</v>
+      </c>
+      <c r="BL153">
+        <v>1.95</v>
+      </c>
+      <c r="BM153">
+        <v>2.29</v>
+      </c>
+      <c r="BN153">
+        <v>1.55</v>
+      </c>
+      <c r="BO153">
+        <v>3.04</v>
+      </c>
+      <c r="BP153">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7383381</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45395.5</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+      <c r="G154" t="s">
+        <v>71</v>
+      </c>
+      <c r="H154" t="s">
+        <v>75</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>86</v>
+      </c>
+      <c r="P154" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q154">
+        <v>3.6</v>
+      </c>
+      <c r="R154">
+        <v>2.05</v>
+      </c>
+      <c r="S154">
+        <v>3.2</v>
+      </c>
+      <c r="T154">
+        <v>1.44</v>
+      </c>
+      <c r="U154">
+        <v>2.63</v>
+      </c>
+      <c r="V154">
+        <v>3.25</v>
+      </c>
+      <c r="W154">
+        <v>1.33</v>
+      </c>
+      <c r="X154">
+        <v>10</v>
+      </c>
+      <c r="Y154">
+        <v>1.06</v>
+      </c>
+      <c r="Z154">
+        <v>2.9</v>
+      </c>
+      <c r="AA154">
+        <v>3</v>
+      </c>
+      <c r="AB154">
+        <v>2.5</v>
+      </c>
+      <c r="AC154">
+        <v>1.06</v>
+      </c>
+      <c r="AD154">
+        <v>9.5</v>
+      </c>
+      <c r="AE154">
+        <v>1.36</v>
+      </c>
+      <c r="AF154">
+        <v>3.1</v>
+      </c>
+      <c r="AG154">
+        <v>2.1</v>
+      </c>
+      <c r="AH154">
+        <v>1.64</v>
+      </c>
+      <c r="AI154">
+        <v>1.91</v>
+      </c>
+      <c r="AJ154">
+        <v>1.91</v>
+      </c>
+      <c r="AK154">
+        <v>1.55</v>
+      </c>
+      <c r="AL154">
+        <v>1.28</v>
+      </c>
+      <c r="AM154">
+        <v>1.44</v>
+      </c>
+      <c r="AN154">
+        <v>1.5</v>
+      </c>
+      <c r="AO154">
+        <v>1.17</v>
+      </c>
+      <c r="AP154">
+        <v>1.38</v>
+      </c>
+      <c r="AQ154">
+        <v>1.31</v>
+      </c>
+      <c r="AR154">
+        <v>1.28</v>
+      </c>
+      <c r="AS154">
+        <v>1.34</v>
+      </c>
+      <c r="AT154">
+        <v>2.62</v>
+      </c>
+      <c r="AU154">
+        <v>2</v>
+      </c>
+      <c r="AV154">
+        <v>8</v>
+      </c>
+      <c r="AW154">
+        <v>2</v>
+      </c>
+      <c r="AX154">
+        <v>6</v>
+      </c>
+      <c r="AY154">
+        <v>4</v>
+      </c>
+      <c r="AZ154">
+        <v>14</v>
+      </c>
+      <c r="BA154">
+        <v>2</v>
+      </c>
+      <c r="BB154">
+        <v>7</v>
+      </c>
+      <c r="BC154">
+        <v>9</v>
+      </c>
+      <c r="BD154">
+        <v>2.33</v>
+      </c>
+      <c r="BE154">
+        <v>9.5</v>
+      </c>
+      <c r="BF154">
+        <v>1.79</v>
+      </c>
+      <c r="BG154">
+        <v>1.13</v>
+      </c>
+      <c r="BH154">
+        <v>4.85</v>
+      </c>
+      <c r="BI154">
+        <v>1.27</v>
+      </c>
+      <c r="BJ154">
+        <v>3.28</v>
+      </c>
+      <c r="BK154">
+        <v>1.51</v>
+      </c>
+      <c r="BL154">
+        <v>2.39</v>
+      </c>
+      <c r="BM154">
+        <v>1.87</v>
+      </c>
+      <c r="BN154">
+        <v>1.87</v>
+      </c>
+      <c r="BO154">
+        <v>2.36</v>
+      </c>
+      <c r="BP154">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7383382</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45395.5</v>
+      </c>
+      <c r="F155">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>73</v>
+      </c>
+      <c r="H155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>175</v>
+      </c>
+      <c r="P155" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q155">
+        <v>3.25</v>
+      </c>
+      <c r="R155">
+        <v>2</v>
+      </c>
+      <c r="S155">
+        <v>3.6</v>
+      </c>
+      <c r="T155">
+        <v>1.5</v>
+      </c>
+      <c r="U155">
+        <v>2.5</v>
+      </c>
+      <c r="V155">
+        <v>3.4</v>
+      </c>
+      <c r="W155">
+        <v>1.3</v>
+      </c>
+      <c r="X155">
+        <v>10</v>
+      </c>
+      <c r="Y155">
+        <v>1.06</v>
+      </c>
+      <c r="Z155">
+        <v>2.63</v>
+      </c>
+      <c r="AA155">
+        <v>2.9</v>
+      </c>
+      <c r="AB155">
+        <v>2.85</v>
+      </c>
+      <c r="AC155">
+        <v>1.08</v>
+      </c>
+      <c r="AD155">
+        <v>8.5</v>
+      </c>
+      <c r="AE155">
+        <v>1.44</v>
+      </c>
+      <c r="AF155">
+        <v>2.8</v>
+      </c>
+      <c r="AG155">
+        <v>2.25</v>
+      </c>
+      <c r="AH155">
+        <v>1.55</v>
+      </c>
+      <c r="AI155">
+        <v>1.95</v>
+      </c>
+      <c r="AJ155">
+        <v>1.8</v>
+      </c>
+      <c r="AK155">
+        <v>1.45</v>
+      </c>
+      <c r="AL155">
+        <v>1.3</v>
+      </c>
+      <c r="AM155">
+        <v>1.52</v>
+      </c>
+      <c r="AN155">
+        <v>0.67</v>
+      </c>
+      <c r="AO155">
+        <v>0.67</v>
+      </c>
+      <c r="AP155">
+        <v>0.85</v>
+      </c>
+      <c r="AQ155">
+        <v>0.62</v>
+      </c>
+      <c r="AR155">
+        <v>1.29</v>
+      </c>
+      <c r="AS155">
+        <v>1.04</v>
+      </c>
+      <c r="AT155">
+        <v>2.33</v>
+      </c>
+      <c r="AU155">
+        <v>6</v>
+      </c>
+      <c r="AV155">
+        <v>4</v>
+      </c>
+      <c r="AW155">
+        <v>3</v>
+      </c>
+      <c r="AX155">
+        <v>7</v>
+      </c>
+      <c r="AY155">
+        <v>9</v>
+      </c>
+      <c r="AZ155">
+        <v>11</v>
+      </c>
+      <c r="BA155">
+        <v>4</v>
+      </c>
+      <c r="BB155">
+        <v>4</v>
+      </c>
+      <c r="BC155">
+        <v>8</v>
+      </c>
+      <c r="BD155">
+        <v>1.85</v>
+      </c>
+      <c r="BE155">
+        <v>8</v>
+      </c>
+      <c r="BF155">
+        <v>2.28</v>
+      </c>
+      <c r="BG155">
+        <v>1.26</v>
+      </c>
+      <c r="BH155">
+        <v>3.34</v>
+      </c>
+      <c r="BI155">
+        <v>1.55</v>
+      </c>
+      <c r="BJ155">
+        <v>2.37</v>
+      </c>
+      <c r="BK155">
+        <v>1.9</v>
+      </c>
+      <c r="BL155">
+        <v>1.9</v>
+      </c>
+      <c r="BM155">
+        <v>2.43</v>
+      </c>
+      <c r="BN155">
+        <v>1.52</v>
+      </c>
+      <c r="BO155">
+        <v>3.28</v>
+      </c>
+      <c r="BP155">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7383383</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45396.39583333334</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156" t="s">
+        <v>72</v>
+      </c>
+      <c r="H156" t="s">
+        <v>77</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>3</v>
+      </c>
+      <c r="N156">
+        <v>4</v>
+      </c>
+      <c r="O156" t="s">
+        <v>161</v>
+      </c>
+      <c r="P156" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q156">
+        <v>4.75</v>
+      </c>
+      <c r="R156">
+        <v>2.2</v>
+      </c>
+      <c r="S156">
+        <v>2.4</v>
+      </c>
+      <c r="T156">
+        <v>1.4</v>
+      </c>
+      <c r="U156">
+        <v>2.75</v>
+      </c>
+      <c r="V156">
+        <v>2.75</v>
+      </c>
+      <c r="W156">
+        <v>1.4</v>
+      </c>
+      <c r="X156">
+        <v>8</v>
+      </c>
+      <c r="Y156">
+        <v>1.08</v>
+      </c>
+      <c r="Z156">
+        <v>4.3</v>
+      </c>
+      <c r="AA156">
+        <v>3.45</v>
+      </c>
+      <c r="AB156">
+        <v>1.84</v>
+      </c>
+      <c r="AC156">
+        <v>1.02</v>
+      </c>
+      <c r="AD156">
+        <v>8.6</v>
+      </c>
+      <c r="AE156">
+        <v>1.26</v>
+      </c>
+      <c r="AF156">
+        <v>3.34</v>
+      </c>
+      <c r="AG156">
+        <v>1.92</v>
+      </c>
+      <c r="AH156">
+        <v>1.85</v>
+      </c>
+      <c r="AI156">
+        <v>1.8</v>
+      </c>
+      <c r="AJ156">
+        <v>1.95</v>
+      </c>
+      <c r="AK156">
+        <v>2</v>
+      </c>
+      <c r="AL156">
+        <v>1.22</v>
+      </c>
+      <c r="AM156">
+        <v>1.18</v>
+      </c>
+      <c r="AN156">
+        <v>1.58</v>
+      </c>
+      <c r="AO156">
+        <v>2.08</v>
+      </c>
+      <c r="AP156">
+        <v>1.46</v>
+      </c>
+      <c r="AQ156">
+        <v>2.15</v>
+      </c>
+      <c r="AR156">
+        <v>1.08</v>
+      </c>
+      <c r="AS156">
+        <v>1.46</v>
+      </c>
+      <c r="AT156">
+        <v>2.54</v>
+      </c>
+      <c r="AU156">
+        <v>4</v>
+      </c>
+      <c r="AV156">
+        <v>6</v>
+      </c>
+      <c r="AW156">
+        <v>4</v>
+      </c>
+      <c r="AX156">
+        <v>5</v>
+      </c>
+      <c r="AY156">
+        <v>8</v>
+      </c>
+      <c r="AZ156">
+        <v>11</v>
+      </c>
+      <c r="BA156">
+        <v>4</v>
+      </c>
+      <c r="BB156">
+        <v>5</v>
+      </c>
+      <c r="BC156">
+        <v>9</v>
+      </c>
+      <c r="BD156">
+        <v>2.77</v>
+      </c>
+      <c r="BE156">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF156">
+        <v>1.6</v>
+      </c>
+      <c r="BG156">
+        <v>1.21</v>
+      </c>
+      <c r="BH156">
+        <v>3.74</v>
+      </c>
+      <c r="BI156">
+        <v>1.42</v>
+      </c>
+      <c r="BJ156">
+        <v>2.65</v>
+      </c>
+      <c r="BK156">
+        <v>1.75</v>
+      </c>
+      <c r="BL156">
+        <v>2.01</v>
+      </c>
+      <c r="BM156">
+        <v>2.19</v>
+      </c>
+      <c r="BN156">
+        <v>1.6</v>
+      </c>
+      <c r="BO156">
+        <v>2.91</v>
+      </c>
+      <c r="BP156">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7383384</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45396.5</v>
+      </c>
+      <c r="F157">
+        <v>4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>76</v>
+      </c>
+      <c r="H157" t="s">
+        <v>81</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157" t="s">
+        <v>176</v>
+      </c>
+      <c r="P157" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q157">
+        <v>2.1</v>
+      </c>
+      <c r="R157">
+        <v>2.3</v>
+      </c>
+      <c r="S157">
+        <v>6</v>
+      </c>
+      <c r="T157">
+        <v>1.36</v>
+      </c>
+      <c r="U157">
+        <v>3</v>
+      </c>
+      <c r="V157">
+        <v>2.63</v>
+      </c>
+      <c r="W157">
+        <v>1.44</v>
+      </c>
+      <c r="X157">
+        <v>7</v>
+      </c>
+      <c r="Y157">
+        <v>1.1</v>
+      </c>
+      <c r="Z157">
+        <v>1.58</v>
+      </c>
+      <c r="AA157">
+        <v>4.23</v>
+      </c>
+      <c r="AB157">
+        <v>5.5</v>
+      </c>
+      <c r="AC157">
+        <v>1.03</v>
+      </c>
+      <c r="AD157">
+        <v>13</v>
+      </c>
+      <c r="AE157">
+        <v>1.25</v>
+      </c>
+      <c r="AF157">
+        <v>3.75</v>
+      </c>
+      <c r="AG157">
+        <v>1.61</v>
+      </c>
+      <c r="AH157">
+        <v>2.13</v>
+      </c>
+      <c r="AI157">
+        <v>1.91</v>
+      </c>
+      <c r="AJ157">
+        <v>1.91</v>
+      </c>
+      <c r="AK157">
+        <v>1.12</v>
+      </c>
+      <c r="AL157">
+        <v>1.18</v>
+      </c>
+      <c r="AM157">
+        <v>2.5</v>
+      </c>
+      <c r="AN157">
+        <v>1.25</v>
+      </c>
+      <c r="AO157">
+        <v>1.58</v>
+      </c>
+      <c r="AP157">
+        <v>1.23</v>
+      </c>
+      <c r="AQ157">
+        <v>1.54</v>
+      </c>
+      <c r="AR157">
+        <v>1.68</v>
+      </c>
+      <c r="AS157">
+        <v>1.12</v>
+      </c>
+      <c r="AT157">
+        <v>2.8</v>
+      </c>
+      <c r="AU157">
+        <v>3</v>
+      </c>
+      <c r="AV157">
+        <v>2</v>
+      </c>
+      <c r="AW157">
+        <v>4</v>
+      </c>
+      <c r="AX157">
+        <v>0</v>
+      </c>
+      <c r="AY157">
+        <v>7</v>
+      </c>
+      <c r="AZ157">
+        <v>2</v>
+      </c>
+      <c r="BA157">
+        <v>1</v>
+      </c>
+      <c r="BB157">
+        <v>2</v>
+      </c>
+      <c r="BC157">
+        <v>3</v>
+      </c>
+      <c r="BD157">
+        <v>1.37</v>
+      </c>
+      <c r="BE157">
+        <v>9</v>
+      </c>
+      <c r="BF157">
+        <v>3.83</v>
+      </c>
+      <c r="BG157">
+        <v>1.25</v>
+      </c>
+      <c r="BH157">
+        <v>3.42</v>
+      </c>
+      <c r="BI157">
+        <v>1.52</v>
+      </c>
+      <c r="BJ157">
+        <v>2.48</v>
+      </c>
+      <c r="BK157">
+        <v>1.92</v>
+      </c>
+      <c r="BL157">
+        <v>1.8</v>
+      </c>
+      <c r="BM157">
+        <v>2.38</v>
+      </c>
+      <c r="BN157">
+        <v>1.56</v>
+      </c>
+      <c r="BO157">
+        <v>3.18</v>
+      </c>
+      <c r="BP157">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -33410,31 +33410,31 @@
         <v>2.8</v>
       </c>
       <c r="AU157">
+        <v>5</v>
+      </c>
+      <c r="AV157">
         <v>3</v>
       </c>
-      <c r="AV157">
-        <v>2</v>
-      </c>
       <c r="AW157">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY157">
+        <v>12</v>
+      </c>
+      <c r="AZ157">
+        <v>5</v>
+      </c>
+      <c r="BA157">
         <v>7</v>
       </c>
-      <c r="AZ157">
-        <v>2</v>
-      </c>
-      <c r="BA157">
-        <v>1</v>
-      </c>
       <c r="BB157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC157">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BD157">
         <v>1.37</v>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1128,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1468,7 +1468,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ2">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ9">
         <v>1.15</v>
@@ -3937,7 +3937,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ14">
         <v>1.54</v>
@@ -6000,7 +6000,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ24">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR24">
         <v>0.98</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ26">
         <v>0.62</v>
@@ -8472,7 +8472,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ36">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR36">
         <v>1.98</v>
@@ -9293,7 +9293,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ40">
         <v>2.15</v>
@@ -11971,7 +11971,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ53">
         <v>0.85</v>
@@ -12386,7 +12386,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ55">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR55">
         <v>1.51</v>
@@ -12592,7 +12592,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ56">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR56">
         <v>1.03</v>
@@ -14031,7 +14031,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ63">
         <v>1.23</v>
@@ -15885,7 +15885,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ72">
         <v>1.31</v>
@@ -16918,7 +16918,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ77">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR77">
         <v>1.52</v>
@@ -17742,7 +17742,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ81">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR81">
         <v>1.28</v>
@@ -19181,7 +19181,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ88">
         <v>0.6899999999999999</v>
@@ -20832,7 +20832,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ96">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR96">
         <v>1.28</v>
@@ -22271,7 +22271,7 @@
         <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ103">
         <v>0.85</v>
@@ -23304,7 +23304,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ108">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR108">
         <v>1.31</v>
@@ -24743,10 +24743,10 @@
         <v>1.89</v>
       </c>
       <c r="AP115">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ115">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR115">
         <v>1.67</v>
@@ -26391,7 +26391,7 @@
         <v>1.3</v>
       </c>
       <c r="AP123">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ123">
         <v>1.15</v>
@@ -27836,7 +27836,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ130">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR130">
         <v>1.29</v>
@@ -30720,7 +30720,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ144">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR144">
         <v>1.12</v>
@@ -30923,7 +30923,7 @@
         <v>2.27</v>
       </c>
       <c r="AP145">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ145">
         <v>2.15</v>
@@ -31747,7 +31747,7 @@
         <v>1.25</v>
       </c>
       <c r="AP149">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ149">
         <v>1.15</v>
@@ -32162,7 +32162,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ151">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR151">
         <v>1.78</v>
@@ -33474,6 +33474,212 @@
       </c>
       <c r="BP157">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7383385</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45401.60416666666</v>
+      </c>
+      <c r="F158">
+        <v>5</v>
+      </c>
+      <c r="G158" t="s">
+        <v>77</v>
+      </c>
+      <c r="H158" t="s">
+        <v>76</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>143</v>
+      </c>
+      <c r="P158" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q158">
+        <v>2.75</v>
+      </c>
+      <c r="R158">
+        <v>2.2</v>
+      </c>
+      <c r="S158">
+        <v>4</v>
+      </c>
+      <c r="T158">
+        <v>1.4</v>
+      </c>
+      <c r="U158">
+        <v>2.75</v>
+      </c>
+      <c r="V158">
+        <v>2.75</v>
+      </c>
+      <c r="W158">
+        <v>1.4</v>
+      </c>
+      <c r="X158">
+        <v>8</v>
+      </c>
+      <c r="Y158">
+        <v>1.08</v>
+      </c>
+      <c r="Z158">
+        <v>2.1</v>
+      </c>
+      <c r="AA158">
+        <v>3.3</v>
+      </c>
+      <c r="AB158">
+        <v>3</v>
+      </c>
+      <c r="AC158">
+        <v>1.01</v>
+      </c>
+      <c r="AD158">
+        <v>9.5</v>
+      </c>
+      <c r="AE158">
+        <v>1.25</v>
+      </c>
+      <c r="AF158">
+        <v>3.42</v>
+      </c>
+      <c r="AG158">
+        <v>1.8</v>
+      </c>
+      <c r="AH158">
+        <v>1.95</v>
+      </c>
+      <c r="AI158">
+        <v>1.75</v>
+      </c>
+      <c r="AJ158">
+        <v>2</v>
+      </c>
+      <c r="AK158">
+        <v>1.31</v>
+      </c>
+      <c r="AL158">
+        <v>1.3</v>
+      </c>
+      <c r="AM158">
+        <v>1.77</v>
+      </c>
+      <c r="AN158">
+        <v>2.08</v>
+      </c>
+      <c r="AO158">
+        <v>1.77</v>
+      </c>
+      <c r="AP158">
+        <v>2.14</v>
+      </c>
+      <c r="AQ158">
+        <v>1.64</v>
+      </c>
+      <c r="AR158">
+        <v>1.6</v>
+      </c>
+      <c r="AS158">
+        <v>1.59</v>
+      </c>
+      <c r="AT158">
+        <v>3.19</v>
+      </c>
+      <c r="AU158">
+        <v>4</v>
+      </c>
+      <c r="AV158">
+        <v>3</v>
+      </c>
+      <c r="AW158">
+        <v>5</v>
+      </c>
+      <c r="AX158">
+        <v>4</v>
+      </c>
+      <c r="AY158">
+        <v>9</v>
+      </c>
+      <c r="AZ158">
+        <v>7</v>
+      </c>
+      <c r="BA158">
+        <v>4</v>
+      </c>
+      <c r="BB158">
+        <v>1</v>
+      </c>
+      <c r="BC158">
+        <v>5</v>
+      </c>
+      <c r="BD158">
+        <v>1.82</v>
+      </c>
+      <c r="BE158">
+        <v>8</v>
+      </c>
+      <c r="BF158">
+        <v>2.39</v>
+      </c>
+      <c r="BG158">
+        <v>1.24</v>
+      </c>
+      <c r="BH158">
+        <v>3.8</v>
+      </c>
+      <c r="BI158">
+        <v>1.5</v>
+      </c>
+      <c r="BJ158">
+        <v>2.4</v>
+      </c>
+      <c r="BK158">
+        <v>1.8</v>
+      </c>
+      <c r="BL158">
+        <v>2</v>
+      </c>
+      <c r="BM158">
+        <v>2.2</v>
+      </c>
+      <c r="BN158">
+        <v>1.6</v>
+      </c>
+      <c r="BO158">
+        <v>2.8</v>
+      </c>
+      <c r="BP158">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,12 @@
     <t>['5']</t>
   </si>
   <si>
+    <t>['13', '32', '83']</t>
+  </si>
+  <si>
+    <t>['41', '51']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -767,6 +773,9 @@
   </si>
   <si>
     <t>['9', '63', '90']</t>
+  </si>
+  <si>
+    <t>['45', '60']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1396,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1593,7 +1602,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1671,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ3">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1799,7 +1808,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1880,7 +1889,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ4">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2005,7 +2014,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2211,7 +2220,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2289,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ6">
         <v>2.15</v>
@@ -2417,7 +2426,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -2495,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ7">
         <v>2.15</v>
@@ -3035,7 +3044,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3322,7 +3331,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ11">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3447,7 +3456,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -3653,7 +3662,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -4065,7 +4074,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4143,10 +4152,10 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ15">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR15">
         <v>1.31</v>
@@ -4352,7 +4361,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ16">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR16">
         <v>1.19</v>
@@ -4683,7 +4692,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4967,10 +4976,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ19">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR19">
         <v>1.02</v>
@@ -5301,7 +5310,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5507,7 +5516,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5713,7 +5722,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -5919,7 +5928,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>4.33</v>
@@ -6203,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ25">
         <v>1.15</v>
@@ -6331,7 +6340,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>1.68</v>
@@ -6412,7 +6421,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ26">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR26">
         <v>1.34</v>
@@ -6537,7 +6546,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6615,7 +6624,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ27">
         <v>2.15</v>
@@ -6743,7 +6752,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7155,7 +7164,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7236,7 +7245,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ30">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR30">
         <v>2.03</v>
@@ -7361,7 +7370,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7567,7 +7576,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7645,7 +7654,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ32">
         <v>1.23</v>
@@ -7773,7 +7782,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -7854,7 +7863,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ33">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR33">
         <v>1.23</v>
@@ -7979,7 +7988,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8057,7 +8066,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ34">
         <v>2.15</v>
@@ -8185,7 +8194,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8263,7 +8272,7 @@
         <v>2.33</v>
       </c>
       <c r="AP35">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ35">
         <v>1.54</v>
@@ -8678,7 +8687,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ37">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR37">
         <v>1.34</v>
@@ -8803,7 +8812,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9009,7 +9018,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9215,7 +9224,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9421,7 +9430,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9502,7 +9511,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ41">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR41">
         <v>1</v>
@@ -9627,7 +9636,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9833,7 +9842,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -10039,7 +10048,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>3.25</v>
@@ -10245,7 +10254,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -10326,7 +10335,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ45">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR45">
         <v>1.83</v>
@@ -10532,7 +10541,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ46">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR46">
         <v>1.4</v>
@@ -10735,7 +10744,7 @@
         <v>0.75</v>
       </c>
       <c r="AP47">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ47">
         <v>1.31</v>
@@ -11069,7 +11078,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11275,7 +11284,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11353,7 +11362,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ50">
         <v>1.15</v>
@@ -11687,7 +11696,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>9.5</v>
@@ -11974,7 +11983,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ53">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR53">
         <v>1.32</v>
@@ -12383,7 +12392,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ55">
         <v>1.64</v>
@@ -12511,7 +12520,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12798,7 +12807,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ57">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR57">
         <v>1.14</v>
@@ -13001,10 +13010,10 @@
         <v>1.2</v>
       </c>
       <c r="AP58">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ58">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR58">
         <v>1.4</v>
@@ -13129,7 +13138,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13207,7 +13216,7 @@
         <v>2.5</v>
       </c>
       <c r="AP59">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ59">
         <v>2.15</v>
@@ -13541,7 +13550,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13747,7 +13756,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13953,7 +13962,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14240,7 +14249,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ64">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR64">
         <v>1.02</v>
@@ -14443,7 +14452,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ65">
         <v>1.15</v>
@@ -14571,7 +14580,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14777,7 +14786,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15064,7 +15073,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ68">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR68">
         <v>1.43</v>
@@ -15601,7 +15610,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -16013,7 +16022,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16297,7 +16306,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ74">
         <v>1.54</v>
@@ -16503,10 +16512,10 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ75">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR75">
         <v>1.47</v>
@@ -16631,7 +16640,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>7.5</v>
@@ -16837,7 +16846,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q77">
         <v>4.33</v>
@@ -16915,7 +16924,7 @@
         <v>1.6</v>
       </c>
       <c r="AP77">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ77">
         <v>1.64</v>
@@ -17043,7 +17052,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17124,7 +17133,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ78">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR78">
         <v>1.2</v>
@@ -17455,7 +17464,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q80">
         <v>3.5</v>
@@ -17867,7 +17876,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -18279,7 +18288,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18563,7 +18572,7 @@
         <v>2.43</v>
       </c>
       <c r="AP85">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ85">
         <v>2.15</v>
@@ -18691,7 +18700,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18978,7 +18987,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ87">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR87">
         <v>1.53</v>
@@ -19184,7 +19193,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ88">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR88">
         <v>1.48</v>
@@ -19387,7 +19396,7 @@
         <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ89">
         <v>1.31</v>
@@ -19515,7 +19524,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19593,7 +19602,7 @@
         <v>1.71</v>
       </c>
       <c r="AP90">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ90">
         <v>1.54</v>
@@ -19802,7 +19811,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ91">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR91">
         <v>1.81</v>
@@ -19927,7 +19936,7 @@
         <v>141</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20417,7 +20426,7 @@
         <v>1.14</v>
       </c>
       <c r="AP94">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ94">
         <v>1.15</v>
@@ -20751,7 +20760,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>5.5</v>
@@ -21035,10 +21044,10 @@
         <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ97">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR97">
         <v>1.41</v>
@@ -21369,7 +21378,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21575,7 +21584,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21781,7 +21790,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21862,7 +21871,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ101">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -22399,7 +22408,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22683,7 +22692,7 @@
         <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ105">
         <v>1.23</v>
@@ -22811,7 +22820,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22889,10 +22898,10 @@
         <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ106">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR106">
         <v>1.48</v>
@@ -23017,7 +23026,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>2.4</v>
@@ -23098,7 +23107,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ107">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR107">
         <v>1.26</v>
@@ -23223,7 +23232,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>3.75</v>
@@ -23301,7 +23310,7 @@
         <v>1.75</v>
       </c>
       <c r="AP108">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ108">
         <v>1.64</v>
@@ -23429,7 +23438,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23635,7 +23644,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -23713,10 +23722,10 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ110">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR110">
         <v>1.29</v>
@@ -23919,7 +23928,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ111">
         <v>0.85</v>
@@ -24253,7 +24262,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>4.33</v>
@@ -24952,7 +24961,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ116">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR116">
         <v>1.6</v>
@@ -25283,7 +25292,7 @@
         <v>120</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q118">
         <v>3.16</v>
@@ -25361,7 +25370,7 @@
         <v>1.33</v>
       </c>
       <c r="AP118">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ118">
         <v>1.23</v>
@@ -25489,7 +25498,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q119">
         <v>5.5</v>
@@ -25776,7 +25785,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ120">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR120">
         <v>1.3</v>
@@ -26519,7 +26528,7 @@
         <v>103</v>
       </c>
       <c r="P124" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q124">
         <v>1.57</v>
@@ -26600,7 +26609,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ124">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR124">
         <v>1.75</v>
@@ -26725,7 +26734,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27009,7 +27018,7 @@
         <v>1.3</v>
       </c>
       <c r="AP126">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ126">
         <v>1.15</v>
@@ -27549,7 +27558,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q129">
         <v>3.9</v>
@@ -27755,7 +27764,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q130">
         <v>3.7</v>
@@ -28042,7 +28051,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ131">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR131">
         <v>0.98</v>
@@ -28245,7 +28254,7 @@
         <v>0.6</v>
       </c>
       <c r="AP132">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ132">
         <v>0.85</v>
@@ -28451,10 +28460,10 @@
         <v>0.7</v>
       </c>
       <c r="AP133">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ133">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR133">
         <v>1.4</v>
@@ -28866,7 +28875,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ135">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR135">
         <v>1.23</v>
@@ -29069,7 +29078,7 @@
         <v>1.18</v>
       </c>
       <c r="AP136">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ136">
         <v>1.31</v>
@@ -29403,7 +29412,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q138">
         <v>4.5</v>
@@ -29609,7 +29618,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29893,10 +29902,10 @@
         <v>0.64</v>
       </c>
       <c r="AP140">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ140">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR140">
         <v>1.4</v>
@@ -30021,7 +30030,7 @@
         <v>169</v>
       </c>
       <c r="P141" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30102,7 +30111,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ141">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR141">
         <v>1.03</v>
@@ -30305,7 +30314,7 @@
         <v>0.64</v>
       </c>
       <c r="AP142">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ142">
         <v>0.85</v>
@@ -30639,7 +30648,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30845,7 +30854,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31129,10 +31138,10 @@
         <v>0.83</v>
       </c>
       <c r="AP146">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ146">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR146">
         <v>1.44</v>
@@ -31335,10 +31344,10 @@
         <v>0.67</v>
       </c>
       <c r="AP147">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ147">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR147">
         <v>1.34</v>
@@ -31875,7 +31884,7 @@
         <v>172</v>
       </c>
       <c r="P150" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32081,7 +32090,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32287,7 +32296,7 @@
         <v>174</v>
       </c>
       <c r="P152" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q152">
         <v>4.75</v>
@@ -32493,7 +32502,7 @@
         <v>86</v>
       </c>
       <c r="P153" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -32777,7 +32786,7 @@
         <v>1.17</v>
       </c>
       <c r="AP154">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ154">
         <v>1.31</v>
@@ -32905,7 +32914,7 @@
         <v>175</v>
       </c>
       <c r="P155" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -32986,7 +32995,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ155">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR155">
         <v>1.29</v>
@@ -33111,7 +33120,7 @@
         <v>161</v>
       </c>
       <c r="P156" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33317,7 +33326,7 @@
         <v>176</v>
       </c>
       <c r="P157" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q157">
         <v>2.1</v>
@@ -33680,6 +33689,624 @@
       </c>
       <c r="BP158">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7383386</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45402.5</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>71</v>
+      </c>
+      <c r="H159" t="s">
+        <v>80</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>114</v>
+      </c>
+      <c r="P159" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q159">
+        <v>2.1</v>
+      </c>
+      <c r="R159">
+        <v>2.15</v>
+      </c>
+      <c r="S159">
+        <v>5.5</v>
+      </c>
+      <c r="T159">
+        <v>1.42</v>
+      </c>
+      <c r="U159">
+        <v>2.65</v>
+      </c>
+      <c r="V159">
+        <v>2.95</v>
+      </c>
+      <c r="W159">
+        <v>1.35</v>
+      </c>
+      <c r="X159">
+        <v>7</v>
+      </c>
+      <c r="Y159">
+        <v>1.07</v>
+      </c>
+      <c r="Z159">
+        <v>1.52</v>
+      </c>
+      <c r="AA159">
+        <v>4.1</v>
+      </c>
+      <c r="AB159">
+        <v>6</v>
+      </c>
+      <c r="AC159">
+        <v>1.05</v>
+      </c>
+      <c r="AD159">
+        <v>9</v>
+      </c>
+      <c r="AE159">
+        <v>1.33</v>
+      </c>
+      <c r="AF159">
+        <v>3.2</v>
+      </c>
+      <c r="AG159">
+        <v>1.93</v>
+      </c>
+      <c r="AH159">
+        <v>1.84</v>
+      </c>
+      <c r="AI159">
+        <v>2.05</v>
+      </c>
+      <c r="AJ159">
+        <v>1.67</v>
+      </c>
+      <c r="AK159">
+        <v>1.13</v>
+      </c>
+      <c r="AL159">
+        <v>1.2</v>
+      </c>
+      <c r="AM159">
+        <v>2.35</v>
+      </c>
+      <c r="AN159">
+        <v>1.38</v>
+      </c>
+      <c r="AO159">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP159">
+        <v>1.36</v>
+      </c>
+      <c r="AQ159">
+        <v>0.71</v>
+      </c>
+      <c r="AR159">
+        <v>1.23</v>
+      </c>
+      <c r="AS159">
+        <v>0.72</v>
+      </c>
+      <c r="AT159">
+        <v>1.95</v>
+      </c>
+      <c r="AU159">
+        <v>5</v>
+      </c>
+      <c r="AV159">
+        <v>3</v>
+      </c>
+      <c r="AW159">
+        <v>6</v>
+      </c>
+      <c r="AX159">
+        <v>6</v>
+      </c>
+      <c r="AY159">
+        <v>11</v>
+      </c>
+      <c r="AZ159">
+        <v>9</v>
+      </c>
+      <c r="BA159">
+        <v>3</v>
+      </c>
+      <c r="BB159">
+        <v>2</v>
+      </c>
+      <c r="BC159">
+        <v>5</v>
+      </c>
+      <c r="BD159">
+        <v>1.31</v>
+      </c>
+      <c r="BE159">
+        <v>9.5</v>
+      </c>
+      <c r="BF159">
+        <v>4.13</v>
+      </c>
+      <c r="BG159">
+        <v>1.19</v>
+      </c>
+      <c r="BH159">
+        <v>3.98</v>
+      </c>
+      <c r="BI159">
+        <v>1.45</v>
+      </c>
+      <c r="BJ159">
+        <v>2.55</v>
+      </c>
+      <c r="BK159">
+        <v>1.74</v>
+      </c>
+      <c r="BL159">
+        <v>2</v>
+      </c>
+      <c r="BM159">
+        <v>2.1</v>
+      </c>
+      <c r="BN159">
+        <v>1.65</v>
+      </c>
+      <c r="BO159">
+        <v>2.75</v>
+      </c>
+      <c r="BP159">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7383387</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45402.5</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>75</v>
+      </c>
+      <c r="H160" t="s">
+        <v>73</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>3</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>177</v>
+      </c>
+      <c r="P160" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q160">
+        <v>2.32</v>
+      </c>
+      <c r="R160">
+        <v>2.32</v>
+      </c>
+      <c r="S160">
+        <v>5.45</v>
+      </c>
+      <c r="T160">
+        <v>1.4</v>
+      </c>
+      <c r="U160">
+        <v>3.05</v>
+      </c>
+      <c r="V160">
+        <v>2.96</v>
+      </c>
+      <c r="W160">
+        <v>1.42</v>
+      </c>
+      <c r="X160">
+        <v>7</v>
+      </c>
+      <c r="Y160">
+        <v>1.08</v>
+      </c>
+      <c r="Z160">
+        <v>1.7</v>
+      </c>
+      <c r="AA160">
+        <v>3.75</v>
+      </c>
+      <c r="AB160">
+        <v>4.6</v>
+      </c>
+      <c r="AC160">
+        <v>1.02</v>
+      </c>
+      <c r="AD160">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE160">
+        <v>1.32</v>
+      </c>
+      <c r="AF160">
+        <v>3.53</v>
+      </c>
+      <c r="AG160">
+        <v>1.84</v>
+      </c>
+      <c r="AH160">
+        <v>1.94</v>
+      </c>
+      <c r="AI160">
+        <v>1.86</v>
+      </c>
+      <c r="AJ160">
+        <v>1.9</v>
+      </c>
+      <c r="AK160">
+        <v>1.19</v>
+      </c>
+      <c r="AL160">
+        <v>1.27</v>
+      </c>
+      <c r="AM160">
+        <v>2.12</v>
+      </c>
+      <c r="AN160">
+        <v>1.69</v>
+      </c>
+      <c r="AO160">
+        <v>0.85</v>
+      </c>
+      <c r="AP160">
+        <v>1.79</v>
+      </c>
+      <c r="AQ160">
+        <v>0.79</v>
+      </c>
+      <c r="AR160">
+        <v>1.36</v>
+      </c>
+      <c r="AS160">
+        <v>1.1</v>
+      </c>
+      <c r="AT160">
+        <v>2.46</v>
+      </c>
+      <c r="AU160">
+        <v>5</v>
+      </c>
+      <c r="AV160">
+        <v>2</v>
+      </c>
+      <c r="AW160">
+        <v>5</v>
+      </c>
+      <c r="AX160">
+        <v>9</v>
+      </c>
+      <c r="AY160">
+        <v>10</v>
+      </c>
+      <c r="AZ160">
+        <v>11</v>
+      </c>
+      <c r="BA160">
+        <v>7</v>
+      </c>
+      <c r="BB160">
+        <v>4</v>
+      </c>
+      <c r="BC160">
+        <v>11</v>
+      </c>
+      <c r="BD160">
+        <v>1.51</v>
+      </c>
+      <c r="BE160">
+        <v>8.5</v>
+      </c>
+      <c r="BF160">
+        <v>3.07</v>
+      </c>
+      <c r="BG160">
+        <v>1.19</v>
+      </c>
+      <c r="BH160">
+        <v>3.95</v>
+      </c>
+      <c r="BI160">
+        <v>1.5</v>
+      </c>
+      <c r="BJ160">
+        <v>2.4</v>
+      </c>
+      <c r="BK160">
+        <v>1.8</v>
+      </c>
+      <c r="BL160">
+        <v>2</v>
+      </c>
+      <c r="BM160">
+        <v>2.1</v>
+      </c>
+      <c r="BN160">
+        <v>1.65</v>
+      </c>
+      <c r="BO160">
+        <v>2.78</v>
+      </c>
+      <c r="BP160">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7383388</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45402.5</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
+      </c>
+      <c r="G161" t="s">
+        <v>74</v>
+      </c>
+      <c r="H161" t="s">
+        <v>78</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161" t="s">
+        <v>178</v>
+      </c>
+      <c r="P161" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q161">
+        <v>2.75</v>
+      </c>
+      <c r="R161">
+        <v>1.93</v>
+      </c>
+      <c r="S161">
+        <v>4.2</v>
+      </c>
+      <c r="T161">
+        <v>1.53</v>
+      </c>
+      <c r="U161">
+        <v>2.35</v>
+      </c>
+      <c r="V161">
+        <v>3.5</v>
+      </c>
+      <c r="W161">
+        <v>1.25</v>
+      </c>
+      <c r="X161">
+        <v>9</v>
+      </c>
+      <c r="Y161">
+        <v>1.03</v>
+      </c>
+      <c r="Z161">
+        <v>2.08</v>
+      </c>
+      <c r="AA161">
+        <v>3.15</v>
+      </c>
+      <c r="AB161">
+        <v>3.65</v>
+      </c>
+      <c r="AC161">
+        <v>1.09</v>
+      </c>
+      <c r="AD161">
+        <v>7</v>
+      </c>
+      <c r="AE161">
+        <v>1.48</v>
+      </c>
+      <c r="AF161">
+        <v>2.65</v>
+      </c>
+      <c r="AG161">
+        <v>2.43</v>
+      </c>
+      <c r="AH161">
+        <v>1.52</v>
+      </c>
+      <c r="AI161">
+        <v>2.05</v>
+      </c>
+      <c r="AJ161">
+        <v>1.67</v>
+      </c>
+      <c r="AK161">
+        <v>1.25</v>
+      </c>
+      <c r="AL161">
+        <v>1.28</v>
+      </c>
+      <c r="AM161">
+        <v>1.73</v>
+      </c>
+      <c r="AN161">
+        <v>1.08</v>
+      </c>
+      <c r="AO161">
+        <v>0.62</v>
+      </c>
+      <c r="AP161">
+        <v>1.07</v>
+      </c>
+      <c r="AQ161">
+        <v>0.64</v>
+      </c>
+      <c r="AR161">
+        <v>1.41</v>
+      </c>
+      <c r="AS161">
+        <v>1.06</v>
+      </c>
+      <c r="AT161">
+        <v>2.47</v>
+      </c>
+      <c r="AU161">
+        <v>4</v>
+      </c>
+      <c r="AV161">
+        <v>5</v>
+      </c>
+      <c r="AW161">
+        <v>4</v>
+      </c>
+      <c r="AX161">
+        <v>5</v>
+      </c>
+      <c r="AY161">
+        <v>8</v>
+      </c>
+      <c r="AZ161">
+        <v>10</v>
+      </c>
+      <c r="BA161">
+        <v>2</v>
+      </c>
+      <c r="BB161">
+        <v>5</v>
+      </c>
+      <c r="BC161">
+        <v>7</v>
+      </c>
+      <c r="BD161">
+        <v>1.55</v>
+      </c>
+      <c r="BE161">
+        <v>8.5</v>
+      </c>
+      <c r="BF161">
+        <v>3.01</v>
+      </c>
+      <c r="BG161">
+        <v>1.24</v>
+      </c>
+      <c r="BH161">
+        <v>3.48</v>
+      </c>
+      <c r="BI161">
+        <v>1.55</v>
+      </c>
+      <c r="BJ161">
+        <v>2.3</v>
+      </c>
+      <c r="BK161">
+        <v>1.85</v>
+      </c>
+      <c r="BL161">
+        <v>1.95</v>
+      </c>
+      <c r="BM161">
+        <v>2.3</v>
+      </c>
+      <c r="BN161">
+        <v>1.55</v>
+      </c>
+      <c r="BO161">
+        <v>3.14</v>
+      </c>
+      <c r="BP161">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,12 @@
     <t>['41', '51']</t>
   </si>
   <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['5', '34', '35', '44']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -776,6 +782,12 @@
   </si>
   <si>
     <t>['45', '60']</t>
+  </si>
+  <si>
+    <t>['22', '44', '75']</t>
+  </si>
+  <si>
+    <t>['31', '52']</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1396,7 +1408,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1474,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ2">
         <v>1.64</v>
@@ -1602,7 +1614,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1808,7 +1820,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2014,7 +2026,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2095,7 +2107,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ5">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2220,7 +2232,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2426,7 +2438,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -3044,7 +3056,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3125,7 +3137,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ10">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3328,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ11">
         <v>0.79</v>
@@ -3456,7 +3468,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -3662,7 +3674,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3949,7 +3961,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ14">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR14">
         <v>1.73</v>
@@ -4074,7 +4086,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4358,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ16">
         <v>0.64</v>
@@ -4564,7 +4576,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ17">
         <v>1.31</v>
@@ -4692,7 +4704,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4773,7 +4785,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ18">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR18">
         <v>2.76</v>
@@ -5310,7 +5322,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5516,7 +5528,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5722,7 +5734,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -5928,7 +5940,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>4.33</v>
@@ -6340,7 +6352,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q26">
         <v>1.68</v>
@@ -6546,7 +6558,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6752,7 +6764,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7036,7 +7048,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ29">
         <v>1.31</v>
@@ -7164,7 +7176,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7370,7 +7382,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7451,7 +7463,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ31">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7576,7 +7588,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7657,7 +7669,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ32">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -7782,7 +7794,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -7988,7 +8000,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8194,7 +8206,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8275,7 +8287,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ35">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR35">
         <v>1.35</v>
@@ -8478,7 +8490,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ36">
         <v>1.64</v>
@@ -8684,7 +8696,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ37">
         <v>0.71</v>
@@ -8812,7 +8824,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9018,7 +9030,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9224,7 +9236,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9430,7 +9442,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9636,7 +9648,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9842,7 +9854,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -10048,7 +10060,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q44">
         <v>3.25</v>
@@ -10254,7 +10266,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -10332,7 +10344,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ45">
         <v>0.64</v>
@@ -10950,10 +10962,10 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ48">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR48">
         <v>1.43</v>
@@ -11078,7 +11090,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11284,7 +11296,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11571,7 +11583,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ51">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR51">
         <v>0.99</v>
@@ -11696,7 +11708,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q52">
         <v>9.5</v>
@@ -12520,7 +12532,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -13138,7 +13150,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13422,7 +13434,7 @@
         <v>1.2</v>
       </c>
       <c r="AP60">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ60">
         <v>0.85</v>
@@ -13550,7 +13562,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13756,7 +13768,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13834,7 +13846,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ62">
         <v>1.15</v>
@@ -13962,7 +13974,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14043,7 +14055,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ63">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR63">
         <v>1.37</v>
@@ -14580,7 +14592,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14786,7 +14798,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14867,7 +14879,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ67">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR67">
         <v>1.88</v>
@@ -15482,7 +15494,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ70">
         <v>0.85</v>
@@ -15610,7 +15622,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -15691,7 +15703,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ71">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR71">
         <v>1.01</v>
@@ -16022,7 +16034,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16309,7 +16321,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ74">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR74">
         <v>1.26</v>
@@ -16640,7 +16652,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>7.5</v>
@@ -16846,7 +16858,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>4.33</v>
@@ -17052,7 +17064,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17336,7 +17348,7 @@
         <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ79">
         <v>2.15</v>
@@ -17464,7 +17476,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>3.5</v>
@@ -17876,7 +17888,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -18288,7 +18300,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18700,7 +18712,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18778,10 +18790,10 @@
         <v>1.83</v>
       </c>
       <c r="AP86">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ86">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR86">
         <v>1.63</v>
@@ -18984,7 +18996,7 @@
         <v>0.57</v>
       </c>
       <c r="AP87">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ87">
         <v>0.79</v>
@@ -19524,7 +19536,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19605,7 +19617,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ90">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR90">
         <v>1.41</v>
@@ -19936,7 +19948,7 @@
         <v>141</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20220,7 +20232,7 @@
         <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ93">
         <v>1.15</v>
@@ -20635,7 +20647,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ95">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR95">
         <v>1.21</v>
@@ -20760,7 +20772,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q96">
         <v>5.5</v>
@@ -21378,7 +21390,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21584,7 +21596,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21790,7 +21802,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22408,7 +22420,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22486,7 +22498,7 @@
         <v>2.13</v>
       </c>
       <c r="AP104">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ104">
         <v>2.15</v>
@@ -22695,7 +22707,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ105">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -22820,7 +22832,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23026,7 +23038,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>2.4</v>
@@ -23232,7 +23244,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q108">
         <v>3.75</v>
@@ -23438,7 +23450,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23516,10 +23528,10 @@
         <v>1.88</v>
       </c>
       <c r="AP109">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ109">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR109">
         <v>1.48</v>
@@ -23644,7 +23656,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -24262,7 +24274,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q113">
         <v>4.33</v>
@@ -24343,7 +24355,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ113">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR113">
         <v>0.96</v>
@@ -24958,7 +24970,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ116">
         <v>0.71</v>
@@ -25164,7 +25176,7 @@
         <v>1.11</v>
       </c>
       <c r="AP117">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ117">
         <v>1.15</v>
@@ -25292,7 +25304,7 @@
         <v>120</v>
       </c>
       <c r="P118" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q118">
         <v>3.16</v>
@@ -25373,7 +25385,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ118">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR118">
         <v>1.55</v>
@@ -25498,7 +25510,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q119">
         <v>5.5</v>
@@ -26194,10 +26206,10 @@
         <v>1.9</v>
       </c>
       <c r="AP122">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ122">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR122">
         <v>1.69</v>
@@ -26528,7 +26540,7 @@
         <v>103</v>
       </c>
       <c r="P124" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q124">
         <v>1.57</v>
@@ -26734,7 +26746,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27227,7 +27239,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ127">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR127">
         <v>1.29</v>
@@ -27430,7 +27442,7 @@
         <v>2.2</v>
       </c>
       <c r="AP128">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ128">
         <v>2.15</v>
@@ -27558,7 +27570,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q129">
         <v>3.9</v>
@@ -27764,7 +27776,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q130">
         <v>3.7</v>
@@ -29412,7 +29424,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q138">
         <v>4.5</v>
@@ -29618,7 +29630,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29696,10 +29708,10 @@
         <v>1.36</v>
       </c>
       <c r="AP139">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ139">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR139">
         <v>1.7</v>
@@ -30030,7 +30042,7 @@
         <v>169</v>
       </c>
       <c r="P141" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30520,10 +30532,10 @@
         <v>1.73</v>
       </c>
       <c r="AP143">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ143">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR143">
         <v>1.51</v>
@@ -30648,7 +30660,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30854,7 +30866,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31884,7 +31896,7 @@
         <v>172</v>
       </c>
       <c r="P150" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -31965,7 +31977,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ150">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR150">
         <v>1.25</v>
@@ -32090,7 +32102,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32168,7 +32180,7 @@
         <v>1.83</v>
       </c>
       <c r="AP151">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ151">
         <v>1.64</v>
@@ -32296,7 +32308,7 @@
         <v>174</v>
       </c>
       <c r="P152" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q152">
         <v>4.75</v>
@@ -32374,7 +32386,7 @@
         <v>2.33</v>
       </c>
       <c r="AP152">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ152">
         <v>2.15</v>
@@ -32502,7 +32514,7 @@
         <v>86</v>
       </c>
       <c r="P153" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -32914,7 +32926,7 @@
         <v>175</v>
       </c>
       <c r="P155" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33120,7 +33132,7 @@
         <v>161</v>
       </c>
       <c r="P156" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33326,7 +33338,7 @@
         <v>176</v>
       </c>
       <c r="P157" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q157">
         <v>2.1</v>
@@ -33407,7 +33419,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ157">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR157">
         <v>1.68</v>
@@ -34150,7 +34162,7 @@
         <v>178</v>
       </c>
       <c r="P161" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34307,6 +34319,418 @@
       </c>
       <c r="BP161">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7383389</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45403.39583333334</v>
+      </c>
+      <c r="F162">
+        <v>5</v>
+      </c>
+      <c r="G162" t="s">
+        <v>70</v>
+      </c>
+      <c r="H162" t="s">
+        <v>72</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>2</v>
+      </c>
+      <c r="K162">
+        <v>2</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>3</v>
+      </c>
+      <c r="N162">
+        <v>4</v>
+      </c>
+      <c r="O162" t="s">
+        <v>179</v>
+      </c>
+      <c r="P162" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q162">
+        <v>2.5</v>
+      </c>
+      <c r="R162">
+        <v>2.2</v>
+      </c>
+      <c r="S162">
+        <v>4.5</v>
+      </c>
+      <c r="T162">
+        <v>1.36</v>
+      </c>
+      <c r="U162">
+        <v>3</v>
+      </c>
+      <c r="V162">
+        <v>2.75</v>
+      </c>
+      <c r="W162">
+        <v>1.4</v>
+      </c>
+      <c r="X162">
+        <v>7</v>
+      </c>
+      <c r="Y162">
+        <v>1.1</v>
+      </c>
+      <c r="Z162">
+        <v>1.85</v>
+      </c>
+      <c r="AA162">
+        <v>3.6</v>
+      </c>
+      <c r="AB162">
+        <v>3.9</v>
+      </c>
+      <c r="AC162">
+        <v>1.01</v>
+      </c>
+      <c r="AD162">
+        <v>9.4</v>
+      </c>
+      <c r="AE162">
+        <v>1.26</v>
+      </c>
+      <c r="AF162">
+        <v>3.34</v>
+      </c>
+      <c r="AG162">
+        <v>1.8</v>
+      </c>
+      <c r="AH162">
+        <v>1.91</v>
+      </c>
+      <c r="AI162">
+        <v>1.75</v>
+      </c>
+      <c r="AJ162">
+        <v>2</v>
+      </c>
+      <c r="AK162">
+        <v>1.23</v>
+      </c>
+      <c r="AL162">
+        <v>1.28</v>
+      </c>
+      <c r="AM162">
+        <v>1.96</v>
+      </c>
+      <c r="AN162">
+        <v>2.08</v>
+      </c>
+      <c r="AO162">
+        <v>1.23</v>
+      </c>
+      <c r="AP162">
+        <v>1.93</v>
+      </c>
+      <c r="AQ162">
+        <v>1.36</v>
+      </c>
+      <c r="AR162">
+        <v>1.48</v>
+      </c>
+      <c r="AS162">
+        <v>1.31</v>
+      </c>
+      <c r="AT162">
+        <v>2.79</v>
+      </c>
+      <c r="AU162">
+        <v>4</v>
+      </c>
+      <c r="AV162">
+        <v>4</v>
+      </c>
+      <c r="AW162">
+        <v>4</v>
+      </c>
+      <c r="AX162">
+        <v>4</v>
+      </c>
+      <c r="AY162">
+        <v>8</v>
+      </c>
+      <c r="AZ162">
+        <v>8</v>
+      </c>
+      <c r="BA162">
+        <v>9</v>
+      </c>
+      <c r="BB162">
+        <v>2</v>
+      </c>
+      <c r="BC162">
+        <v>11</v>
+      </c>
+      <c r="BD162">
+        <v>1.69</v>
+      </c>
+      <c r="BE162">
+        <v>8</v>
+      </c>
+      <c r="BF162">
+        <v>2.54</v>
+      </c>
+      <c r="BG162">
+        <v>1.21</v>
+      </c>
+      <c r="BH162">
+        <v>3.74</v>
+      </c>
+      <c r="BI162">
+        <v>1.42</v>
+      </c>
+      <c r="BJ162">
+        <v>2.65</v>
+      </c>
+      <c r="BK162">
+        <v>1.74</v>
+      </c>
+      <c r="BL162">
+        <v>2</v>
+      </c>
+      <c r="BM162">
+        <v>2.2</v>
+      </c>
+      <c r="BN162">
+        <v>1.64</v>
+      </c>
+      <c r="BO162">
+        <v>2.88</v>
+      </c>
+      <c r="BP162">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7383390</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F163">
+        <v>5</v>
+      </c>
+      <c r="G163" t="s">
+        <v>79</v>
+      </c>
+      <c r="H163" t="s">
+        <v>81</v>
+      </c>
+      <c r="I163">
+        <v>4</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>5</v>
+      </c>
+      <c r="L163">
+        <v>4</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>6</v>
+      </c>
+      <c r="O163" t="s">
+        <v>180</v>
+      </c>
+      <c r="P163" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q163">
+        <v>1.73</v>
+      </c>
+      <c r="R163">
+        <v>2.6</v>
+      </c>
+      <c r="S163">
+        <v>8.5</v>
+      </c>
+      <c r="T163">
+        <v>1.3</v>
+      </c>
+      <c r="U163">
+        <v>3.4</v>
+      </c>
+      <c r="V163">
+        <v>2.38</v>
+      </c>
+      <c r="W163">
+        <v>1.53</v>
+      </c>
+      <c r="X163">
+        <v>6</v>
+      </c>
+      <c r="Y163">
+        <v>1.13</v>
+      </c>
+      <c r="Z163">
+        <v>1.25</v>
+      </c>
+      <c r="AA163">
+        <v>5.75</v>
+      </c>
+      <c r="AB163">
+        <v>10</v>
+      </c>
+      <c r="AC163">
+        <v>1.03</v>
+      </c>
+      <c r="AD163">
+        <v>13.9</v>
+      </c>
+      <c r="AE163">
+        <v>1.21</v>
+      </c>
+      <c r="AF163">
+        <v>4.6</v>
+      </c>
+      <c r="AG163">
+        <v>1.63</v>
+      </c>
+      <c r="AH163">
+        <v>2.12</v>
+      </c>
+      <c r="AI163">
+        <v>2.1</v>
+      </c>
+      <c r="AJ163">
+        <v>1.67</v>
+      </c>
+      <c r="AK163">
+        <v>1.04</v>
+      </c>
+      <c r="AL163">
+        <v>1.14</v>
+      </c>
+      <c r="AM163">
+        <v>3.75</v>
+      </c>
+      <c r="AN163">
+        <v>2.23</v>
+      </c>
+      <c r="AO163">
+        <v>1.54</v>
+      </c>
+      <c r="AP163">
+        <v>2.29</v>
+      </c>
+      <c r="AQ163">
+        <v>1.43</v>
+      </c>
+      <c r="AR163">
+        <v>1.78</v>
+      </c>
+      <c r="AS163">
+        <v>1.09</v>
+      </c>
+      <c r="AT163">
+        <v>2.87</v>
+      </c>
+      <c r="AU163">
+        <v>13</v>
+      </c>
+      <c r="AV163">
+        <v>6</v>
+      </c>
+      <c r="AW163">
+        <v>5</v>
+      </c>
+      <c r="AX163">
+        <v>5</v>
+      </c>
+      <c r="AY163">
+        <v>18</v>
+      </c>
+      <c r="AZ163">
+        <v>11</v>
+      </c>
+      <c r="BA163">
+        <v>7</v>
+      </c>
+      <c r="BB163">
+        <v>2</v>
+      </c>
+      <c r="BC163">
+        <v>9</v>
+      </c>
+      <c r="BD163">
+        <v>1.3</v>
+      </c>
+      <c r="BE163">
+        <v>9.5</v>
+      </c>
+      <c r="BF163">
+        <v>4.44</v>
+      </c>
+      <c r="BG163">
+        <v>1.3</v>
+      </c>
+      <c r="BH163">
+        <v>3.08</v>
+      </c>
+      <c r="BI163">
+        <v>1.6</v>
+      </c>
+      <c r="BJ163">
+        <v>2.28</v>
+      </c>
+      <c r="BK163">
+        <v>1.92</v>
+      </c>
+      <c r="BL163">
+        <v>1.88</v>
+      </c>
+      <c r="BM163">
+        <v>2.61</v>
+      </c>
+      <c r="BN163">
+        <v>1.47</v>
+      </c>
+      <c r="BO163">
+        <v>3.48</v>
+      </c>
+      <c r="BP163">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,9 @@
     <t>['5', '34', '35', '44']</t>
   </si>
   <si>
+    <t>['62', '88']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -788,6 +791,12 @@
   </si>
   <si>
     <t>['31', '52']</t>
+  </si>
+  <si>
+    <t>['50', '87']</t>
+  </si>
+  <si>
+    <t>['2']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1417,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1614,7 +1623,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1820,7 +1829,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2026,7 +2035,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2104,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1.43</v>
@@ -2232,7 +2241,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2438,7 +2447,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -2725,7 +2734,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ8">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3056,7 +3065,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3134,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ10">
         <v>1.36</v>
@@ -3468,7 +3477,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -3546,10 +3555,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ12">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3674,7 +3683,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3755,7 +3764,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ13">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4086,7 +4095,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4579,7 +4588,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ17">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR17">
         <v>2.14</v>
@@ -4704,7 +4713,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -5194,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>1.15</v>
@@ -5322,7 +5331,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5400,7 +5409,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ21">
         <v>2.15</v>
@@ -5528,7 +5537,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5609,7 +5618,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ22">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR22">
         <v>1.78</v>
@@ -5734,7 +5743,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -5940,7 +5949,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>4.33</v>
@@ -6018,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ24">
         <v>1.64</v>
@@ -6227,7 +6236,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ25">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR25">
         <v>0.86</v>
@@ -6352,7 +6361,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q26">
         <v>1.68</v>
@@ -6558,7 +6567,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6764,7 +6773,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6842,10 +6851,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ28">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR28">
         <v>0.99</v>
@@ -7051,7 +7060,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ29">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR29">
         <v>1.36</v>
@@ -7176,7 +7185,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7382,7 +7391,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7588,7 +7597,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7794,7 +7803,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -7872,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>0.64</v>
@@ -8000,7 +8009,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8206,7 +8215,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8824,7 +8833,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9030,7 +9039,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9108,10 +9117,10 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ39">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR39">
         <v>1.06</v>
@@ -9236,7 +9245,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9442,7 +9451,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9520,7 +9529,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ41">
         <v>0.79</v>
@@ -9648,7 +9657,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9729,7 +9738,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ42">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR42">
         <v>1.12</v>
@@ -9854,7 +9863,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -9935,7 +9944,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ43">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR43">
         <v>2.21</v>
@@ -10060,7 +10069,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q44">
         <v>3.25</v>
@@ -10138,10 +10147,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR44">
         <v>1.29</v>
@@ -10266,7 +10275,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -10759,7 +10768,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ47">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR47">
         <v>1.46</v>
@@ -11090,7 +11099,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11296,7 +11305,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11580,7 +11589,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ51">
         <v>1.43</v>
@@ -11708,7 +11717,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q52">
         <v>9.5</v>
@@ -11786,7 +11795,7 @@
         <v>2.5</v>
       </c>
       <c r="AP52">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ52">
         <v>2.15</v>
@@ -12201,7 +12210,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ54">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR54">
         <v>1.23</v>
@@ -12532,7 +12541,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12610,7 +12619,7 @@
         <v>1.25</v>
       </c>
       <c r="AP56">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ56">
         <v>1.64</v>
@@ -13150,7 +13159,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13437,7 +13446,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ60">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR60">
         <v>1.37</v>
@@ -13562,7 +13571,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13768,7 +13777,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13974,7 +13983,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14258,7 +14267,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ64">
         <v>0.71</v>
@@ -14467,7 +14476,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ65">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR65">
         <v>1.3</v>
@@ -14592,7 +14601,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14670,10 +14679,10 @@
         <v>0.6</v>
       </c>
       <c r="AP66">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -14798,7 +14807,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15288,10 +15297,10 @@
         <v>1.4</v>
       </c>
       <c r="AP69">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ69">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR69">
         <v>1.17</v>
@@ -15497,7 +15506,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ70">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR70">
         <v>1.71</v>
@@ -15622,7 +15631,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -15700,7 +15709,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ71">
         <v>1.36</v>
@@ -15909,7 +15918,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ72">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR72">
         <v>1.45</v>
@@ -16034,7 +16043,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16652,7 +16661,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>7.5</v>
@@ -16730,7 +16739,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
         <v>2.15</v>
@@ -16858,7 +16867,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q77">
         <v>4.33</v>
@@ -17064,7 +17073,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17476,7 +17485,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q80">
         <v>3.5</v>
@@ -17554,10 +17563,10 @@
         <v>0.86</v>
       </c>
       <c r="AP80">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -17888,7 +17897,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -17966,10 +17975,10 @@
         <v>1.17</v>
       </c>
       <c r="AP82">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ82">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR82">
         <v>0.95</v>
@@ -18172,7 +18181,7 @@
         <v>1.33</v>
       </c>
       <c r="AP83">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ83">
         <v>1.15</v>
@@ -18300,7 +18309,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18712,7 +18721,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19411,7 +19420,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ89">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR89">
         <v>1.34</v>
@@ -19536,7 +19545,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19948,7 +19957,7 @@
         <v>141</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20026,7 +20035,7 @@
         <v>2.29</v>
       </c>
       <c r="AP92">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ92">
         <v>2.15</v>
@@ -20235,7 +20244,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ93">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR93">
         <v>1.59</v>
@@ -20772,7 +20781,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>5.5</v>
@@ -20850,7 +20859,7 @@
         <v>1.57</v>
       </c>
       <c r="AP96">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
         <v>1.64</v>
@@ -21390,7 +21399,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21471,7 +21480,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ99">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR99">
         <v>1.3</v>
@@ -21596,7 +21605,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21674,7 +21683,7 @@
         <v>1.13</v>
       </c>
       <c r="AP100">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ100">
         <v>1.15</v>
@@ -21802,7 +21811,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21880,7 +21889,7 @@
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ101">
         <v>0.79</v>
@@ -22089,7 +22098,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ102">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR102">
         <v>1.23</v>
@@ -22295,7 +22304,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ103">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR103">
         <v>1.57</v>
@@ -22420,7 +22429,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22832,7 +22841,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23038,7 +23047,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q107">
         <v>2.4</v>
@@ -23116,7 +23125,7 @@
         <v>0.38</v>
       </c>
       <c r="AP107">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
         <v>0.71</v>
@@ -23244,7 +23253,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>3.75</v>
@@ -23450,7 +23459,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23656,7 +23665,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -23943,7 +23952,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ111">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR111">
         <v>1.44</v>
@@ -24146,7 +24155,7 @@
         <v>2.33</v>
       </c>
       <c r="AP112">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ112">
         <v>2.15</v>
@@ -24274,7 +24283,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>4.33</v>
@@ -24352,7 +24361,7 @@
         <v>1.78</v>
       </c>
       <c r="AP113">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ113">
         <v>1.43</v>
@@ -25179,7 +25188,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ117">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR117">
         <v>1.56</v>
@@ -25304,7 +25313,7 @@
         <v>120</v>
       </c>
       <c r="P118" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q118">
         <v>3.16</v>
@@ -25510,7 +25519,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q119">
         <v>5.5</v>
@@ -25588,7 +25597,7 @@
         <v>2</v>
       </c>
       <c r="AP119">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
         <v>2.15</v>
@@ -26003,7 +26012,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ121">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR121">
         <v>1.79</v>
@@ -26415,7 +26424,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ123">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR123">
         <v>1.65</v>
@@ -26540,7 +26549,7 @@
         <v>103</v>
       </c>
       <c r="P124" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q124">
         <v>1.57</v>
@@ -26746,7 +26755,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -26824,10 +26833,10 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ125">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR125">
         <v>1.22</v>
@@ -27236,7 +27245,7 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ127">
         <v>1.36</v>
@@ -27570,7 +27579,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q129">
         <v>3.9</v>
@@ -27776,7 +27785,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q130">
         <v>3.7</v>
@@ -28060,7 +28069,7 @@
         <v>0.7</v>
       </c>
       <c r="AP131">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ131">
         <v>0.64</v>
@@ -28269,7 +28278,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ132">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR132">
         <v>1.31</v>
@@ -28884,7 +28893,7 @@
         <v>0.64</v>
       </c>
       <c r="AP135">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ135">
         <v>0.71</v>
@@ -29093,7 +29102,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ136">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -29296,10 +29305,10 @@
         <v>1.18</v>
       </c>
       <c r="AP137">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ137">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR137">
         <v>1.32</v>
@@ -29424,7 +29433,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q138">
         <v>4.5</v>
@@ -29630,7 +29639,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -30042,7 +30051,7 @@
         <v>169</v>
       </c>
       <c r="P141" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30120,7 +30129,7 @@
         <v>0.64</v>
       </c>
       <c r="AP141">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ141">
         <v>0.79</v>
@@ -30329,7 +30338,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ142">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR142">
         <v>1.29</v>
@@ -30660,7 +30669,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30866,7 +30875,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31562,10 +31571,10 @@
         <v>1.17</v>
       </c>
       <c r="AP148">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ148">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR148">
         <v>1.24</v>
@@ -31896,7 +31905,7 @@
         <v>172</v>
       </c>
       <c r="P150" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32102,7 +32111,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32308,7 +32317,7 @@
         <v>174</v>
       </c>
       <c r="P152" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q152">
         <v>4.75</v>
@@ -32514,7 +32523,7 @@
         <v>86</v>
       </c>
       <c r="P153" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -32592,10 +32601,10 @@
         <v>0.67</v>
       </c>
       <c r="AP153">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ153">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR153">
         <v>1.03</v>
@@ -32801,7 +32810,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ154">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR154">
         <v>1.28</v>
@@ -32926,7 +32935,7 @@
         <v>175</v>
       </c>
       <c r="P155" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33004,7 +33013,7 @@
         <v>0.67</v>
       </c>
       <c r="AP155">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ155">
         <v>0.64</v>
@@ -33132,7 +33141,7 @@
         <v>161</v>
       </c>
       <c r="P156" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33338,7 +33347,7 @@
         <v>176</v>
       </c>
       <c r="P157" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q157">
         <v>2.1</v>
@@ -34162,7 +34171,7 @@
         <v>178</v>
       </c>
       <c r="P161" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34368,7 +34377,7 @@
         <v>179</v>
       </c>
       <c r="P162" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34574,7 +34583,7 @@
         <v>180</v>
       </c>
       <c r="P163" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q163">
         <v>1.73</v>
@@ -34731,6 +34740,624 @@
       </c>
       <c r="BP163">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7383391</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45405.5625</v>
+      </c>
+      <c r="F164">
+        <v>6</v>
+      </c>
+      <c r="G164" t="s">
+        <v>80</v>
+      </c>
+      <c r="H164" t="s">
+        <v>71</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164" t="s">
+        <v>85</v>
+      </c>
+      <c r="P164" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q164">
+        <v>4.9</v>
+      </c>
+      <c r="R164">
+        <v>2.11</v>
+      </c>
+      <c r="S164">
+        <v>2.41</v>
+      </c>
+      <c r="T164">
+        <v>1.43</v>
+      </c>
+      <c r="U164">
+        <v>2.71</v>
+      </c>
+      <c r="V164">
+        <v>3</v>
+      </c>
+      <c r="W164">
+        <v>1.36</v>
+      </c>
+      <c r="X164">
+        <v>7.8</v>
+      </c>
+      <c r="Y164">
+        <v>1.06</v>
+      </c>
+      <c r="Z164">
+        <v>4.4</v>
+      </c>
+      <c r="AA164">
+        <v>3.6</v>
+      </c>
+      <c r="AB164">
+        <v>1.8</v>
+      </c>
+      <c r="AC164">
+        <v>1.03</v>
+      </c>
+      <c r="AD164">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE164">
+        <v>1.32</v>
+      </c>
+      <c r="AF164">
+        <v>2.98</v>
+      </c>
+      <c r="AG164">
+        <v>1.95</v>
+      </c>
+      <c r="AH164">
+        <v>1.7</v>
+      </c>
+      <c r="AI164">
+        <v>1.91</v>
+      </c>
+      <c r="AJ164">
+        <v>1.83</v>
+      </c>
+      <c r="AK164">
+        <v>1.97</v>
+      </c>
+      <c r="AL164">
+        <v>1.29</v>
+      </c>
+      <c r="AM164">
+        <v>1.22</v>
+      </c>
+      <c r="AN164">
+        <v>0.23</v>
+      </c>
+      <c r="AO164">
+        <v>1.15</v>
+      </c>
+      <c r="AP164">
+        <v>0.21</v>
+      </c>
+      <c r="AQ164">
+        <v>1.29</v>
+      </c>
+      <c r="AR164">
+        <v>1.02</v>
+      </c>
+      <c r="AS164">
+        <v>1.23</v>
+      </c>
+      <c r="AT164">
+        <v>2.25</v>
+      </c>
+      <c r="AU164">
+        <v>5</v>
+      </c>
+      <c r="AV164">
+        <v>6</v>
+      </c>
+      <c r="AW164">
+        <v>8</v>
+      </c>
+      <c r="AX164">
+        <v>4</v>
+      </c>
+      <c r="AY164">
+        <v>13</v>
+      </c>
+      <c r="AZ164">
+        <v>10</v>
+      </c>
+      <c r="BA164">
+        <v>7</v>
+      </c>
+      <c r="BB164">
+        <v>4</v>
+      </c>
+      <c r="BC164">
+        <v>11</v>
+      </c>
+      <c r="BD164">
+        <v>2.64</v>
+      </c>
+      <c r="BE164">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF164">
+        <v>1.65</v>
+      </c>
+      <c r="BG164">
+        <v>1.22</v>
+      </c>
+      <c r="BH164">
+        <v>3.65</v>
+      </c>
+      <c r="BI164">
+        <v>1.44</v>
+      </c>
+      <c r="BJ164">
+        <v>2.58</v>
+      </c>
+      <c r="BK164">
+        <v>1.78</v>
+      </c>
+      <c r="BL164">
+        <v>1.97</v>
+      </c>
+      <c r="BM164">
+        <v>2.25</v>
+      </c>
+      <c r="BN164">
+        <v>1.57</v>
+      </c>
+      <c r="BO164">
+        <v>2.98</v>
+      </c>
+      <c r="BP164">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7383392</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45405.5625</v>
+      </c>
+      <c r="F165">
+        <v>6</v>
+      </c>
+      <c r="G165" t="s">
+        <v>73</v>
+      </c>
+      <c r="H165" t="s">
+        <v>75</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>173</v>
+      </c>
+      <c r="P165" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q165">
+        <v>4.3</v>
+      </c>
+      <c r="R165">
+        <v>2.19</v>
+      </c>
+      <c r="S165">
+        <v>2.48</v>
+      </c>
+      <c r="T165">
+        <v>1.37</v>
+      </c>
+      <c r="U165">
+        <v>2.95</v>
+      </c>
+      <c r="V165">
+        <v>2.71</v>
+      </c>
+      <c r="W165">
+        <v>1.43</v>
+      </c>
+      <c r="X165">
+        <v>6.75</v>
+      </c>
+      <c r="Y165">
+        <v>1.09</v>
+      </c>
+      <c r="Z165">
+        <v>3.7</v>
+      </c>
+      <c r="AA165">
+        <v>3.55</v>
+      </c>
+      <c r="AB165">
+        <v>1.95</v>
+      </c>
+      <c r="AC165">
+        <v>1.01</v>
+      </c>
+      <c r="AD165">
+        <v>9.5</v>
+      </c>
+      <c r="AE165">
+        <v>1.25</v>
+      </c>
+      <c r="AF165">
+        <v>3.42</v>
+      </c>
+      <c r="AG165">
+        <v>1.8</v>
+      </c>
+      <c r="AH165">
+        <v>1.85</v>
+      </c>
+      <c r="AI165">
+        <v>1.74</v>
+      </c>
+      <c r="AJ165">
+        <v>2.02</v>
+      </c>
+      <c r="AK165">
+        <v>1.85</v>
+      </c>
+      <c r="AL165">
+        <v>1.28</v>
+      </c>
+      <c r="AM165">
+        <v>1.28</v>
+      </c>
+      <c r="AN165">
+        <v>0.85</v>
+      </c>
+      <c r="AO165">
+        <v>1.31</v>
+      </c>
+      <c r="AP165">
+        <v>1</v>
+      </c>
+      <c r="AQ165">
+        <v>1.21</v>
+      </c>
+      <c r="AR165">
+        <v>1.31</v>
+      </c>
+      <c r="AS165">
+        <v>1.38</v>
+      </c>
+      <c r="AT165">
+        <v>2.69</v>
+      </c>
+      <c r="AU165">
+        <v>5</v>
+      </c>
+      <c r="AV165">
+        <v>4</v>
+      </c>
+      <c r="AW165">
+        <v>8</v>
+      </c>
+      <c r="AX165">
+        <v>3</v>
+      </c>
+      <c r="AY165">
+        <v>13</v>
+      </c>
+      <c r="AZ165">
+        <v>7</v>
+      </c>
+      <c r="BA165">
+        <v>3</v>
+      </c>
+      <c r="BB165">
+        <v>7</v>
+      </c>
+      <c r="BC165">
+        <v>10</v>
+      </c>
+      <c r="BD165">
+        <v>2.4</v>
+      </c>
+      <c r="BE165">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF165">
+        <v>1.76</v>
+      </c>
+      <c r="BG165">
+        <v>1.2</v>
+      </c>
+      <c r="BH165">
+        <v>3.86</v>
+      </c>
+      <c r="BI165">
+        <v>1.4</v>
+      </c>
+      <c r="BJ165">
+        <v>2.72</v>
+      </c>
+      <c r="BK165">
+        <v>1.72</v>
+      </c>
+      <c r="BL165">
+        <v>2.05</v>
+      </c>
+      <c r="BM165">
+        <v>2.16</v>
+      </c>
+      <c r="BN165">
+        <v>1.62</v>
+      </c>
+      <c r="BO165">
+        <v>2.84</v>
+      </c>
+      <c r="BP165">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7383393</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45405.64583333334</v>
+      </c>
+      <c r="F166">
+        <v>6</v>
+      </c>
+      <c r="G166" t="s">
+        <v>78</v>
+      </c>
+      <c r="H166" t="s">
+        <v>74</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>181</v>
+      </c>
+      <c r="P166" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q166">
+        <v>3.56</v>
+      </c>
+      <c r="R166">
+        <v>2.04</v>
+      </c>
+      <c r="S166">
+        <v>3.74</v>
+      </c>
+      <c r="T166">
+        <v>1.56</v>
+      </c>
+      <c r="U166">
+        <v>2.43</v>
+      </c>
+      <c r="V166">
+        <v>3.55</v>
+      </c>
+      <c r="W166">
+        <v>1.27</v>
+      </c>
+      <c r="X166">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y166">
+        <v>1.03</v>
+      </c>
+      <c r="Z166">
+        <v>2.75</v>
+      </c>
+      <c r="AA166">
+        <v>3.1</v>
+      </c>
+      <c r="AB166">
+        <v>2.7</v>
+      </c>
+      <c r="AC166">
+        <v>1.06</v>
+      </c>
+      <c r="AD166">
+        <v>6.6</v>
+      </c>
+      <c r="AE166">
+        <v>1.59</v>
+      </c>
+      <c r="AF166">
+        <v>2.33</v>
+      </c>
+      <c r="AG166">
+        <v>2.3</v>
+      </c>
+      <c r="AH166">
+        <v>1.5</v>
+      </c>
+      <c r="AI166">
+        <v>2.05</v>
+      </c>
+      <c r="AJ166">
+        <v>1.72</v>
+      </c>
+      <c r="AK166">
+        <v>1.44</v>
+      </c>
+      <c r="AL166">
+        <v>1.36</v>
+      </c>
+      <c r="AM166">
+        <v>1.48</v>
+      </c>
+      <c r="AN166">
+        <v>1.08</v>
+      </c>
+      <c r="AO166">
+        <v>0.85</v>
+      </c>
+      <c r="AP166">
+        <v>1.21</v>
+      </c>
+      <c r="AQ166">
+        <v>0.79</v>
+      </c>
+      <c r="AR166">
+        <v>1.24</v>
+      </c>
+      <c r="AS166">
+        <v>1.32</v>
+      </c>
+      <c r="AT166">
+        <v>2.56</v>
+      </c>
+      <c r="AU166">
+        <v>5</v>
+      </c>
+      <c r="AV166">
+        <v>3</v>
+      </c>
+      <c r="AW166">
+        <v>1</v>
+      </c>
+      <c r="AX166">
+        <v>1</v>
+      </c>
+      <c r="AY166">
+        <v>6</v>
+      </c>
+      <c r="AZ166">
+        <v>4</v>
+      </c>
+      <c r="BA166">
+        <v>2</v>
+      </c>
+      <c r="BB166">
+        <v>1</v>
+      </c>
+      <c r="BC166">
+        <v>3</v>
+      </c>
+      <c r="BD166">
+        <v>2.07</v>
+      </c>
+      <c r="BE166">
+        <v>8.9</v>
+      </c>
+      <c r="BF166">
+        <v>2.01</v>
+      </c>
+      <c r="BG166">
+        <v>1.24</v>
+      </c>
+      <c r="BH166">
+        <v>3.48</v>
+      </c>
+      <c r="BI166">
+        <v>1.47</v>
+      </c>
+      <c r="BJ166">
+        <v>2.49</v>
+      </c>
+      <c r="BK166">
+        <v>1.84</v>
+      </c>
+      <c r="BL166">
+        <v>1.9</v>
+      </c>
+      <c r="BM166">
+        <v>2.34</v>
+      </c>
+      <c r="BN166">
+        <v>1.53</v>
+      </c>
+      <c r="BO166">
+        <v>3.14</v>
+      </c>
+      <c r="BP166">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -798,6 +798,9 @@
   <si>
     <t>['2']</t>
   </si>
+  <si>
+    <t>['44', '90+3']</t>
+  </si>
 </sst>
 </file>
 
@@ -1158,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1907,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ4">
         <v>0.71</v>
@@ -2940,7 +2943,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ9">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -5206,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR20">
         <v>1.19</v>
@@ -5821,7 +5824,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ23">
         <v>2.15</v>
@@ -7469,7 +7472,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ31">
         <v>1.43</v>
@@ -8914,7 +8917,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ38">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR38">
         <v>1.59</v>
@@ -9735,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ42">
         <v>1.21</v>
@@ -11386,7 +11389,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ50">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -12207,7 +12210,7 @@
         <v>1.25</v>
       </c>
       <c r="AP54">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ54">
         <v>0.79</v>
@@ -12825,7 +12828,7 @@
         <v>0.8</v>
       </c>
       <c r="AP57">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ57">
         <v>0.79</v>
@@ -13858,7 +13861,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ62">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -16124,7 +16127,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ73">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR73">
         <v>1.79</v>
@@ -17151,7 +17154,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ78">
         <v>0.64</v>
@@ -17769,7 +17772,7 @@
         <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ81">
         <v>1.64</v>
@@ -18184,7 +18187,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ83">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR83">
         <v>1.21</v>
@@ -20450,7 +20453,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ94">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR94">
         <v>1.47</v>
@@ -21686,7 +21689,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ100">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR100">
         <v>0.98</v>
@@ -22095,7 +22098,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ102">
         <v>1.29</v>
@@ -24567,10 +24570,10 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ114">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR114">
         <v>1.2</v>
@@ -27042,7 +27045,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ126">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR126">
         <v>1.51</v>
@@ -27657,7 +27660,7 @@
         <v>2.1</v>
       </c>
       <c r="AP129">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ129">
         <v>2.15</v>
@@ -28690,7 +28693,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ134">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR134">
         <v>1.72</v>
@@ -30747,7 +30750,7 @@
         <v>1.73</v>
       </c>
       <c r="AP144">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ144">
         <v>1.64</v>
@@ -31780,7 +31783,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ149">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR149">
         <v>1.62</v>
@@ -33219,7 +33222,7 @@
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ156">
         <v>2.15</v>
@@ -34882,22 +34885,22 @@
         <v>2.25</v>
       </c>
       <c r="AU164">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV164">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW164">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY164">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ164">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA164">
         <v>7</v>
@@ -35094,13 +35097,13 @@
         <v>4</v>
       </c>
       <c r="AW165">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX165">
         <v>3</v>
       </c>
       <c r="AY165">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ165">
         <v>7</v>
@@ -35358,6 +35361,212 @@
       </c>
       <c r="BP166">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7383395</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45406.5625</v>
+      </c>
+      <c r="F167">
+        <v>6</v>
+      </c>
+      <c r="G167" t="s">
+        <v>72</v>
+      </c>
+      <c r="H167" t="s">
+        <v>70</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>2</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>171</v>
+      </c>
+      <c r="P167" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q167">
+        <v>3.75</v>
+      </c>
+      <c r="R167">
+        <v>2.1</v>
+      </c>
+      <c r="S167">
+        <v>3</v>
+      </c>
+      <c r="T167">
+        <v>1.4</v>
+      </c>
+      <c r="U167">
+        <v>2.75</v>
+      </c>
+      <c r="V167">
+        <v>3</v>
+      </c>
+      <c r="W167">
+        <v>1.36</v>
+      </c>
+      <c r="X167">
+        <v>8</v>
+      </c>
+      <c r="Y167">
+        <v>1.08</v>
+      </c>
+      <c r="Z167">
+        <v>2.87</v>
+      </c>
+      <c r="AA167">
+        <v>3.25</v>
+      </c>
+      <c r="AB167">
+        <v>2.15</v>
+      </c>
+      <c r="AC167">
+        <v>1.02</v>
+      </c>
+      <c r="AD167">
+        <v>8.6</v>
+      </c>
+      <c r="AE167">
+        <v>1.29</v>
+      </c>
+      <c r="AF167">
+        <v>3.15</v>
+      </c>
+      <c r="AG167">
+        <v>1.91</v>
+      </c>
+      <c r="AH167">
+        <v>1.73</v>
+      </c>
+      <c r="AI167">
+        <v>1.8</v>
+      </c>
+      <c r="AJ167">
+        <v>1.95</v>
+      </c>
+      <c r="AK167">
+        <v>1.63</v>
+      </c>
+      <c r="AL167">
+        <v>1.32</v>
+      </c>
+      <c r="AM167">
+        <v>1.36</v>
+      </c>
+      <c r="AN167">
+        <v>1.46</v>
+      </c>
+      <c r="AO167">
+        <v>1.15</v>
+      </c>
+      <c r="AP167">
+        <v>1.36</v>
+      </c>
+      <c r="AQ167">
+        <v>1.29</v>
+      </c>
+      <c r="AR167">
+        <v>1.07</v>
+      </c>
+      <c r="AS167">
+        <v>1.31</v>
+      </c>
+      <c r="AT167">
+        <v>2.38</v>
+      </c>
+      <c r="AU167">
+        <v>2</v>
+      </c>
+      <c r="AV167">
+        <v>5</v>
+      </c>
+      <c r="AW167">
+        <v>2</v>
+      </c>
+      <c r="AX167">
+        <v>6</v>
+      </c>
+      <c r="AY167">
+        <v>4</v>
+      </c>
+      <c r="AZ167">
+        <v>11</v>
+      </c>
+      <c r="BA167">
+        <v>3</v>
+      </c>
+      <c r="BB167">
+        <v>5</v>
+      </c>
+      <c r="BC167">
+        <v>8</v>
+      </c>
+      <c r="BD167">
+        <v>2.33</v>
+      </c>
+      <c r="BE167">
+        <v>8</v>
+      </c>
+      <c r="BF167">
+        <v>1.82</v>
+      </c>
+      <c r="BG167">
+        <v>1.25</v>
+      </c>
+      <c r="BH167">
+        <v>3.42</v>
+      </c>
+      <c r="BI167">
+        <v>1.55</v>
+      </c>
+      <c r="BJ167">
+        <v>2.3</v>
+      </c>
+      <c r="BK167">
+        <v>1.85</v>
+      </c>
+      <c r="BL167">
+        <v>1.95</v>
+      </c>
+      <c r="BM167">
+        <v>2.3</v>
+      </c>
+      <c r="BN167">
+        <v>1.55</v>
+      </c>
+      <c r="BO167">
+        <v>3.2</v>
+      </c>
+      <c r="BP167">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,18 @@
     <t>['62', '88']</t>
   </si>
   <si>
+    <t>['52', '63', '74', '85']</t>
+  </si>
+  <si>
+    <t>['25', '85']</t>
+  </si>
+  <si>
+    <t>['31', '36', '38', '56', '60']</t>
+  </si>
+  <si>
+    <t>['2', '16', '33']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -800,6 +812,21 @@
   </si>
   <si>
     <t>['44', '90+3']</t>
+  </si>
+  <si>
+    <t>['10', '18', '87']</t>
+  </si>
+  <si>
+    <t>['8', '29', '44']</t>
+  </si>
+  <si>
+    <t>['31', '88']</t>
+  </si>
+  <si>
+    <t>['6', '55']</t>
+  </si>
+  <si>
+    <t>['50', '71']</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP167"/>
+  <dimension ref="A1:BP174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1420,7 +1447,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1498,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1626,7 +1653,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1704,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ3">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1832,7 +1859,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1910,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ4">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2038,7 +2065,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2119,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2244,7 +2271,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2325,7 +2352,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ6">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2450,7 +2477,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -2528,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ7">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2734,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ8">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3068,7 +3095,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3480,7 +3507,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -3686,7 +3713,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3764,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ13">
         <v>1.29</v>
@@ -3973,7 +4000,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ14">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>1.73</v>
@@ -4098,7 +4125,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4176,10 +4203,10 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ15">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR15">
         <v>1.31</v>
@@ -4382,10 +4409,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR16">
         <v>1.19</v>
@@ -4716,7 +4743,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4794,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ18">
         <v>1.36</v>
@@ -5334,7 +5361,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5415,7 +5442,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ21">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR21">
         <v>1.23</v>
@@ -5540,7 +5567,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5618,10 +5645,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ22">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR22">
         <v>1.78</v>
@@ -5746,7 +5773,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -5824,10 +5851,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ23">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.57</v>
@@ -5952,7 +5979,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>4.33</v>
@@ -6033,7 +6060,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ24">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR24">
         <v>0.98</v>
@@ -6236,7 +6263,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ25">
         <v>1.29</v>
@@ -6364,7 +6391,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q26">
         <v>1.68</v>
@@ -6445,7 +6472,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ26">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR26">
         <v>1.34</v>
@@ -6570,7 +6597,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6648,10 +6675,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ27">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>1.48</v>
@@ -6776,7 +6803,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6857,7 +6884,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ28">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR28">
         <v>0.99</v>
@@ -7060,7 +7087,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.21</v>
@@ -7188,7 +7215,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7266,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ30">
         <v>0.79</v>
@@ -7394,7 +7421,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7472,10 +7499,10 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ31">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7600,7 +7627,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7678,7 +7705,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ32">
         <v>1.36</v>
@@ -7806,7 +7833,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -7887,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
         <v>1.23</v>
@@ -8012,7 +8039,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8093,7 +8120,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ34">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR34">
         <v>1.53</v>
@@ -8218,7 +8245,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8296,10 +8323,10 @@
         <v>2.33</v>
       </c>
       <c r="AP35">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ35">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.35</v>
@@ -8505,7 +8532,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ36">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR36">
         <v>1.98</v>
@@ -8708,10 +8735,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR37">
         <v>1.34</v>
@@ -8836,7 +8863,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8914,7 +8941,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ38">
         <v>1.29</v>
@@ -9042,7 +9069,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9123,7 +9150,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ39">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR39">
         <v>1.06</v>
@@ -9248,7 +9275,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9329,7 +9356,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ40">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9454,7 +9481,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9660,7 +9687,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9738,7 +9765,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ42">
         <v>1.21</v>
@@ -9866,7 +9893,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -9944,7 +9971,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ43">
         <v>1.29</v>
@@ -10072,7 +10099,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>3.25</v>
@@ -10278,7 +10305,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -10359,7 +10386,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ45">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR45">
         <v>1.83</v>
@@ -10562,10 +10589,10 @@
         <v>0.67</v>
       </c>
       <c r="AP46">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ46">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR46">
         <v>1.4</v>
@@ -10974,7 +11001,7 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>1.36</v>
@@ -11102,7 +11129,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11180,10 +11207,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ49">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR49">
         <v>2.07</v>
@@ -11308,7 +11335,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11386,7 +11413,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ50">
         <v>1.29</v>
@@ -11595,7 +11622,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ51">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
         <v>0.99</v>
@@ -11720,7 +11747,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q52">
         <v>9.5</v>
@@ -11801,7 +11828,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ52">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AR52">
         <v>1.15</v>
@@ -12210,10 +12237,10 @@
         <v>1.25</v>
       </c>
       <c r="AP54">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ54">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR54">
         <v>1.23</v>
@@ -12416,10 +12443,10 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ55">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR55">
         <v>1.51</v>
@@ -12544,7 +12571,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12625,7 +12652,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ56">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR56">
         <v>1.03</v>
@@ -12828,7 +12855,7 @@
         <v>0.8</v>
       </c>
       <c r="AP57">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ57">
         <v>0.79</v>
@@ -13034,10 +13061,10 @@
         <v>1.2</v>
       </c>
       <c r="AP58">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ58">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR58">
         <v>1.4</v>
@@ -13162,7 +13189,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13240,10 +13267,10 @@
         <v>2.5</v>
       </c>
       <c r="AP59">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ59">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR59">
         <v>1.25</v>
@@ -13446,10 +13473,10 @@
         <v>1.2</v>
       </c>
       <c r="AP60">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR60">
         <v>1.37</v>
@@ -13574,7 +13601,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13652,10 +13679,10 @@
         <v>2.6</v>
       </c>
       <c r="AP61">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ61">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -13780,7 +13807,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13986,7 +14013,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14273,7 +14300,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ64">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR64">
         <v>1.02</v>
@@ -14604,7 +14631,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14810,7 +14837,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14888,10 +14915,10 @@
         <v>1.8</v>
       </c>
       <c r="AP67">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ67">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR67">
         <v>1.88</v>
@@ -15094,7 +15121,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ68">
         <v>0.79</v>
@@ -15509,7 +15536,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ70">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR70">
         <v>1.71</v>
@@ -15634,7 +15661,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -16046,7 +16073,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16124,7 +16151,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ73">
         <v>1.29</v>
@@ -16330,10 +16357,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ74">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>1.26</v>
@@ -16536,10 +16563,10 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ75">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR75">
         <v>1.47</v>
@@ -16664,7 +16691,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>7.5</v>
@@ -16745,7 +16772,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -16870,7 +16897,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>4.33</v>
@@ -16951,7 +16978,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ77">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR77">
         <v>1.52</v>
@@ -17076,7 +17103,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17154,10 +17181,10 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ78">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR78">
         <v>1.2</v>
@@ -17360,10 +17387,10 @@
         <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR79">
         <v>1.46</v>
@@ -17488,7 +17515,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>3.5</v>
@@ -17569,7 +17596,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -17772,10 +17799,10 @@
         <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ81">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR81">
         <v>1.28</v>
@@ -17900,7 +17927,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -18312,7 +18339,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18390,10 +18417,10 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ84">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR84">
         <v>1.33</v>
@@ -18596,10 +18623,10 @@
         <v>2.43</v>
       </c>
       <c r="AP85">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ85">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AR85">
         <v>1.41</v>
@@ -18724,7 +18751,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19008,7 +19035,7 @@
         <v>0.57</v>
       </c>
       <c r="AP87">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
         <v>0.79</v>
@@ -19217,7 +19244,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ88">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR88">
         <v>1.48</v>
@@ -19420,7 +19447,7 @@
         <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ89">
         <v>1.21</v>
@@ -19548,7 +19575,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19629,7 +19656,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ90">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
         <v>1.41</v>
@@ -19832,10 +19859,10 @@
         <v>0.86</v>
       </c>
       <c r="AP91">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ91">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR91">
         <v>1.81</v>
@@ -19960,7 +19987,7 @@
         <v>141</v>
       </c>
       <c r="P92" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20041,7 +20068,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ92">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR92">
         <v>1.24</v>
@@ -20450,7 +20477,7 @@
         <v>1.14</v>
       </c>
       <c r="AP94">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ94">
         <v>1.29</v>
@@ -20656,7 +20683,7 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ95">
         <v>1.36</v>
@@ -20784,7 +20811,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q96">
         <v>5.5</v>
@@ -20865,7 +20892,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR96">
         <v>1.28</v>
@@ -21071,7 +21098,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ97">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR97">
         <v>1.41</v>
@@ -21274,10 +21301,10 @@
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ98">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
@@ -21402,7 +21429,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21480,7 +21507,7 @@
         <v>1.13</v>
       </c>
       <c r="AP99">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ99">
         <v>1.21</v>
@@ -21608,7 +21635,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21814,7 +21841,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22098,7 +22125,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ102">
         <v>1.29</v>
@@ -22307,7 +22334,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ103">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR103">
         <v>1.57</v>
@@ -22432,7 +22459,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22513,7 +22540,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ104">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -22716,7 +22743,7 @@
         <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ105">
         <v>1.36</v>
@@ -22844,7 +22871,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22925,7 +22952,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ106">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR106">
         <v>1.48</v>
@@ -23050,7 +23077,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q107">
         <v>2.4</v>
@@ -23131,7 +23158,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR107">
         <v>1.26</v>
@@ -23256,7 +23283,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>3.75</v>
@@ -23334,10 +23361,10 @@
         <v>1.75</v>
       </c>
       <c r="AP108">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ108">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR108">
         <v>1.31</v>
@@ -23462,7 +23489,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23540,10 +23567,10 @@
         <v>1.88</v>
       </c>
       <c r="AP109">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR109">
         <v>1.48</v>
@@ -23668,7 +23695,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -23746,7 +23773,7 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ110">
         <v>0.79</v>
@@ -23952,10 +23979,10 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ111">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR111">
         <v>1.44</v>
@@ -24161,7 +24188,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ112">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AR112">
         <v>1.27</v>
@@ -24286,7 +24313,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>4.33</v>
@@ -24367,7 +24394,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ113">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR113">
         <v>0.96</v>
@@ -24570,7 +24597,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ114">
         <v>1.29</v>
@@ -24779,7 +24806,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ115">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR115">
         <v>1.67</v>
@@ -24985,7 +25012,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ116">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR116">
         <v>1.6</v>
@@ -25188,7 +25215,7 @@
         <v>1.11</v>
       </c>
       <c r="AP117">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>1.29</v>
@@ -25316,7 +25343,7 @@
         <v>120</v>
       </c>
       <c r="P118" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q118">
         <v>3.16</v>
@@ -25522,7 +25549,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q119">
         <v>5.5</v>
@@ -25603,7 +25630,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR119">
         <v>1.27</v>
@@ -25806,10 +25833,10 @@
         <v>0.78</v>
       </c>
       <c r="AP120">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ120">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR120">
         <v>1.3</v>
@@ -26012,7 +26039,7 @@
         <v>1.11</v>
       </c>
       <c r="AP121">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ121">
         <v>1.21</v>
@@ -26221,7 +26248,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ122">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR122">
         <v>1.69</v>
@@ -26552,7 +26579,7 @@
         <v>103</v>
       </c>
       <c r="P124" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q124">
         <v>1.57</v>
@@ -26630,10 +26657,10 @@
         <v>0.6</v>
       </c>
       <c r="AP124">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ124">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR124">
         <v>1.75</v>
@@ -26758,7 +26785,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27454,10 +27481,10 @@
         <v>2.2</v>
       </c>
       <c r="AP128">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ128">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AR128">
         <v>1.51</v>
@@ -27582,7 +27609,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q129">
         <v>3.9</v>
@@ -27660,10 +27687,10 @@
         <v>2.1</v>
       </c>
       <c r="AP129">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ129">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR129">
         <v>1.16</v>
@@ -27788,7 +27815,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>3.7</v>
@@ -27866,10 +27893,10 @@
         <v>1.8</v>
       </c>
       <c r="AP130">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ130">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR130">
         <v>1.29</v>
@@ -28075,7 +28102,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ131">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR131">
         <v>0.98</v>
@@ -28278,10 +28305,10 @@
         <v>0.6</v>
       </c>
       <c r="AP132">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ132">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR132">
         <v>1.31</v>
@@ -28484,7 +28511,7 @@
         <v>0.7</v>
       </c>
       <c r="AP133">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ133">
         <v>0.79</v>
@@ -28690,7 +28717,7 @@
         <v>1.27</v>
       </c>
       <c r="AP134">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ134">
         <v>1.29</v>
@@ -28899,7 +28926,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ135">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR135">
         <v>1.23</v>
@@ -29436,7 +29463,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q138">
         <v>4.5</v>
@@ -29514,10 +29541,10 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ138">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR138">
         <v>1.28</v>
@@ -29642,7 +29669,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29926,10 +29953,10 @@
         <v>0.64</v>
       </c>
       <c r="AP140">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ140">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR140">
         <v>1.4</v>
@@ -30054,7 +30081,7 @@
         <v>169</v>
       </c>
       <c r="P141" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30338,10 +30365,10 @@
         <v>0.64</v>
       </c>
       <c r="AP142">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ142">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR142">
         <v>1.29</v>
@@ -30544,10 +30571,10 @@
         <v>1.73</v>
       </c>
       <c r="AP143">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ143">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR143">
         <v>1.51</v>
@@ -30672,7 +30699,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30750,10 +30777,10 @@
         <v>1.73</v>
       </c>
       <c r="AP144">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ144">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR144">
         <v>1.12</v>
@@ -30878,7 +30905,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -30959,7 +30986,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ145">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AR145">
         <v>1.68</v>
@@ -31368,10 +31395,10 @@
         <v>0.67</v>
       </c>
       <c r="AP147">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ147">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR147">
         <v>1.34</v>
@@ -31908,7 +31935,7 @@
         <v>172</v>
       </c>
       <c r="P150" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -31986,7 +32013,7 @@
         <v>1.25</v>
       </c>
       <c r="AP150">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ150">
         <v>1.36</v>
@@ -32114,7 +32141,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32195,7 +32222,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ151">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR151">
         <v>1.78</v>
@@ -32320,7 +32347,7 @@
         <v>174</v>
       </c>
       <c r="P152" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q152">
         <v>4.75</v>
@@ -32398,10 +32425,10 @@
         <v>2.33</v>
       </c>
       <c r="AP152">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ152">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AR152">
         <v>1.51</v>
@@ -32526,7 +32553,7 @@
         <v>86</v>
       </c>
       <c r="P153" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -32607,7 +32634,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ153">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR153">
         <v>1.03</v>
@@ -32810,7 +32837,7 @@
         <v>1.17</v>
       </c>
       <c r="AP154">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ154">
         <v>1.21</v>
@@ -32938,7 +32965,7 @@
         <v>175</v>
       </c>
       <c r="P155" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33019,7 +33046,7 @@
         <v>1</v>
       </c>
       <c r="AQ155">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR155">
         <v>1.29</v>
@@ -33144,7 +33171,7 @@
         <v>161</v>
       </c>
       <c r="P156" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33222,10 +33249,10 @@
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ156">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR156">
         <v>1.08</v>
@@ -33350,7 +33377,7 @@
         <v>176</v>
       </c>
       <c r="P157" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q157">
         <v>2.1</v>
@@ -33428,10 +33455,10 @@
         <v>1.58</v>
       </c>
       <c r="AP157">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ157">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR157">
         <v>1.68</v>
@@ -33637,7 +33664,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ158">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR158">
         <v>1.6</v>
@@ -33840,10 +33867,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP159">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ159">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR159">
         <v>1.23</v>
@@ -34046,7 +34073,7 @@
         <v>0.85</v>
       </c>
       <c r="AP160">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ160">
         <v>0.79</v>
@@ -34174,7 +34201,7 @@
         <v>178</v>
       </c>
       <c r="P161" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34255,7 +34282,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ161">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR161">
         <v>1.41</v>
@@ -34380,7 +34407,7 @@
         <v>179</v>
       </c>
       <c r="P162" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34458,7 +34485,7 @@
         <v>1.23</v>
       </c>
       <c r="AP162">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ162">
         <v>1.36</v>
@@ -34586,7 +34613,7 @@
         <v>180</v>
       </c>
       <c r="P163" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q163">
         <v>1.73</v>
@@ -34667,7 +34694,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ163">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR163">
         <v>1.78</v>
@@ -34792,7 +34819,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q164">
         <v>4.9</v>
@@ -34885,22 +34912,22 @@
         <v>2.25</v>
       </c>
       <c r="AU164">
+        <v>5</v>
+      </c>
+      <c r="AV164">
+        <v>6</v>
+      </c>
+      <c r="AW164">
+        <v>8</v>
+      </c>
+      <c r="AX164">
         <v>4</v>
       </c>
-      <c r="AV164">
-        <v>4</v>
-      </c>
-      <c r="AW164">
-        <v>7</v>
-      </c>
-      <c r="AX164">
-        <v>3</v>
-      </c>
       <c r="AY164">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ164">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA164">
         <v>7</v>
@@ -35097,13 +35124,13 @@
         <v>4</v>
       </c>
       <c r="AW165">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX165">
         <v>3</v>
       </c>
       <c r="AY165">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ165">
         <v>7</v>
@@ -35204,7 +35231,7 @@
         <v>181</v>
       </c>
       <c r="P166" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q166">
         <v>3.56</v>
@@ -35285,7 +35312,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ166">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR166">
         <v>1.24</v>
@@ -35410,7 +35437,7 @@
         <v>171</v>
       </c>
       <c r="P167" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35488,7 +35515,7 @@
         <v>1.15</v>
       </c>
       <c r="AP167">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ167">
         <v>1.29</v>
@@ -35503,22 +35530,22 @@
         <v>2.38</v>
       </c>
       <c r="AU167">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV167">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW167">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX167">
         <v>6</v>
       </c>
       <c r="AY167">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AZ167">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA167">
         <v>3</v>
@@ -35567,6 +35594,1448 @@
       </c>
       <c r="BP167">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7383394</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45406.5625</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+      <c r="G168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H168" t="s">
+        <v>79</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>2</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>4</v>
+      </c>
+      <c r="M168">
+        <v>3</v>
+      </c>
+      <c r="N168">
+        <v>7</v>
+      </c>
+      <c r="O168" t="s">
+        <v>182</v>
+      </c>
+      <c r="P168" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q168">
+        <v>6</v>
+      </c>
+      <c r="R168">
+        <v>2.4</v>
+      </c>
+      <c r="S168">
+        <v>1.95</v>
+      </c>
+      <c r="T168">
+        <v>1.3</v>
+      </c>
+      <c r="U168">
+        <v>3.4</v>
+      </c>
+      <c r="V168">
+        <v>2.5</v>
+      </c>
+      <c r="W168">
+        <v>1.5</v>
+      </c>
+      <c r="X168">
+        <v>6</v>
+      </c>
+      <c r="Y168">
+        <v>1.13</v>
+      </c>
+      <c r="Z168">
+        <v>6</v>
+      </c>
+      <c r="AA168">
+        <v>4.2</v>
+      </c>
+      <c r="AB168">
+        <v>1.4</v>
+      </c>
+      <c r="AC168">
+        <v>1.03</v>
+      </c>
+      <c r="AD168">
+        <v>16</v>
+      </c>
+      <c r="AE168">
+        <v>1.18</v>
+      </c>
+      <c r="AF168">
+        <v>4.05</v>
+      </c>
+      <c r="AG168">
+        <v>1.61</v>
+      </c>
+      <c r="AH168">
+        <v>2.05</v>
+      </c>
+      <c r="AI168">
+        <v>1.91</v>
+      </c>
+      <c r="AJ168">
+        <v>1.91</v>
+      </c>
+      <c r="AK168">
+        <v>2.75</v>
+      </c>
+      <c r="AL168">
+        <v>1.2</v>
+      </c>
+      <c r="AM168">
+        <v>1.1</v>
+      </c>
+      <c r="AN168">
+        <v>1.23</v>
+      </c>
+      <c r="AO168">
+        <v>2.15</v>
+      </c>
+      <c r="AP168">
+        <v>1.36</v>
+      </c>
+      <c r="AQ168">
+        <v>2</v>
+      </c>
+      <c r="AR168">
+        <v>1.26</v>
+      </c>
+      <c r="AS168">
+        <v>1.48</v>
+      </c>
+      <c r="AT168">
+        <v>2.74</v>
+      </c>
+      <c r="AU168">
+        <v>7</v>
+      </c>
+      <c r="AV168">
+        <v>11</v>
+      </c>
+      <c r="AW168">
+        <v>4</v>
+      </c>
+      <c r="AX168">
+        <v>3</v>
+      </c>
+      <c r="AY168">
+        <v>11</v>
+      </c>
+      <c r="AZ168">
+        <v>14</v>
+      </c>
+      <c r="BA168">
+        <v>6</v>
+      </c>
+      <c r="BB168">
+        <v>2</v>
+      </c>
+      <c r="BC168">
+        <v>8</v>
+      </c>
+      <c r="BD168">
+        <v>3.46</v>
+      </c>
+      <c r="BE168">
+        <v>8.5</v>
+      </c>
+      <c r="BF168">
+        <v>1.45</v>
+      </c>
+      <c r="BG168">
+        <v>1.29</v>
+      </c>
+      <c r="BH168">
+        <v>3.14</v>
+      </c>
+      <c r="BI168">
+        <v>1.55</v>
+      </c>
+      <c r="BJ168">
+        <v>2.3</v>
+      </c>
+      <c r="BK168">
+        <v>2</v>
+      </c>
+      <c r="BL168">
+        <v>1.8</v>
+      </c>
+      <c r="BM168">
+        <v>2.4</v>
+      </c>
+      <c r="BN168">
+        <v>1.5</v>
+      </c>
+      <c r="BO168">
+        <v>3.48</v>
+      </c>
+      <c r="BP168">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7383396</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45406.64583333334</v>
+      </c>
+      <c r="F169">
+        <v>6</v>
+      </c>
+      <c r="G169" t="s">
+        <v>76</v>
+      </c>
+      <c r="H169" t="s">
+        <v>77</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>3</v>
+      </c>
+      <c r="K169">
+        <v>4</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>3</v>
+      </c>
+      <c r="N169">
+        <v>4</v>
+      </c>
+      <c r="O169" t="s">
+        <v>141</v>
+      </c>
+      <c r="P169" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q169">
+        <v>3.45</v>
+      </c>
+      <c r="R169">
+        <v>2.27</v>
+      </c>
+      <c r="S169">
+        <v>3.18</v>
+      </c>
+      <c r="T169">
+        <v>1.38</v>
+      </c>
+      <c r="U169">
+        <v>3.12</v>
+      </c>
+      <c r="V169">
+        <v>2.88</v>
+      </c>
+      <c r="W169">
+        <v>1.43</v>
+      </c>
+      <c r="X169">
+        <v>6.25</v>
+      </c>
+      <c r="Y169">
+        <v>1.09</v>
+      </c>
+      <c r="Z169">
+        <v>2.6</v>
+      </c>
+      <c r="AA169">
+        <v>3.2</v>
+      </c>
+      <c r="AB169">
+        <v>2.37</v>
+      </c>
+      <c r="AC169">
+        <v>1.05</v>
+      </c>
+      <c r="AD169">
+        <v>11.75</v>
+      </c>
+      <c r="AE169">
+        <v>1.3</v>
+      </c>
+      <c r="AF169">
+        <v>3.6</v>
+      </c>
+      <c r="AG169">
+        <v>1.83</v>
+      </c>
+      <c r="AH169">
+        <v>1.8</v>
+      </c>
+      <c r="AI169">
+        <v>1.7</v>
+      </c>
+      <c r="AJ169">
+        <v>2.05</v>
+      </c>
+      <c r="AK169">
+        <v>1.52</v>
+      </c>
+      <c r="AL169">
+        <v>1.32</v>
+      </c>
+      <c r="AM169">
+        <v>1.45</v>
+      </c>
+      <c r="AN169">
+        <v>1.23</v>
+      </c>
+      <c r="AO169">
+        <v>2.15</v>
+      </c>
+      <c r="AP169">
+        <v>1.14</v>
+      </c>
+      <c r="AQ169">
+        <v>2.21</v>
+      </c>
+      <c r="AR169">
+        <v>1.66</v>
+      </c>
+      <c r="AS169">
+        <v>1.46</v>
+      </c>
+      <c r="AT169">
+        <v>3.12</v>
+      </c>
+      <c r="AU169">
+        <v>8</v>
+      </c>
+      <c r="AV169">
+        <v>5</v>
+      </c>
+      <c r="AW169">
+        <v>6</v>
+      </c>
+      <c r="AX169">
+        <v>6</v>
+      </c>
+      <c r="AY169">
+        <v>14</v>
+      </c>
+      <c r="AZ169">
+        <v>11</v>
+      </c>
+      <c r="BA169">
+        <v>5</v>
+      </c>
+      <c r="BB169">
+        <v>6</v>
+      </c>
+      <c r="BC169">
+        <v>11</v>
+      </c>
+      <c r="BD169">
+        <v>1.95</v>
+      </c>
+      <c r="BE169">
+        <v>8</v>
+      </c>
+      <c r="BF169">
+        <v>2.1</v>
+      </c>
+      <c r="BG169">
+        <v>1.21</v>
+      </c>
+      <c r="BH169">
+        <v>3.74</v>
+      </c>
+      <c r="BI169">
+        <v>1.45</v>
+      </c>
+      <c r="BJ169">
+        <v>2.55</v>
+      </c>
+      <c r="BK169">
+        <v>1.73</v>
+      </c>
+      <c r="BL169">
+        <v>2</v>
+      </c>
+      <c r="BM169">
+        <v>2.1</v>
+      </c>
+      <c r="BN169">
+        <v>1.65</v>
+      </c>
+      <c r="BO169">
+        <v>2.93</v>
+      </c>
+      <c r="BP169">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7383397</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45408.60416666666</v>
+      </c>
+      <c r="F170">
+        <v>7</v>
+      </c>
+      <c r="G170" t="s">
+        <v>75</v>
+      </c>
+      <c r="H170" t="s">
+        <v>74</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>2</v>
+      </c>
+      <c r="N170">
+        <v>4</v>
+      </c>
+      <c r="O170" t="s">
+        <v>183</v>
+      </c>
+      <c r="P170" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q170">
+        <v>2.4</v>
+      </c>
+      <c r="R170">
+        <v>2.2</v>
+      </c>
+      <c r="S170">
+        <v>4.75</v>
+      </c>
+      <c r="T170">
+        <v>1.4</v>
+      </c>
+      <c r="U170">
+        <v>2.75</v>
+      </c>
+      <c r="V170">
+        <v>2.75</v>
+      </c>
+      <c r="W170">
+        <v>1.4</v>
+      </c>
+      <c r="X170">
+        <v>8</v>
+      </c>
+      <c r="Y170">
+        <v>1.08</v>
+      </c>
+      <c r="Z170">
+        <v>1.91</v>
+      </c>
+      <c r="AA170">
+        <v>3.4</v>
+      </c>
+      <c r="AB170">
+        <v>3.8</v>
+      </c>
+      <c r="AC170">
+        <v>1.06</v>
+      </c>
+      <c r="AD170">
+        <v>8.5</v>
+      </c>
+      <c r="AE170">
+        <v>1.3</v>
+      </c>
+      <c r="AF170">
+        <v>3.35</v>
+      </c>
+      <c r="AG170">
+        <v>2.1</v>
+      </c>
+      <c r="AH170">
+        <v>1.67</v>
+      </c>
+      <c r="AI170">
+        <v>1.8</v>
+      </c>
+      <c r="AJ170">
+        <v>1.95</v>
+      </c>
+      <c r="AK170">
+        <v>1.2</v>
+      </c>
+      <c r="AL170">
+        <v>1.25</v>
+      </c>
+      <c r="AM170">
+        <v>1.95</v>
+      </c>
+      <c r="AN170">
+        <v>1.79</v>
+      </c>
+      <c r="AO170">
+        <v>0.79</v>
+      </c>
+      <c r="AP170">
+        <v>1.73</v>
+      </c>
+      <c r="AQ170">
+        <v>0.8</v>
+      </c>
+      <c r="AR170">
+        <v>1.36</v>
+      </c>
+      <c r="AS170">
+        <v>1.28</v>
+      </c>
+      <c r="AT170">
+        <v>2.64</v>
+      </c>
+      <c r="AU170">
+        <v>4</v>
+      </c>
+      <c r="AV170">
+        <v>4</v>
+      </c>
+      <c r="AW170">
+        <v>5</v>
+      </c>
+      <c r="AX170">
+        <v>4</v>
+      </c>
+      <c r="AY170">
+        <v>9</v>
+      </c>
+      <c r="AZ170">
+        <v>8</v>
+      </c>
+      <c r="BA170">
+        <v>8</v>
+      </c>
+      <c r="BB170">
+        <v>1</v>
+      </c>
+      <c r="BC170">
+        <v>9</v>
+      </c>
+      <c r="BD170">
+        <v>1.59</v>
+      </c>
+      <c r="BE170">
+        <v>8.5</v>
+      </c>
+      <c r="BF170">
+        <v>2.78</v>
+      </c>
+      <c r="BG170">
+        <v>1.18</v>
+      </c>
+      <c r="BH170">
+        <v>4</v>
+      </c>
+      <c r="BI170">
+        <v>1.5</v>
+      </c>
+      <c r="BJ170">
+        <v>2.4</v>
+      </c>
+      <c r="BK170">
+        <v>1.8</v>
+      </c>
+      <c r="BL170">
+        <v>2</v>
+      </c>
+      <c r="BM170">
+        <v>2.2</v>
+      </c>
+      <c r="BN170">
+        <v>1.6</v>
+      </c>
+      <c r="BO170">
+        <v>2.76</v>
+      </c>
+      <c r="BP170">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7383398</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45409.5</v>
+      </c>
+      <c r="F171">
+        <v>7</v>
+      </c>
+      <c r="G171" t="s">
+        <v>71</v>
+      </c>
+      <c r="H171" t="s">
+        <v>78</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
+        <v>2</v>
+      </c>
+      <c r="O171" t="s">
+        <v>86</v>
+      </c>
+      <c r="P171" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q171">
+        <v>2.75</v>
+      </c>
+      <c r="R171">
+        <v>2.05</v>
+      </c>
+      <c r="S171">
+        <v>4.33</v>
+      </c>
+      <c r="T171">
+        <v>1.44</v>
+      </c>
+      <c r="U171">
+        <v>2.63</v>
+      </c>
+      <c r="V171">
+        <v>3.25</v>
+      </c>
+      <c r="W171">
+        <v>1.33</v>
+      </c>
+      <c r="X171">
+        <v>10</v>
+      </c>
+      <c r="Y171">
+        <v>1.06</v>
+      </c>
+      <c r="Z171">
+        <v>2</v>
+      </c>
+      <c r="AA171">
+        <v>3.5</v>
+      </c>
+      <c r="AB171">
+        <v>3.6</v>
+      </c>
+      <c r="AC171">
+        <v>1.06</v>
+      </c>
+      <c r="AD171">
+        <v>8.5</v>
+      </c>
+      <c r="AE171">
+        <v>1.38</v>
+      </c>
+      <c r="AF171">
+        <v>3</v>
+      </c>
+      <c r="AG171">
+        <v>2.2</v>
+      </c>
+      <c r="AH171">
+        <v>1.58</v>
+      </c>
+      <c r="AI171">
+        <v>1.95</v>
+      </c>
+      <c r="AJ171">
+        <v>1.8</v>
+      </c>
+      <c r="AK171">
+        <v>1.28</v>
+      </c>
+      <c r="AL171">
+        <v>1.25</v>
+      </c>
+      <c r="AM171">
+        <v>1.77</v>
+      </c>
+      <c r="AN171">
+        <v>1.36</v>
+      </c>
+      <c r="AO171">
+        <v>0.64</v>
+      </c>
+      <c r="AP171">
+        <v>1.27</v>
+      </c>
+      <c r="AQ171">
+        <v>0.8</v>
+      </c>
+      <c r="AR171">
+        <v>1.24</v>
+      </c>
+      <c r="AS171">
+        <v>1.08</v>
+      </c>
+      <c r="AT171">
+        <v>2.32</v>
+      </c>
+      <c r="AU171">
+        <v>5</v>
+      </c>
+      <c r="AV171">
+        <v>5</v>
+      </c>
+      <c r="AW171">
+        <v>8</v>
+      </c>
+      <c r="AX171">
+        <v>1</v>
+      </c>
+      <c r="AY171">
+        <v>13</v>
+      </c>
+      <c r="AZ171">
+        <v>6</v>
+      </c>
+      <c r="BA171">
+        <v>8</v>
+      </c>
+      <c r="BB171">
+        <v>2</v>
+      </c>
+      <c r="BC171">
+        <v>10</v>
+      </c>
+      <c r="BD171">
+        <v>1.75</v>
+      </c>
+      <c r="BE171">
+        <v>8</v>
+      </c>
+      <c r="BF171">
+        <v>2.44</v>
+      </c>
+      <c r="BG171">
+        <v>1.28</v>
+      </c>
+      <c r="BH171">
+        <v>3.2</v>
+      </c>
+      <c r="BI171">
+        <v>1.5</v>
+      </c>
+      <c r="BJ171">
+        <v>2.4</v>
+      </c>
+      <c r="BK171">
+        <v>1.82</v>
+      </c>
+      <c r="BL171">
+        <v>1.98</v>
+      </c>
+      <c r="BM171">
+        <v>2.2</v>
+      </c>
+      <c r="BN171">
+        <v>1.6</v>
+      </c>
+      <c r="BO171">
+        <v>3.42</v>
+      </c>
+      <c r="BP171">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7383399</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45409.5</v>
+      </c>
+      <c r="F172">
+        <v>7</v>
+      </c>
+      <c r="G172" t="s">
+        <v>73</v>
+      </c>
+      <c r="H172" t="s">
+        <v>80</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172" t="s">
+        <v>86</v>
+      </c>
+      <c r="P172" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q172">
+        <v>2.5</v>
+      </c>
+      <c r="R172">
+        <v>2.1</v>
+      </c>
+      <c r="S172">
+        <v>5</v>
+      </c>
+      <c r="T172">
+        <v>1.44</v>
+      </c>
+      <c r="U172">
+        <v>2.63</v>
+      </c>
+      <c r="V172">
+        <v>3.25</v>
+      </c>
+      <c r="W172">
+        <v>1.33</v>
+      </c>
+      <c r="X172">
+        <v>9</v>
+      </c>
+      <c r="Y172">
+        <v>1.07</v>
+      </c>
+      <c r="Z172">
+        <v>1.8</v>
+      </c>
+      <c r="AA172">
+        <v>3.6</v>
+      </c>
+      <c r="AB172">
+        <v>4.33</v>
+      </c>
+      <c r="AC172">
+        <v>1.06</v>
+      </c>
+      <c r="AD172">
+        <v>8.5</v>
+      </c>
+      <c r="AE172">
+        <v>1.35</v>
+      </c>
+      <c r="AF172">
+        <v>3.1</v>
+      </c>
+      <c r="AG172">
+        <v>1.98</v>
+      </c>
+      <c r="AH172">
+        <v>1.88</v>
+      </c>
+      <c r="AI172">
+        <v>1.95</v>
+      </c>
+      <c r="AJ172">
+        <v>1.8</v>
+      </c>
+      <c r="AK172">
+        <v>1.2</v>
+      </c>
+      <c r="AL172">
+        <v>1.22</v>
+      </c>
+      <c r="AM172">
+        <v>1.95</v>
+      </c>
+      <c r="AN172">
+        <v>1</v>
+      </c>
+      <c r="AO172">
+        <v>0.71</v>
+      </c>
+      <c r="AP172">
+        <v>1</v>
+      </c>
+      <c r="AQ172">
+        <v>0.73</v>
+      </c>
+      <c r="AR172">
+        <v>1.32</v>
+      </c>
+      <c r="AS172">
+        <v>0.74</v>
+      </c>
+      <c r="AT172">
+        <v>2.06</v>
+      </c>
+      <c r="AU172">
+        <v>3</v>
+      </c>
+      <c r="AV172">
+        <v>6</v>
+      </c>
+      <c r="AW172">
+        <v>6</v>
+      </c>
+      <c r="AX172">
+        <v>8</v>
+      </c>
+      <c r="AY172">
+        <v>9</v>
+      </c>
+      <c r="AZ172">
+        <v>14</v>
+      </c>
+      <c r="BA172">
+        <v>5</v>
+      </c>
+      <c r="BB172">
+        <v>11</v>
+      </c>
+      <c r="BC172">
+        <v>16</v>
+      </c>
+      <c r="BD172">
+        <v>1.41</v>
+      </c>
+      <c r="BE172">
+        <v>9</v>
+      </c>
+      <c r="BF172">
+        <v>3.49</v>
+      </c>
+      <c r="BG172">
+        <v>1.21</v>
+      </c>
+      <c r="BH172">
+        <v>3.74</v>
+      </c>
+      <c r="BI172">
+        <v>1.55</v>
+      </c>
+      <c r="BJ172">
+        <v>2.3</v>
+      </c>
+      <c r="BK172">
+        <v>1.85</v>
+      </c>
+      <c r="BL172">
+        <v>1.95</v>
+      </c>
+      <c r="BM172">
+        <v>2.3</v>
+      </c>
+      <c r="BN172">
+        <v>1.55</v>
+      </c>
+      <c r="BO172">
+        <v>2.91</v>
+      </c>
+      <c r="BP172">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7383400</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45410.39583333334</v>
+      </c>
+      <c r="F173">
+        <v>7</v>
+      </c>
+      <c r="G173" t="s">
+        <v>70</v>
+      </c>
+      <c r="H173" t="s">
+        <v>76</v>
+      </c>
+      <c r="I173">
+        <v>3</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>3</v>
+      </c>
+      <c r="L173">
+        <v>5</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>5</v>
+      </c>
+      <c r="O173" t="s">
+        <v>184</v>
+      </c>
+      <c r="P173" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q173">
+        <v>3</v>
+      </c>
+      <c r="R173">
+        <v>2.1</v>
+      </c>
+      <c r="S173">
+        <v>3.6</v>
+      </c>
+      <c r="T173">
+        <v>1.4</v>
+      </c>
+      <c r="U173">
+        <v>2.75</v>
+      </c>
+      <c r="V173">
+        <v>3</v>
+      </c>
+      <c r="W173">
+        <v>1.36</v>
+      </c>
+      <c r="X173">
+        <v>8</v>
+      </c>
+      <c r="Y173">
+        <v>1.08</v>
+      </c>
+      <c r="Z173">
+        <v>6.68</v>
+      </c>
+      <c r="AA173">
+        <v>4.08</v>
+      </c>
+      <c r="AB173">
+        <v>1.4</v>
+      </c>
+      <c r="AC173">
+        <v>1.05</v>
+      </c>
+      <c r="AD173">
+        <v>9</v>
+      </c>
+      <c r="AE173">
+        <v>1.3</v>
+      </c>
+      <c r="AF173">
+        <v>3.4</v>
+      </c>
+      <c r="AG173">
+        <v>1.92</v>
+      </c>
+      <c r="AH173">
+        <v>1.94</v>
+      </c>
+      <c r="AI173">
+        <v>1.75</v>
+      </c>
+      <c r="AJ173">
+        <v>2</v>
+      </c>
+      <c r="AK173">
+        <v>1.35</v>
+      </c>
+      <c r="AL173">
+        <v>1.28</v>
+      </c>
+      <c r="AM173">
+        <v>1.62</v>
+      </c>
+      <c r="AN173">
+        <v>1.93</v>
+      </c>
+      <c r="AO173">
+        <v>1.64</v>
+      </c>
+      <c r="AP173">
+        <v>2</v>
+      </c>
+      <c r="AQ173">
+        <v>1.53</v>
+      </c>
+      <c r="AR173">
+        <v>1.47</v>
+      </c>
+      <c r="AS173">
+        <v>1.55</v>
+      </c>
+      <c r="AT173">
+        <v>3.02</v>
+      </c>
+      <c r="AU173">
+        <v>0</v>
+      </c>
+      <c r="AV173">
+        <v>0</v>
+      </c>
+      <c r="AW173">
+        <v>0</v>
+      </c>
+      <c r="AX173">
+        <v>2</v>
+      </c>
+      <c r="AY173">
+        <v>0</v>
+      </c>
+      <c r="AZ173">
+        <v>2</v>
+      </c>
+      <c r="BA173">
+        <v>3</v>
+      </c>
+      <c r="BB173">
+        <v>7</v>
+      </c>
+      <c r="BC173">
+        <v>10</v>
+      </c>
+      <c r="BD173">
+        <v>1.95</v>
+      </c>
+      <c r="BE173">
+        <v>8</v>
+      </c>
+      <c r="BF173">
+        <v>2.1</v>
+      </c>
+      <c r="BG173">
+        <v>1.23</v>
+      </c>
+      <c r="BH173">
+        <v>3.56</v>
+      </c>
+      <c r="BI173">
+        <v>1.44</v>
+      </c>
+      <c r="BJ173">
+        <v>2.57</v>
+      </c>
+      <c r="BK173">
+        <v>1.8</v>
+      </c>
+      <c r="BL173">
+        <v>2</v>
+      </c>
+      <c r="BM173">
+        <v>2.27</v>
+      </c>
+      <c r="BN173">
+        <v>1.56</v>
+      </c>
+      <c r="BO173">
+        <v>3.04</v>
+      </c>
+      <c r="BP173">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7383401</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45410.39583333334</v>
+      </c>
+      <c r="F174">
+        <v>7</v>
+      </c>
+      <c r="G174" t="s">
+        <v>72</v>
+      </c>
+      <c r="H174" t="s">
+        <v>81</v>
+      </c>
+      <c r="I174">
+        <v>3</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>3</v>
+      </c>
+      <c r="L174">
+        <v>3</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>5</v>
+      </c>
+      <c r="O174" t="s">
+        <v>185</v>
+      </c>
+      <c r="P174" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q174">
+        <v>3</v>
+      </c>
+      <c r="R174">
+        <v>2.1</v>
+      </c>
+      <c r="S174">
+        <v>3.75</v>
+      </c>
+      <c r="T174">
+        <v>1.44</v>
+      </c>
+      <c r="U174">
+        <v>2.63</v>
+      </c>
+      <c r="V174">
+        <v>3.25</v>
+      </c>
+      <c r="W174">
+        <v>1.33</v>
+      </c>
+      <c r="X174">
+        <v>9</v>
+      </c>
+      <c r="Y174">
+        <v>1.07</v>
+      </c>
+      <c r="Z174">
+        <v>2.06</v>
+      </c>
+      <c r="AA174">
+        <v>3.5</v>
+      </c>
+      <c r="AB174">
+        <v>3.25</v>
+      </c>
+      <c r="AC174">
+        <v>1.06</v>
+      </c>
+      <c r="AD174">
+        <v>10</v>
+      </c>
+      <c r="AE174">
+        <v>1.33</v>
+      </c>
+      <c r="AF174">
+        <v>3.25</v>
+      </c>
+      <c r="AG174">
+        <v>1.92</v>
+      </c>
+      <c r="AH174">
+        <v>1.94</v>
+      </c>
+      <c r="AI174">
+        <v>1.8</v>
+      </c>
+      <c r="AJ174">
+        <v>1.95</v>
+      </c>
+      <c r="AK174">
+        <v>1.36</v>
+      </c>
+      <c r="AL174">
+        <v>1.28</v>
+      </c>
+      <c r="AM174">
+        <v>1.63</v>
+      </c>
+      <c r="AN174">
+        <v>1.36</v>
+      </c>
+      <c r="AO174">
+        <v>1.43</v>
+      </c>
+      <c r="AP174">
+        <v>1.47</v>
+      </c>
+      <c r="AQ174">
+        <v>1.33</v>
+      </c>
+      <c r="AR174">
+        <v>1.08</v>
+      </c>
+      <c r="AS174">
+        <v>1.11</v>
+      </c>
+      <c r="AT174">
+        <v>2.19</v>
+      </c>
+      <c r="AU174">
+        <v>3</v>
+      </c>
+      <c r="AV174">
+        <v>2</v>
+      </c>
+      <c r="AW174">
+        <v>2</v>
+      </c>
+      <c r="AX174">
+        <v>0</v>
+      </c>
+      <c r="AY174">
+        <v>5</v>
+      </c>
+      <c r="AZ174">
+        <v>2</v>
+      </c>
+      <c r="BA174">
+        <v>2</v>
+      </c>
+      <c r="BB174">
+        <v>0</v>
+      </c>
+      <c r="BC174">
+        <v>2</v>
+      </c>
+      <c r="BD174">
+        <v>1.95</v>
+      </c>
+      <c r="BE174">
+        <v>8</v>
+      </c>
+      <c r="BF174">
+        <v>2.1</v>
+      </c>
+      <c r="BG174">
+        <v>1.28</v>
+      </c>
+      <c r="BH174">
+        <v>3.2</v>
+      </c>
+      <c r="BI174">
+        <v>1.53</v>
+      </c>
+      <c r="BJ174">
+        <v>2.34</v>
+      </c>
+      <c r="BK174">
+        <v>1.9</v>
+      </c>
+      <c r="BL174">
+        <v>1.9</v>
+      </c>
+      <c r="BM174">
+        <v>2.49</v>
+      </c>
+      <c r="BN174">
+        <v>1.47</v>
+      </c>
+      <c r="BO174">
+        <v>3.42</v>
+      </c>
+      <c r="BP174">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,9 @@
     <t>['2', '16', '33']</t>
   </si>
   <si>
+    <t>['72', '82']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -827,6 +830,9 @@
   </si>
   <si>
     <t>['50', '71']</t>
+  </si>
+  <si>
+    <t>['1', '34']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP174"/>
+  <dimension ref="A1:BP175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1447,7 +1453,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1653,7 +1659,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1859,7 +1865,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2065,7 +2071,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2271,7 +2277,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2477,7 +2483,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>3.75</v>
@@ -2558,7 +2564,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ7">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3095,7 +3101,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3379,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ11">
         <v>0.79</v>
@@ -3507,7 +3513,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -3713,7 +3719,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -4125,7 +4131,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q15">
         <v>2.55</v>
@@ -4615,7 +4621,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ17">
         <v>1.21</v>
@@ -4743,7 +4749,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -5361,7 +5367,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5442,7 +5448,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ21">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR21">
         <v>1.23</v>
@@ -5567,7 +5573,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5773,7 +5779,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -5979,7 +5985,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>4.33</v>
@@ -6391,7 +6397,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q26">
         <v>1.68</v>
@@ -6597,7 +6603,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6803,7 +6809,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7215,7 +7221,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7421,7 +7427,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7627,7 +7633,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7833,7 +7839,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -8039,7 +8045,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8120,7 +8126,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ34">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR34">
         <v>1.53</v>
@@ -8245,7 +8251,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8529,7 +8535,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ36">
         <v>1.53</v>
@@ -8863,7 +8869,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9069,7 +9075,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9275,7 +9281,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9481,7 +9487,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9687,7 +9693,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9893,7 +9899,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -10099,7 +10105,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>3.25</v>
@@ -10305,7 +10311,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -10383,7 +10389,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ45">
         <v>0.8</v>
@@ -11129,7 +11135,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11210,7 +11216,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ49">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR49">
         <v>2.07</v>
@@ -11335,7 +11341,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11747,7 +11753,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q52">
         <v>9.5</v>
@@ -12571,7 +12577,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -13189,7 +13195,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13270,7 +13276,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ59">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR59">
         <v>1.25</v>
@@ -13601,7 +13607,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q61">
         <v>7.5</v>
@@ -13807,7 +13813,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13885,7 +13891,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ62">
         <v>1.29</v>
@@ -14013,7 +14019,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14631,7 +14637,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q66">
         <v>4.33</v>
@@ -14837,7 +14843,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15533,7 +15539,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ70">
         <v>0.8</v>
@@ -15661,7 +15667,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q71">
         <v>4.33</v>
@@ -16073,7 +16079,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16691,7 +16697,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>7.5</v>
@@ -16897,7 +16903,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q77">
         <v>4.33</v>
@@ -17103,7 +17109,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17390,7 +17396,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR79">
         <v>1.46</v>
@@ -17515,7 +17521,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q80">
         <v>3.5</v>
@@ -17927,7 +17933,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -18339,7 +18345,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18420,7 +18426,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ84">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR84">
         <v>1.33</v>
@@ -18751,7 +18757,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18829,7 +18835,7 @@
         <v>1.83</v>
       </c>
       <c r="AP86">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ86">
         <v>1.36</v>
@@ -19575,7 +19581,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19987,7 +19993,7 @@
         <v>141</v>
       </c>
       <c r="P92" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20068,7 +20074,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ92">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR92">
         <v>1.24</v>
@@ -20271,7 +20277,7 @@
         <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ93">
         <v>1.29</v>
@@ -20811,7 +20817,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>5.5</v>
@@ -21429,7 +21435,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21635,7 +21641,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21841,7 +21847,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22459,7 +22465,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22537,10 +22543,10 @@
         <v>2.13</v>
       </c>
       <c r="AP104">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ104">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -22871,7 +22877,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23077,7 +23083,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>2.4</v>
@@ -23283,7 +23289,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>3.75</v>
@@ -23489,7 +23495,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23695,7 +23701,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -24313,7 +24319,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>4.33</v>
@@ -25009,7 +25015,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ116">
         <v>0.73</v>
@@ -25343,7 +25349,7 @@
         <v>120</v>
       </c>
       <c r="P118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>3.16</v>
@@ -25549,7 +25555,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q119">
         <v>5.5</v>
@@ -25630,7 +25636,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR119">
         <v>1.27</v>
@@ -26245,7 +26251,7 @@
         <v>1.9</v>
       </c>
       <c r="AP122">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ122">
         <v>1.33</v>
@@ -26579,7 +26585,7 @@
         <v>103</v>
       </c>
       <c r="P124" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q124">
         <v>1.57</v>
@@ -26785,7 +26791,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27609,7 +27615,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q129">
         <v>3.9</v>
@@ -27690,7 +27696,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ129">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR129">
         <v>1.16</v>
@@ -27815,7 +27821,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q130">
         <v>3.7</v>
@@ -29463,7 +29469,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q138">
         <v>4.5</v>
@@ -29544,7 +29550,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ138">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR138">
         <v>1.28</v>
@@ -29669,7 +29675,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29747,7 +29753,7 @@
         <v>1.36</v>
       </c>
       <c r="AP139">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ139">
         <v>1.36</v>
@@ -30081,7 +30087,7 @@
         <v>169</v>
       </c>
       <c r="P141" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30699,7 +30705,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30905,7 +30911,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31935,7 +31941,7 @@
         <v>172</v>
       </c>
       <c r="P150" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32141,7 +32147,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32219,7 +32225,7 @@
         <v>1.83</v>
       </c>
       <c r="AP151">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ151">
         <v>1.53</v>
@@ -32347,7 +32353,7 @@
         <v>174</v>
       </c>
       <c r="P152" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q152">
         <v>4.75</v>
@@ -32553,7 +32559,7 @@
         <v>86</v>
       </c>
       <c r="P153" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -32965,7 +32971,7 @@
         <v>175</v>
       </c>
       <c r="P155" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33171,7 +33177,7 @@
         <v>161</v>
       </c>
       <c r="P156" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33252,7 +33258,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ156">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR156">
         <v>1.08</v>
@@ -33377,7 +33383,7 @@
         <v>176</v>
       </c>
       <c r="P157" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q157">
         <v>2.1</v>
@@ -34201,7 +34207,7 @@
         <v>178</v>
       </c>
       <c r="P161" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -34407,7 +34413,7 @@
         <v>179</v>
       </c>
       <c r="P162" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34613,7 +34619,7 @@
         <v>180</v>
       </c>
       <c r="P163" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q163">
         <v>1.73</v>
@@ -34691,7 +34697,7 @@
         <v>1.54</v>
       </c>
       <c r="AP163">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ163">
         <v>1.33</v>
@@ -34819,7 +34825,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q164">
         <v>4.9</v>
@@ -35231,7 +35237,7 @@
         <v>181</v>
       </c>
       <c r="P166" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q166">
         <v>3.56</v>
@@ -35437,7 +35443,7 @@
         <v>171</v>
       </c>
       <c r="P167" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35643,7 +35649,7 @@
         <v>182</v>
       </c>
       <c r="P168" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -35849,7 +35855,7 @@
         <v>141</v>
       </c>
       <c r="P169" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q169">
         <v>3.45</v>
@@ -35930,7 +35936,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ169">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR169">
         <v>1.66</v>
@@ -36055,7 +36061,7 @@
         <v>183</v>
       </c>
       <c r="P170" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q170">
         <v>2.4</v>
@@ -36261,7 +36267,7 @@
         <v>86</v>
       </c>
       <c r="P171" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q171">
         <v>2.75</v>
@@ -36766,31 +36772,31 @@
         <v>3.02</v>
       </c>
       <c r="AU173">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX173">
         <v>2</v>
       </c>
       <c r="AY173">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AZ173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB173">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC173">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD173">
         <v>1.95</v>
@@ -36879,7 +36885,7 @@
         <v>185</v>
       </c>
       <c r="P174" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -36972,31 +36978,31 @@
         <v>2.19</v>
       </c>
       <c r="AU174">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV174">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW174">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY174">
+        <v>14</v>
+      </c>
+      <c r="AZ174">
+        <v>8</v>
+      </c>
+      <c r="BA174">
         <v>5</v>
       </c>
-      <c r="AZ174">
-        <v>2</v>
-      </c>
-      <c r="BA174">
-        <v>2</v>
-      </c>
       <c r="BB174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC174">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BD174">
         <v>1.95</v>
@@ -37036,6 +37042,212 @@
       </c>
       <c r="BP174">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7383402</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45410.5</v>
+      </c>
+      <c r="F175">
+        <v>7</v>
+      </c>
+      <c r="G175" t="s">
+        <v>79</v>
+      </c>
+      <c r="H175" t="s">
+        <v>77</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>2</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>2</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175" t="s">
+        <v>186</v>
+      </c>
+      <c r="P175" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q175">
+        <v>2.4</v>
+      </c>
+      <c r="R175">
+        <v>2.25</v>
+      </c>
+      <c r="S175">
+        <v>4.5</v>
+      </c>
+      <c r="T175">
+        <v>1.36</v>
+      </c>
+      <c r="U175">
+        <v>3</v>
+      </c>
+      <c r="V175">
+        <v>2.63</v>
+      </c>
+      <c r="W175">
+        <v>1.44</v>
+      </c>
+      <c r="X175">
+        <v>7</v>
+      </c>
+      <c r="Y175">
+        <v>1.1</v>
+      </c>
+      <c r="Z175">
+        <v>1.96</v>
+      </c>
+      <c r="AA175">
+        <v>3.14</v>
+      </c>
+      <c r="AB175">
+        <v>3.34</v>
+      </c>
+      <c r="AC175">
+        <v>1.04</v>
+      </c>
+      <c r="AD175">
+        <v>10.5</v>
+      </c>
+      <c r="AE175">
+        <v>1.22</v>
+      </c>
+      <c r="AF175">
+        <v>3.66</v>
+      </c>
+      <c r="AG175">
+        <v>1.96</v>
+      </c>
+      <c r="AH175">
+        <v>1.88</v>
+      </c>
+      <c r="AI175">
+        <v>1.7</v>
+      </c>
+      <c r="AJ175">
+        <v>2.05</v>
+      </c>
+      <c r="AK175">
+        <v>1.22</v>
+      </c>
+      <c r="AL175">
+        <v>1.22</v>
+      </c>
+      <c r="AM175">
+        <v>2.05</v>
+      </c>
+      <c r="AN175">
+        <v>2.29</v>
+      </c>
+      <c r="AO175">
+        <v>2.21</v>
+      </c>
+      <c r="AP175">
+        <v>2.2</v>
+      </c>
+      <c r="AQ175">
+        <v>2.13</v>
+      </c>
+      <c r="AR175">
+        <v>1.83</v>
+      </c>
+      <c r="AS175">
+        <v>1.45</v>
+      </c>
+      <c r="AT175">
+        <v>3.28</v>
+      </c>
+      <c r="AU175">
+        <v>6</v>
+      </c>
+      <c r="AV175">
+        <v>3</v>
+      </c>
+      <c r="AW175">
+        <v>13</v>
+      </c>
+      <c r="AX175">
+        <v>5</v>
+      </c>
+      <c r="AY175">
+        <v>19</v>
+      </c>
+      <c r="AZ175">
+        <v>8</v>
+      </c>
+      <c r="BA175">
+        <v>8</v>
+      </c>
+      <c r="BB175">
+        <v>1</v>
+      </c>
+      <c r="BC175">
+        <v>9</v>
+      </c>
+      <c r="BD175">
+        <v>1.64</v>
+      </c>
+      <c r="BE175">
+        <v>8</v>
+      </c>
+      <c r="BF175">
+        <v>2.67</v>
+      </c>
+      <c r="BG175">
+        <v>1.26</v>
+      </c>
+      <c r="BH175">
+        <v>3.34</v>
+      </c>
+      <c r="BI175">
+        <v>1.5</v>
+      </c>
+      <c r="BJ175">
+        <v>2.41</v>
+      </c>
+      <c r="BK175">
+        <v>1.85</v>
+      </c>
+      <c r="BL175">
+        <v>1.95</v>
+      </c>
+      <c r="BM175">
+        <v>2.44</v>
+      </c>
+      <c r="BN175">
+        <v>1.49</v>
+      </c>
+      <c r="BO175">
+        <v>3.28</v>
+      </c>
+      <c r="BP175">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>
